--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77EED00-76EC-450B-8B4B-E5A7E8B4D12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98969A0A-E924-48DA-9139-A03DB7AB7436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="126">
   <si>
     <t>Address</t>
   </si>
@@ -497,31 +497,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стол для переговоров
-Артикул 200
-Продается офисный стол для переговоров б/у, большого размера, вместимостью до 10 человек. Стол выполнен из прочного ЛДСП толщиной 32 мм, что обеспечивает его долговечность и устойчивость. Цвет "орех" придает столу стильный и презентабельный вид, идеально подходящий для серьезных деловых переговоров и совещаний.
-Этот стол станет отличным дополнением для конференц-зала или переговорной комнаты, создавая комфортное и функциональное пространство для общения и работы
-Размеры ДхШхВ: 245х117х75
-Цвет орех
-Цена 20 000 руб
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Офисная мебель
 Артикул 198
 Комплект офисной мебели бу в отличном состоянии — идеальное решение для создания функционального рабочего пространства. В комплект входит просторный офисный стол на прочных металлических ногах, обеспечивающий устойчивость и удобство работы. Шкаф для документов и одежды позволяет хранить важные бумаги и личные вещи, поддерживая порядок в офисе. Дополнительно комплект включает тумбу под оргтехнику, которая оптимизирует использование пространства для размещения принтера, сканера и другой техники.
@@ -673,9 +648,6 @@
     <t>https://disk.yandex.ru/i/DwPfKQ5NYExm7g | https://disk.yandex.ru/i/N8CR9H4hx4_Nfw | https://disk.yandex.ru/i/ARqSJ75wjL2aJQ | https://disk.yandex.ru/i/Ckj1r6pMiuvyAA | https://disk.yandex.ru/i/O3NHI8YdsViOqg | https://disk.yandex.ru/i/837ttFJ5mxdcww | https://disk.yandex.ru/i/-HaQezqef6q6Hw | https://disk.yandex.ru/i/tYSyR-voRILiwQ | https://disk.yandex.ru/i/tHUxGJcrOTuCaA | https://disk.yandex.ru/i/9TTP43xT6BwUbA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/NcoKc0h4wXjxkg | https://disk.yandex.ru/i/bgqWeZdu5pdL4A | https://disk.yandex.ru/i/8tljgt4XDFf5ZA | https://disk.yandex.ru/i/yuTusiTisXghJg | https://disk.yandex.ru/i/h88orsajGgCoZg | https://disk.yandex.ru/i/LARm_FAX2m2Cjw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/kvi6IHmS7m1wbw | https://disk.yandex.ru/i/62eO7qJIEpJKOw | https://disk.yandex.ru/i/jOuAy3sQL4dJsA | https://disk.yandex.ru/i/8jPMTAmwjG_cCw | https://disk.yandex.ru/i/VNeJPg_8ycy3og | https://disk.yandex.ru/i/MIp3PdPIo5giAA | https://disk.yandex.ru/i/BtEq6CItf1ngVg | https://disk.yandex.ru/i/Lnkq5ouncmoLGQ</t>
   </si>
   <si>
@@ -731,9 +703,6 @@
     <t>Разноцветный</t>
   </si>
   <si>
-    <t>Красный</t>
-  </si>
-  <si>
     <t>Бежевый</t>
   </si>
   <si>
@@ -799,9 +768,6 @@
   </si>
   <si>
     <t>Кабинет | Кухня</t>
-  </si>
-  <si>
-    <t>Кабинет | Кухня | Бар/Кафе</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS20"/>
+  <dimension ref="A1:AS19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,10 +1382,10 @@
         <v>45</v>
       </c>
       <c r="AD2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF2" t="s">
         <v>46</v>
@@ -1431,31 +1397,31 @@
         <v>45</v>
       </c>
       <c r="AI2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AJ2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AL2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AM2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AN2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AO2" t="s">
         <v>46</v>
       </c>
       <c r="AP2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AQ2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AR2" t="s">
         <v>46</v>
@@ -1475,40 +1441,40 @@
         <v>59999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" t="s">
         <v>92</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AB3" t="s">
         <v>93</v>
       </c>
-      <c r="AA3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>95</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>97</v>
       </c>
-      <c r="AD3" t="s">
-        <v>99</v>
-      </c>
       <c r="AE3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AH3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AJ3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AK3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL3">
         <v>88</v>
@@ -1520,16 +1486,16 @@
         <v>180</v>
       </c>
       <c r="AP3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AQ3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AR3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AS3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1543,40 +1509,40 @@
         <v>24999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" t="s">
         <v>92</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AB4" t="s">
         <v>93</v>
       </c>
-      <c r="AA4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>95</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>99</v>
       </c>
-      <c r="AE4" t="s">
-        <v>101</v>
-      </c>
       <c r="AH4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AK4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -1588,16 +1554,16 @@
         <v>170</v>
       </c>
       <c r="AP4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AQ4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AR4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AS4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1611,40 +1577,40 @@
         <v>4999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" t="s">
         <v>92</v>
       </c>
-      <c r="S5" t="s">
+      <c r="AB5" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>95</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>97</v>
       </c>
-      <c r="AD5" t="s">
-        <v>99</v>
-      </c>
       <c r="AE5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK5" t="s">
         <v>116</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>119</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1656,13 +1622,13 @@
         <v>80</v>
       </c>
       <c r="AP5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AQ5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AS5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1676,40 +1642,40 @@
         <v>99999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA6" t="s">
         <v>92</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AB6" t="s">
         <v>93</v>
       </c>
-      <c r="AA6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>95</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>97</v>
       </c>
-      <c r="AD6" t="s">
-        <v>99</v>
-      </c>
       <c r="AE6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AH6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK6" t="s">
         <v>116</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>119</v>
       </c>
       <c r="AL6">
         <v>200</v>
@@ -1721,13 +1687,13 @@
         <v>200</v>
       </c>
       <c r="AP6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AQ6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AS6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -1741,40 +1707,40 @@
         <v>19999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA7" t="s">
         <v>92</v>
       </c>
-      <c r="S7" t="s">
+      <c r="AB7" t="s">
         <v>93</v>
       </c>
-      <c r="AA7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>95</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>97</v>
       </c>
-      <c r="AD7" t="s">
-        <v>99</v>
-      </c>
       <c r="AE7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AK7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1786,16 +1752,16 @@
         <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AQ7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AR7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AS7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -1809,40 +1775,40 @@
         <v>9999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA8" t="s">
         <v>92</v>
       </c>
-      <c r="S8" t="s">
+      <c r="AB8" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>95</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>97</v>
       </c>
-      <c r="AD8" t="s">
-        <v>99</v>
-      </c>
       <c r="AE8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AH8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AJ8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK8" t="s">
         <v>116</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>119</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -1854,13 +1820,13 @@
         <v>80</v>
       </c>
       <c r="AP8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AQ8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS8" t="s">
         <v>124</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -1874,40 +1840,40 @@
         <v>50000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA9" t="s">
         <v>92</v>
       </c>
-      <c r="S9" t="s">
+      <c r="AB9" t="s">
         <v>93</v>
       </c>
-      <c r="AA9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>95</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" t="s">
-        <v>99</v>
-      </c>
       <c r="AE9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AH9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AK9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL9">
         <v>130</v>
@@ -1919,13 +1885,13 @@
         <v>360</v>
       </c>
       <c r="AP9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AQ9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS9" t="s">
         <v>124</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -1939,40 +1905,40 @@
         <v>99999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" t="s">
         <v>92</v>
       </c>
-      <c r="S10" t="s">
+      <c r="AB10" t="s">
         <v>93</v>
       </c>
-      <c r="AA10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>95</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>97</v>
       </c>
-      <c r="AD10" t="s">
-        <v>99</v>
-      </c>
       <c r="AE10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AH10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL10">
         <v>170</v>
@@ -1984,13 +1950,13 @@
         <v>360</v>
       </c>
       <c r="AP10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AQ10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AS10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2004,40 +1970,40 @@
         <v>9999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA11" t="s">
         <v>92</v>
       </c>
-      <c r="S11" t="s">
+      <c r="AB11" t="s">
         <v>93</v>
       </c>
-      <c r="AA11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>95</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>97</v>
       </c>
-      <c r="AD11" t="s">
-        <v>99</v>
-      </c>
       <c r="AE11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AK11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2049,13 +2015,13 @@
         <v>180</v>
       </c>
       <c r="AP11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AQ11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AS11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2069,43 +2035,43 @@
         <v>11999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA12" t="s">
         <v>92</v>
       </c>
-      <c r="S12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" t="s">
-        <v>96</v>
-      </c>
       <c r="AC12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD12" t="s">
         <v>97</v>
       </c>
-      <c r="AD12" t="s">
-        <v>99</v>
-      </c>
       <c r="AE12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF12" t="s">
         <v>105</v>
       </c>
-      <c r="AF12" t="s">
-        <v>108</v>
-      </c>
       <c r="AH12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI12" t="s">
         <v>109</v>
       </c>
-      <c r="AI12" t="s">
-        <v>112</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AK12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL12">
         <v>90</v>
@@ -2117,16 +2083,16 @@
         <v>170</v>
       </c>
       <c r="AP12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>121</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>124</v>
-      </c>
       <c r="AR12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AS12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2140,43 +2106,43 @@
         <v>15000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA13" t="s">
         <v>92</v>
       </c>
-      <c r="S13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>94</v>
       </c>
-      <c r="AB13" t="s">
-        <v>96</v>
-      </c>
       <c r="AC13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD13" t="s">
         <v>97</v>
       </c>
-      <c r="AD13" t="s">
-        <v>99</v>
-      </c>
       <c r="AE13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AK13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2188,13 +2154,13 @@
         <v>200</v>
       </c>
       <c r="AP13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AQ13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AS13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -2208,43 +2174,43 @@
         <v>60000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K14">
         <v>203</v>
       </c>
       <c r="S14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB14" t="s">
         <v>94</v>
       </c>
-      <c r="AB14" t="s">
-        <v>96</v>
-      </c>
       <c r="AC14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD14" t="s">
         <v>97</v>
       </c>
-      <c r="AD14" t="s">
-        <v>99</v>
-      </c>
       <c r="AE14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AH14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AK14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL14">
         <v>90</v>
@@ -2256,16 +2222,16 @@
         <v>180</v>
       </c>
       <c r="AP14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AQ14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AR14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AS14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -2279,43 +2245,43 @@
         <v>100000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K15">
         <v>202</v>
       </c>
       <c r="S15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB15" t="s">
         <v>94</v>
       </c>
-      <c r="AB15" t="s">
-        <v>96</v>
-      </c>
       <c r="AC15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD15" t="s">
         <v>97</v>
       </c>
-      <c r="AD15" t="s">
-        <v>99</v>
-      </c>
       <c r="AE15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AH15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AK15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL15">
         <v>95</v>
@@ -2327,84 +2293,87 @@
         <v>200</v>
       </c>
       <c r="AP15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AQ15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AR15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AS15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>69</v>
       </c>
       <c r="F16">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16">
+        <v>198</v>
+      </c>
+      <c r="S16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA16" t="s">
         <v>92</v>
       </c>
-      <c r="K16">
-        <v>200</v>
-      </c>
-      <c r="S16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>94</v>
       </c>
-      <c r="AB16" t="s">
-        <v>96</v>
-      </c>
       <c r="AC16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD16" t="s">
         <v>97</v>
       </c>
-      <c r="AD16" t="s">
-        <v>99</v>
-      </c>
       <c r="AE16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH16" t="s">
         <v>106</v>
       </c>
-      <c r="AH16" t="s">
-        <v>109</v>
-      </c>
       <c r="AI16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AK16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL16">
+        <v>80</v>
+      </c>
+      <c r="AM16">
+        <v>73</v>
+      </c>
+      <c r="AN16">
+        <v>160</v>
+      </c>
+      <c r="AP16" t="s">
         <v>117</v>
       </c>
-      <c r="AM16">
-        <v>75</v>
-      </c>
-      <c r="AN16">
-        <v>245</v>
-      </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>121</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>120</v>
+      <c r="AR16" t="s">
+        <v>122</v>
       </c>
       <c r="AS16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
@@ -2418,46 +2387,46 @@
         <v>40000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17">
+        <v>197</v>
+      </c>
+      <c r="S17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA17" t="s">
         <v>92</v>
       </c>
-      <c r="K17">
-        <v>198</v>
-      </c>
-      <c r="S17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>94</v>
       </c>
-      <c r="AB17" t="s">
-        <v>96</v>
-      </c>
       <c r="AC17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD17" t="s">
         <v>97</v>
       </c>
-      <c r="AD17" t="s">
-        <v>99</v>
-      </c>
       <c r="AE17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI17" t="s">
         <v>107</v>
       </c>
-      <c r="AH17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>110</v>
-      </c>
       <c r="AJ17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL17">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM17">
         <v>73</v>
@@ -2466,87 +2435,87 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AQ17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AR17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AS17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
       </c>
       <c r="F18">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18">
+        <v>196</v>
+      </c>
+      <c r="S18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA18" t="s">
         <v>92</v>
       </c>
-      <c r="K18">
-        <v>197</v>
-      </c>
-      <c r="S18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>94</v>
       </c>
-      <c r="AB18" t="s">
-        <v>96</v>
-      </c>
       <c r="AC18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD18" t="s">
         <v>97</v>
       </c>
-      <c r="AD18" t="s">
-        <v>99</v>
-      </c>
       <c r="AE18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI18" t="s">
         <v>107</v>
       </c>
-      <c r="AH18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>110</v>
-      </c>
       <c r="AJ18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AK18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL18">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM18">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN18">
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AQ18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AR18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AS18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
@@ -2557,138 +2526,67 @@
         <v>72</v>
       </c>
       <c r="F19">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="K19">
+        <v>195</v>
+      </c>
+      <c r="S19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA19" t="s">
         <v>92</v>
       </c>
-      <c r="K19">
-        <v>196</v>
-      </c>
-      <c r="S19" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>94</v>
       </c>
-      <c r="AB19" t="s">
-        <v>96</v>
-      </c>
       <c r="AC19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD19" t="s">
         <v>97</v>
       </c>
-      <c r="AD19" t="s">
-        <v>99</v>
-      </c>
       <c r="AE19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AK19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AL19">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AM19">
         <v>75</v>
       </c>
       <c r="AN19">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AP19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AQ19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AR19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AS19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20">
-        <v>60000</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20">
-        <v>195</v>
-      </c>
-      <c r="S20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL20">
-        <v>86</v>
-      </c>
-      <c r="AM20">
-        <v>75</v>
-      </c>
-      <c r="AN20">
-        <v>180</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2719,16 +2617,14 @@
     <hyperlink ref="I14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="G15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="I15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98969A0A-E924-48DA-9139-A03DB7AB7436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="126">
   <si>
     <t>Address</t>
   </si>
@@ -157,25 +151,19 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Обязательный</t>
-  </si>
-  <si>
-    <t>Необязательный</t>
-  </si>
-  <si>
     <t>Кабинет руководителя</t>
   </si>
   <si>
+    <t>Стол круглый</t>
+  </si>
+  <si>
+    <t>Стол переговорный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол с тумбой </t>
+  </si>
+  <si>
     <t>Стол для переговоров</t>
-  </si>
-  <si>
-    <t>Стол круглый</t>
-  </si>
-  <si>
-    <t>Стол переговорный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол с тумбой </t>
   </si>
   <si>
     <t>Переговорный стол офисный</t>
@@ -609,6 +597,35 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол для переговоров
+Артикул 204
+Офисный стол для переговоров большого размера, классического цвета орех, этот стол не только добавит изысканности в ваш офис, но и станет функциональным центром для деловых встреч. Стол может вместить до 8 человек
+Этот офисный стол идеально подходит для организации эффективных переговоров. Выполненный из высококачественных материалов, он обеспечивает надежность и долговечность, что делает его прекрасным выбором для вашего бизнеса.
+Размеры ДхШхВ: 200х120х76
+Цвет: орех
+Цена: 15 000
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/UZi2aZPXmiD3eQ | https://disk.yandex.ru/i/JDlfr5oNEx8LzA | https://disk.yandex.ru/i/NcZTV7N5P_W_Uw | https://disk.yandex.ru/i/H2TACXSC6qDfMg | https://disk.yandex.ru/i/ABxBgbXigzwbNA | https://disk.yandex.ru/i/ljp0VEq-3JnbJg | https://disk.yandex.ru/i/yTYMlIfLXjFOFw | https://disk.yandex.ru/i/je5vNZ2VIu9GyA | https://disk.yandex.ru/i/m32_3cIT2w4zfA | https://disk.yandex.ru/i/chHNHedFfzPlyA</t>
   </si>
   <si>
@@ -660,6 +677,9 @@
     <t>https://disk.yandex.ru/i/VkyxSLaFuBM9og | https://disk.yandex.ru/i/4zRJQz6FivA-eA | https://disk.yandex.ru/i/dUM8BZEMb4MIaw | https://disk.yandex.ru/i/Vi5_Qsp9sOqoKw | https://disk.yandex.ru/i/tghj8AP9xHj1-A | https://disk.yandex.ru/i/N8R3WCfMnLDZdw | https://disk.yandex.ru/i/R2pZUoqqUBYsBw | https://disk.yandex.ru/i/mq9rAXtFF6aYoQ | https://disk.yandex.ru/i/ye2ELAR9REc-9A | https://disk.yandex.ru/i/mll8oxHv0HkuZg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/H_jAZn6xzqU4gA | https://disk.yandex.ru/i/ptu5NoCXaFt67w | https://disk.yandex.ru/i/icQ7j-y_2-diCA | https://disk.yandex.ru/i/TwahrlUwVC4mUQ | https://disk.yandex.ru/i/WXOPCvL_CdydVg | https://disk.yandex.ru/i/eYG0TtceIWUvAg</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -678,10 +698,6 @@
     <t>Б/у</t>
   </si>
   <si>
-    <t>Может быть обязательным_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
     <t>В наличии</t>
   </si>
   <si>
@@ -712,25 +728,21 @@
     <t>Столы</t>
   </si>
   <si>
+    <t>Кухонный</t>
+  </si>
+  <si>
     <t>Письменный</t>
   </si>
   <si>
-    <t>Кухонный</t>
-  </si>
-  <si>
     <t>Письменный | Кухонный | Барный | Журнальный | Другой</t>
   </si>
   <si>
-    <t>Может стать обязательным c 28.05.2024_x005F_x000D_
-Подробнее</t>
+    <t>Полукруглый</t>
   </si>
   <si>
     <t>Прямоугольный</t>
   </si>
   <si>
-    <t>Полукруглый</t>
-  </si>
-  <si>
     <t>Круглый</t>
   </si>
   <si>
@@ -740,18 +752,21 @@
     <t>Угловой</t>
   </si>
   <si>
+    <t>Овальный</t>
+  </si>
+  <si>
     <t>Нет</t>
   </si>
   <si>
+    <t>ЛДСП</t>
+  </si>
+  <si>
+    <t>Дерево</t>
+  </si>
+  <si>
     <t>ДСП</t>
   </si>
   <si>
-    <t>ЛДСП</t>
-  </si>
-  <si>
-    <t>Дерево</t>
-  </si>
-  <si>
     <t>Стекло</t>
   </si>
   <si>
@@ -768,13 +783,16 @@
   </si>
   <si>
     <t>Кабинет | Кухня</t>
+  </si>
+  <si>
+    <t>Кабинет | Кухня | Бар/Кафе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,26 +863,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -902,7 +912,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -936,7 +946,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -971,10 +980,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1147,16 +1155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,152 +1299,83 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
+    <row r="2" spans="1:45">
       <c r="D2" t="s">
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>59999</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="AA2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="AB2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="AC2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="AD2" t="s">
         <v>96</v>
       </c>
       <c r="AE2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="AH2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL2">
+        <v>88</v>
+      </c>
+      <c r="AM2">
+        <v>75</v>
+      </c>
+      <c r="AN2">
+        <v>180</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="AI2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>59999</v>
+        <v>24999</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>73</v>
@@ -1459,54 +1396,54 @@
         <v>95</v>
       </c>
       <c r="AD3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE3" t="s">
         <v>98</v>
       </c>
       <c r="AH3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AK3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AM3">
         <v>75</v>
       </c>
       <c r="AN3">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AP3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AQ3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AR3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS3" t="s">
         <v>122</v>
       </c>
-      <c r="AS3" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45">
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4">
-        <v>24999</v>
+        <v>4999</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>74</v>
@@ -1527,54 +1464,51 @@
         <v>95</v>
       </c>
       <c r="AD4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE4" t="s">
         <v>99</v>
       </c>
       <c r="AH4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s">
         <v>111</v>
       </c>
       <c r="AK4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM4">
         <v>75</v>
       </c>
       <c r="AN4">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AQ4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AS4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45">
       <c r="D5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5">
-        <v>4999</v>
+        <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>75</v>
@@ -1595,51 +1529,51 @@
         <v>95</v>
       </c>
       <c r="AD5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE5" t="s">
         <v>97</v>
       </c>
-      <c r="AE5" t="s">
-        <v>100</v>
-      </c>
       <c r="AH5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI5" t="s">
         <v>106</v>
       </c>
-      <c r="AI5" t="s">
-        <v>101</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AK5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL5">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AM5">
         <v>75</v>
       </c>
       <c r="AN5">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AP5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AQ5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AS5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45">
       <c r="D6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6">
-        <v>99999</v>
+        <v>19999</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>76</v>
@@ -1660,51 +1594,54 @@
         <v>95</v>
       </c>
       <c r="AD6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AH6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL6">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AM6">
         <v>75</v>
       </c>
       <c r="AN6">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ6" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>121</v>
       </c>
       <c r="AS6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45">
       <c r="D7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>19999</v>
+        <v>9999</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>77</v>
@@ -1725,54 +1662,51 @@
         <v>95</v>
       </c>
       <c r="AD7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE7" t="s">
         <v>97</v>
       </c>
-      <c r="AE7" t="s">
-        <v>101</v>
-      </c>
       <c r="AH7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI7" t="s">
         <v>106</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>107</v>
       </c>
       <c r="AJ7" t="s">
         <v>111</v>
       </c>
       <c r="AK7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL7">
         <v>80</v>
       </c>
       <c r="AM7">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AN7">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AS7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45">
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8">
-        <v>9999</v>
+        <v>50000</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>78</v>
@@ -1793,51 +1727,51 @@
         <v>95</v>
       </c>
       <c r="AD8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AH8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL8">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AM8">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AN8">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AP8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AQ8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AS8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45">
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9">
-        <v>50000</v>
+        <v>99999</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>79</v>
@@ -1858,51 +1792,51 @@
         <v>95</v>
       </c>
       <c r="AD9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE9" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" t="s">
-        <v>102</v>
-      </c>
       <c r="AH9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL9">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AM9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN9">
         <v>360</v>
       </c>
       <c r="AP9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AQ9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AS9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45">
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>99999</v>
+        <v>9999</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>80</v>
@@ -1923,31 +1857,31 @@
         <v>95</v>
       </c>
       <c r="AD10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL10">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AM10">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN10">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AP10" t="s">
         <v>118</v>
@@ -1959,15 +1893,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45">
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>81</v>
@@ -1982,57 +1916,63 @@
         <v>92</v>
       </c>
       <c r="AB11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC11" t="s">
         <v>95</v>
       </c>
       <c r="AD11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE11" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>104</v>
       </c>
       <c r="AH11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AJ11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL11">
+        <v>90</v>
+      </c>
+      <c r="AM11">
+        <v>75</v>
+      </c>
+      <c r="AN11">
+        <v>170</v>
+      </c>
+      <c r="AP11" t="s">
         <v>116</v>
       </c>
-      <c r="AL11">
-        <v>80</v>
-      </c>
-      <c r="AM11">
-        <v>73</v>
-      </c>
-      <c r="AN11">
-        <v>180</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>117</v>
-      </c>
       <c r="AQ11" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>121</v>
       </c>
       <c r="AS11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45">
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12">
-        <v>11999</v>
+        <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>82</v>
@@ -2053,57 +1993,54 @@
         <v>95</v>
       </c>
       <c r="AD12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AF12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH12" t="s">
         <v>105</v>
       </c>
-      <c r="AH12" t="s">
-        <v>106</v>
-      </c>
       <c r="AI12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM12">
         <v>75</v>
       </c>
       <c r="AN12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AP12" t="s">
         <v>118</v>
       </c>
       <c r="AQ12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS12" t="s">
         <v>122</v>
       </c>
-      <c r="AS12" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45">
       <c r="D13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>83</v>
@@ -2111,6 +2048,9 @@
       <c r="I13" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="K13">
+        <v>203</v>
+      </c>
       <c r="S13" t="s">
         <v>91</v>
       </c>
@@ -2124,54 +2064,54 @@
         <v>95</v>
       </c>
       <c r="AD13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE13" t="s">
         <v>97</v>
       </c>
-      <c r="AE13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>100</v>
-      </c>
       <c r="AH13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AJ13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL13">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM13">
         <v>75</v>
       </c>
       <c r="AN13">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR13" t="s">
         <v>121</v>
       </c>
       <c r="AS13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45">
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>84</v>
@@ -2180,7 +2120,7 @@
         <v>90</v>
       </c>
       <c r="K14">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S14" t="s">
         <v>91</v>
@@ -2195,54 +2135,54 @@
         <v>95</v>
       </c>
       <c r="AD14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE14" t="s">
         <v>97</v>
       </c>
-      <c r="AE14" t="s">
-        <v>98</v>
-      </c>
       <c r="AH14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI14" t="s">
         <v>107</v>
       </c>
       <c r="AJ14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL14">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM14">
         <v>75</v>
       </c>
       <c r="AN14">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AR14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS14" t="s">
         <v>122</v>
       </c>
-      <c r="AS14" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45">
       <c r="D15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>85</v>
@@ -2251,7 +2191,7 @@
         <v>90</v>
       </c>
       <c r="K15">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="S15" t="s">
         <v>91</v>
@@ -2266,51 +2206,51 @@
         <v>95</v>
       </c>
       <c r="AD15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AH15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI15" t="s">
         <v>107</v>
       </c>
       <c r="AJ15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL15">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AM15">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN15">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s">
         <v>118</v>
       </c>
       <c r="AQ15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AR15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS15" t="s">
         <v>122</v>
       </c>
-      <c r="AS15" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45">
       <c r="D16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>40000</v>
@@ -2322,7 +2262,7 @@
         <v>90</v>
       </c>
       <c r="K16">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S16" t="s">
         <v>91</v>
@@ -2337,25 +2277,25 @@
         <v>95</v>
       </c>
       <c r="AD16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI16" t="s">
         <v>107</v>
       </c>
       <c r="AJ16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AK16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL16">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM16">
         <v>73</v>
@@ -2364,27 +2304,27 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR16" t="s">
         <v>121</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AS16" t="s">
         <v>122</v>
       </c>
-      <c r="AS16" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="17" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:45">
       <c r="D17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>87</v>
@@ -2393,7 +2333,7 @@
         <v>90</v>
       </c>
       <c r="K17">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S17" t="s">
         <v>91</v>
@@ -2408,54 +2348,54 @@
         <v>95</v>
       </c>
       <c r="AD17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AH17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI17" t="s">
         <v>107</v>
       </c>
       <c r="AJ17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK17" t="s">
         <v>115</v>
       </c>
-      <c r="AK17" t="s">
-        <v>116</v>
-      </c>
       <c r="AL17">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM17">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN17">
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR17" t="s">
         <v>121</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>122</v>
       </c>
-      <c r="AS17" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="18" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:45">
       <c r="D18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>88</v>
@@ -2464,7 +2404,7 @@
         <v>90</v>
       </c>
       <c r="K18">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S18" t="s">
         <v>91</v>
@@ -2479,54 +2419,54 @@
         <v>95</v>
       </c>
       <c r="AD18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AH18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI18" t="s">
         <v>107</v>
       </c>
       <c r="AJ18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL18">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AM18">
         <v>75</v>
       </c>
       <c r="AN18">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AP18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR18" t="s">
         <v>121</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AS18" t="s">
         <v>122</v>
       </c>
-      <c r="AS18" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="19" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:45">
       <c r="D19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>89</v>
@@ -2535,7 +2475,7 @@
         <v>90</v>
       </c>
       <c r="K19">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="S19" t="s">
         <v>91</v>
@@ -2550,81 +2490,80 @@
         <v>95</v>
       </c>
       <c r="AD19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE19" t="s">
         <v>97</v>
       </c>
-      <c r="AE19" t="s">
-        <v>104</v>
-      </c>
       <c r="AH19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI19" t="s">
         <v>107</v>
       </c>
       <c r="AJ19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AK19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL19">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="AM19">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN19">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AS19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="128">
   <si>
     <t>Address</t>
   </si>
@@ -626,6 +626,32 @@
     </t>
   </si>
   <si>
+    <t>Стол для переговоров
+Артикул 205
+Офисный стол для переговоров большого размера, классического, всеми любимого цвета венге, этот стол не только добавит изысканности в ваш офис, но и станет функциональным центром для деловых встреч. Стол может вместить до 8 человек
+На столе есть небольшие царапины 
+Этот офисный стол идеально подходит для организации эффективных переговоров. Выполненный из высококачественных материалов, он обеспечивает надежность и долговечность, что делает его прекрасным выбором для вашего бизнеса.
+Размеры ДхШхВ: 200х120х76
+Цвет: венге
+Цена: 20 000
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/UZi2aZPXmiD3eQ | https://disk.yandex.ru/i/JDlfr5oNEx8LzA | https://disk.yandex.ru/i/NcZTV7N5P_W_Uw | https://disk.yandex.ru/i/H2TACXSC6qDfMg | https://disk.yandex.ru/i/ABxBgbXigzwbNA | https://disk.yandex.ru/i/ljp0VEq-3JnbJg | https://disk.yandex.ru/i/yTYMlIfLXjFOFw | https://disk.yandex.ru/i/je5vNZ2VIu9GyA | https://disk.yandex.ru/i/m32_3cIT2w4zfA | https://disk.yandex.ru/i/chHNHedFfzPlyA</t>
   </si>
   <si>
@@ -678,6 +704,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/H_jAZn6xzqU4gA | https://disk.yandex.ru/i/ptu5NoCXaFt67w | https://disk.yandex.ru/i/icQ7j-y_2-diCA | https://disk.yandex.ru/i/TwahrlUwVC4mUQ | https://disk.yandex.ru/i/WXOPCvL_CdydVg | https://disk.yandex.ru/i/eYG0TtceIWUvAg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Cr3HM9bi813R2w | https://disk.yandex.ru/i/55RyI3HDMryjdQ | https://disk.yandex.ru/i/pknHia8uSr6VcQ | https://disk.yandex.ru/i/DylOghCc2uqBRw | https://disk.yandex.ru/i/4SR57qkS_TUcMg</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1156,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS19"/>
+  <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1310,40 +1339,40 @@
         <v>59999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AH2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL2">
         <v>88</v>
@@ -1355,16 +1384,16 @@
         <v>180</v>
       </c>
       <c r="AP2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AQ2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AR2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1378,40 +1407,40 @@
         <v>24999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AH3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL3">
         <v>90</v>
@@ -1423,16 +1452,16 @@
         <v>170</v>
       </c>
       <c r="AP3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AQ3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AR3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1446,40 +1475,40 @@
         <v>4999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AH4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AK4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1491,13 +1520,13 @@
         <v>80</v>
       </c>
       <c r="AP4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AQ4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AS4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1511,40 +1540,40 @@
         <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AH5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AK5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL5">
         <v>200</v>
@@ -1556,13 +1585,13 @@
         <v>200</v>
       </c>
       <c r="AP5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AQ5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1576,40 +1605,40 @@
         <v>19999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AH6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -1621,16 +1650,16 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AR6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1644,40 +1673,40 @@
         <v>9999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AC7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AH7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1689,13 +1718,13 @@
         <v>80</v>
       </c>
       <c r="AP7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AS7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1709,40 +1738,40 @@
         <v>50000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AC8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AH8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL8">
         <v>130</v>
@@ -1754,13 +1783,13 @@
         <v>360</v>
       </c>
       <c r="AP8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AQ8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AS8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1774,40 +1803,40 @@
         <v>99999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AC9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AH9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL9">
         <v>170</v>
@@ -1819,13 +1848,13 @@
         <v>360</v>
       </c>
       <c r="AP9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AQ9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AS9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1839,40 +1868,40 @@
         <v>9999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -1884,13 +1913,13 @@
         <v>180</v>
       </c>
       <c r="AP10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AS10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1904,43 +1933,43 @@
         <v>11999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AH11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL11">
         <v>90</v>
@@ -1952,16 +1981,16 @@
         <v>170</v>
       </c>
       <c r="AP11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AQ11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AR11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1975,43 +2004,43 @@
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2023,13 +2052,13 @@
         <v>200</v>
       </c>
       <c r="AP12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AS12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2043,43 +2072,43 @@
         <v>60000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13">
         <v>203</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AH13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL13">
         <v>90</v>
@@ -2091,16 +2120,16 @@
         <v>180</v>
       </c>
       <c r="AP13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AR13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2114,43 +2143,43 @@
         <v>100000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14">
         <v>202</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AH14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL14">
         <v>95</v>
@@ -2162,16 +2191,16 @@
         <v>200</v>
       </c>
       <c r="AP14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AQ14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AR14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2185,43 +2214,43 @@
         <v>40000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K15">
         <v>198</v>
       </c>
       <c r="S15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AH15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2233,16 +2262,16 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AR15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -2256,43 +2285,43 @@
         <v>40000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16">
         <v>197</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AH16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AK16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL16">
         <v>120</v>
@@ -2304,16 +2333,16 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AR16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="4:45">
@@ -2327,43 +2356,43 @@
         <v>90000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K17">
         <v>196</v>
       </c>
       <c r="S17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AH17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2375,16 +2404,16 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AR17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="4:45">
@@ -2398,43 +2427,43 @@
         <v>60000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K18">
         <v>195</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AH18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL18">
         <v>86</v>
@@ -2446,16 +2475,16 @@
         <v>180</v>
       </c>
       <c r="AP18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AR18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="4:45">
@@ -2469,43 +2498,43 @@
         <v>15000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K19">
         <v>204</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AH19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL19">
         <v>120</v>
@@ -2517,13 +2546,84 @@
         <v>200</v>
       </c>
       <c r="AP19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AQ19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AS19" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="4:45">
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <v>20000</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20">
+        <v>205</v>
+      </c>
+      <c r="S20" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL20">
+        <v>120</v>
+      </c>
+      <c r="AM20">
+        <v>76</v>
+      </c>
+      <c r="AN20">
+        <v>200</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2564,6 +2664,8 @@
     <hyperlink ref="I18" r:id="rId34"/>
     <hyperlink ref="G19" r:id="rId35"/>
     <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1947CFE8-CDFA-4A86-B62B-6C7D3C7C150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="132">
   <si>
     <t>Address</t>
   </si>
@@ -176,6 +182,9 @@
   </si>
   <si>
     <t>Офисная мебель</t>
+  </si>
+  <si>
+    <t>Стол для руководителя</t>
   </si>
   <si>
     <t>Кабинет руководителя
@@ -421,39 +430,6 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кабинет руководителя
-Артикул 203
-Офисная мебель цвета орех из директорской линии, идеально подходящая для кабинета руководителя. В комплекте просторный стол с большой рабочей поверхностью и брифингом, рассчитанным на комфортное размещение до 4 человек. Шкаф для документов обеспечит удобное хранение папок и бумаг, а две вместительные тумбы помогут организовать рабочее пространство.
-В комплект также входит элегантная кожаная накладка на стол, придающая солидности и защищающая поверхность от износа. Эта мебель сочетает в себе функциональность, стиль и высокое качество, создавая комфортные условия для продуктивной работы.
-Размеры ДхШхВ: Стол - 180х90х75
-Брифинг - 135х80
-Шкаф - 80х35х212
-Тумба-граденция (под оргтехнику на колёсиках) 
-Тумба подкатная 
-Цвет орех
-Цена 60 000 руб 
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
   </si>
   <si>
     <t>Кабинет руководителя
@@ -652,6 +628,64 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол для руководителя
+Артикул 207
+Просторный директорский стол б/у из прочного ЛДСП — это надежное и удобное решение для руководителя. Мебель с дефектами! Рабочая поверхность стола длиной 2 метра и шириной 1 метр предоставляет достаточно места для комфортной работы и размещения всей необходимой техники и документов. В комплект входит большая тумба на колесиках для оргтехники и хранения документов, а также компактная подкатная тумба для мелкой канцелярии, что помогает организовать пространство и поддерживать порядок на рабочем месте.
+Размеры ДхШхВ: Стол - 197х94х74
+Греденция - 120х45х67
+Тумба на колёсиках
+Цвет вишня
+Цена: 19 999 руб
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Офисная мебель
+Артикул 206
+Эта офисная мебель в современном стиле цвета орех-пекан придаст кабинету элегантный и профессиональный вид. Угловой стол с интегрированной тумбой расширяет рабочую зону, создавая удобное пространство для работы. Дополнительная тумба под оргтехнику обеспечивает аккуратное размещение всех необходимых устройств. Два вместительных шкафа помогут организовать документы и личные вещи, а отдельный шкаф-гардероб предназначен для одежды, поддерживая порядок и презентабельность. Этот комплект мебели сочетает в себе стиль, практичность и эргономику, создавая комфортные условия для продуктивной работы.
+Размеры ДхШхВ: Стол - 140х120х75
+Шкафы для документов - 90х40х207
+Шкаф гардероб - 60х42х207
+Тумба приставная
+Тумба под оргтехнику
+Цвет: орех пекан
+Цена: 45 000 руб
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/UZi2aZPXmiD3eQ | https://disk.yandex.ru/i/JDlfr5oNEx8LzA | https://disk.yandex.ru/i/NcZTV7N5P_W_Uw | https://disk.yandex.ru/i/H2TACXSC6qDfMg | https://disk.yandex.ru/i/ABxBgbXigzwbNA | https://disk.yandex.ru/i/ljp0VEq-3JnbJg | https://disk.yandex.ru/i/yTYMlIfLXjFOFw | https://disk.yandex.ru/i/je5vNZ2VIu9GyA | https://disk.yandex.ru/i/m32_3cIT2w4zfA | https://disk.yandex.ru/i/chHNHedFfzPlyA</t>
   </si>
   <si>
@@ -685,9 +719,6 @@
     <t>https://disk.yandex.ru/i/YUqv1-fJ5z4pIg | https://disk.yandex.ru/i/hlH4PJWp6goS5A | https://disk.yandex.ru/i/zOu4tUC4ggOi_A | https://disk.yandex.ru/i/t8OXCkysyTmxlA | https://disk.yandex.ru/i/557Bzug0MWZbOg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/djtfpQaMv_xrsw | https://disk.yandex.ru/i/jSN-FP1-s9B_yQ | https://disk.yandex.ru/i/jiVID0V-h0Sd3g | https://disk.yandex.ru/i/xJ0oIo2N2yrsIQ | https://disk.yandex.ru/i/7FVH5f03gcWXXQ | https://disk.yandex.ru/i/mospu55MhOeJdA | https://disk.yandex.ru/i/UvjKnd-DjBEpag | https://disk.yandex.ru/i/qtH766raLeATgg | https://disk.yandex.ru/i/XW23lydM82AU1g | https://disk.yandex.ru/i/uGiAij-07Ew-yw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/DwPfKQ5NYExm7g | https://disk.yandex.ru/i/N8CR9H4hx4_Nfw | https://disk.yandex.ru/i/ARqSJ75wjL2aJQ | https://disk.yandex.ru/i/Ckj1r6pMiuvyAA | https://disk.yandex.ru/i/O3NHI8YdsViOqg | https://disk.yandex.ru/i/837ttFJ5mxdcww | https://disk.yandex.ru/i/-HaQezqef6q6Hw | https://disk.yandex.ru/i/tYSyR-voRILiwQ | https://disk.yandex.ru/i/tHUxGJcrOTuCaA | https://disk.yandex.ru/i/9TTP43xT6BwUbA</t>
   </si>
   <si>
@@ -709,6 +740,12 @@
     <t>https://disk.yandex.ru/i/Cr3HM9bi813R2w | https://disk.yandex.ru/i/55RyI3HDMryjdQ | https://disk.yandex.ru/i/pknHia8uSr6VcQ | https://disk.yandex.ru/i/DylOghCc2uqBRw | https://disk.yandex.ru/i/4SR57qkS_TUcMg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/HWLDYbtUpq0qlQ | https://disk.yandex.ru/i/vInlxVuQE03X7A | https://disk.yandex.ru/i/a3TMO838uEudgw | https://disk.yandex.ru/i/sZw1tMAeO5oNrA | https://disk.yandex.ru/i/1gG7UrG_S6_JsA | https://disk.yandex.ru/i/JEiPTBSmCZLVRg | https://disk.yandex.ru/i/czjDGmZQoXe30Q | https://disk.yandex.ru/i/woUhjXEYoPywIw | https://disk.yandex.ru/i/JyPZu-nkNH1DSg | https://disk.yandex.ru/i/zDHPGHlKicWIrw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/3XF-uU80s4VjnA | https://disk.yandex.ru/i/bv38pOHNdW4aCA | https://disk.yandex.ru/i/9ebuVVwhOlesXg | https://disk.yandex.ru/i/_ziaDlSCGep8Tw | https://disk.yandex.ru/i/ARxam6wrDAob9w | https://disk.yandex.ru/i/4OlOvkgAmTaxcg | https://disk.yandex.ru/i/7MKuKMp_ntfHGQ | https://disk.yandex.ru/i/bUElzUjhtTfBHA | https://disk.yandex.ru/i/F9U5P5BlsOxFGw</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -749,6 +786,9 @@
   </si>
   <si>
     <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Красный</t>
   </si>
   <si>
     <t xml:space="preserve"> Рыжий</t>
@@ -820,8 +860,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,18 +932,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -941,7 +989,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -975,6 +1023,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1009,9 +1058,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1184,14 +1234,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AS21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,51 +1380,51 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>59999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AH2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AJ2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL2">
         <v>88</v>
@@ -1384,63 +1436,63 @@
         <v>180</v>
       </c>
       <c r="AP2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AQ2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AR2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AS2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>24999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AC3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AH3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AJ3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AK3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL3">
         <v>90</v>
@@ -1452,63 +1504,63 @@
         <v>170</v>
       </c>
       <c r="AP3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AQ3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AR3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AS3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>4999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AC4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AH4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AJ4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AK4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1520,60 +1572,60 @@
         <v>80</v>
       </c>
       <c r="AP4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AQ4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AS4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AC5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AH5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AJ5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AK5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL5">
         <v>200</v>
@@ -1585,60 +1637,60 @@
         <v>200</v>
       </c>
       <c r="AP5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AQ5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AS5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>19999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AC6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AH6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -1650,63 +1702,63 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AQ6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AR6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AS6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>9999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AC7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AH7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AJ7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AK7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1718,60 +1770,60 @@
         <v>80</v>
       </c>
       <c r="AP7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AQ7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AS7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>50000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AC8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AH8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AJ8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AK8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL8">
         <v>130</v>
@@ -1783,60 +1835,60 @@
         <v>360</v>
       </c>
       <c r="AP8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AQ8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AS8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>99999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AC9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AH9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL9">
         <v>170</v>
@@ -1848,60 +1900,60 @@
         <v>360</v>
       </c>
       <c r="AP9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AQ9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AS9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>9999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AC10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AH10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AK10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -1913,63 +1965,63 @@
         <v>180</v>
       </c>
       <c r="AP10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AQ10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AS10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>11999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AC11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AH11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AJ11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AK11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL11">
         <v>90</v>
@@ -1981,66 +2033,66 @@
         <v>170</v>
       </c>
       <c r="AP11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AQ11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AR11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AS11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AC12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AH12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AJ12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AK12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2052,208 +2104,208 @@
         <v>200</v>
       </c>
       <c r="AP12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AQ12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K13">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AC13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AH13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AJ13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AK13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL13">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM13">
         <v>75</v>
       </c>
       <c r="AN13">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AQ13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AR13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AS13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>40000</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14">
+        <v>198</v>
+      </c>
+      <c r="S14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL14">
+        <v>80</v>
+      </c>
+      <c r="AM14">
+        <v>73</v>
+      </c>
+      <c r="AN14">
+        <v>160</v>
+      </c>
+      <c r="AP14" t="s">
         <v>124</v>
       </c>
+      <c r="AQ14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="14" spans="1:45">
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14">
-        <v>100000</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14">
-        <v>202</v>
-      </c>
-      <c r="S14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL14">
-        <v>95</v>
-      </c>
-      <c r="AM14">
-        <v>75</v>
-      </c>
-      <c r="AN14">
-        <v>200</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>40000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K15">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AH15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AJ15" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL15">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM15">
         <v>73</v>
@@ -2262,279 +2314,276 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AQ15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AR15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AS15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K16">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AC16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AJ16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL16">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM16">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN16">
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AQ16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AR16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AS16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="17" spans="4:45">
+    <row r="17" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K17">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AH17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AJ17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL17">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AM17">
         <v>75</v>
       </c>
       <c r="AN17">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AP17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18">
+        <v>15000</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18">
+        <v>204</v>
+      </c>
+      <c r="S18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>120</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS17" t="s">
+      <c r="AK18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL18">
+        <v>120</v>
+      </c>
+      <c r="AM18">
+        <v>76</v>
+      </c>
+      <c r="AN18">
+        <v>200</v>
+      </c>
+      <c r="AP18" t="s">
         <v>124</v>
       </c>
+      <c r="AQ18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="18" spans="4:45">
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18">
-        <v>60000</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18">
-        <v>195</v>
-      </c>
-      <c r="S18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL18">
-        <v>86</v>
-      </c>
-      <c r="AM18">
-        <v>75</v>
-      </c>
-      <c r="AN18">
-        <v>180</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="4:45">
+    <row r="19" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K19">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AC19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AH19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AJ19" t="s">
         <v>116</v>
       </c>
       <c r="AK19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL19">
         <v>120</v>
@@ -2546,126 +2595,202 @@
         <v>200</v>
       </c>
       <c r="AP19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>19999</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20">
+        <v>207</v>
+      </c>
+      <c r="S20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL20">
+        <v>94</v>
+      </c>
+      <c r="AM20">
+        <v>74</v>
+      </c>
+      <c r="AN20">
+        <v>197</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21">
+        <v>45000</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21">
+        <v>206</v>
+      </c>
+      <c r="S21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL21">
         <v>120</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS19" t="s">
+      <c r="AM21">
+        <v>75</v>
+      </c>
+      <c r="AN21">
+        <v>140</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="4:45">
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20">
-        <v>20000</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20">
-        <v>205</v>
-      </c>
-      <c r="S20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL20">
-        <v>120</v>
-      </c>
-      <c r="AM20">
-        <v>76</v>
-      </c>
-      <c r="AN20">
-        <v>200</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>127</v>
+      <c r="AS21" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1947CFE8-CDFA-4A86-B62B-6C7D3C7C150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698B60F3-B3EA-4C5A-8E99-83B5FB6DD30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="141">
   <si>
     <t>Address</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Стол для руководителя</t>
+  </si>
+  <si>
+    <t>Комплект офисной мебели</t>
   </si>
   <si>
     <t>Кабинет руководителя
@@ -686,6 +689,112 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Комплект офисной мебели
+Артикул 211
+Описание
+Размеры ДхШхВ: Стол-160х80х75
+Шкаф-80х45х145
+Низкий шкаф-80х40х110
+Цвет: ясень асахи
+Цена: 25 000
+Количество: 3 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комплект офисной мебели
+Артикул 210
+Описание
+Размеры ДхШхВ: Стол-160х80х75
+Шкаф-80х45х145
+Цвет: ясень асахи
+Цена: 25 000
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Комплект офисной мебели
+Артикул 209
+Описание
+Размеры ДхШхВ: Стол-160х80х75
+Шкаф-80х45х199
+Цвет: ясень асахи
+Цена: 21 000
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Комплект офисной мебели
+Артикул 208
+Описание
+Размеры ДхШхВ: Стол-160х80х75
+Шкаф-80х45х199
+Низкий шкаф-80х40х110
+Цвет: ясень асахи
+Цена: 25 000
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/UZi2aZPXmiD3eQ | https://disk.yandex.ru/i/JDlfr5oNEx8LzA | https://disk.yandex.ru/i/NcZTV7N5P_W_Uw | https://disk.yandex.ru/i/H2TACXSC6qDfMg | https://disk.yandex.ru/i/ABxBgbXigzwbNA | https://disk.yandex.ru/i/ljp0VEq-3JnbJg | https://disk.yandex.ru/i/yTYMlIfLXjFOFw | https://disk.yandex.ru/i/je5vNZ2VIu9GyA | https://disk.yandex.ru/i/m32_3cIT2w4zfA | https://disk.yandex.ru/i/chHNHedFfzPlyA</t>
   </si>
   <si>
@@ -744,6 +853,18 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/3XF-uU80s4VjnA | https://disk.yandex.ru/i/bv38pOHNdW4aCA | https://disk.yandex.ru/i/9ebuVVwhOlesXg | https://disk.yandex.ru/i/_ziaDlSCGep8Tw | https://disk.yandex.ru/i/ARxam6wrDAob9w | https://disk.yandex.ru/i/4OlOvkgAmTaxcg | https://disk.yandex.ru/i/7MKuKMp_ntfHGQ | https://disk.yandex.ru/i/bUElzUjhtTfBHA | https://disk.yandex.ru/i/F9U5P5BlsOxFGw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/EdK37TeCWOkhaw | https://disk.yandex.ru/i/AwDoeQ9tmRpk_Q | https://disk.yandex.ru/i/WbG_DCUtV66iNQ | https://disk.yandex.ru/i/kVVIDcViwF3RvQ | https://disk.yandex.ru/i/lj1sVacCNSbzUA | https://disk.yandex.ru/i/kKhRBRut8Nkm2g | https://disk.yandex.ru/i/tQ2EDy7NET_mEA | https://disk.yandex.ru/i/bSm89Zl9twjXkA | https://disk.yandex.ru/i/OjZTag84BA__qw | https://disk.yandex.ru/i/qIOQD7LeuPP-Gw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/GsAY2-mDDa5n8Q | https://disk.yandex.ru/i/AwDoeQ9tmRpk_Q | https://disk.yandex.ru/i/WbG_DCUtV66iNQ | https://disk.yandex.ru/i/kVVIDcViwF3RvQ | https://disk.yandex.ru/i/lj1sVacCNSbzUA | https://disk.yandex.ru/i/Mg2eBy1hi18pxg | https://disk.yandex.ru/i/w7PPlVkAVYnB6A | https://disk.yandex.ru/i/7z7oHzhaX-h91w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/XGNkB3NO6IaZYA | https://disk.yandex.ru/i/P88chKGHgwwdRw | https://disk.yandex.ru/i/9ZBcNQKOh9RNJQ | https://disk.yandex.ru/i/B5xuGJs6k9smtg | https://disk.yandex.ru/i/q19oOBTxah3OAg | https://disk.yandex.ru/i/n4wa2xeEAXgZGg | https://disk.yandex.ru/i/iNZFdD74Cqbmnw | https://disk.yandex.ru/i/lxOderh0uiVZPg | https://disk.yandex.ru/i/4f9F-E4jfGZF-A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/nyuhp_rcq9mpRw | https://disk.yandex.ru/i/9ZBcNQKOh9RNJQ | https://disk.yandex.ru/i/q19oOBTxah3OAg | https://disk.yandex.ru/i/B5xuGJs6k9smtg | https://disk.yandex.ru/i/iNZFdD74Cqbmnw | https://disk.yandex.ru/i/lxOderh0uiVZPg | https://disk.yandex.ru/i/4f9F-E4jfGZF-A | https://disk.yandex.ru/i/OjZTag84BA__qw | https://disk.yandex.ru/i/qIOQD7LeuPP-Gw | https://disk.yandex.ru/i/sEbH6BRS_qnyCg</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1235,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS21"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="V4" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,46 +1506,46 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>59999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AC2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AH2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AJ2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AK2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL2">
         <v>88</v>
@@ -1436,16 +1557,16 @@
         <v>180</v>
       </c>
       <c r="AP2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AQ2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AR2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -1453,46 +1574,46 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>24999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AC3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL3">
         <v>90</v>
@@ -1504,16 +1625,16 @@
         <v>170</v>
       </c>
       <c r="AP3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AQ3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AR3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1521,46 +1642,46 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>4999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AC4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AH4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AJ4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AK4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1572,13 +1693,13 @@
         <v>80</v>
       </c>
       <c r="AP4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AQ4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AS4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1586,46 +1707,46 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AC5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD5" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AH5" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AJ5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AK5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL5">
         <v>200</v>
@@ -1637,13 +1758,13 @@
         <v>200</v>
       </c>
       <c r="AP5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AQ5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AS5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1651,46 +1772,46 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>19999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AC6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AH6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -1702,16 +1823,16 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AR6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -1719,46 +1840,46 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>9999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AC7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AH7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AJ7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1770,13 +1891,13 @@
         <v>80</v>
       </c>
       <c r="AP7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AS7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -1784,46 +1905,46 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>50000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AC8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AH8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AJ8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK8" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL8">
         <v>130</v>
@@ -1835,13 +1956,13 @@
         <v>360</v>
       </c>
       <c r="AP8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AQ8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AS8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -1849,46 +1970,46 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>99999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA9" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AC9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE9" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AH9" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AK9" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL9">
         <v>170</v>
@@ -1900,13 +2021,13 @@
         <v>360</v>
       </c>
       <c r="AP9" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AQ9" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AS9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -1914,46 +2035,46 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>9999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AC10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AH10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AJ10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -1965,13 +2086,13 @@
         <v>180</v>
       </c>
       <c r="AP10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AS10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -1979,49 +2100,49 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>11999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD11" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AF11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AH11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AJ11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL11">
         <v>90</v>
@@ -2033,16 +2154,16 @@
         <v>170</v>
       </c>
       <c r="AP11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AQ11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AR11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2050,49 +2171,49 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AH12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AJ12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2104,13 +2225,13 @@
         <v>200</v>
       </c>
       <c r="AP12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AS12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2118,49 +2239,49 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>100000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K13">
         <v>202</v>
       </c>
       <c r="S13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA13" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE13" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AH13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI13" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL13">
         <v>95</v>
@@ -2172,16 +2293,16 @@
         <v>200</v>
       </c>
       <c r="AP13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AQ13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AR13" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -2189,49 +2310,49 @@
         <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>40000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K14">
         <v>198</v>
       </c>
       <c r="S14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA14" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AH14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI14" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2243,16 +2364,16 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ14" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AR14" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS14" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -2260,49 +2381,49 @@
         <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>40000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K15">
         <v>197</v>
       </c>
       <c r="S15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB15" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD15" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE15" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AH15" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ15" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AK15" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL15">
         <v>120</v>
@@ -2314,16 +2435,16 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ15" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AR15" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS15" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -2331,49 +2452,49 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <v>90000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K16">
         <v>196</v>
       </c>
       <c r="S16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA16" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB16" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC16" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE16" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AH16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI16" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ16" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2385,16 +2506,16 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AR16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS16" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
@@ -2402,49 +2523,49 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>60000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K17">
         <v>195</v>
       </c>
       <c r="S17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA17" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB17" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC17" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD17" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE17" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AH17" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI17" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK17" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL17">
         <v>86</v>
@@ -2456,16 +2577,16 @@
         <v>180</v>
       </c>
       <c r="AP17" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ17" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AR17" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
@@ -2473,49 +2594,49 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>15000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K18">
         <v>204</v>
       </c>
       <c r="S18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA18" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB18" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC18" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD18" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE18" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AH18" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI18" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AK18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL18">
         <v>120</v>
@@ -2527,13 +2648,13 @@
         <v>200</v>
       </c>
       <c r="AP18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AS18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
@@ -2541,49 +2662,49 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>20000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K19">
         <v>205</v>
       </c>
       <c r="S19" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA19" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB19" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC19" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD19" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE19" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AH19" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI19" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ19" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL19">
         <v>120</v>
@@ -2595,16 +2716,16 @@
         <v>200</v>
       </c>
       <c r="AP19" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ19" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AR19" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS19" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="4:45" x14ac:dyDescent="0.25">
@@ -2612,49 +2733,49 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20">
         <v>19999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K20">
         <v>207</v>
       </c>
       <c r="S20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA20" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB20" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD20" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE20" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AH20" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI20" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ20" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK20" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL20">
         <v>94</v>
@@ -2666,16 +2787,16 @@
         <v>197</v>
       </c>
       <c r="AP20" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AQ20" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AR20" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS20" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="4:45" x14ac:dyDescent="0.25">
@@ -2683,49 +2804,49 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21">
         <v>45000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K21">
         <v>206</v>
       </c>
       <c r="S21" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AA21" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB21" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AC21" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE21" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AH21" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI21" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AJ21" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AK21" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AL21">
         <v>120</v>
@@ -2737,16 +2858,300 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AQ21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AR21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AS21" t="s">
-        <v>128</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>25000</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22">
+        <v>211</v>
+      </c>
+      <c r="S22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL22">
+        <v>80</v>
+      </c>
+      <c r="AM22">
+        <v>75</v>
+      </c>
+      <c r="AN22">
+        <v>160</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>25000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23">
+        <v>210</v>
+      </c>
+      <c r="S23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL23">
+        <v>80</v>
+      </c>
+      <c r="AM23">
+        <v>75</v>
+      </c>
+      <c r="AN23">
+        <v>160</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24">
+        <v>21000</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24">
+        <v>209</v>
+      </c>
+      <c r="S24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL24">
+        <v>80</v>
+      </c>
+      <c r="AM24">
+        <v>75</v>
+      </c>
+      <c r="AN24">
+        <v>160</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25">
+        <v>25000</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25">
+        <v>208</v>
+      </c>
+      <c r="S25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL25">
+        <v>80</v>
+      </c>
+      <c r="AM25">
+        <v>75</v>
+      </c>
+      <c r="AN25">
+        <v>160</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2773,24 +3178,32 @@
     <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698B60F3-B3EA-4C5A-8E99-83B5FB6DD30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A2C888-D1C9-4DB4-AD73-AA1013123956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="138">
   <si>
     <t>Address</t>
   </si>
@@ -188,33 +188,6 @@
   </si>
   <si>
     <t>Комплект офисной мебели</t>
-  </si>
-  <si>
-    <t>Кабинет руководителя
-Артикул 171
-Практичный и презентабельный кабинет бу для руководителя в хорошем состоянии, просим заметит, что на тумбе под оргтехнику есть царапины.
-Эта офисная мебель для директора отличается изысканным дизайном, который сочетает в себе современные тенденции и проверенные временем решения. Благодаря этому, она гармонично впишется в любой интерьер и подчеркнет корпоративный стиль вашей компании. 
-Офисная мебель будет не только украшением вашего офиса, но и отличным помощником в работе. 
-Просторный стол обеспечит вам комфортное рабочее пространство, где вы сможете полноценно раскрывать свой потенциал. Тумбы и шкафы предоставят удобное хранение оргтехники, канцелярии и документов, делая вашу работу более организованной и продуктивной.
-Так же у нас можно отдельно приобрести переговорный стол из серии этого прекрасного кабинета руководителя.
-Размеры ДхШхВ: Стол - 180х88
-Приставка - 150х60
-Шкафы - 83х45х197
-Тумба под оргтехнику - 83х45х82
-Цвет: Итальянский орех
-Цена: 60000
-Количество 1
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>Кабинет руководителя
@@ -795,9 +768,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/UZi2aZPXmiD3eQ | https://disk.yandex.ru/i/JDlfr5oNEx8LzA | https://disk.yandex.ru/i/NcZTV7N5P_W_Uw | https://disk.yandex.ru/i/H2TACXSC6qDfMg | https://disk.yandex.ru/i/ABxBgbXigzwbNA | https://disk.yandex.ru/i/ljp0VEq-3JnbJg | https://disk.yandex.ru/i/yTYMlIfLXjFOFw | https://disk.yandex.ru/i/je5vNZ2VIu9GyA | https://disk.yandex.ru/i/m32_3cIT2w4zfA | https://disk.yandex.ru/i/chHNHedFfzPlyA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/UHXRg6OxlEfUxg | https://disk.yandex.ru/i/PTTxLwvQo2wbOg | https://disk.yandex.ru/i/r8haHNYVYkEfug | https://disk.yandex.ru/i/wZvttGINkhGIPA | https://disk.yandex.ru/i/FPO_HMnaw_NKXg | https://disk.yandex.ru/i/4Lbq_Ng2NpSwkQ | https://disk.yandex.ru/i/st90yK27BGQlFQ | https://disk.yandex.ru/i/8jNbAfpOEXukxQ | https://disk.yandex.ru/i/HCJWd61-NB0yhA | https://disk.yandex.ru/i/DG-w_PhezIyGgg</t>
   </si>
   <si>
@@ -925,9 +895,6 @@
   </si>
   <si>
     <t>Письменный | Кухонный | Барный | Журнальный | Другой</t>
-  </si>
-  <si>
-    <t>Полукруглый</t>
   </si>
   <si>
     <t>Прямоугольный</t>
@@ -1356,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AS24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V4" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,714 +1476,744 @@
         <v>56</v>
       </c>
       <c r="F2">
-        <v>59999</v>
+        <v>24999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2">
+        <v>168</v>
+      </c>
+      <c r="S2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" t="s">
         <v>104</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AB2" t="s">
         <v>105</v>
       </c>
-      <c r="AA2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" t="s">
-        <v>109</v>
-      </c>
       <c r="AD2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" t="s">
         <v>110</v>
       </c>
-      <c r="AE2" t="s">
-        <v>111</v>
-      </c>
       <c r="AH2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI2" t="s">
         <v>120</v>
       </c>
-      <c r="AI2" t="s">
-        <v>121</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AM2">
         <v>75</v>
       </c>
       <c r="AN2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AP2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AQ2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AR2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AS2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
       </c>
       <c r="F3">
-        <v>24999</v>
+        <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3">
+        <v>2136</v>
+      </c>
+      <c r="S3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" t="s">
         <v>104</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AB3" t="s">
         <v>105</v>
       </c>
-      <c r="AA3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>107</v>
       </c>
-      <c r="AC3" t="s">
-        <v>109</v>
-      </c>
       <c r="AD3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI3" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>122</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AK3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM3">
         <v>75</v>
       </c>
       <c r="AN3">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AQ3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AS3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
       </c>
       <c r="F4">
-        <v>4999</v>
+        <v>99999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA4" t="s">
         <v>104</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AB4" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>107</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE4" t="s">
         <v>109</v>
       </c>
-      <c r="AD4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>113</v>
-      </c>
       <c r="AH4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AI4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AJ4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL4">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AM4">
         <v>75</v>
       </c>
       <c r="AN4">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AP4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AQ4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AS4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
       </c>
       <c r="F5">
-        <v>99999</v>
+        <v>19999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5">
+        <v>132</v>
+      </c>
+      <c r="S5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA5" t="s">
         <v>104</v>
       </c>
-      <c r="S5" t="s">
+      <c r="AB5" t="s">
         <v>105</v>
       </c>
-      <c r="AA5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>107</v>
       </c>
-      <c r="AC5" t="s">
-        <v>109</v>
-      </c>
       <c r="AD5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI5" t="s">
         <v>120</v>
       </c>
-      <c r="AI5" t="s">
-        <v>121</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AK5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL5">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AM5">
         <v>75</v>
       </c>
       <c r="AN5">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AQ5" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>133</v>
       </c>
       <c r="AS5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
       </c>
       <c r="F6">
-        <v>19999</v>
+        <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" t="s">
         <v>104</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AB6" t="s">
         <v>105</v>
       </c>
-      <c r="AA6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>107</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE6" t="s">
         <v>109</v>
       </c>
-      <c r="AD6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>114</v>
-      </c>
       <c r="AH6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AI6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AJ6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AK6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL6">
         <v>80</v>
       </c>
       <c r="AM6">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AN6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AQ6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AS6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>61</v>
       </c>
       <c r="F7">
-        <v>9999</v>
+        <v>50000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7">
+        <v>183</v>
+      </c>
+      <c r="S7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA7" t="s">
         <v>104</v>
       </c>
-      <c r="S7" t="s">
+      <c r="AB7" t="s">
         <v>105</v>
       </c>
-      <c r="AA7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>107</v>
       </c>
-      <c r="AC7" t="s">
-        <v>109</v>
-      </c>
       <c r="AD7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AI7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AJ7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AK7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL7">
         <v>130</v>
       </c>
-      <c r="AL7">
-        <v>80</v>
-      </c>
       <c r="AM7">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AN7">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AP7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AQ7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS7" t="s">
         <v>135</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>62</v>
       </c>
       <c r="F8">
-        <v>50000</v>
+        <v>99999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8">
+        <v>186</v>
+      </c>
+      <c r="S8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA8" t="s">
         <v>104</v>
       </c>
-      <c r="S8" t="s">
+      <c r="AB8" t="s">
         <v>105</v>
       </c>
-      <c r="AA8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>107</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE8" t="s">
         <v>109</v>
       </c>
-      <c r="AD8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>115</v>
-      </c>
       <c r="AH8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AI8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AJ8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="AK8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL8">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AM8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN8">
         <v>360</v>
       </c>
       <c r="AP8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AQ8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS8" t="s">
         <v>135</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
       </c>
       <c r="F9">
-        <v>99999</v>
+        <v>9999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9">
+        <v>188</v>
+      </c>
+      <c r="S9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA9" t="s">
         <v>104</v>
       </c>
-      <c r="S9" t="s">
+      <c r="AB9" t="s">
         <v>105</v>
       </c>
-      <c r="AA9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>107</v>
       </c>
-      <c r="AC9" t="s">
-        <v>109</v>
-      </c>
       <c r="AD9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE9" t="s">
         <v>111</v>
       </c>
       <c r="AH9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AI9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AJ9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL9">
+        <v>80</v>
+      </c>
+      <c r="AM9">
+        <v>73</v>
+      </c>
+      <c r="AN9">
+        <v>180</v>
+      </c>
+      <c r="AP9" t="s">
         <v>130</v>
       </c>
-      <c r="AL9">
-        <v>170</v>
-      </c>
-      <c r="AM9">
-        <v>75</v>
-      </c>
-      <c r="AN9">
-        <v>360</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>131</v>
-      </c>
       <c r="AQ9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
       </c>
       <c r="F10">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10">
+        <v>190</v>
+      </c>
+      <c r="S10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA10" t="s">
         <v>104</v>
       </c>
-      <c r="S10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>106</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>107</v>
       </c>
-      <c r="AC10" t="s">
-        <v>109</v>
-      </c>
       <c r="AD10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE10" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>117</v>
       </c>
       <c r="AH10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AI10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM10">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN10">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AP10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR10" t="s">
         <v>133</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>133</v>
-      </c>
       <c r="AS10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
       </c>
       <c r="F11">
-        <v>11999</v>
+        <v>15000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11">
+        <v>192</v>
+      </c>
+      <c r="S11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA11" t="s">
         <v>104</v>
       </c>
-      <c r="S11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>106</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD11" t="s">
         <v>108</v>
       </c>
-      <c r="AC11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>110</v>
-      </c>
       <c r="AE11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AH11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AI11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AJ11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK11" t="s">
         <v>127</v>
       </c>
-      <c r="AK11" t="s">
-        <v>130</v>
-      </c>
       <c r="AL11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM11">
         <v>75</v>
       </c>
       <c r="AN11">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AP11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AQ11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AS11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>66</v>
       </c>
       <c r="F12">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12">
+        <v>202</v>
+      </c>
+      <c r="S12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA12" t="s">
         <v>104</v>
       </c>
-      <c r="S12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>106</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD12" t="s">
         <v>108</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>109</v>
       </c>
-      <c r="AD12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>113</v>
-      </c>
       <c r="AH12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI12" t="s">
         <v>120</v>
       </c>
-      <c r="AI12" t="s">
-        <v>114</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL12">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM12">
         <v>75</v>
@@ -2225,84 +2222,87 @@
         <v>200</v>
       </c>
       <c r="AP12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR12" t="s">
         <v>133</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>135</v>
-      </c>
       <c r="AS12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13">
+        <v>198</v>
+      </c>
+      <c r="S13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA13" t="s">
         <v>104</v>
       </c>
-      <c r="K13">
-        <v>202</v>
-      </c>
-      <c r="S13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>106</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD13" t="s">
         <v>108</v>
       </c>
-      <c r="AC13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>110</v>
-      </c>
       <c r="AE13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AH13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI13" t="s">
         <v>120</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>122</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>125</v>
-      </c>
       <c r="AK13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL13">
+        <v>80</v>
+      </c>
+      <c r="AM13">
+        <v>73</v>
+      </c>
+      <c r="AN13">
+        <v>160</v>
+      </c>
+      <c r="AP13" t="s">
         <v>130</v>
       </c>
-      <c r="AL13">
-        <v>95</v>
-      </c>
-      <c r="AM13">
-        <v>75</v>
-      </c>
-      <c r="AN13">
-        <v>200</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>131</v>
-      </c>
       <c r="AQ13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR13" t="s">
         <v>133</v>
       </c>
-      <c r="AR13" t="s">
-        <v>136</v>
-      </c>
       <c r="AS13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -2316,46 +2316,46 @@
         <v>40000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14">
+        <v>197</v>
+      </c>
+      <c r="S14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA14" t="s">
         <v>104</v>
       </c>
-      <c r="K14">
-        <v>198</v>
-      </c>
-      <c r="S14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>106</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD14" t="s">
         <v>108</v>
       </c>
-      <c r="AC14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>110</v>
-      </c>
       <c r="AE14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AH14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI14" t="s">
         <v>120</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>122</v>
       </c>
       <c r="AJ14" t="s">
         <v>125</v>
       </c>
       <c r="AK14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL14">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM14">
         <v>73</v>
@@ -2364,87 +2364,87 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR14" t="s">
         <v>133</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>136</v>
-      </c>
       <c r="AS14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>69</v>
       </c>
       <c r="F15">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15">
+        <v>196</v>
+      </c>
+      <c r="S15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA15" t="s">
         <v>104</v>
       </c>
-      <c r="K15">
-        <v>197</v>
-      </c>
-      <c r="S15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>106</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD15" t="s">
         <v>108</v>
       </c>
-      <c r="AC15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>110</v>
-      </c>
       <c r="AE15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI15" t="s">
         <v>120</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>122</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>128</v>
-      </c>
       <c r="AK15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL15">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM15">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN15">
         <v>160</v>
       </c>
       <c r="AP15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR15" t="s">
         <v>133</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>136</v>
-      </c>
       <c r="AS15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -2455,135 +2455,132 @@
         <v>70</v>
       </c>
       <c r="F16">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16">
+        <v>195</v>
+      </c>
+      <c r="S16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA16" t="s">
         <v>104</v>
       </c>
-      <c r="K16">
-        <v>196</v>
-      </c>
-      <c r="S16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>106</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD16" t="s">
         <v>108</v>
       </c>
-      <c r="AC16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>110</v>
-      </c>
       <c r="AE16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI16" t="s">
         <v>120</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>122</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>125</v>
-      </c>
       <c r="AK16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL16">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AM16">
         <v>75</v>
       </c>
       <c r="AN16">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AP16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR16" t="s">
         <v>133</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>136</v>
-      </c>
       <c r="AS16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
       </c>
       <c r="F17">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17">
+        <v>204</v>
+      </c>
+      <c r="S17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA17" t="s">
         <v>104</v>
       </c>
-      <c r="K17">
-        <v>195</v>
-      </c>
-      <c r="S17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>106</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD17" t="s">
         <v>108</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
         <v>109</v>
       </c>
-      <c r="AD17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>117</v>
-      </c>
       <c r="AH17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI17" t="s">
         <v>120</v>
       </c>
-      <c r="AI17" t="s">
-        <v>122</v>
-      </c>
       <c r="AJ17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL17">
+        <v>120</v>
+      </c>
+      <c r="AM17">
+        <v>76</v>
+      </c>
+      <c r="AN17">
+        <v>200</v>
+      </c>
+      <c r="AP17" t="s">
         <v>130</v>
       </c>
-      <c r="AL17">
-        <v>86</v>
-      </c>
-      <c r="AM17">
-        <v>75</v>
-      </c>
-      <c r="AN17">
-        <v>180</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>133</v>
-      </c>
       <c r="AQ17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AS17" t="s">
         <v>137</v>
@@ -2597,46 +2594,46 @@
         <v>72</v>
       </c>
       <c r="F18">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18">
+        <v>205</v>
+      </c>
+      <c r="S18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA18" t="s">
         <v>104</v>
       </c>
-      <c r="K18">
-        <v>204</v>
-      </c>
-      <c r="S18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>106</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD18" t="s">
         <v>108</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>109</v>
       </c>
-      <c r="AD18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>111</v>
-      </c>
       <c r="AH18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI18" t="s">
         <v>120</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>122</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>129</v>
-      </c>
       <c r="AK18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL18">
         <v>120</v>
@@ -2648,226 +2645,229 @@
         <v>200</v>
       </c>
       <c r="AP18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR18" t="s">
         <v>133</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>133</v>
-      </c>
       <c r="AS18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>73</v>
       </c>
       <c r="F19">
-        <v>20000</v>
+        <v>19999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19">
+        <v>207</v>
+      </c>
+      <c r="S19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA19" t="s">
         <v>104</v>
       </c>
-      <c r="K19">
-        <v>205</v>
-      </c>
-      <c r="S19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>106</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD19" t="s">
         <v>108</v>
       </c>
-      <c r="AC19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>110</v>
-      </c>
       <c r="AE19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AH19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI19" t="s">
         <v>120</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>122</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL19">
+        <v>94</v>
+      </c>
+      <c r="AM19">
+        <v>74</v>
+      </c>
+      <c r="AN19">
+        <v>197</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>130</v>
       </c>
-      <c r="AL19">
-        <v>120</v>
-      </c>
-      <c r="AM19">
-        <v>76</v>
-      </c>
-      <c r="AN19">
-        <v>200</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AR19" t="s">
         <v>133</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>136</v>
-      </c>
       <c r="AS19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
       </c>
       <c r="F20">
-        <v>19999</v>
+        <v>45000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20">
+        <v>206</v>
+      </c>
+      <c r="S20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA20" t="s">
         <v>104</v>
       </c>
-      <c r="K20">
-        <v>207</v>
-      </c>
-      <c r="S20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>106</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AE20" t="s">
         <v>109</v>
       </c>
-      <c r="AD20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AH20" t="s">
         <v>118</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>120</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>122</v>
       </c>
       <c r="AJ20" t="s">
         <v>125</v>
       </c>
       <c r="AK20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL20">
+        <v>120</v>
+      </c>
+      <c r="AM20">
+        <v>75</v>
+      </c>
+      <c r="AN20">
+        <v>140</v>
+      </c>
+      <c r="AP20" t="s">
         <v>130</v>
       </c>
-      <c r="AL20">
-        <v>94</v>
-      </c>
-      <c r="AM20">
-        <v>74</v>
-      </c>
-      <c r="AN20">
-        <v>197</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>131</v>
-      </c>
       <c r="AQ20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR20" t="s">
         <v>133</v>
       </c>
-      <c r="AR20" t="s">
-        <v>136</v>
-      </c>
       <c r="AS20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
       </c>
       <c r="F21">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21">
+        <v>211</v>
+      </c>
+      <c r="S21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="K21">
-        <v>206</v>
-      </c>
-      <c r="S21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>106</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD21" t="s">
         <v>108</v>
       </c>
-      <c r="AC21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>110</v>
-      </c>
       <c r="AE21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AH21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI21" t="s">
         <v>120</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>122</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>128</v>
-      </c>
       <c r="AK21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL21">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM21">
         <v>75</v>
       </c>
       <c r="AN21">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR21" t="s">
         <v>133</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>136</v>
-      </c>
       <c r="AS21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="4:45" x14ac:dyDescent="0.25">
@@ -2881,43 +2881,43 @@
         <v>25000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22">
+        <v>210</v>
+      </c>
+      <c r="S22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA22" t="s">
         <v>104</v>
       </c>
-      <c r="K22">
-        <v>211</v>
-      </c>
-      <c r="S22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD22" t="s">
         <v>108</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>109</v>
       </c>
-      <c r="AD22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>117</v>
-      </c>
       <c r="AH22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI22" t="s">
         <v>120</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>122</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>125</v>
-      </c>
       <c r="AK22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL22">
         <v>80</v>
@@ -2929,16 +2929,16 @@
         <v>160</v>
       </c>
       <c r="AP22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR22" t="s">
         <v>133</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>136</v>
-      </c>
       <c r="AS22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="4:45" x14ac:dyDescent="0.25">
@@ -2949,46 +2949,46 @@
         <v>77</v>
       </c>
       <c r="F23">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23">
+        <v>209</v>
+      </c>
+      <c r="S23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA23" t="s">
         <v>104</v>
       </c>
-      <c r="K23">
-        <v>210</v>
-      </c>
-      <c r="S23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>106</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD23" t="s">
         <v>108</v>
       </c>
-      <c r="AC23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>110</v>
-      </c>
       <c r="AE23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AH23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI23" t="s">
         <v>120</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>122</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>125</v>
-      </c>
       <c r="AK23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL23">
         <v>80</v>
@@ -3000,16 +3000,16 @@
         <v>160</v>
       </c>
       <c r="AP23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR23" t="s">
         <v>133</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>136</v>
-      </c>
       <c r="AS23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="4:45" x14ac:dyDescent="0.25">
@@ -3020,46 +3020,46 @@
         <v>78</v>
       </c>
       <c r="F24">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="K24">
+        <v>208</v>
+      </c>
+      <c r="S24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA24" t="s">
         <v>104</v>
       </c>
-      <c r="K24">
-        <v>209</v>
-      </c>
-      <c r="S24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>106</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD24" t="s">
         <v>108</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
         <v>109</v>
       </c>
-      <c r="AD24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>117</v>
-      </c>
       <c r="AH24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI24" t="s">
         <v>120</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>122</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL24">
         <v>80</v>
@@ -3071,139 +3071,66 @@
         <v>160</v>
       </c>
       <c r="AP24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR24" t="s">
         <v>133</v>
       </c>
-      <c r="AQ24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>136</v>
-      </c>
       <c r="AS24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25">
-        <v>25000</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K25">
-        <v>208</v>
-      </c>
-      <c r="S25" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL25">
-        <v>80</v>
-      </c>
-      <c r="AM25">
-        <v>75</v>
-      </c>
-      <c r="AN25">
-        <v>160</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A2C888-D1C9-4DB4-AD73-AA1013123956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F5FFA2-DE06-434F-941F-822593001C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="134">
   <si>
     <t>Address</t>
   </si>
@@ -406,61 +406,6 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
-  </si>
-  <si>
-    <t>Кабинет руководителя
-Артикул (202)
-Офисная мебель для кабинета руководителя б/у в отличном состоянии, цвета венге. Комплект включает просторный стол с брифингом, который идеально подойдет для встреч и совещаний. Две тумбы обеспечивают удобное хранение документов и канцелярии.
-Шкаф для документов со стеклянными дверцами придаст кабинету презентабельность и позволит удобно разместить важные бумаги. Шкаф-гардероб для одежды завершает комплект, предлагая практичное решение для хранения личных вещей. Эта мебель не только функциональна, но и подчеркнет статус и стиль вашего офиса.
-Размеры ДхШхВ: Стол-200х95х75
-Брифинг-98х70
-Шкафы-81х45х211
-Тумба на колёсиках
-Тумба-граденция(под оргтехнику) 
-Цвет: Венге
-Цена 100 000
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Офисная мебель
-Артикул 198
-Комплект офисной мебели бу в отличном состоянии — идеальное решение для создания функционального рабочего пространства. В комплект входит просторный офисный стол на прочных металлических ногах, обеспечивающий устойчивость и удобство работы. Шкаф для документов и одежды позволяет хранить важные бумаги и личные вещи, поддерживая порядок в офисе. Дополнительно комплект включает тумбу под оргтехнику, которая оптимизирует использование пространства для размещения принтера, сканера и другой техники.
-Размеры ДхШхВ: Стол - 160х80х73
-Шкаф - 120х43х183
-Тумба под оргтехнику
-Цвет
-Цена 40 000
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>Офисная мебель
@@ -796,12 +741,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/YUqv1-fJ5z4pIg | https://disk.yandex.ru/i/hlH4PJWp6goS5A | https://disk.yandex.ru/i/zOu4tUC4ggOi_A | https://disk.yandex.ru/i/t8OXCkysyTmxlA | https://disk.yandex.ru/i/557Bzug0MWZbOg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/DwPfKQ5NYExm7g | https://disk.yandex.ru/i/N8CR9H4hx4_Nfw | https://disk.yandex.ru/i/ARqSJ75wjL2aJQ | https://disk.yandex.ru/i/Ckj1r6pMiuvyAA | https://disk.yandex.ru/i/O3NHI8YdsViOqg | https://disk.yandex.ru/i/837ttFJ5mxdcww | https://disk.yandex.ru/i/-HaQezqef6q6Hw | https://disk.yandex.ru/i/tYSyR-voRILiwQ | https://disk.yandex.ru/i/tHUxGJcrOTuCaA | https://disk.yandex.ru/i/9TTP43xT6BwUbA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/kvi6IHmS7m1wbw | https://disk.yandex.ru/i/62eO7qJIEpJKOw | https://disk.yandex.ru/i/jOuAy3sQL4dJsA | https://disk.yandex.ru/i/8jPMTAmwjG_cCw | https://disk.yandex.ru/i/VNeJPg_8ycy3og | https://disk.yandex.ru/i/MIp3PdPIo5giAA | https://disk.yandex.ru/i/BtEq6CItf1ngVg | https://disk.yandex.ru/i/Lnkq5ouncmoLGQ</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/9Fa3SdublDpVqw | https://disk.yandex.ru/i/oopBCeXN0pOY7w | https://disk.yandex.ru/i/8IJqF__1fn0AdA | https://disk.yandex.ru/i/tpno5M0JXgBYGQ | https://disk.yandex.ru/i/frvmm-YLfFA2vQ | https://disk.yandex.ru/i/F5APb11MLbfjjg | https://disk.yandex.ru/i/LHcUCki4lOh6iA | https://disk.yandex.ru/i/VNeJPg_8ycy3og | https://disk.yandex.ru/i/MIp3PdPIo5giAA | https://disk.yandex.ru/i/BtEq6CItf1ngVg</t>
@@ -1323,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS24"/>
+  <dimension ref="A1:AS22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A12" activeCellId="1" sqref="A13:XFD13 A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,43 +1418,43 @@
         <v>24999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>168</v>
       </c>
       <c r="S2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC2" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>108</v>
-      </c>
       <c r="AE2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AH2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>118</v>
       </c>
-      <c r="AI2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>122</v>
-      </c>
       <c r="AK2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL2">
         <v>90</v>
@@ -1527,16 +1466,16 @@
         <v>170</v>
       </c>
       <c r="AP2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AQ2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AR2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AS2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -1550,43 +1489,43 @@
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K3">
         <v>2136</v>
       </c>
       <c r="S3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC3" t="s">
         <v>103</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>104</v>
       </c>
-      <c r="AB3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>107</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AH3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI3" t="s">
         <v>108</v>
       </c>
-      <c r="AE3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>112</v>
-      </c>
       <c r="AJ3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK3" t="s">
         <v>123</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>127</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1598,13 +1537,13 @@
         <v>80</v>
       </c>
       <c r="AP3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AQ3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AS3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1618,43 +1557,43 @@
         <v>99999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC4" t="s">
         <v>103</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>104</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>105</v>
       </c>
-      <c r="AC4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>109</v>
-      </c>
       <c r="AH4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AI4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>119</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>123</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>127</v>
       </c>
       <c r="AL4">
         <v>200</v>
@@ -1666,13 +1605,13 @@
         <v>200</v>
       </c>
       <c r="AP4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AQ4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AS4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1686,43 +1625,43 @@
         <v>19999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>132</v>
       </c>
       <c r="S5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC5" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>104</v>
       </c>
-      <c r="AB5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>108</v>
       </c>
-      <c r="AE5" t="s">
-        <v>112</v>
-      </c>
       <c r="AH5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>118</v>
       </c>
-      <c r="AI5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>122</v>
-      </c>
       <c r="AK5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1734,16 +1673,16 @@
         <v>160</v>
       </c>
       <c r="AP5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS5" t="s">
         <v>130</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1757,43 +1696,43 @@
         <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC6" t="s">
         <v>103</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
         <v>104</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
         <v>105</v>
       </c>
-      <c r="AC6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>109</v>
-      </c>
       <c r="AH6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AI6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>119</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>123</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>127</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -1805,13 +1744,13 @@
         <v>80</v>
       </c>
       <c r="AP6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AQ6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AS6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -1825,43 +1764,43 @@
         <v>50000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>183</v>
       </c>
       <c r="S7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC7" t="s">
         <v>103</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
         <v>104</v>
       </c>
-      <c r="AB7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI7" t="s">
         <v>108</v>
       </c>
-      <c r="AE7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AJ7" t="s">
         <v>118</v>
       </c>
-      <c r="AI7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>122</v>
-      </c>
       <c r="AK7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL7">
         <v>130</v>
@@ -1873,13 +1812,13 @@
         <v>360</v>
       </c>
       <c r="AP7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS7" t="s">
         <v>131</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -1893,43 +1832,43 @@
         <v>99999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>186</v>
       </c>
       <c r="S8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC8" t="s">
         <v>103</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
         <v>105</v>
       </c>
-      <c r="AC8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AH8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI8" t="s">
         <v>108</v>
       </c>
-      <c r="AE8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>112</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AK8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL8">
         <v>170</v>
@@ -1941,13 +1880,13 @@
         <v>360</v>
       </c>
       <c r="AP8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AQ8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AS8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -1961,43 +1900,43 @@
         <v>9999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>188</v>
       </c>
       <c r="S9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC9" t="s">
         <v>103</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>104</v>
       </c>
-      <c r="AB9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>107</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AH9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI9" t="s">
         <v>108</v>
       </c>
-      <c r="AE9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
         <v>118</v>
       </c>
-      <c r="AI9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>122</v>
-      </c>
       <c r="AK9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2009,13 +1948,13 @@
         <v>180</v>
       </c>
       <c r="AP9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AQ9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AS9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -2029,46 +1968,46 @@
         <v>11999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>190</v>
       </c>
       <c r="S10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC10" t="s">
         <v>103</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
         <v>104</v>
       </c>
-      <c r="AB10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>108</v>
-      </c>
       <c r="AE10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH10" t="s">
         <v>114</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AI10" t="s">
         <v>117</v>
       </c>
-      <c r="AH10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>121</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL10">
         <v>90</v>
@@ -2080,16 +2019,16 @@
         <v>170</v>
       </c>
       <c r="AP10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>128</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>132</v>
-      </c>
       <c r="AR10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AS10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2103,46 +2042,46 @@
         <v>15000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>192</v>
       </c>
       <c r="S11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC11" t="s">
         <v>103</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>104</v>
       </c>
-      <c r="AB11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>107</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI11" t="s">
         <v>108</v>
       </c>
-      <c r="AE11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
         <v>118</v>
       </c>
-      <c r="AI11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>122</v>
-      </c>
       <c r="AK11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2154,649 +2093,649 @@
         <v>200</v>
       </c>
       <c r="AP11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS11" t="s">
         <v>130</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>66</v>
       </c>
       <c r="F12">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12">
+        <v>197</v>
+      </c>
+      <c r="S12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB12" t="s">
         <v>102</v>
       </c>
-      <c r="K12">
-        <v>202</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="AC12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
         <v>104</v>
       </c>
-      <c r="AB12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>108</v>
-      </c>
       <c r="AE12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AI12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL12">
         <v>120</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL12">
-        <v>95</v>
-      </c>
       <c r="AM12">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN12">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>128</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS12" t="s">
         <v>130</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13">
+        <v>196</v>
+      </c>
+      <c r="S13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB13" t="s">
         <v>102</v>
       </c>
-      <c r="K13">
-        <v>198</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="AC13" t="s">
         <v>103</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
         <v>104</v>
       </c>
-      <c r="AB13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AE13" t="s">
         <v>107</v>
       </c>
-      <c r="AD13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>115</v>
-      </c>
       <c r="AH13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>118</v>
       </c>
-      <c r="AI13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>122</v>
-      </c>
       <c r="AK13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL13">
         <v>80</v>
       </c>
       <c r="AM13">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN13">
         <v>160</v>
       </c>
       <c r="AP13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS13" t="s">
         <v>130</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>68</v>
       </c>
       <c r="F14">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14">
+        <v>195</v>
+      </c>
+      <c r="S14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="K14">
-        <v>197</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="AC14" t="s">
         <v>103</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>108</v>
-      </c>
       <c r="AE14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AH14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>118</v>
       </c>
-      <c r="AI14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL14">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="AM14">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN14">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AP14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS14" t="s">
         <v>130</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>69</v>
       </c>
       <c r="F15">
-        <v>90000</v>
+        <v>15000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15">
+        <v>204</v>
+      </c>
+      <c r="S15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB15" t="s">
         <v>102</v>
       </c>
-      <c r="K15">
-        <v>196</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AC15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
         <v>104</v>
       </c>
-      <c r="AB15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>108</v>
-      </c>
       <c r="AE15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AH15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AI15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AJ15" t="s">
         <v>122</v>
       </c>
       <c r="AK15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL15">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM15">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN15">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AP15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AQ15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS15" t="s">
         <v>133</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
         <v>70</v>
       </c>
       <c r="F16">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16">
+        <v>205</v>
+      </c>
+      <c r="S16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB16" t="s">
         <v>102</v>
       </c>
-      <c r="K16">
-        <v>195</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="AC16" t="s">
         <v>103</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
         <v>104</v>
       </c>
-      <c r="AB16" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>108</v>
-      </c>
       <c r="AE16" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AH16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>118</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AK16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL16">
         <v>120</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL16">
-        <v>86</v>
-      </c>
       <c r="AM16">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN16">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AQ16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AR16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS16" t="s">
         <v>133</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
       </c>
       <c r="F17">
-        <v>15000</v>
+        <v>19999</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17">
+        <v>207</v>
+      </c>
+      <c r="S17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL17">
         <v>94</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17">
-        <v>204</v>
-      </c>
-      <c r="S17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ17" t="s">
+      <c r="AM17">
+        <v>74</v>
+      </c>
+      <c r="AN17">
+        <v>197</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>126</v>
       </c>
-      <c r="AK17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL17">
-        <v>120</v>
-      </c>
-      <c r="AM17">
-        <v>76</v>
-      </c>
-      <c r="AN17">
-        <v>200</v>
-      </c>
-      <c r="AP17" t="s">
+      <c r="AR17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS17" t="s">
         <v>130</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
       </c>
       <c r="F18">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18">
+        <v>206</v>
+      </c>
+      <c r="S18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB18" t="s">
         <v>102</v>
       </c>
-      <c r="K18">
-        <v>205</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AC18" t="s">
         <v>103</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
         <v>104</v>
       </c>
-      <c r="AB18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>108</v>
-      </c>
       <c r="AE18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AI18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AJ18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL18">
         <v>120</v>
       </c>
       <c r="AM18">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN18">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AP18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS18" t="s">
         <v>130</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>73</v>
       </c>
       <c r="F19">
-        <v>19999</v>
+        <v>25000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19">
+        <v>211</v>
+      </c>
+      <c r="S19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB19" t="s">
         <v>102</v>
       </c>
-      <c r="K19">
-        <v>207</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AC19" t="s">
         <v>103</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AD19" t="s">
         <v>104</v>
       </c>
-      <c r="AB19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>108</v>
-      </c>
       <c r="AE19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI19" t="s">
         <v>116</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AJ19" t="s">
         <v>118</v>
       </c>
-      <c r="AI19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>122</v>
-      </c>
       <c r="AK19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL19">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AM19">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN19">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="AP19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>128</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AR19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS19" t="s">
         <v>130</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
       </c>
       <c r="F20">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20">
+        <v>210</v>
+      </c>
+      <c r="S20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="K20">
-        <v>206</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AC20" t="s">
         <v>103</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AD20" t="s">
         <v>104</v>
       </c>
-      <c r="AB20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>108</v>
-      </c>
       <c r="AE20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>118</v>
       </c>
-      <c r="AI20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>125</v>
-      </c>
       <c r="AK20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL20">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM20">
         <v>75</v>
       </c>
       <c r="AN20">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS20" t="s">
         <v>130</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="4:45" x14ac:dyDescent="0.25">
@@ -2807,46 +2746,46 @@
         <v>75</v>
       </c>
       <c r="F21">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="K21">
+        <v>209</v>
+      </c>
+      <c r="S21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB21" t="s">
         <v>102</v>
       </c>
-      <c r="K21">
-        <v>211</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="AC21" t="s">
         <v>103</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AD21" t="s">
         <v>104</v>
       </c>
-      <c r="AB21" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>108</v>
-      </c>
       <c r="AE21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AH21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>118</v>
       </c>
-      <c r="AI21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>122</v>
-      </c>
       <c r="AK21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL21">
         <v>80</v>
@@ -2858,16 +2797,16 @@
         <v>160</v>
       </c>
       <c r="AP21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS21" t="s">
         <v>130</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="22" spans="4:45" x14ac:dyDescent="0.25">
@@ -2881,43 +2820,43 @@
         <v>25000</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22">
+        <v>208</v>
+      </c>
+      <c r="S22" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="AA22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB22" t="s">
         <v>102</v>
       </c>
-      <c r="K22">
-        <v>210</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="AC22" t="s">
         <v>103</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AD22" t="s">
         <v>104</v>
       </c>
-      <c r="AB22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>108</v>
-      </c>
       <c r="AE22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>118</v>
       </c>
-      <c r="AI22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>122</v>
-      </c>
       <c r="AK22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL22">
         <v>80</v>
@@ -2929,158 +2868,16 @@
         <v>160</v>
       </c>
       <c r="AP22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS22" t="s">
         <v>130</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23">
-        <v>21000</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23">
-        <v>209</v>
-      </c>
-      <c r="S23" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL23">
-        <v>80</v>
-      </c>
-      <c r="AM23">
-        <v>75</v>
-      </c>
-      <c r="AN23">
-        <v>160</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24">
-        <v>25000</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24">
-        <v>208</v>
-      </c>
-      <c r="S24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL24">
-        <v>80</v>
-      </c>
-      <c r="AM24">
-        <v>75</v>
-      </c>
-      <c r="AN24">
-        <v>160</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3105,32 +2902,28 @@
     <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F5FFA2-DE06-434F-941F-822593001C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733FD7C2-491A-448E-ABE9-74F4E4D275D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="124">
   <si>
     <t>Address</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Переговорный стол офисный</t>
-  </si>
-  <si>
-    <t>Стол руководителя с брифингом</t>
   </si>
   <si>
     <t xml:space="preserve">Стол для переговоров SteelCase </t>
@@ -354,33 +351,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол руководителя с брифингом
-Артикул 190
-Описание Директорский стол с брифингом и встроенной тумбой, идеально подходящий для руководителя, который ценит стиль и функциональность. Стол выполнен в привлекательном рыжем цвете, который придаст вашему кабинету особый шарм и теплоту. На столе есть дефект
-Крепкие металлические ноги обеспечивают надежную устойчивость и долгий срок службы, а просторная рабочая поверхность позволяет комфортно разместить всю необходимую технику и документы. Встроенная тумба добавляет дополнительное место для хранения, поддерживая порядок на рабочем столе. Этот стол не только удобен и практичен, но и подчеркивает статус и утонченный вкус его владельца.
-Размеры ДхШхВ: Стол - 170х90х75
-Брифинг 120х80х75
-Цвет: рыжий
-Цена: 11 999 руб.
-Количество: 2 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
   </si>
   <si>
     <t xml:space="preserve">Стол для переговоров SteelCase 
@@ -494,35 +464,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол для переговоров
-Артикул 204
-Офисный стол для переговоров большого размера, классического цвета орех, этот стол не только добавит изысканности в ваш офис, но и станет функциональным центром для деловых встреч. Стол может вместить до 8 человек
-Этот офисный стол идеально подходит для организации эффективных переговоров. Выполненный из высококачественных материалов, он обеспечивает надежность и долговечность, что делает его прекрасным выбором для вашего бизнеса.
-Размеры ДхШхВ: 200х120х76
-Цвет: орех
-Цена: 15 000
-Количество: 1 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Стол для переговоров
 Артикул 205
 Офисный стол для переговоров большого размера, классического, всеми любимого цвета венге, этот стол не только добавит изысканности в ваш офис, но и станет функциональным центром для деловых встреч. Стол может вместить до 8 человек
@@ -737,9 +678,6 @@
     <t>https://disk.yandex.ru/i/T0jflNijHZmtUg | https://disk.yandex.ru/i/Orwhna4soUAO0w | https://disk.yandex.ru/i/C1JG3DsLTCLLkw | https://disk.yandex.ru/i/RRIBSu4IfM7K8A | https://disk.yandex.ru/i/vEq7re9pkJjpew | https://disk.yandex.ru/i/cssTFMJNR3yM_Q</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/qF_yhktMHownBA | https://disk.yandex.ru/i/1GDjTSyA1zuTCg | https://disk.yandex.ru/i/Bar07LsMu9gxUw | https://disk.yandex.ru/i/0q2GEY0V5g9-9g | https://disk.yandex.ru/i/Naj3wAtlfhYJdQ | https://disk.yandex.ru/i/vDi7QrBjndjxSA | https://disk.yandex.ru/i/0ZDpvmJExft3Wg | https://disk.yandex.ru/i/OD-Yd_SzquvG3g | https://disk.yandex.ru/i/sewclGSVdxVH_w | https://disk.yandex.ru/i/bY4SFOs2luOPhg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/YUqv1-fJ5z4pIg | https://disk.yandex.ru/i/hlH4PJWp6goS5A | https://disk.yandex.ru/i/zOu4tUC4ggOi_A | https://disk.yandex.ru/i/t8OXCkysyTmxlA | https://disk.yandex.ru/i/557Bzug0MWZbOg</t>
   </si>
   <si>
@@ -752,9 +690,6 @@
     <t>https://disk.yandex.ru/i/VkyxSLaFuBM9og | https://disk.yandex.ru/i/4zRJQz6FivA-eA | https://disk.yandex.ru/i/dUM8BZEMb4MIaw | https://disk.yandex.ru/i/Vi5_Qsp9sOqoKw | https://disk.yandex.ru/i/tghj8AP9xHj1-A | https://disk.yandex.ru/i/N8R3WCfMnLDZdw | https://disk.yandex.ru/i/R2pZUoqqUBYsBw | https://disk.yandex.ru/i/mq9rAXtFF6aYoQ | https://disk.yandex.ru/i/ye2ELAR9REc-9A | https://disk.yandex.ru/i/mll8oxHv0HkuZg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/H_jAZn6xzqU4gA | https://disk.yandex.ru/i/ptu5NoCXaFt67w | https://disk.yandex.ru/i/icQ7j-y_2-diCA | https://disk.yandex.ru/i/TwahrlUwVC4mUQ | https://disk.yandex.ru/i/WXOPCvL_CdydVg | https://disk.yandex.ru/i/eYG0TtceIWUvAg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Cr3HM9bi813R2w | https://disk.yandex.ru/i/55RyI3HDMryjdQ | https://disk.yandex.ru/i/pknHia8uSr6VcQ | https://disk.yandex.ru/i/DylOghCc2uqBRw | https://disk.yandex.ru/i/4SR57qkS_TUcMg</t>
   </si>
   <si>
@@ -812,18 +747,12 @@
     <t>Чёрный</t>
   </si>
   <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
     <t>Бежевый</t>
   </si>
   <si>
     <t>Красный</t>
   </si>
   <si>
-    <t xml:space="preserve"> Рыжий</t>
-  </si>
-  <si>
     <t>Столы</t>
   </si>
   <si>
@@ -833,22 +762,13 @@
     <t>Письменный</t>
   </si>
   <si>
-    <t>Письменный | Кухонный | Барный | Журнальный | Другой</t>
-  </si>
-  <si>
     <t>Прямоугольный</t>
   </si>
   <si>
     <t>Круглый</t>
   </si>
   <si>
-    <t>Прямонгольный | Квадратный | Круглый | Полукруглый | Угловой</t>
-  </si>
-  <si>
     <t>Угловой</t>
-  </si>
-  <si>
-    <t>Овальный</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1262,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS22"/>
+  <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" activeCellId="1" sqref="A13:XFD13 A12:XFD12"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,49 +1332,49 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>24999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>168</v>
       </c>
       <c r="S2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>101</v>
       </c>
-      <c r="AC2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>106</v>
-      </c>
       <c r="AH2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AJ2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL2">
         <v>90</v>
@@ -1466,16 +1386,16 @@
         <v>170</v>
       </c>
       <c r="AP2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AQ2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AR2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AS2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -1483,49 +1403,49 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>2136</v>
       </c>
       <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI3" t="s">
         <v>103</v>
       </c>
-      <c r="AD3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>108</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AK3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1537,13 +1457,13 @@
         <v>80</v>
       </c>
       <c r="AP3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AQ3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AS3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1551,49 +1471,49 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>99999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4" t="s">
         <v>99</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
         <v>100</v>
       </c>
-      <c r="AB4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>105</v>
-      </c>
       <c r="AH4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AK4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL4">
         <v>200</v>
@@ -1605,13 +1525,13 @@
         <v>200</v>
       </c>
       <c r="AP4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AQ4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AS4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1619,49 +1539,49 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>19999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <v>132</v>
       </c>
       <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" t="s">
         <v>99</v>
       </c>
-      <c r="AA5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>103</v>
       </c>
-      <c r="AD5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>108</v>
-      </c>
       <c r="AH5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AJ5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1673,16 +1593,16 @@
         <v>160</v>
       </c>
       <c r="AP5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AQ5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AR5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AS5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1690,49 +1610,49 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" t="s">
         <v>99</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AE6" t="s">
         <v>100</v>
       </c>
-      <c r="AB6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>105</v>
-      </c>
       <c r="AH6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -1744,13 +1664,13 @@
         <v>80</v>
       </c>
       <c r="AP6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AQ6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AS6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -1758,49 +1678,49 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>50000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>183</v>
       </c>
       <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI7" t="s">
         <v>103</v>
       </c>
-      <c r="AD7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>108</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL7">
         <v>130</v>
@@ -1812,13 +1732,13 @@
         <v>360</v>
       </c>
       <c r="AP7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AQ7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AS7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -1826,49 +1746,49 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>99999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>186</v>
       </c>
       <c r="S8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AE8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AH8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI8" t="s">
         <v>103</v>
       </c>
-      <c r="AD8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>108</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL8">
         <v>170</v>
@@ -1880,13 +1800,13 @@
         <v>360</v>
       </c>
       <c r="AP8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AQ8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AS8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -1894,49 +1814,49 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>9999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>188</v>
       </c>
       <c r="S9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" t="s">
         <v>99</v>
       </c>
-      <c r="AA9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI9" t="s">
         <v>103</v>
       </c>
-      <c r="AD9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>108</v>
-      </c>
       <c r="AJ9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -1948,13 +1868,13 @@
         <v>180</v>
       </c>
       <c r="AP9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AQ9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AS9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -1962,73 +1882,70 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10">
-        <v>11999</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10">
+        <v>192</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC10" t="s">
         <v>98</v>
       </c>
-      <c r="K10">
-        <v>190</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="AD10" t="s">
         <v>99</v>
       </c>
-      <c r="AA10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AE10" t="s">
         <v>102</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AF10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI10" t="s">
         <v>103</v>
       </c>
-      <c r="AD10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AJ10" t="s">
         <v>110</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AK10" t="s">
         <v>113</v>
       </c>
-      <c r="AH10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>123</v>
-      </c>
       <c r="AL10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM10">
         <v>75</v>
       </c>
       <c r="AN10">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AP10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AQ10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AS10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2036,141 +1953,141 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11">
+        <v>197</v>
+      </c>
+      <c r="S11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC11" t="s">
         <v>98</v>
       </c>
-      <c r="K11">
-        <v>192</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="AD11" t="s">
         <v>99</v>
       </c>
-      <c r="AA11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>104</v>
-      </c>
       <c r="AE11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH11" t="s">
         <v>107</v>
       </c>
-      <c r="AF11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>114</v>
-      </c>
       <c r="AI11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL11">
+        <v>120</v>
+      </c>
+      <c r="AM11">
+        <v>73</v>
+      </c>
+      <c r="AN11">
+        <v>160</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>118</v>
       </c>
-      <c r="AK11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL11">
-        <v>80</v>
-      </c>
-      <c r="AM11">
-        <v>75</v>
-      </c>
-      <c r="AN11">
-        <v>200</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>128</v>
+      <c r="AR11" t="s">
+        <v>119</v>
       </c>
       <c r="AS11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12">
+        <v>196</v>
+      </c>
+      <c r="S12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC12" t="s">
         <v>98</v>
       </c>
-      <c r="K12">
-        <v>197</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="AD12" t="s">
         <v>99</v>
       </c>
-      <c r="AA12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AE12" t="s">
         <v>102</v>
       </c>
-      <c r="AC12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>111</v>
-      </c>
       <c r="AH12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AJ12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL12">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM12">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN12">
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AQ12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AR12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AS12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2178,280 +2095,283 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13">
+        <v>195</v>
+      </c>
+      <c r="S13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC13" t="s">
         <v>98</v>
       </c>
-      <c r="K13">
-        <v>196</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="AD13" t="s">
         <v>99</v>
       </c>
-      <c r="AA13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>104</v>
-      </c>
       <c r="AE13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH13" t="s">
         <v>107</v>
       </c>
-      <c r="AH13" t="s">
-        <v>114</v>
-      </c>
       <c r="AI13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AJ13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL13">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AM13">
         <v>75</v>
       </c>
       <c r="AN13">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AP13" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AQ13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AR13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AS13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>205</v>
+      </c>
+      <c r="S14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC14" t="s">
         <v>98</v>
       </c>
-      <c r="K14">
-        <v>195</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="AD14" t="s">
         <v>99</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AE14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>111</v>
-      </c>
       <c r="AH14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL14">
+        <v>120</v>
+      </c>
+      <c r="AM14">
+        <v>76</v>
+      </c>
+      <c r="AN14">
+        <v>200</v>
+      </c>
+      <c r="AP14" t="s">
         <v>116</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK14" t="s">
+      <c r="AQ14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS14" t="s">
         <v>123</v>
-      </c>
-      <c r="AL14">
-        <v>86</v>
-      </c>
-      <c r="AM14">
-        <v>75</v>
-      </c>
-      <c r="AN14">
-        <v>180</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15">
-        <v>15000</v>
+        <v>19999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15">
+        <v>207</v>
+      </c>
+      <c r="S15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC15" t="s">
         <v>98</v>
       </c>
-      <c r="K15">
-        <v>204</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AD15" t="s">
         <v>99</v>
       </c>
-      <c r="AA15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>104</v>
-      </c>
       <c r="AE15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL15">
+        <v>94</v>
+      </c>
+      <c r="AM15">
+        <v>74</v>
+      </c>
+      <c r="AN15">
+        <v>197</v>
+      </c>
+      <c r="AP15" t="s">
         <v>114</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AQ15" t="s">
         <v>116</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL15">
+      <c r="AR15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS15" t="s">
         <v>120</v>
-      </c>
-      <c r="AM15">
-        <v>76</v>
-      </c>
-      <c r="AN15">
-        <v>200</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16">
+        <v>206</v>
+      </c>
+      <c r="S16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC16" t="s">
         <v>98</v>
       </c>
-      <c r="K16">
-        <v>205</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="AD16" t="s">
         <v>99</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AE16" t="s">
         <v>100</v>
       </c>
-      <c r="AB16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>105</v>
-      </c>
       <c r="AH16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AJ16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AK16" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL16">
         <v>120</v>
       </c>
       <c r="AM16">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN16">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AP16" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AQ16" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AR16" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AS16" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
@@ -2459,191 +2379,191 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17">
-        <v>19999</v>
+        <v>25000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <v>211</v>
+      </c>
+      <c r="S17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC17" t="s">
         <v>98</v>
       </c>
-      <c r="K17">
-        <v>207</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="AD17" t="s">
         <v>99</v>
       </c>
-      <c r="AA17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>104</v>
-      </c>
       <c r="AE17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="AH17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL17">
+        <v>80</v>
+      </c>
+      <c r="AM17">
+        <v>75</v>
+      </c>
+      <c r="AN17">
+        <v>160</v>
+      </c>
+      <c r="AP17" t="s">
         <v>116</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AQ17" t="s">
         <v>118</v>
       </c>
-      <c r="AK17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL17">
-        <v>94</v>
-      </c>
-      <c r="AM17">
-        <v>74</v>
-      </c>
-      <c r="AN17">
-        <v>197</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>126</v>
-      </c>
       <c r="AR17" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AS17" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18">
+        <v>210</v>
+      </c>
+      <c r="S18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC18" t="s">
         <v>98</v>
       </c>
-      <c r="K18">
-        <v>206</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AD18" t="s">
         <v>99</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AE18" t="s">
         <v>100</v>
       </c>
-      <c r="AB18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>105</v>
-      </c>
       <c r="AH18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI18" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AJ18" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AK18" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL18">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM18">
         <v>75</v>
       </c>
       <c r="AN18">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AQ18" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AR18" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AS18" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19">
+        <v>209</v>
+      </c>
+      <c r="S19" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="AA19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC19" t="s">
         <v>98</v>
       </c>
-      <c r="K19">
-        <v>211</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AD19" t="s">
         <v>99</v>
       </c>
-      <c r="AA19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>104</v>
-      </c>
       <c r="AE19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AH19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AJ19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL19">
         <v>80</v>
@@ -2655,66 +2575,66 @@
         <v>160</v>
       </c>
       <c r="AP19" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AQ19" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AR19" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AS19" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>25000</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20">
+        <v>208</v>
+      </c>
+      <c r="S20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA20" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="AB20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC20" t="s">
         <v>98</v>
       </c>
-      <c r="K20">
-        <v>210</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AD20" t="s">
         <v>99</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AE20" t="s">
         <v>100</v>
       </c>
-      <c r="AB20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>105</v>
-      </c>
       <c r="AH20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AJ20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AL20">
         <v>80</v>
@@ -2726,158 +2646,16 @@
         <v>160</v>
       </c>
       <c r="AP20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AQ20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AR20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AS20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21">
-        <v>21000</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21">
-        <v>209</v>
-      </c>
-      <c r="S21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL21">
-        <v>80</v>
-      </c>
-      <c r="AM21">
-        <v>75</v>
-      </c>
-      <c r="AN21">
-        <v>160</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22">
-        <v>25000</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22">
-        <v>208</v>
-      </c>
-      <c r="S22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL22">
-        <v>80</v>
-      </c>
-      <c r="AM22">
-        <v>75</v>
-      </c>
-      <c r="AN22">
-        <v>160</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2898,32 +2676,28 @@
     <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733FD7C2-491A-448E-ABE9-74F4E4D275D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1576203B-4ADE-40B6-B42C-59E462F71B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,18 +157,18 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>Стол переговорный</t>
+  </si>
+  <si>
+    <t>Стол круглый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол с тумбой </t>
+  </si>
+  <si>
     <t>Кабинет руководителя</t>
   </si>
   <si>
-    <t>Стол круглый</t>
-  </si>
-  <si>
-    <t>Стол переговорный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол с тумбой </t>
-  </si>
-  <si>
     <t>Стол для переговоров</t>
   </si>
   <si>
@@ -185,6 +185,70 @@
   </si>
   <si>
     <t>Комплект офисной мебели</t>
+  </si>
+  <si>
+    <t>Стол переговорный 
+Описание: Большой круглый стол подойдет как для офисов в качестве переговорного стола, так и для дома, как обеденный стол для большой семьи. Лакированный стол с красивым окрасом, который хорошо подойдет для любого интерьера.
+Просим заметить, что на столе есть дефекты.
+Диаметр 200
+Высота 78
+Цена: 99 999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол круглыйОписание: Качественный презентабельный стол на крепкой металлической ножке. 
+Цвет: Шемо
+Цена: 10000
+Количество: 1
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол с тумбой
+Артикул 132
+Описание: Стол на регулируемых металлических ножках с дополнительной приставкой (брифингом). Так же к столу идёт универсальная тумба от компании gesika с оргонайзером документов и концелярии.
+Размер: Стол - 160х80
+Брифинг - 100х100
+Тумба - 60х43х55
+Цвет:
+Цена: 20000
+Количество: 1
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>Кабинет руководителя
@@ -212,90 +276,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стол круглый
-Артикул 2136
-Описание Белый круглый стол, ножка не фиксированная, может вращаться. Есть дефекты на столешнице
-Размер 80 см
-Цвет белый
-Цена 5000
-Количество 1
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол переговорный 
-Описание: Большой круглый стол подойдет как для офисов в качестве переговорного стола, так и для дома, как обеденный стол для большой семьи. Лакированный стол с красивым окрасом, который хорошо подойдет для любого интерьера.
-Просим заметить, что на столе есть дефекты.
-Диаметр 200
-Высота 78
-Цена: 99 999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол с тумбой
-Артикул 132
-Описание: Стол на регулируемых металлических ножках с дополнительной приставкой (брифингом). Так же к столу идёт универсальная тумба от компании gesika с оргонайзером документов и концелярии.
-Размер: Стол - 160х80
-Брифинг - 100х100
-Тумба - 60х43х55
-Цвет:
-Цена: 20000
-Количество: 1
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол круглыйОписание: Качественный презентабельный стол на крепкой металлической ножке. 
-Цвет: Шемо
-Цена: 10000
-Количество: 1
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Стол переговорный
 Артикул 183
 ⚫️Переговорный стол из закаленного стекла на металлическом каркасе  - это стильное и функциональное решение для крупных деловых встреч и переговоров в офисе. Такой стол сочетает в себе элегантность и современный дизайн, что делает его привлекательным элементом офисного интерьера.
@@ -376,61 +356,6 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
-  </si>
-  <si>
-    <t>Офисная мебель
-Артикул 197
- комплект офисной мебели бу в отличном состоянии — идеальное решение для создания функционального рабочего пространства. В комплект входит просторный офисный стол на прочных металлических ногах, обеспечивающий устойчивость и удобство работы. Шкаф для документов и одежды позволяет хранить важные бумаги и личные вещи, поддерживая порядок в офисе. Дополнительно комплект включает тумбу под оргтехнику, которая оптимизирует использование пространства для размещения принтера, сканера и другой техники.
-Размеры ДхШхВ: Стол - 160х120х73
-Шкафы - 120х43х183
-Тумба под оргтехнику
-Цвет
-Цена 40 000
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кабинет руководителя
-Артикул 196
-Кабинет руководителя в современном стиле — идеальное решение для современного офиса. Большой эргономичный стол с брифингом на 3 человек позволяет эффективно проводить деловые встречи, обеспечивая комфорт как для руководителя, так и для гостей. Две вместительные тумбы помогут организовать пространство для хранения документов и офисной техники, а два стильных шкафа станут надежным местом для хранения бумаг и личных вещей.
-Мебель выполнена в современном стиле, что подчеркнет статус и вкус руководителя, создавая атмосферу продуктивности и комфорта в рабочем пространстве.
-Размеры ДхШхВ: Стол - 160х80х75
-Брифинг - 60х80 
-Шкафы - 120x42x148
-Тумба на колёсиках 
-Тумба под оргтехнику 
-Цвет
-Цена 90 000
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>Кабинет руководителя
@@ -464,6 +389,61 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Кабинет руководителя
+Артикул 196
+Кабинет руководителя в современном стиле — идеальное решение для современного офиса. Большой эргономичный стол с брифингом на 3 человек позволяет эффективно проводить деловые встречи, обеспечивая комфорт как для руководителя, так и для гостей. Две вместительные тумбы помогут организовать пространство для хранения документов и офисной техники, а два стильных шкафа станут надежным местом для хранения бумаг и личных вещей.
+Мебель выполнена в современном стиле, что подчеркнет статус и вкус руководителя, создавая атмосферу продуктивности и комфорта в рабочем пространстве.
+Размеры ДхШхВ: Стол - 160х80х75
+Брифинг - 60х80 
+Шкафы - 120x42x148
+Тумба на колёсиках 
+Тумба под оргтехнику 
+Цвет
+Цена 90 000
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Офисная мебель
+Артикул 197
+ комплект офисной мебели бу в отличном состоянии — идеальное решение для создания функционального рабочего пространства. В комплект входит просторный офисный стол на прочных металлических ногах, обеспечивающий устойчивость и удобство работы. Шкаф для документов и одежды позволяет хранить важные бумаги и личные вещи, поддерживая порядок в офисе. Дополнительно комплект включает тумбу под оргтехнику, которая оптимизирует использование пространства для размещения принтера, сканера и другой техники.
+Размеры ДхШхВ: Стол - 160х120х73
+Шкафы - 120х43х183
+Тумба под оргтехнику
+Цвет
+Цена 40 000
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>Стол для переговоров
 Артикул 205
 Офисный стол для переговоров большого размера, классического, всеми любимого цвета венге, этот стол не только добавит изысканности в ваш офис, но и станет функциональным центром для деловых встреч. Стол может вместить до 8 человек
@@ -472,6 +452,34 @@
 Размеры ДхШхВ: 200х120х76
 Цвет: венге
 Цена: 20 000
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Офисная мебель
+Артикул 206
+Эта офисная мебель в современном стиле цвета орех-пекан придаст кабинету элегантный и профессиональный вид. Угловой стол с интегрированной тумбой расширяет рабочую зону, создавая удобное пространство для работы. Дополнительная тумба под оргтехнику обеспечивает аккуратное размещение всех необходимых устройств. Два вместительных шкафа помогут организовать документы и личные вещи, а отдельный шкаф-гардероб предназначен для одежды, поддерживая порядок и презентабельность. Этот комплект мебели сочетает в себе стиль, практичность и эргономику, создавая комфортные условия для продуктивной работы.
+Размеры ДхШхВ: Стол - 140х120х75
+Шкафы для документов - 90х40х207
+Шкаф гардероб - 60х42х207
+Тумба приставная
+Тумба под оргтехнику
+Цвет: орех пекан
+Цена: 45 000 руб
 Количество: 1 шт
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
@@ -520,16 +528,14 @@
     </t>
   </si>
   <si>
-    <t>Офисная мебель
-Артикул 206
-Эта офисная мебель в современном стиле цвета орех-пекан придаст кабинету элегантный и профессиональный вид. Угловой стол с интегрированной тумбой расширяет рабочую зону, создавая удобное пространство для работы. Дополнительная тумба под оргтехнику обеспечивает аккуратное размещение всех необходимых устройств. Два вместительных шкафа помогут организовать документы и личные вещи, а отдельный шкаф-гардероб предназначен для одежды, поддерживая порядок и презентабельность. Этот комплект мебели сочетает в себе стиль, практичность и эргономику, создавая комфортные условия для продуктивной работы.
-Размеры ДхШхВ: Стол - 140х120х75
-Шкафы для документов - 90х40х207
-Шкаф гардероб - 60х42х207
-Тумба приставная
-Тумба под оргтехнику
-Цвет: орех пекан
-Цена: 45 000 руб
+    <t>Комплект офисной мебели
+Артикул 208
+Описание
+Размеры ДхШхВ: Стол-160х80х75
+Шкаф-80х45х199
+Низкий шкаф-80х40х110
+Цвет: ясень асахи
+Цена: 25 000
 Количество: 1 шт
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
@@ -549,14 +555,13 @@
   </si>
   <si>
     <t>Комплект офисной мебели
-Артикул 211
+Артикул 209
 Описание
 Размеры ДхШхВ: Стол-160х80х75
-Шкаф-80х45х145
-Низкий шкаф-80х40х110
+Шкаф-80х45х199
 Цвет: ясень асахи
-Цена: 25 000
-Количество: 3 шт
+Цена: 21 000
+Количество: 1 шт
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
@@ -604,13 +609,14 @@
   </si>
   <si>
     <t>Комплект офисной мебели
-Артикул 209
+Артикул 211
 Описание
 Размеры ДхШхВ: Стол-160х80х75
-Шкаф-80х45х199
+Шкаф-80х45х145
+Низкий шкаф-80х40х110
 Цвет: ясень асахи
-Цена: 21 000
-Количество: 1 шт
+Цена: 25 000
+Количество: 3 шт
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
@@ -628,89 +634,83 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Комплект офисной мебели
-Артикул 208
-Описание
-Размеры ДхШхВ: Стол-160х80х75
-Шкаф-80х45х199
-Низкий шкаф-80х40х110
-Цвет: ясень асахи
-Цена: 25 000
-Количество: 1 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
+    <t>Стол круглый
+Артикул 2136
+Описание Белый круглый стол, ножка не фиксированная, может вращаться. Есть дефекты на столешнице
+Размер 80 см
+Цвет белый
+Цена 5000
+Количество 1
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/v6krD4LPKukU9w | https://disk.yandex.ru/i/YSLTN_yXvUECGw | https://disk.yandex.ru/i/xPr-iOtZAGbhvg | https://disk.yandex.ru/i/BQUE4ZnI8lC0oA | https://disk.yandex.ru/i/0zZmb2pmI5FdHA | https://disk.yandex.ru/i/wk-skrHJFOGwvA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/vM0qg0crKZmyqQ | https://disk.yandex.ru/i/OxloUWElvXA_FQ | https://disk.yandex.ru/i/j9cGHsN0YxaVgg | https://disk.yandex.ru/i/VHzBSNc4kkiHkA | https://disk.yandex.ru/i/4MEkQ6dDio2OBA | https://disk.yandex.ru/i/ZOcnsS9CNAx9kQ | https://disk.yandex.ru/i/QKJj1Qtx7k2xug | https://disk.yandex.ru/i/ntZxv4uc68gOWg | https://disk.yandex.ru/i/DAN0HWYPcoA8Cw</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/UHXRg6OxlEfUxg | https://disk.yandex.ru/i/PTTxLwvQo2wbOg | https://disk.yandex.ru/i/r8haHNYVYkEfug | https://disk.yandex.ru/i/wZvttGINkhGIPA | https://disk.yandex.ru/i/FPO_HMnaw_NKXg | https://disk.yandex.ru/i/4Lbq_Ng2NpSwkQ | https://disk.yandex.ru/i/st90yK27BGQlFQ | https://disk.yandex.ru/i/8jNbAfpOEXukxQ | https://disk.yandex.ru/i/HCJWd61-NB0yhA | https://disk.yandex.ru/i/DG-w_PhezIyGgg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/aMfzSub9xTFXjw | https://disk.yandex.ru/i/maJyjBkoYISzIw | https://disk.yandex.ru/i/0wsihDFD--fR_Q | https://disk.yandex.ru/i/Gz4J3t-erXm8AA | https://disk.yandex.ru/i/TMtg8xaYCSa-CQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/SfiLSfb6sZfsGQ | https://disk.yandex.ru/i/mMtAuNHDYZAAog | https://disk.yandex.ru/i/4fm4IQOxGm3rRg | https://disk.yandex.ru/i/-KwWZNye2KgpXg | https://disk.yandex.ru/i/1O8voVaNyCzv6g | https://disk.yandex.ru/i/oDvHEQ_TvosWMg | https://disk.yandex.ru/i/8K037bCwGKI3sQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/T0jflNijHZmtUg | https://disk.yandex.ru/i/Orwhna4soUAO0w | https://disk.yandex.ru/i/C1JG3DsLTCLLkw | https://disk.yandex.ru/i/RRIBSu4IfM7K8A | https://disk.yandex.ru/i/vEq7re9pkJjpew | https://disk.yandex.ru/i/cssTFMJNR3yM_Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YUqv1-fJ5z4pIg | https://disk.yandex.ru/i/hlH4PJWp6goS5A | https://disk.yandex.ru/i/zOu4tUC4ggOi_A | https://disk.yandex.ru/i/t8OXCkysyTmxlA | https://disk.yandex.ru/i/557Bzug0MWZbOg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/VkyxSLaFuBM9og | https://disk.yandex.ru/i/4zRJQz6FivA-eA | https://disk.yandex.ru/i/dUM8BZEMb4MIaw | https://disk.yandex.ru/i/Vi5_Qsp9sOqoKw | https://disk.yandex.ru/i/tghj8AP9xHj1-A | https://disk.yandex.ru/i/N8R3WCfMnLDZdw | https://disk.yandex.ru/i/R2pZUoqqUBYsBw | https://disk.yandex.ru/i/mq9rAXtFF6aYoQ | https://disk.yandex.ru/i/ye2ELAR9REc-9A | https://disk.yandex.ru/i/mll8oxHv0HkuZg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1aTqiuWn9-lL9Q | https://disk.yandex.ru/i/uckFkWKMcnrTbg | https://disk.yandex.ru/i/ae8H10ig2MudAQ | https://disk.yandex.ru/i/vpib0o8A1KEfYw | https://disk.yandex.ru/i/ahH_FLlcBfx7_A | https://disk.yandex.ru/i/J1DtSL8r8BmzdA | https://disk.yandex.ru/i/1QyzSzFrZxYPgw | https://disk.yandex.ru/i/Nz8Tmi4Jli1IKg | https://disk.yandex.ru/i/_4DMU3B-Z5cE-A | https://disk.yandex.ru/i/BnE9oWNA91SUzg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9Fa3SdublDpVqw | https://disk.yandex.ru/i/oopBCeXN0pOY7w | https://disk.yandex.ru/i/8IJqF__1fn0AdA | https://disk.yandex.ru/i/tpno5M0JXgBYGQ | https://disk.yandex.ru/i/frvmm-YLfFA2vQ | https://disk.yandex.ru/i/F5APb11MLbfjjg | https://disk.yandex.ru/i/LHcUCki4lOh6iA | https://disk.yandex.ru/i/VNeJPg_8ycy3og | https://disk.yandex.ru/i/MIp3PdPIo5giAA | https://disk.yandex.ru/i/BtEq6CItf1ngVg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Cr3HM9bi813R2w | https://disk.yandex.ru/i/55RyI3HDMryjdQ | https://disk.yandex.ru/i/pknHia8uSr6VcQ | https://disk.yandex.ru/i/DylOghCc2uqBRw | https://disk.yandex.ru/i/4SR57qkS_TUcMg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/3XF-uU80s4VjnA | https://disk.yandex.ru/i/bv38pOHNdW4aCA | https://disk.yandex.ru/i/9ebuVVwhOlesXg | https://disk.yandex.ru/i/_ziaDlSCGep8Tw | https://disk.yandex.ru/i/ARxam6wrDAob9w | https://disk.yandex.ru/i/4OlOvkgAmTaxcg | https://disk.yandex.ru/i/7MKuKMp_ntfHGQ | https://disk.yandex.ru/i/bUElzUjhtTfBHA | https://disk.yandex.ru/i/F9U5P5BlsOxFGw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/HWLDYbtUpq0qlQ | https://disk.yandex.ru/i/vInlxVuQE03X7A | https://disk.yandex.ru/i/a3TMO838uEudgw | https://disk.yandex.ru/i/sZw1tMAeO5oNrA | https://disk.yandex.ru/i/1gG7UrG_S6_JsA | https://disk.yandex.ru/i/JEiPTBSmCZLVRg | https://disk.yandex.ru/i/czjDGmZQoXe30Q | https://disk.yandex.ru/i/woUhjXEYoPywIw | https://disk.yandex.ru/i/JyPZu-nkNH1DSg | https://disk.yandex.ru/i/zDHPGHlKicWIrw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/nyuhp_rcq9mpRw | https://disk.yandex.ru/i/9ZBcNQKOh9RNJQ | https://disk.yandex.ru/i/q19oOBTxah3OAg | https://disk.yandex.ru/i/B5xuGJs6k9smtg | https://disk.yandex.ru/i/iNZFdD74Cqbmnw | https://disk.yandex.ru/i/lxOderh0uiVZPg | https://disk.yandex.ru/i/4f9F-E4jfGZF-A | https://disk.yandex.ru/i/OjZTag84BA__qw | https://disk.yandex.ru/i/qIOQD7LeuPP-Gw | https://disk.yandex.ru/i/sEbH6BRS_qnyCg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/XGNkB3NO6IaZYA | https://disk.yandex.ru/i/P88chKGHgwwdRw | https://disk.yandex.ru/i/9ZBcNQKOh9RNJQ | https://disk.yandex.ru/i/B5xuGJs6k9smtg | https://disk.yandex.ru/i/q19oOBTxah3OAg | https://disk.yandex.ru/i/n4wa2xeEAXgZGg | https://disk.yandex.ru/i/iNZFdD74Cqbmnw | https://disk.yandex.ru/i/lxOderh0uiVZPg | https://disk.yandex.ru/i/4f9F-E4jfGZF-A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/GsAY2-mDDa5n8Q | https://disk.yandex.ru/i/AwDoeQ9tmRpk_Q | https://disk.yandex.ru/i/WbG_DCUtV66iNQ | https://disk.yandex.ru/i/kVVIDcViwF3RvQ | https://disk.yandex.ru/i/lj1sVacCNSbzUA | https://disk.yandex.ru/i/Mg2eBy1hi18pxg | https://disk.yandex.ru/i/w7PPlVkAVYnB6A | https://disk.yandex.ru/i/7z7oHzhaX-h91w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/EdK37TeCWOkhaw | https://disk.yandex.ru/i/AwDoeQ9tmRpk_Q | https://disk.yandex.ru/i/WbG_DCUtV66iNQ | https://disk.yandex.ru/i/kVVIDcViwF3RvQ | https://disk.yandex.ru/i/lj1sVacCNSbzUA | https://disk.yandex.ru/i/kKhRBRut8Nkm2g | https://disk.yandex.ru/i/tQ2EDy7NET_mEA | https://disk.yandex.ru/i/bSm89Zl9twjXkA | https://disk.yandex.ru/i/OjZTag84BA__qw | https://disk.yandex.ru/i/qIOQD7LeuPP-Gw</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/d7VhfnI3Tzeyhw | https://disk.yandex.ru/i/3LhVw5XmxI4kEA | https://disk.yandex.ru/i/E8Oe5s46i5Iihw | https://disk.yandex.ru/i/85xR4DpK7PwOQA | https://disk.yandex.ru/i/XgBGVKbNp_5CSg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/vM0qg0crKZmyqQ | https://disk.yandex.ru/i/OxloUWElvXA_FQ | https://disk.yandex.ru/i/j9cGHsN0YxaVgg | https://disk.yandex.ru/i/VHzBSNc4kkiHkA | https://disk.yandex.ru/i/4MEkQ6dDio2OBA | https://disk.yandex.ru/i/ZOcnsS9CNAx9kQ | https://disk.yandex.ru/i/QKJj1Qtx7k2xug | https://disk.yandex.ru/i/ntZxv4uc68gOWg | https://disk.yandex.ru/i/DAN0HWYPcoA8Cw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/v6krD4LPKukU9w | https://disk.yandex.ru/i/YSLTN_yXvUECGw | https://disk.yandex.ru/i/xPr-iOtZAGbhvg | https://disk.yandex.ru/i/BQUE4ZnI8lC0oA | https://disk.yandex.ru/i/0zZmb2pmI5FdHA | https://disk.yandex.ru/i/wk-skrHJFOGwvA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/aMfzSub9xTFXjw | https://disk.yandex.ru/i/maJyjBkoYISzIw | https://disk.yandex.ru/i/0wsihDFD--fR_Q | https://disk.yandex.ru/i/Gz4J3t-erXm8AA | https://disk.yandex.ru/i/TMtg8xaYCSa-CQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/SfiLSfb6sZfsGQ | https://disk.yandex.ru/i/mMtAuNHDYZAAog | https://disk.yandex.ru/i/4fm4IQOxGm3rRg | https://disk.yandex.ru/i/-KwWZNye2KgpXg | https://disk.yandex.ru/i/1O8voVaNyCzv6g | https://disk.yandex.ru/i/oDvHEQ_TvosWMg | https://disk.yandex.ru/i/8K037bCwGKI3sQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/T0jflNijHZmtUg | https://disk.yandex.ru/i/Orwhna4soUAO0w | https://disk.yandex.ru/i/C1JG3DsLTCLLkw | https://disk.yandex.ru/i/RRIBSu4IfM7K8A | https://disk.yandex.ru/i/vEq7re9pkJjpew | https://disk.yandex.ru/i/cssTFMJNR3yM_Q</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/YUqv1-fJ5z4pIg | https://disk.yandex.ru/i/hlH4PJWp6goS5A | https://disk.yandex.ru/i/zOu4tUC4ggOi_A | https://disk.yandex.ru/i/t8OXCkysyTmxlA | https://disk.yandex.ru/i/557Bzug0MWZbOg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/9Fa3SdublDpVqw | https://disk.yandex.ru/i/oopBCeXN0pOY7w | https://disk.yandex.ru/i/8IJqF__1fn0AdA | https://disk.yandex.ru/i/tpno5M0JXgBYGQ | https://disk.yandex.ru/i/frvmm-YLfFA2vQ | https://disk.yandex.ru/i/F5APb11MLbfjjg | https://disk.yandex.ru/i/LHcUCki4lOh6iA | https://disk.yandex.ru/i/VNeJPg_8ycy3og | https://disk.yandex.ru/i/MIp3PdPIo5giAA | https://disk.yandex.ru/i/BtEq6CItf1ngVg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/1aTqiuWn9-lL9Q | https://disk.yandex.ru/i/uckFkWKMcnrTbg | https://disk.yandex.ru/i/ae8H10ig2MudAQ | https://disk.yandex.ru/i/vpib0o8A1KEfYw | https://disk.yandex.ru/i/ahH_FLlcBfx7_A | https://disk.yandex.ru/i/J1DtSL8r8BmzdA | https://disk.yandex.ru/i/1QyzSzFrZxYPgw | https://disk.yandex.ru/i/Nz8Tmi4Jli1IKg | https://disk.yandex.ru/i/_4DMU3B-Z5cE-A | https://disk.yandex.ru/i/BnE9oWNA91SUzg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/VkyxSLaFuBM9og | https://disk.yandex.ru/i/4zRJQz6FivA-eA | https://disk.yandex.ru/i/dUM8BZEMb4MIaw | https://disk.yandex.ru/i/Vi5_Qsp9sOqoKw | https://disk.yandex.ru/i/tghj8AP9xHj1-A | https://disk.yandex.ru/i/N8R3WCfMnLDZdw | https://disk.yandex.ru/i/R2pZUoqqUBYsBw | https://disk.yandex.ru/i/mq9rAXtFF6aYoQ | https://disk.yandex.ru/i/ye2ELAR9REc-9A | https://disk.yandex.ru/i/mll8oxHv0HkuZg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Cr3HM9bi813R2w | https://disk.yandex.ru/i/55RyI3HDMryjdQ | https://disk.yandex.ru/i/pknHia8uSr6VcQ | https://disk.yandex.ru/i/DylOghCc2uqBRw | https://disk.yandex.ru/i/4SR57qkS_TUcMg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/HWLDYbtUpq0qlQ | https://disk.yandex.ru/i/vInlxVuQE03X7A | https://disk.yandex.ru/i/a3TMO838uEudgw | https://disk.yandex.ru/i/sZw1tMAeO5oNrA | https://disk.yandex.ru/i/1gG7UrG_S6_JsA | https://disk.yandex.ru/i/JEiPTBSmCZLVRg | https://disk.yandex.ru/i/czjDGmZQoXe30Q | https://disk.yandex.ru/i/woUhjXEYoPywIw | https://disk.yandex.ru/i/JyPZu-nkNH1DSg | https://disk.yandex.ru/i/zDHPGHlKicWIrw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/3XF-uU80s4VjnA | https://disk.yandex.ru/i/bv38pOHNdW4aCA | https://disk.yandex.ru/i/9ebuVVwhOlesXg | https://disk.yandex.ru/i/_ziaDlSCGep8Tw | https://disk.yandex.ru/i/ARxam6wrDAob9w | https://disk.yandex.ru/i/4OlOvkgAmTaxcg | https://disk.yandex.ru/i/7MKuKMp_ntfHGQ | https://disk.yandex.ru/i/bUElzUjhtTfBHA | https://disk.yandex.ru/i/F9U5P5BlsOxFGw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/EdK37TeCWOkhaw | https://disk.yandex.ru/i/AwDoeQ9tmRpk_Q | https://disk.yandex.ru/i/WbG_DCUtV66iNQ | https://disk.yandex.ru/i/kVVIDcViwF3RvQ | https://disk.yandex.ru/i/lj1sVacCNSbzUA | https://disk.yandex.ru/i/kKhRBRut8Nkm2g | https://disk.yandex.ru/i/tQ2EDy7NET_mEA | https://disk.yandex.ru/i/bSm89Zl9twjXkA | https://disk.yandex.ru/i/OjZTag84BA__qw | https://disk.yandex.ru/i/qIOQD7LeuPP-Gw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/GsAY2-mDDa5n8Q | https://disk.yandex.ru/i/AwDoeQ9tmRpk_Q | https://disk.yandex.ru/i/WbG_DCUtV66iNQ | https://disk.yandex.ru/i/kVVIDcViwF3RvQ | https://disk.yandex.ru/i/lj1sVacCNSbzUA | https://disk.yandex.ru/i/Mg2eBy1hi18pxg | https://disk.yandex.ru/i/w7PPlVkAVYnB6A | https://disk.yandex.ru/i/7z7oHzhaX-h91w</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/XGNkB3NO6IaZYA | https://disk.yandex.ru/i/P88chKGHgwwdRw | https://disk.yandex.ru/i/9ZBcNQKOh9RNJQ | https://disk.yandex.ru/i/B5xuGJs6k9smtg | https://disk.yandex.ru/i/q19oOBTxah3OAg | https://disk.yandex.ru/i/n4wa2xeEAXgZGg | https://disk.yandex.ru/i/iNZFdD74Cqbmnw | https://disk.yandex.ru/i/lxOderh0uiVZPg | https://disk.yandex.ru/i/4f9F-E4jfGZF-A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/nyuhp_rcq9mpRw | https://disk.yandex.ru/i/9ZBcNQKOh9RNJQ | https://disk.yandex.ru/i/q19oOBTxah3OAg | https://disk.yandex.ru/i/B5xuGJs6k9smtg | https://disk.yandex.ru/i/iNZFdD74Cqbmnw | https://disk.yandex.ru/i/lxOderh0uiVZPg | https://disk.yandex.ru/i/4f9F-E4jfGZF-A | https://disk.yandex.ru/i/OjZTag84BA__qw | https://disk.yandex.ru/i/qIOQD7LeuPP-Gw | https://disk.yandex.ru/i/sEbH6BRS_qnyCg</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -735,18 +735,18 @@
     <t>Коричневый</t>
   </si>
   <si>
+    <t>Другой</t>
+  </si>
+  <si>
     <t>Жёлтый</t>
   </si>
   <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
     <t>Белый</t>
   </si>
   <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
     <t>Бежевый</t>
   </si>
   <si>
@@ -762,27 +762,27 @@
     <t>Письменный</t>
   </si>
   <si>
+    <t>Круглый</t>
+  </si>
+  <si>
     <t>Прямоугольный</t>
   </si>
   <si>
-    <t>Круглый</t>
-  </si>
-  <si>
     <t>Угловой</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
+    <t>Дерево</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
     <t>ЛДСП</t>
   </si>
   <si>
-    <t>Дерево</t>
-  </si>
-  <si>
-    <t>ДСП</t>
-  </si>
-  <si>
     <t>Стекло</t>
   </si>
   <si>
@@ -792,10 +792,10 @@
     <t>Тумба</t>
   </si>
   <si>
+    <t>Бар/кафе | Кабинет | Кухня</t>
+  </si>
+  <si>
     <t>Кабинет</t>
-  </si>
-  <si>
-    <t>Бар/кафе | Кабинет | Кухня</t>
   </si>
   <si>
     <t>Кабинет | Кухня</t>
@@ -896,9 +896,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -936,9 +936,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,9 +971,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,9 +1023,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1185,7 +1219,7 @@
   <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1369,7 @@
         <v>55</v>
       </c>
       <c r="F2">
-        <v>24999</v>
+        <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>74</v>
@@ -1344,7 +1378,7 @@
         <v>93</v>
       </c>
       <c r="K2">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>94</v>
@@ -1362,13 +1396,13 @@
         <v>99</v>
       </c>
       <c r="AE2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH2" t="s">
         <v>107</v>
       </c>
       <c r="AI2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AJ2" t="s">
         <v>110</v>
@@ -1377,22 +1411,19 @@
         <v>113</v>
       </c>
       <c r="AL2">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AM2">
         <v>75</v>
       </c>
       <c r="AN2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AP2" t="s">
         <v>114</v>
       </c>
       <c r="AQ2" t="s">
         <v>114</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>119</v>
       </c>
       <c r="AS2" t="s">
         <v>120</v>
@@ -1406,7 +1437,7 @@
         <v>56</v>
       </c>
       <c r="F3">
-        <v>4999</v>
+        <v>9999</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>75</v>
@@ -1415,7 +1446,7 @@
         <v>93</v>
       </c>
       <c r="K3">
-        <v>2136</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
         <v>94</v>
@@ -1433,16 +1464,16 @@
         <v>99</v>
       </c>
       <c r="AE3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH3" t="s">
         <v>107</v>
       </c>
       <c r="AI3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AJ3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK3" t="s">
         <v>113</v>
@@ -1451,19 +1482,19 @@
         <v>80</v>
       </c>
       <c r="AM3">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AN3">
         <v>80</v>
       </c>
       <c r="AP3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AQ3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AS3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1474,7 +1505,7 @@
         <v>57</v>
       </c>
       <c r="F4">
-        <v>99999</v>
+        <v>19999</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>76</v>
@@ -1483,7 +1514,7 @@
         <v>93</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="S4" t="s">
         <v>94</v>
@@ -1501,13 +1532,13 @@
         <v>99</v>
       </c>
       <c r="AE4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AH4" t="s">
         <v>107</v>
       </c>
       <c r="AI4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ4" t="s">
         <v>111</v>
@@ -1516,19 +1547,22 @@
         <v>113</v>
       </c>
       <c r="AL4">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AM4">
         <v>75</v>
       </c>
       <c r="AN4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP4" t="s">
         <v>115</v>
       </c>
       <c r="AQ4" t="s">
         <v>115</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>119</v>
       </c>
       <c r="AS4" t="s">
         <v>121</v>
@@ -1542,7 +1576,7 @@
         <v>58</v>
       </c>
       <c r="F5">
-        <v>19999</v>
+        <v>24999</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>77</v>
@@ -1551,7 +1585,7 @@
         <v>93</v>
       </c>
       <c r="K5">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="S5" t="s">
         <v>94</v>
@@ -1569,7 +1603,7 @@
         <v>99</v>
       </c>
       <c r="AE5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH5" t="s">
         <v>107</v>
@@ -1578,19 +1612,19 @@
         <v>109</v>
       </c>
       <c r="AJ5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK5" t="s">
         <v>113</v>
       </c>
       <c r="AL5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM5">
         <v>75</v>
       </c>
       <c r="AN5">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AP5" t="s">
         <v>116</v>
@@ -1602,18 +1636,18 @@
         <v>119</v>
       </c>
       <c r="AS5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>59</v>
       </c>
       <c r="F6">
-        <v>9999</v>
+        <v>50000</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>78</v>
@@ -1622,7 +1656,7 @@
         <v>93</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="S6" t="s">
         <v>94</v>
@@ -1640,13 +1674,13 @@
         <v>99</v>
       </c>
       <c r="AE6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AH6" t="s">
         <v>107</v>
       </c>
       <c r="AI6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="s">
         <v>111</v>
@@ -1655,33 +1689,33 @@
         <v>113</v>
       </c>
       <c r="AL6">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AM6">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AN6">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AP6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ6" t="s">
         <v>118</v>
       </c>
       <c r="AS6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
       </c>
       <c r="F7">
-        <v>50000</v>
+        <v>99999</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>79</v>
@@ -1690,7 +1724,7 @@
         <v>93</v>
       </c>
       <c r="K7">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S7" t="s">
         <v>94</v>
@@ -1708,48 +1742,48 @@
         <v>99</v>
       </c>
       <c r="AE7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AH7" t="s">
         <v>107</v>
       </c>
       <c r="AI7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s">
         <v>113</v>
       </c>
       <c r="AL7">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AM7">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN7">
         <v>360</v>
       </c>
       <c r="AP7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AS7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>61</v>
       </c>
       <c r="F8">
-        <v>99999</v>
+        <v>9999</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>80</v>
@@ -1758,7 +1792,7 @@
         <v>93</v>
       </c>
       <c r="K8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S8" t="s">
         <v>94</v>
@@ -1776,48 +1810,48 @@
         <v>99</v>
       </c>
       <c r="AE8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AH8" t="s">
         <v>107</v>
       </c>
       <c r="AI8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AK8" t="s">
         <v>113</v>
       </c>
       <c r="AL8">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AM8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN8">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AP8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AQ8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AS8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
       </c>
       <c r="F9">
-        <v>9999</v>
+        <v>15000</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>81</v>
@@ -1826,7 +1860,7 @@
         <v>93</v>
       </c>
       <c r="K9">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S9" t="s">
         <v>94</v>
@@ -1835,7 +1869,7 @@
         <v>95</v>
       </c>
       <c r="AB9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC9" t="s">
         <v>98</v>
@@ -1844,16 +1878,19 @@
         <v>99</v>
       </c>
       <c r="AE9" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>104</v>
       </c>
       <c r="AH9" t="s">
         <v>107</v>
       </c>
       <c r="AI9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK9" t="s">
         <v>113</v>
@@ -1862,30 +1899,30 @@
         <v>80</v>
       </c>
       <c r="AM9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN9">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AS9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
       </c>
       <c r="F10">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>82</v>
@@ -1894,7 +1931,7 @@
         <v>93</v>
       </c>
       <c r="K10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S10" t="s">
         <v>94</v>
@@ -1912,51 +1949,51 @@
         <v>99</v>
       </c>
       <c r="AE10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AH10" t="s">
         <v>107</v>
       </c>
       <c r="AI10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AJ10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK10" t="s">
         <v>113</v>
       </c>
       <c r="AL10">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AM10">
         <v>75</v>
       </c>
       <c r="AN10">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ10" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>119</v>
       </c>
       <c r="AS10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>64</v>
       </c>
       <c r="F11">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>83</v>
@@ -1965,7 +2002,7 @@
         <v>93</v>
       </c>
       <c r="K11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S11" t="s">
         <v>94</v>
@@ -1983,7 +2020,7 @@
         <v>99</v>
       </c>
       <c r="AE11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH11" t="s">
         <v>107</v>
@@ -1992,22 +2029,22 @@
         <v>109</v>
       </c>
       <c r="AJ11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK11" t="s">
         <v>113</v>
       </c>
       <c r="AL11">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN11">
         <v>160</v>
       </c>
       <c r="AP11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ11" t="s">
         <v>118</v>
@@ -2016,18 +2053,18 @@
         <v>119</v>
       </c>
       <c r="AS11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>65</v>
       </c>
       <c r="F12">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>84</v>
@@ -2036,7 +2073,7 @@
         <v>93</v>
       </c>
       <c r="K12">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S12" t="s">
         <v>94</v>
@@ -2054,7 +2091,7 @@
         <v>99</v>
       </c>
       <c r="AE12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AH12" t="s">
         <v>107</v>
@@ -2063,22 +2100,22 @@
         <v>109</v>
       </c>
       <c r="AJ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK12" t="s">
         <v>113</v>
       </c>
       <c r="AL12">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM12">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN12">
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ12" t="s">
         <v>118</v>
@@ -2087,18 +2124,18 @@
         <v>119</v>
       </c>
       <c r="AS12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>66</v>
       </c>
       <c r="F13">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>85</v>
@@ -2107,7 +2144,7 @@
         <v>93</v>
       </c>
       <c r="K13">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="S13" t="s">
         <v>94</v>
@@ -2125,7 +2162,7 @@
         <v>99</v>
       </c>
       <c r="AE13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AH13" t="s">
         <v>107</v>
@@ -2134,42 +2171,42 @@
         <v>109</v>
       </c>
       <c r="AJ13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK13" t="s">
         <v>113</v>
       </c>
       <c r="AL13">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="AM13">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN13">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AR13" t="s">
         <v>119</v>
       </c>
       <c r="AS13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
       <c r="F14">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>86</v>
@@ -2178,7 +2215,7 @@
         <v>93</v>
       </c>
       <c r="K14">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S14" t="s">
         <v>94</v>
@@ -2205,7 +2242,7 @@
         <v>109</v>
       </c>
       <c r="AJ14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK14" t="s">
         <v>113</v>
@@ -2214,22 +2251,22 @@
         <v>120</v>
       </c>
       <c r="AM14">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN14">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AP14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AR14" t="s">
         <v>119</v>
       </c>
       <c r="AS14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -2276,7 +2313,7 @@
         <v>109</v>
       </c>
       <c r="AJ15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK15" t="s">
         <v>113</v>
@@ -2291,27 +2328,27 @@
         <v>197</v>
       </c>
       <c r="AP15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AQ15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AR15" t="s">
         <v>119</v>
       </c>
       <c r="AS15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
         <v>69</v>
       </c>
       <c r="F16">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>88</v>
@@ -2320,7 +2357,7 @@
         <v>93</v>
       </c>
       <c r="K16">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S16" t="s">
         <v>94</v>
@@ -2347,31 +2384,31 @@
         <v>109</v>
       </c>
       <c r="AJ16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK16" t="s">
         <v>113</v>
       </c>
       <c r="AL16">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM16">
         <v>75</v>
       </c>
       <c r="AN16">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AR16" t="s">
         <v>119</v>
       </c>
       <c r="AS16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
@@ -2382,7 +2419,7 @@
         <v>70</v>
       </c>
       <c r="F17">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>89</v>
@@ -2391,7 +2428,7 @@
         <v>93</v>
       </c>
       <c r="K17">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S17" t="s">
         <v>94</v>
@@ -2418,7 +2455,7 @@
         <v>109</v>
       </c>
       <c r="AJ17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK17" t="s">
         <v>113</v>
@@ -2433,7 +2470,7 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ17" t="s">
         <v>118</v>
@@ -2442,7 +2479,7 @@
         <v>119</v>
       </c>
       <c r="AS17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
@@ -2489,7 +2526,7 @@
         <v>109</v>
       </c>
       <c r="AJ18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK18" t="s">
         <v>113</v>
@@ -2504,7 +2541,7 @@
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ18" t="s">
         <v>118</v>
@@ -2513,7 +2550,7 @@
         <v>119</v>
       </c>
       <c r="AS18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
@@ -2524,7 +2561,7 @@
         <v>72</v>
       </c>
       <c r="F19">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>91</v>
@@ -2533,7 +2570,7 @@
         <v>93</v>
       </c>
       <c r="K19">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S19" t="s">
         <v>94</v>
@@ -2560,7 +2597,7 @@
         <v>109</v>
       </c>
       <c r="AJ19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK19" t="s">
         <v>113</v>
@@ -2575,7 +2612,7 @@
         <v>160</v>
       </c>
       <c r="AP19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ19" t="s">
         <v>118</v>
@@ -2584,18 +2621,18 @@
         <v>119</v>
       </c>
       <c r="AS19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>73</v>
       </c>
       <c r="F20">
-        <v>25000</v>
+        <v>4999</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>92</v>
@@ -2604,7 +2641,7 @@
         <v>93</v>
       </c>
       <c r="K20">
-        <v>208</v>
+        <v>2136</v>
       </c>
       <c r="S20" t="s">
         <v>94</v>
@@ -2613,7 +2650,7 @@
         <v>95</v>
       </c>
       <c r="AB20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="s">
         <v>98</v>
@@ -2622,13 +2659,13 @@
         <v>99</v>
       </c>
       <c r="AE20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AH20" t="s">
         <v>107</v>
       </c>
       <c r="AI20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="s">
         <v>110</v>
@@ -2643,16 +2680,13 @@
         <v>75</v>
       </c>
       <c r="AN20">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP20" t="s">
         <v>116</v>
       </c>
       <c r="AQ20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AS20" t="s">
         <v>120</v>
@@ -2660,44 +2694,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1576203B-4ADE-40B6-B42C-59E462F71B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -807,8 +801,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,26 +873,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -936,9 +922,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -970,27 +956,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1022,27 +990,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1215,1523 +1165,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:46">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="1:46">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>99999</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>99</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>107</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>110</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>113</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>200</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>75</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>200</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>114</v>
       </c>
       <c r="AQ2" t="s">
         <v>114</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AR2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="1:46">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9999</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>94</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>96</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>98</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>99</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>100</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>107</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>108</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>110</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>113</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>80</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>114</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>80</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>115</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>118</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:46">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>19999</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>132</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>94</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>95</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>96</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>98</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>99</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>101</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>107</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>109</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>111</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>113</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>80</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>75</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>160</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>115</v>
       </c>
       <c r="AQ4" t="s">
         <v>115</v>
       </c>
       <c r="AR4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS4" t="s">
         <v>119</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="1:46">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>24999</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>168</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>95</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>96</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>98</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>99</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>102</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>107</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>109</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>111</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>113</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>90</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>75</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>170</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>116</v>
       </c>
       <c r="AQ5" t="s">
         <v>116</v>
       </c>
       <c r="AR5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS5" t="s">
         <v>119</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:46">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>59</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>50000</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>183</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>94</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>95</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>96</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>98</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>99</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>103</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>107</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>101</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>111</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>113</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>130</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>72</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>360</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>117</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>118</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:46">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>60</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>99999</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>186</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>94</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>95</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>96</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>98</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>99</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>100</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>107</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>101</v>
       </c>
       <c r="AJ7" t="s">
         <v>101</v>
       </c>
       <c r="AK7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL7" t="s">
         <v>113</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>170</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>75</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>360</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>116</v>
       </c>
       <c r="AQ7" t="s">
         <v>116</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AR7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="1:46">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9999</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>188</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>94</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>95</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>96</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>98</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>104</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>107</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>101</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>111</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>113</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>80</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>73</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>180</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>115</v>
       </c>
       <c r="AQ8" t="s">
         <v>115</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AR8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="9" spans="1:46">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>15000</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>192</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>94</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>95</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>97</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>98</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>99</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>104</v>
       </c>
       <c r="AF9" t="s">
         <v>104</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AG9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI9" t="s">
         <v>107</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>101</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>111</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>113</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>80</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>75</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>200</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>115</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>118</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="10" spans="1:46">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>60000</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>195</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>94</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>95</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>97</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>98</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>99</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>105</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>107</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>109</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>111</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>113</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>86</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>75</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>180</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>115</v>
       </c>
       <c r="AQ10" t="s">
         <v>115</v>
       </c>
       <c r="AR10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS10" t="s">
         <v>119</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="1:46">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>90000</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>196</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>94</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>95</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>97</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>98</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>99</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>104</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>107</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>109</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>111</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>113</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>80</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>75</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>160</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>115</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>118</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AS11" t="s">
         <v>119</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="12" spans="1:46">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>40000</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>197</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>94</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>95</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>97</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>98</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>99</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>105</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>107</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>109</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>112</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>113</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>120</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>73</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>160</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>115</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>118</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>119</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="13" spans="1:46">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20000</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>205</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>94</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>95</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>97</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>99</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>100</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>107</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>109</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>111</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>113</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>120</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>76</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>200</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>115</v>
       </c>
       <c r="AQ13" t="s">
         <v>115</v>
       </c>
       <c r="AR13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS13" t="s">
         <v>119</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="14" spans="1:46">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>67</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>45000</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>206</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>94</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>95</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>97</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>98</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>99</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>100</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>107</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>109</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>112</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>113</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>120</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>75</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>140</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>115</v>
       </c>
       <c r="AQ14" t="s">
         <v>115</v>
       </c>
       <c r="AR14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS14" t="s">
         <v>119</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="15" spans="1:46">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>68</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>19999</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>207</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>94</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>95</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>97</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>98</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>99</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>106</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>107</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>109</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>111</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>113</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>94</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>74</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>197</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>116</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
         <v>115</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AS15" t="s">
         <v>119</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="16" spans="1:46">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>69</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>25000</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>208</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>94</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>95</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>97</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>98</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>99</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>100</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>107</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>109</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>111</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>113</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>80</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>75</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>160</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>115</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="s">
         <v>118</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AS16" t="s">
         <v>119</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="17" spans="1:46">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>70</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>21000</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>209</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>94</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>95</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>97</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>98</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>99</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>105</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>107</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>109</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>111</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>113</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>80</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>75</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>160</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>115</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>118</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>119</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="18" spans="1:46">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>71</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>25000</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>210</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>94</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>95</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>98</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>99</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>100</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>107</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>109</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>111</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>113</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>80</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>75</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>160</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>115</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AR18" t="s">
         <v>118</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AS18" t="s">
         <v>119</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="19" spans="1:46">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>25000</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>211</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>95</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>97</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>99</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>105</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>107</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>109</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>111</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>113</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>80</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>75</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>160</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>115</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AR19" t="s">
         <v>118</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AS19" t="s">
         <v>119</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="20" spans="1:46">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>73</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4999</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2136</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>94</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>95</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>96</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>98</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>99</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>104</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>107</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>101</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>110</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>113</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>80</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>75</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>80</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>116</v>
       </c>
       <c r="AQ20" t="s">
         <v>116</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AR20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT20" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="H5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="H6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="H7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="H9" r:id="rId15"/>
+    <hyperlink ref="J9" r:id="rId16"/>
+    <hyperlink ref="H10" r:id="rId17"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+    <hyperlink ref="H11" r:id="rId19"/>
+    <hyperlink ref="J11" r:id="rId20"/>
+    <hyperlink ref="H12" r:id="rId21"/>
+    <hyperlink ref="J12" r:id="rId22"/>
+    <hyperlink ref="H13" r:id="rId23"/>
+    <hyperlink ref="J13" r:id="rId24"/>
+    <hyperlink ref="H14" r:id="rId25"/>
+    <hyperlink ref="J14" r:id="rId26"/>
+    <hyperlink ref="H15" r:id="rId27"/>
+    <hyperlink ref="J15" r:id="rId28"/>
+    <hyperlink ref="H16" r:id="rId29"/>
+    <hyperlink ref="J16" r:id="rId30"/>
+    <hyperlink ref="H17" r:id="rId31"/>
+    <hyperlink ref="J17" r:id="rId32"/>
+    <hyperlink ref="H18" r:id="rId33"/>
+    <hyperlink ref="J18" r:id="rId34"/>
+    <hyperlink ref="H19" r:id="rId35"/>
+    <hyperlink ref="J19" r:id="rId36"/>
+    <hyperlink ref="H20" r:id="rId37"/>
+    <hyperlink ref="J20" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1166,1577 +1166,1520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT20"/>
+  <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>99999</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2">
-        <v>99999</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>94</v>
       </c>
+      <c r="AA2" t="s">
+        <v>95</v>
+      </c>
       <c r="AB2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AD2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF2" t="s">
         <v>100</v>
       </c>
+      <c r="AH2" t="s">
+        <v>107</v>
+      </c>
       <c r="AI2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL2" t="s">
         <v>113</v>
       </c>
+      <c r="AL2">
+        <v>200</v>
+      </c>
       <c r="AM2">
+        <v>75</v>
+      </c>
+      <c r="AN2">
         <v>200</v>
       </c>
-      <c r="AN2">
-        <v>75</v>
-      </c>
-      <c r="AO2">
-        <v>200</v>
+      <c r="AP2" t="s">
+        <v>114</v>
       </c>
       <c r="AQ2" t="s">
         <v>114</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>9999</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL3">
+        <v>80</v>
+      </c>
+      <c r="AM3">
         <v>114</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AN3">
+        <v>80</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <v>9999</v>
-      </c>
-      <c r="H3" s="2" t="s">
+    <row r="4" spans="1:45">
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4">
+        <v>19999</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4">
+        <v>132</v>
+      </c>
+      <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL4">
+        <v>80</v>
+      </c>
+      <c r="AM4">
         <v>75</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM3">
-        <v>80</v>
-      </c>
-      <c r="AN3">
-        <v>114</v>
-      </c>
-      <c r="AO3">
-        <v>80</v>
-      </c>
-      <c r="AQ3" t="s">
+      <c r="AN4">
+        <v>160</v>
+      </c>
+      <c r="AP4" t="s">
         <v>115</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4">
-        <v>19999</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4">
-        <v>132</v>
-      </c>
-      <c r="T4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM4">
-        <v>80</v>
-      </c>
-      <c r="AN4">
-        <v>75</v>
-      </c>
-      <c r="AO4">
-        <v>160</v>
       </c>
       <c r="AQ4" t="s">
         <v>115</v>
       </c>
       <c r="AR4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AS4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:45">
+      <c r="D5" t="s">
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="G5">
+      <c r="F5">
         <v>24999</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <v>168</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>94</v>
       </c>
+      <c r="AA5" t="s">
+        <v>95</v>
+      </c>
       <c r="AB5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AD5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF5" t="s">
         <v>102</v>
       </c>
+      <c r="AH5" t="s">
+        <v>107</v>
+      </c>
       <c r="AI5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL5" t="s">
         <v>113</v>
       </c>
+      <c r="AL5">
+        <v>90</v>
+      </c>
       <c r="AM5">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN5">
-        <v>75</v>
-      </c>
-      <c r="AO5">
         <v>170</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>116</v>
       </c>
       <c r="AQ5" t="s">
         <v>116</v>
       </c>
       <c r="AR5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AS5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:45">
+      <c r="D6" t="s">
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
         <v>59</v>
       </c>
-      <c r="G6">
+      <c r="F6">
         <v>50000</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <v>183</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>94</v>
       </c>
+      <c r="AA6" t="s">
+        <v>95</v>
+      </c>
       <c r="AB6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL6">
+        <v>130</v>
+      </c>
+      <c r="AM6">
+        <v>72</v>
+      </c>
+      <c r="AN6">
+        <v>360</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>99999</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7">
+        <v>186</v>
+      </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7" t="s">
         <v>95</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AB7" t="s">
         <v>96</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AC7" t="s">
         <v>98</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AD7" t="s">
         <v>99</v>
       </c>
-      <c r="AF6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AE7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH7" t="s">
         <v>107</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AI7" t="s">
         <v>101</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM6">
-        <v>130</v>
-      </c>
-      <c r="AN6">
-        <v>72</v>
-      </c>
-      <c r="AO6">
-        <v>360</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7">
-        <v>99999</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7">
-        <v>186</v>
-      </c>
-      <c r="T7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>107</v>
       </c>
       <c r="AJ7" t="s">
         <v>101</v>
       </c>
       <c r="AK7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL7" t="s">
         <v>113</v>
       </c>
+      <c r="AL7">
+        <v>170</v>
+      </c>
       <c r="AM7">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AN7">
-        <v>75</v>
-      </c>
-      <c r="AO7">
         <v>360</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>116</v>
       </c>
       <c r="AQ7" t="s">
         <v>116</v>
       </c>
-      <c r="AR7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT7" t="s">
+      <c r="AS7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:45">
+      <c r="D8" t="s">
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="G8">
+      <c r="F8">
         <v>9999</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L8">
+      <c r="K8">
         <v>188</v>
       </c>
-      <c r="T8" t="s">
+      <c r="S8" t="s">
         <v>94</v>
       </c>
+      <c r="AA8" t="s">
+        <v>95</v>
+      </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AD8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF8" t="s">
         <v>104</v>
       </c>
+      <c r="AH8" t="s">
+        <v>107</v>
+      </c>
       <c r="AI8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AJ8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="AK8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL8" t="s">
         <v>113</v>
       </c>
+      <c r="AL8">
+        <v>80</v>
+      </c>
       <c r="AM8">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AN8">
-        <v>73</v>
-      </c>
-      <c r="AO8">
         <v>180</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>115</v>
       </c>
       <c r="AQ8" t="s">
         <v>115</v>
       </c>
-      <c r="AR8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT8" t="s">
+      <c r="AS8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:45">
+      <c r="D9" t="s">
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="G9">
+      <c r="F9">
         <v>15000</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L9">
+      <c r="K9">
         <v>192</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S9" t="s">
         <v>94</v>
       </c>
+      <c r="AA9" t="s">
+        <v>95</v>
+      </c>
       <c r="AB9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AC9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AF9" t="s">
         <v>104</v>
       </c>
-      <c r="AG9" t="s">
-        <v>104</v>
+      <c r="AH9" t="s">
+        <v>107</v>
       </c>
       <c r="AI9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL9">
+        <v>80</v>
+      </c>
+      <c r="AM9">
+        <v>75</v>
+      </c>
+      <c r="AN9">
+        <v>200</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>60000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10">
+        <v>195</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH10" t="s">
         <v>107</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK9" t="s">
+      <c r="AI10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>111</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AK10" t="s">
         <v>113</v>
       </c>
-      <c r="AM9">
-        <v>80</v>
-      </c>
-      <c r="AN9">
+      <c r="AL10">
+        <v>86</v>
+      </c>
+      <c r="AM10">
         <v>75</v>
       </c>
-      <c r="AO9">
-        <v>200</v>
-      </c>
-      <c r="AQ9" t="s">
+      <c r="AN10">
+        <v>180</v>
+      </c>
+      <c r="AP10" t="s">
         <v>115</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10">
-        <v>60000</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10">
-        <v>195</v>
-      </c>
-      <c r="T10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM10">
-        <v>86</v>
-      </c>
-      <c r="AN10">
-        <v>75</v>
-      </c>
-      <c r="AO10">
-        <v>180</v>
       </c>
       <c r="AQ10" t="s">
         <v>115</v>
       </c>
       <c r="AR10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>90000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11">
+        <v>196</v>
+      </c>
+      <c r="S11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL11">
+        <v>80</v>
+      </c>
+      <c r="AM11">
+        <v>75</v>
+      </c>
+      <c r="AN11">
+        <v>160</v>
+      </c>
+      <c r="AP11" t="s">
         <v>115</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AQ11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR11" t="s">
         <v>119</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AS11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11">
-        <v>90000</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="2" t="s">
+    <row r="12" spans="1:45">
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>40000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L11">
-        <v>196</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="K12">
+        <v>197</v>
+      </c>
+      <c r="S12" t="s">
         <v>94</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AA12" t="s">
         <v>95</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB12" t="s">
         <v>97</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AC12" t="s">
         <v>98</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD12" t="s">
         <v>99</v>
       </c>
-      <c r="AF11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AE12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH12" t="s">
         <v>107</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AI12" t="s">
         <v>109</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AJ12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL12">
+        <v>120</v>
+      </c>
+      <c r="AM12">
+        <v>73</v>
+      </c>
+      <c r="AN12">
+        <v>160</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13">
+        <v>20000</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13">
+        <v>205</v>
+      </c>
+      <c r="S13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>111</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AK13" t="s">
         <v>113</v>
       </c>
-      <c r="AM11">
-        <v>80</v>
-      </c>
-      <c r="AN11">
-        <v>75</v>
-      </c>
-      <c r="AO11">
-        <v>160</v>
-      </c>
-      <c r="AQ11" t="s">
+      <c r="AL13">
+        <v>120</v>
+      </c>
+      <c r="AM13">
+        <v>76</v>
+      </c>
+      <c r="AN13">
+        <v>200</v>
+      </c>
+      <c r="AP13" t="s">
         <v>115</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12">
-        <v>40000</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12">
-        <v>197</v>
-      </c>
-      <c r="T12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM12">
-        <v>120</v>
-      </c>
-      <c r="AN12">
-        <v>73</v>
-      </c>
-      <c r="AO12">
-        <v>160</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13">
-        <v>20000</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13">
-        <v>205</v>
-      </c>
-      <c r="T13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM13">
-        <v>120</v>
-      </c>
-      <c r="AN13">
-        <v>76</v>
-      </c>
-      <c r="AO13">
-        <v>200</v>
       </c>
       <c r="AQ13" t="s">
         <v>115</v>
       </c>
       <c r="AR13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>45000</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>206</v>
+      </c>
+      <c r="S14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL14">
+        <v>120</v>
+      </c>
+      <c r="AM14">
+        <v>75</v>
+      </c>
+      <c r="AN14">
+        <v>140</v>
+      </c>
+      <c r="AP14" t="s">
         <v>115</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14">
-        <v>45000</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14">
-        <v>206</v>
-      </c>
-      <c r="T14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM14">
-        <v>120</v>
-      </c>
-      <c r="AN14">
-        <v>75</v>
-      </c>
-      <c r="AO14">
-        <v>140</v>
       </c>
       <c r="AQ14" t="s">
         <v>115</v>
       </c>
       <c r="AR14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15">
+        <v>19999</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15">
+        <v>207</v>
+      </c>
+      <c r="S15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL15">
+        <v>94</v>
+      </c>
+      <c r="AM15">
+        <v>74</v>
+      </c>
+      <c r="AN15">
+        <v>197</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>115</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AR15" t="s">
         <v>119</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AS15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15">
-        <v>19999</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="2" t="s">
+    <row r="16" spans="1:45">
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16">
+        <v>25000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L15">
-        <v>207</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="K16">
+        <v>208</v>
+      </c>
+      <c r="S16" t="s">
         <v>94</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AA16" t="s">
         <v>95</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB16" t="s">
         <v>97</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AC16" t="s">
         <v>98</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD16" t="s">
         <v>99</v>
       </c>
-      <c r="AF15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AE16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH16" t="s">
         <v>107</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AI16" t="s">
         <v>109</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AJ16" t="s">
         <v>111</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AK16" t="s">
         <v>113</v>
       </c>
-      <c r="AM15">
+      <c r="AL16">
+        <v>80</v>
+      </c>
+      <c r="AM16">
+        <v>75</v>
+      </c>
+      <c r="AN16">
+        <v>160</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="4:45">
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>21000</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <v>209</v>
+      </c>
+      <c r="S17" t="s">
         <v>94</v>
       </c>
-      <c r="AN15">
-        <v>74</v>
-      </c>
-      <c r="AO15">
-        <v>197</v>
-      </c>
-      <c r="AQ15" t="s">
+      <c r="AA17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL17">
+        <v>80</v>
+      </c>
+      <c r="AM17">
+        <v>75</v>
+      </c>
+      <c r="AN17">
+        <v>160</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="4:45">
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18">
+        <v>25000</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18">
+        <v>210</v>
+      </c>
+      <c r="S18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL18">
+        <v>80</v>
+      </c>
+      <c r="AM18">
+        <v>75</v>
+      </c>
+      <c r="AN18">
+        <v>160</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="4:45">
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <v>25000</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19">
+        <v>211</v>
+      </c>
+      <c r="S19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL19">
+        <v>80</v>
+      </c>
+      <c r="AM19">
+        <v>75</v>
+      </c>
+      <c r="AN19">
+        <v>160</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="4:45">
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>4999</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20">
+        <v>2136</v>
+      </c>
+      <c r="S20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL20">
+        <v>80</v>
+      </c>
+      <c r="AM20">
+        <v>75</v>
+      </c>
+      <c r="AN20">
+        <v>80</v>
+      </c>
+      <c r="AP20" t="s">
         <v>116</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16">
-        <v>25000</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16">
-        <v>208</v>
-      </c>
-      <c r="T16" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM16">
-        <v>80</v>
-      </c>
-      <c r="AN16">
-        <v>75</v>
-      </c>
-      <c r="AO16">
-        <v>160</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17">
-        <v>21000</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17">
-        <v>209</v>
-      </c>
-      <c r="T17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM17">
-        <v>80</v>
-      </c>
-      <c r="AN17">
-        <v>75</v>
-      </c>
-      <c r="AO17">
-        <v>160</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18">
-        <v>25000</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18">
-        <v>210</v>
-      </c>
-      <c r="T18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM18">
-        <v>80</v>
-      </c>
-      <c r="AN18">
-        <v>75</v>
-      </c>
-      <c r="AO18">
-        <v>160</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19">
-        <v>25000</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19">
-        <v>211</v>
-      </c>
-      <c r="T19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM19">
-        <v>80</v>
-      </c>
-      <c r="AN19">
-        <v>75</v>
-      </c>
-      <c r="AO19">
-        <v>160</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20">
-        <v>4999</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20">
-        <v>2136</v>
-      </c>
-      <c r="T20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM20">
-        <v>80</v>
-      </c>
-      <c r="AN20">
-        <v>75</v>
-      </c>
-      <c r="AO20">
-        <v>80</v>
       </c>
       <c r="AQ20" t="s">
         <v>116</v>
       </c>
-      <c r="AR20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT20" t="s">
+      <c r="AS20" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="H4" r:id="rId5"/>
-    <hyperlink ref="J4" r:id="rId6"/>
-    <hyperlink ref="H5" r:id="rId7"/>
-    <hyperlink ref="J5" r:id="rId8"/>
-    <hyperlink ref="H6" r:id="rId9"/>
-    <hyperlink ref="J6" r:id="rId10"/>
-    <hyperlink ref="H7" r:id="rId11"/>
-    <hyperlink ref="J7" r:id="rId12"/>
-    <hyperlink ref="H8" r:id="rId13"/>
-    <hyperlink ref="J8" r:id="rId14"/>
-    <hyperlink ref="H9" r:id="rId15"/>
-    <hyperlink ref="J9" r:id="rId16"/>
-    <hyperlink ref="H10" r:id="rId17"/>
-    <hyperlink ref="J10" r:id="rId18"/>
-    <hyperlink ref="H11" r:id="rId19"/>
-    <hyperlink ref="J11" r:id="rId20"/>
-    <hyperlink ref="H12" r:id="rId21"/>
-    <hyperlink ref="J12" r:id="rId22"/>
-    <hyperlink ref="H13" r:id="rId23"/>
-    <hyperlink ref="J13" r:id="rId24"/>
-    <hyperlink ref="H14" r:id="rId25"/>
-    <hyperlink ref="J14" r:id="rId26"/>
-    <hyperlink ref="H15" r:id="rId27"/>
-    <hyperlink ref="J15" r:id="rId28"/>
-    <hyperlink ref="H16" r:id="rId29"/>
-    <hyperlink ref="J16" r:id="rId30"/>
-    <hyperlink ref="H17" r:id="rId31"/>
-    <hyperlink ref="J17" r:id="rId32"/>
-    <hyperlink ref="H18" r:id="rId33"/>
-    <hyperlink ref="J18" r:id="rId34"/>
-    <hyperlink ref="H19" r:id="rId35"/>
-    <hyperlink ref="J19" r:id="rId36"/>
-    <hyperlink ref="H20" r:id="rId37"/>
-    <hyperlink ref="J20" r:id="rId38"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="120">
   <si>
     <t>Address</t>
   </si>
@@ -350,37 +350,6 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
-  </si>
-  <si>
-    <t>Кабинет руководителя
-Артикул 195
-На столе и брифинге есть небольшие царапины. 
-Кабинет руководителя в современном стиле светлого цвета — это сочетание элегантности и функциональности. Мебель в отличном состоянии Большой эргономичный стол с брифингом на 2-3 человека обеспечивает комфортное рабочее пространство и создает условия для эффективных совещаний. В комплекте тумба на колесиках для удобного хранения, тумба под оргтехнику, а также вместительный гардероб и шкаф для документов, которые помогут поддерживать порядок в кабинете. Этот комплект мебели станет идеальным решением для руководителей, ценящих современный дизайн и практичность
-В комплекте 
-Размеры ДхШхВ: Стол - 180х86х75
-Брифинг - 120х73
-Шкафы 3шт - 82х45х220
-Тумба под оргтехнику - 82х44х74
-Тумба на колёсиках - 48х59х680
-Кресло 
-Цвет Дуб кремона
-Цена 60 000
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>Кабинет руководителя
@@ -446,34 +415,6 @@
 Размеры ДхШхВ: 200х120х76
 Цвет: венге
 Цена: 20 000
-Количество: 1 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Офисная мебель
-Артикул 206
-Эта офисная мебель в современном стиле цвета орех-пекан придаст кабинету элегантный и профессиональный вид. Угловой стол с интегрированной тумбой расширяет рабочую зону, создавая удобное пространство для работы. Дополнительная тумба под оргтехнику обеспечивает аккуратное размещение всех необходимых устройств. Два вместительных шкафа помогут организовать документы и личные вещи, а отдельный шкаф-гардероб предназначен для одежды, поддерживая порядок и презентабельность. Этот комплект мебели сочетает в себе стиль, практичность и эргономику, создавая комфортные условия для продуктивной работы.
-Размеры ДхШхВ: Стол - 140х120х75
-Шкафы для документов - 90х40х207
-Шкаф гардероб - 60х42х207
-Тумба приставная
-Тумба под оргтехнику
-Цвет: орех пекан
-Цена: 45 000 руб
 Количество: 1 шт
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
@@ -672,9 +613,6 @@
     <t>https://disk.yandex.ru/i/YUqv1-fJ5z4pIg | https://disk.yandex.ru/i/hlH4PJWp6goS5A | https://disk.yandex.ru/i/zOu4tUC4ggOi_A | https://disk.yandex.ru/i/t8OXCkysyTmxlA | https://disk.yandex.ru/i/557Bzug0MWZbOg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/VkyxSLaFuBM9og | https://disk.yandex.ru/i/4zRJQz6FivA-eA | https://disk.yandex.ru/i/dUM8BZEMb4MIaw | https://disk.yandex.ru/i/Vi5_Qsp9sOqoKw | https://disk.yandex.ru/i/tghj8AP9xHj1-A | https://disk.yandex.ru/i/N8R3WCfMnLDZdw | https://disk.yandex.ru/i/R2pZUoqqUBYsBw | https://disk.yandex.ru/i/mq9rAXtFF6aYoQ | https://disk.yandex.ru/i/ye2ELAR9REc-9A | https://disk.yandex.ru/i/mll8oxHv0HkuZg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/1aTqiuWn9-lL9Q | https://disk.yandex.ru/i/uckFkWKMcnrTbg | https://disk.yandex.ru/i/ae8H10ig2MudAQ | https://disk.yandex.ru/i/vpib0o8A1KEfYw | https://disk.yandex.ru/i/ahH_FLlcBfx7_A | https://disk.yandex.ru/i/J1DtSL8r8BmzdA | https://disk.yandex.ru/i/1QyzSzFrZxYPgw | https://disk.yandex.ru/i/Nz8Tmi4Jli1IKg | https://disk.yandex.ru/i/_4DMU3B-Z5cE-A | https://disk.yandex.ru/i/BnE9oWNA91SUzg</t>
   </si>
   <si>
@@ -682,9 +620,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/Cr3HM9bi813R2w | https://disk.yandex.ru/i/55RyI3HDMryjdQ | https://disk.yandex.ru/i/pknHia8uSr6VcQ | https://disk.yandex.ru/i/DylOghCc2uqBRw | https://disk.yandex.ru/i/4SR57qkS_TUcMg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/3XF-uU80s4VjnA | https://disk.yandex.ru/i/bv38pOHNdW4aCA | https://disk.yandex.ru/i/9ebuVVwhOlesXg | https://disk.yandex.ru/i/_ziaDlSCGep8Tw | https://disk.yandex.ru/i/ARxam6wrDAob9w | https://disk.yandex.ru/i/4OlOvkgAmTaxcg | https://disk.yandex.ru/i/7MKuKMp_ntfHGQ | https://disk.yandex.ru/i/bUElzUjhtTfBHA | https://disk.yandex.ru/i/F9U5P5BlsOxFGw</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/HWLDYbtUpq0qlQ | https://disk.yandex.ru/i/vInlxVuQE03X7A | https://disk.yandex.ru/i/a3TMO838uEudgw | https://disk.yandex.ru/i/sZw1tMAeO5oNrA | https://disk.yandex.ru/i/1gG7UrG_S6_JsA | https://disk.yandex.ru/i/JEiPTBSmCZLVRg | https://disk.yandex.ru/i/czjDGmZQoXe30Q | https://disk.yandex.ru/i/woUhjXEYoPywIw | https://disk.yandex.ru/i/JyPZu-nkNH1DSg | https://disk.yandex.ru/i/zDHPGHlKicWIrw</t>
@@ -1166,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS20"/>
+  <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1320,43 +1255,43 @@
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>100</v>
-      </c>
       <c r="AH2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AI2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AJ2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AK2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1368,13 +1303,13 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AQ2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AS2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1388,43 +1323,43 @@
         <v>9999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" t="s">
         <v>94</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>96</v>
       </c>
-      <c r="AC3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>100</v>
-      </c>
       <c r="AH3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AI3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AJ3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AK3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1436,13 +1371,13 @@
         <v>80</v>
       </c>
       <c r="AP3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AQ3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AS3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1456,43 +1391,43 @@
         <v>19999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K4">
         <v>132</v>
       </c>
       <c r="S4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC4" t="s">
         <v>94</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>95</v>
       </c>
-      <c r="AB4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>99</v>
-      </c>
       <c r="AE4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AH4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>107</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>109</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>113</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1504,16 +1439,16 @@
         <v>160</v>
       </c>
       <c r="AP4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR4" t="s">
         <v>115</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>119</v>
-      </c>
       <c r="AS4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1527,43 +1462,43 @@
         <v>24999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K5">
         <v>168</v>
       </c>
       <c r="S5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC5" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>95</v>
       </c>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>98</v>
       </c>
-      <c r="AD5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>102</v>
-      </c>
       <c r="AH5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>107</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AK5" t="s">
         <v>109</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>113</v>
       </c>
       <c r="AL5">
         <v>90</v>
@@ -1575,16 +1510,16 @@
         <v>170</v>
       </c>
       <c r="AP5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AQ5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AR5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AS5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1598,43 +1533,43 @@
         <v>50000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K6">
         <v>183</v>
       </c>
       <c r="S6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC6" t="s">
         <v>94</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
         <v>95</v>
       </c>
-      <c r="AB6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>99</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
         <v>103</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>107</v>
       </c>
-      <c r="AI6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>111</v>
-      </c>
       <c r="AK6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AL6">
         <v>130</v>
@@ -1646,13 +1581,13 @@
         <v>360</v>
       </c>
       <c r="AP6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AQ6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AS6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1666,43 +1601,43 @@
         <v>99999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K7">
         <v>186</v>
       </c>
       <c r="S7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC7" t="s">
         <v>94</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
         <v>95</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
         <v>96</v>
       </c>
-      <c r="AC7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>100</v>
-      </c>
       <c r="AH7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AI7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AL7">
         <v>170</v>
@@ -1714,13 +1649,13 @@
         <v>360</v>
       </c>
       <c r="AP7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS7" t="s">
         <v>116</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1734,43 +1669,43 @@
         <v>9999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K8">
         <v>188</v>
       </c>
       <c r="S8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC8" t="s">
         <v>94</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AB8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>99</v>
-      </c>
       <c r="AE8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AH8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>107</v>
       </c>
-      <c r="AI8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>111</v>
-      </c>
       <c r="AK8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -1782,13 +1717,13 @@
         <v>180</v>
       </c>
       <c r="AP8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AQ8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AS8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1802,46 +1737,46 @@
         <v>15000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K9">
         <v>192</v>
       </c>
       <c r="S9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC9" t="s">
         <v>94</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>95</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI9" t="s">
         <v>97</v>
       </c>
-      <c r="AC9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
         <v>107</v>
       </c>
-      <c r="AI9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>111</v>
-      </c>
       <c r="AK9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -1853,13 +1788,13 @@
         <v>200</v>
       </c>
       <c r="AP9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AQ9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AS9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1870,422 +1805,422 @@
         <v>63</v>
       </c>
       <c r="F10">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10">
+        <v>196</v>
+      </c>
+      <c r="S10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" t="s">
         <v>93</v>
       </c>
-      <c r="K10">
-        <v>195</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="AC10" t="s">
         <v>94</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
         <v>95</v>
       </c>
-      <c r="AB10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>99</v>
-      </c>
       <c r="AE10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI10" t="s">
         <v>105</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
         <v>107</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AK10" t="s">
         <v>109</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>113</v>
-      </c>
       <c r="AL10">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AM10">
         <v>75</v>
       </c>
       <c r="AN10">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AP10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR10" t="s">
         <v>115</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>119</v>
-      </c>
       <c r="AS10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:45">
       <c r="D11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>64</v>
       </c>
       <c r="F11">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11">
+        <v>197</v>
+      </c>
+      <c r="S11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB11" t="s">
         <v>93</v>
       </c>
-      <c r="K11">
-        <v>196</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="AC11" t="s">
         <v>94</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>95</v>
       </c>
-      <c r="AB11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>99</v>
-      </c>
       <c r="AE11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AH11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AI11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK11" t="s">
         <v>109</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>113</v>
-      </c>
       <c r="AL11">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN11">
         <v>160</v>
       </c>
       <c r="AP11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR11" t="s">
         <v>115</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>119</v>
-      </c>
       <c r="AS11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:45">
       <c r="D12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>65</v>
       </c>
       <c r="F12">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12">
+        <v>205</v>
+      </c>
+      <c r="S12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB12" t="s">
         <v>93</v>
       </c>
-      <c r="K12">
-        <v>197</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="AC12" t="s">
         <v>94</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
         <v>95</v>
       </c>
-      <c r="AB12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>99</v>
-      </c>
       <c r="AE12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI12" t="s">
         <v>105</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
         <v>107</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AK12" t="s">
         <v>109</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>113</v>
       </c>
       <c r="AL12">
         <v>120</v>
       </c>
       <c r="AM12">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN12">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AP12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR12" t="s">
         <v>115</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>119</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:45">
       <c r="D13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>66</v>
       </c>
       <c r="F13">
-        <v>20000</v>
+        <v>19999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13">
+        <v>207</v>
+      </c>
+      <c r="S13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB13" t="s">
         <v>93</v>
       </c>
-      <c r="K13">
-        <v>205</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="AC13" t="s">
         <v>94</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
         <v>95</v>
       </c>
-      <c r="AB13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>99</v>
-      </c>
       <c r="AE13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AH13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>107</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AK13" t="s">
         <v>109</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AL13">
+        <v>94</v>
+      </c>
+      <c r="AM13">
+        <v>74</v>
+      </c>
+      <c r="AN13">
+        <v>197</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>111</v>
       </c>
-      <c r="AK13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL13">
-        <v>120</v>
-      </c>
-      <c r="AM13">
-        <v>76</v>
-      </c>
-      <c r="AN13">
-        <v>200</v>
-      </c>
-      <c r="AP13" t="s">
+      <c r="AR13" t="s">
         <v>115</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>119</v>
-      </c>
       <c r="AS13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:45">
       <c r="D14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
       <c r="F14">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14">
+        <v>208</v>
+      </c>
+      <c r="S14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB14" t="s">
         <v>93</v>
       </c>
-      <c r="K14">
-        <v>206</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="AC14" t="s">
         <v>94</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
         <v>95</v>
       </c>
-      <c r="AB14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>99</v>
-      </c>
       <c r="AE14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AH14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>107</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AK14" t="s">
         <v>109</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>113</v>
-      </c>
       <c r="AL14">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM14">
         <v>75</v>
       </c>
       <c r="AN14">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR14" t="s">
         <v>115</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>119</v>
-      </c>
       <c r="AS14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:45">
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
         <v>68</v>
       </c>
       <c r="F15">
-        <v>19999</v>
+        <v>21000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15">
+        <v>209</v>
+      </c>
+      <c r="S15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB15" t="s">
         <v>93</v>
       </c>
-      <c r="K15">
-        <v>207</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AC15" t="s">
         <v>94</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
         <v>95</v>
       </c>
-      <c r="AB15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>99</v>
-      </c>
       <c r="AE15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AH15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>107</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AK15" t="s">
         <v>109</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AL15">
+        <v>80</v>
+      </c>
+      <c r="AM15">
+        <v>75</v>
+      </c>
+      <c r="AN15">
+        <v>160</v>
+      </c>
+      <c r="AP15" t="s">
         <v>111</v>
       </c>
-      <c r="AK15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL15">
-        <v>94</v>
-      </c>
-      <c r="AM15">
-        <v>74</v>
-      </c>
-      <c r="AN15">
-        <v>197</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>116</v>
-      </c>
       <c r="AQ15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR15" t="s">
         <v>115</v>
       </c>
-      <c r="AR15" t="s">
-        <v>119</v>
-      </c>
       <c r="AS15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -2299,43 +2234,43 @@
         <v>25000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16">
+        <v>210</v>
+      </c>
+      <c r="S16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB16" t="s">
         <v>93</v>
       </c>
-      <c r="K16">
-        <v>208</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="AC16" t="s">
         <v>94</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
         <v>95</v>
       </c>
-      <c r="AB16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>99</v>
-      </c>
       <c r="AE16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AH16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>107</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AK16" t="s">
         <v>109</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>113</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2347,16 +2282,16 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR16" t="s">
         <v>115</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>119</v>
-      </c>
       <c r="AS16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="4:45">
@@ -2367,46 +2302,46 @@
         <v>70</v>
       </c>
       <c r="F17">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="K17">
+        <v>211</v>
+      </c>
+      <c r="S17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB17" t="s">
         <v>93</v>
       </c>
-      <c r="K17">
-        <v>209</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="AC17" t="s">
         <v>94</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AD17" t="s">
         <v>95</v>
       </c>
-      <c r="AB17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>99</v>
-      </c>
       <c r="AE17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI17" t="s">
         <v>105</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AJ17" t="s">
         <v>107</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AK17" t="s">
         <v>109</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>113</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2418,66 +2353,66 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR17" t="s">
         <v>115</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>119</v>
-      </c>
       <c r="AS17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="4:45">
       <c r="D18" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
       </c>
       <c r="F18">
-        <v>25000</v>
+        <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18">
+        <v>2136</v>
+      </c>
+      <c r="S18" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18">
-        <v>210</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AA18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC18" t="s">
         <v>94</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
         <v>95</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>99</v>
       </c>
       <c r="AE18" t="s">
         <v>100</v>
       </c>
       <c r="AH18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AI18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK18" t="s">
         <v>109</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>113</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2486,158 +2421,16 @@
         <v>75</v>
       </c>
       <c r="AN18">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AQ18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AS18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="4:45">
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19">
-        <v>25000</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19">
-        <v>211</v>
-      </c>
-      <c r="S19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL19">
-        <v>80</v>
-      </c>
-      <c r="AM19">
-        <v>75</v>
-      </c>
-      <c r="AN19">
-        <v>160</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="4:45">
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20">
-        <v>4999</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20">
-        <v>2136</v>
-      </c>
-      <c r="S20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL20">
-        <v>80</v>
-      </c>
-      <c r="AM20">
-        <v>75</v>
-      </c>
-      <c r="AN20">
-        <v>80</v>
-      </c>
-      <c r="AP20" t="s">
         <v>116</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2676,10 +2469,6 @@
     <hyperlink ref="I17" r:id="rId32"/>
     <hyperlink ref="G18" r:id="rId33"/>
     <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7404733F-592F-41B3-B828-BC14FDFAD535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="152">
   <si>
     <t>Address</t>
   </si>
@@ -179,6 +185,15 @@
   </si>
   <si>
     <t>Комплект офисной мебели</t>
+  </si>
+  <si>
+    <t>Стол руководителя</t>
+  </si>
+  <si>
+    <t>Стол офисный</t>
+  </si>
+  <si>
+    <t>Столешница офисный стол</t>
   </si>
   <si>
     <t>Стол переговорный 
@@ -589,6 +604,374 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол круглый
+Артикул 224
+Описание
+Размеры ДхШхВ: 120х120х75
+Цвет: карельский орех
+Цена: 11 999
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол круглый
+Артикул 223
+Описание
+Размеры ДхШхВ: 120х120х77
+Цвет чёрный
+Цена 9 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол для переговоров
+Артикул 222
+Создайте впечатляющую рабочую зону для переговоров с элитным офисным столом, который станет ключевым элементом вашего конференц-зала.
+- Большой размер: стол рассчитан на комфортное размещение до 14 человек, идеально подходит для деловых встреч и обсуждений.
+- Современные технологии: встроенная розетка с разъемами для различных проводов обеспечивает удобное подключение техники и гаджетов.
+- Премиальные материалы: выполнен из прочного и надежного ЛДСП в элегантном цвете "итальянский орех", который подчеркивает статусность вашего офиса.
+- Функциональный комплект: в набор входит вместительный шкаф для документов, обеспечивающий порядок и легкий доступ к важным материалам.
+Размеры ДхШхВ: Стол - 300х200х75
+Шкаф - 220х48х148
+Цвет: Карельский орех
+Цена: 120 000
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Офисная мебель
+Артикул 221
+Создайте стильное и практичное рабочее пространство с комплектом офисной мебели цвета венге. Этот комплект идеально сочетает современный дизайн, функциональность и компактность, обеспечивая комфортную работу и порядок в вашем офисе.
+Комплектация:
+- Угловой стол: просторная рабочая поверхность с продуманным отверстием для проводов, позволяющим организовать технику без лишних кабелей.
+- Компактный шкаф: универсальный шкаф для одежды и документов, который помогает поддерживать порядок в офисе.
+- Тумба под оргтехнику: надежное место для размещения принтера, сканера или других устройств.
+- Подкатная тумба на колесиках: мобильное решение для хранения канцелярии и личных вещей, всегда под рукой.
+Размер ДхШхВ: Стол - 138х120х75
+Тумба под оргтехнику - 110х40х80
+Шкафы - 55х40х21
+Тумба на колесиках
+Цвет: венге
+Цена: 24 999
+Количество: 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабинет руководителя
+Артикул 220
+Создайте элегантный и функциональный кабинет руководителя с мебелью цвета венге в сочетании с белыми элементами. Этот комплект объединяет стильный дизайн, продуманный функционал и премиальные материалы, создавая идеальные условия для работы и хранения.
+Размеры ДхШхВ: Стол - 140х80х75
+Гардероб - 79/37/194
+Шкаф д/документов стекло - 79/37/194 
+Тумба подкатная - 43/45/62
+Цвет: венге.
+Цена: 40000 руб.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабинет руководителя
+Артикул 219
+Офисная мебель для кабинета руководителя в современном стиле цвета дуб Сонома — это элегантное и функциональное решение, которое подчеркнет ваш статус и обеспечит комфортное рабочее пространство. 
+Преимущества:
+- Приобретение за одну покупку полного комплекта качественной мебели за небольшие деньги
+- Современный дизайн в цвете дуб Сонома, который гармонично впишется в любой офисный интерьер.
+- Надежные материалы, обеспечивающие долговечность и устойчивость мебели.
+- Функциональность и эргономичность для эффективной работы.
+Создайте рабочую атмосферу, которая вдохновляет на продуктивность, с этим стильным комплектом мебели для кабинета руководителя!
+Размеры ДхШхВ: Стол- 140х70х75
+Тумба подкатная - 48/59/67
+Греденция - 129/42/107
+Шкаф для документов закрытый полки - 76/37/200
+Шкаф гардероб - 80/60/214
+Кресло ЭКО кожа 
+Цвет: дуб сонома
+Цена: 35000 руб
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол для руководителя
+Артикул 218
+Стол руководителя в современном стиле цвета Дуб сонома— это сочетание элегантности и функциональности. Большой эргономичный стол обеспечивает комфортное рабочее пространство. К столу можем подобрать мебель: шкафы, тумбы, стулья, кресла Большой эргономичный стол обеспечивает комфортное рабочее пространство
+Размеры ДхШхВ: 180х90х77
+Цвет: Дуб сонома
+Цена: 14 999
+Количество 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол руководителя
+Артикул 217
+Стол руководителя в современном стиле светлого цвета — это сочетание элегантности и функциональности. Мебель в отличном состоянии. Большой эргономичный стол обеспечивает комфортное рабочее пространство
+Размеры ДхШхВ: 180х86х76
+Цвет сосна 
+Цена 15 000
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол офисный
+Артикул 215
+Офисный стол бежевого цвета — это универсальное и стильное решение для рабочего пространства. Офисный стол бежевого цвета — это универсальное и стильное решение для рабочего пространства.
+Размеры ДхШхВ: 180х90х75
+Цвет бежевый 
+Цена 15 000 
+Количество 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Столешница офисный стол
+Артикул 216
+Столешница белого цвета от немецкого производителя Steelcase - это идеальное сочетание стиля, качества и функциональности.
+Характеристики:
+- Размеры: 200 x 80 см — просторная рабочая поверхность, идеально подходящая для организации комфортного рабочего места.
+- Высокое качество: произведена из прочных материалов, обеспечивающих долговечность и устойчивость к износу.
+- Эстетичный дизайн: белый цвет столешницы добавляет свежести и легкости интерьеру, легко комбинируется с любой мебелью.
+- Производитель: Steelcase — лидер в области офисной мебели, известный инновационными и эргономичными решениями.
+Размеры ДхШхВ: 200х80х3
+Цвет: белый
+Цена: 12 000
+Количество: 19 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол руководителя
+Артикул 214
+Офисный стол на металлических ногах цвета Шимо — это стильное и практичное решение для современного рабочего пространства.
+Особенности:
+ - Привлекательный цвет: изысканный оттенок Шимо добавляет уюта и тепла интерьеру, легко сочетается с другой офисной мебелью.
+ - Прочная конструкция: металлические ножки обеспечивают устойчивость и надежность стола, гарантируя его долговечность.
+- Функциональность: отверстие для проводов упрощает организацию рабочего места, помогая держать кабели в порядке и экономя пространство.
+Размеры ДхШхВ: 200х100х74
+Цвет Шимо
+Цена 20 000 руб 
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол для переговоров
+Артикул 213
+Офисный стол для переговоров белого цвета на металлических ногах — это элегантное и функциональное решение для вашего рабочего пространства. Идеально подходит для конференц-залов, переговорных комнат и современных офисных пространств. Этот стол подчеркнет ваш вкус и станет важным элементом эффективной работы команды.
+Размеры ДхШхВ: 180х80х72
+Цвет: белый
+Цена: 15000 за 1шт
+Количество: 4 шт
+Артикул 193
+Размеры : ДхШхВ 200х80х72
+Цвет :белый
+Цена : 20000
+Количество :3шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол руководителя
+Артикул 212
+Стол руководителя цвета венге — стильное и функциональное решение для современного офиса. Его массивная столешница из прочного материала не только придает изделию солидность, но и обеспечивает длительный срок службы. Этот комплект идеально подходит для тех, кто ценит практичность и элегантный дизайн.
+Размеры ДхШхВ: Стол - 160х85х76
+Тумба-граденция - 120х45х63
+Тумба подкатная 
+Цвет венге
+Цена 25 000
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
   </si>
   <si>
@@ -640,6 +1023,45 @@
     <t>https://disk.yandex.ru/i/d7VhfnI3Tzeyhw | https://disk.yandex.ru/i/3LhVw5XmxI4kEA | https://disk.yandex.ru/i/E8Oe5s46i5Iihw | https://disk.yandex.ru/i/85xR4DpK7PwOQA | https://disk.yandex.ru/i/XgBGVKbNp_5CSg</t>
   </si>
   <si>
+    <t>https://yadi.sk/i/UJg_tt48nQP0KA | https://yadi.sk/i/a52b9VyAtbIu9g | https://yadi.sk/i/AnI2BFpXsdtFJw | https://yadi.sk/i/Q_kbCcX6oK3HlQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/oEdEkaqeyt7JXA | https://yadi.sk/i/VeS7Hpd3fCSkZA | https://yadi.sk/i/rdM9ZwVv6d-YuQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/s2e1TD7Xr_AHWg | https://yadi.sk/i/lHgTU5xnx8JgEA | https://yadi.sk/i/6yYze2-97mCKrA | https://yadi.sk/i/lVOJvS437YD51A | https://yadi.sk/i/OIgF5DMX41jnEA | https://yadi.sk/i/T7twRjXcRfSiIQ | https://yadi.sk/i/aJJyJdglztgmWQ | https://yadi.sk/i/nk9l0UhdeoDRWQ | https://yadi.sk/i/GQRetH6b5YhfGQ | https://yadi.sk/i/9WivDPidJ3gENw</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/TxWEuWDD4arstA | https://yadi.sk/i/RUdN1roQ_5vgpA | https://yadi.sk/i/phdZ7Bwe-WcedQ | https://yadi.sk/i/X5SrSmW0yi-fsQ | https://yadi.sk/i/zDj1dIGmljOU8A | https://yadi.sk/i/4qpTeD7dMcUN3A | https://yadi.sk/i/b-V0CEgfMWrxPQ | https://yadi.sk/i/7XcHAqNfUlThUg | https://yadi.sk/i/Uw6iwlQAZ-q9Mg | https://yadi.sk/i/KqpV6OkZusUGgA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Q4ob5KGKpvzs9Q | https://yadi.sk/i/Vy-WxF5UBtCSWg | https://yadi.sk/i/QPh3DYxGMnLIgw | https://yadi.sk/i/JviaYtmX61tYYg | https://yadi.sk/i/XOqc-NoKV7nkBw | https://yadi.sk/i/M3k0NxpYrAe_7Q | https://yadi.sk/i/Q7ntBKBu7lTJKA | https://yadi.sk/i/uWhyFu8Vcvfteg | https://yadi.sk/i/dum8db07-eJrFQ | https://yadi.sk/i/hOMZWfq_OH52_g</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/xLhNqFCRGaT6Dw | https://yadi.sk/i/65AgfmgdR6_KBg | https://yadi.sk/i/Do7La_ustE0Zfw | https://yadi.sk/i/0yuslDTBYb48OQ | https://yadi.sk/i/fQ-0pM9TjTx1kA | https://yadi.sk/i/dVdjd9bKNN034A | https://yadi.sk/i/5LkL_MGgRTEXYw | https://yadi.sk/i/01l2geLXjJ6Erw | https://yadi.sk/i/ytRDzqKu8wzcEA | https://yadi.sk/i/aMjgPp1Ov5ccmg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/o17ZWaV_t58i9Q | https://yadi.sk/i/ofnxTQFi8A5MNw | https://yadi.sk/i/aXiG3TT8Ireygw | https://yadi.sk/i/6HwqFuN55lh3aw | https://yadi.sk/i/8elVM3Z0LwMRug | https://yadi.sk/i/X0UXgaGIpjzwbQ | https://yadi.sk/i/xusaigJmBvB-vQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/afujttMAVUgXAw | https://yadi.sk/i/4RifNr1rKLDwjA | https://yadi.sk/i/o1txawDgMHBuag | https://yadi.sk/i/zlxsqyb6GZegCw | https://yadi.sk/i/QtVlFQd1kiXblQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/I6OkWC090Bzr9g | https://yadi.sk/i/XzKLZC5JrA7-tQ | https://yadi.sk/i/5N9vesXkn26ohA | https://yadi.sk/i/_U8LexsmwQkC4g</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/G3AsGoOOpSM_ew | https://yadi.sk/i/d6Kut4CuVXA03w | https://yadi.sk/i/FKZ_6uehxZf3xg | https://yadi.sk/i/Q09nWLEsa4Wv3Q | https://yadi.sk/i/GYFixWWDevBOVg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/xDgK82fkCe2xWA | https://yadi.sk/i/f1sVPUKHcsxneQ | https://yadi.sk/i/oJMSTF3am0xKcA | https://yadi.sk/i/9E_oVVTpKVc5kw | https://yadi.sk/i/5vkfKF5NxhMBrQ | https://yadi.sk/i/qR67rikrBokMzA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/rI-mxgSK1qyLPw | https://yadi.sk/i/rJS6LV-_n9ms6A | https://yadi.sk/i/ehqqLVaX8_WxGA | https://yadi.sk/i/DyebLQ3H36Rz_A</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/mAOhRoFPl12JKg | https://yadi.sk/i/yhO6A5lvXeW-eQ | https://yadi.sk/i/lOlYx7PcHK1bpw | https://yadi.sk/i/QnScUCQqtAwBBQ | https://yadi.sk/i/7Z1vOE4M7wBXbg | https://yadi.sk/i/9Z6HvSuDl_oHkw | https://yadi.sk/i/dTjDCVSBeqcRqQ | https://yadi.sk/i/FhIvyAiJlwlzCQ | https://yadi.sk/i/g_TmssrqEXkVhQ | https://yadi.sk/i/eojJXx2pt-1szg</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -682,6 +1104,9 @@
     <t>Красный</t>
   </si>
   <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
     <t>Столы</t>
   </si>
   <si>
@@ -700,6 +1125,9 @@
     <t>Угловой</t>
   </si>
   <si>
+    <t>Овальный</t>
+  </si>
+  <si>
     <t>Нет</t>
   </si>
   <si>
@@ -713,6 +1141,9 @@
   </si>
   <si>
     <t>Стекло</t>
+  </si>
+  <si>
+    <t>ДСП | ЛДСП</t>
   </si>
   <si>
     <t>Металл</t>
@@ -736,8 +1167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,18 +1239,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -857,9 +1296,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -891,9 +1330,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,9 +1382,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1100,14 +1575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ19" sqref="AQ19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,54 +1721,54 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="AC2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="AH2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="AJ2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="AK2" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1303,63 +1780,63 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="AQ2" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="AS2" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>9999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA3" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="AC3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD3" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="AH3" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI3" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="AJ3" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="AK3" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1371,63 +1848,63 @@
         <v>80</v>
       </c>
       <c r="AP3" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="AS3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>19999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K4">
         <v>132</v>
       </c>
       <c r="S4" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA4" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="AC4" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD4" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE4" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI4" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ4" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK4" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1439,66 +1916,66 @@
         <v>160</v>
       </c>
       <c r="AP4" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ4" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AR4" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AS4" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>24999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K5">
         <v>168</v>
       </c>
       <c r="S5" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA5" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="AC5" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD5" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE5" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="AH5" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI5" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ5" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK5" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL5">
         <v>90</v>
@@ -1510,66 +1987,66 @@
         <v>170</v>
       </c>
       <c r="AP5" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="AQ5" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="AR5" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AS5" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>50000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K6">
         <v>183</v>
       </c>
       <c r="S6" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA6" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="AC6" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD6" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE6" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AH6" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI6" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AJ6" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK6" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL6">
         <v>130</v>
@@ -1581,63 +2058,63 @@
         <v>360</v>
       </c>
       <c r="AP6" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AQ6" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="AS6" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>99999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K7">
         <v>186</v>
       </c>
       <c r="S7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="AC7" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD7" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="AH7" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI7" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AJ7" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL7">
         <v>170</v>
@@ -1649,63 +2126,63 @@
         <v>360</v>
       </c>
       <c r="AP7" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="AQ7" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="AS7" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>9999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K8">
         <v>188</v>
       </c>
       <c r="S8" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA8" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="AC8" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD8" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AH8" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI8" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AJ8" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK8" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -1717,66 +2194,66 @@
         <v>180</v>
       </c>
       <c r="AP8" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ8" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AS8" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>15000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K9">
         <v>192</v>
       </c>
       <c r="S9" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA9" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AC9" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD9" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE9" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AH9" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI9" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AJ9" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -1788,63 +2265,63 @@
         <v>200</v>
       </c>
       <c r="AP9" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ9" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="AS9" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>90000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K10">
         <v>196</v>
       </c>
       <c r="S10" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA10" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AC10" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD10" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE10" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AH10" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI10" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -1856,66 +2333,66 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ10" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="AR10" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AS10" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F11">
         <v>40000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K11">
         <v>197</v>
       </c>
       <c r="S11" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA11" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AC11" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD11" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE11" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AH11" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI11" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL11">
         <v>120</v>
@@ -1927,66 +2404,66 @@
         <v>160</v>
       </c>
       <c r="AP11" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ11" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="AR11" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AS11" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <v>20000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K12">
         <v>205</v>
       </c>
       <c r="S12" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA12" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AC12" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD12" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE12" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="AH12" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI12" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL12">
         <v>120</v>
@@ -1998,66 +2475,66 @@
         <v>200</v>
       </c>
       <c r="AP12" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ12" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AR12" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AS12" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>19999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K13">
         <v>207</v>
       </c>
       <c r="S13" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA13" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AC13" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD13" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE13" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AH13" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI13" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL13">
         <v>94</v>
@@ -2069,66 +2546,66 @@
         <v>197</v>
       </c>
       <c r="AP13" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="AQ13" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AR13" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AS13" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F14">
         <v>25000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K14">
         <v>208</v>
       </c>
       <c r="S14" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA14" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB14" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AC14" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD14" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE14" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="AH14" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI14" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2140,66 +2617,66 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ14" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="AR14" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AS14" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F15">
         <v>21000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K15">
         <v>209</v>
       </c>
       <c r="S15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA15" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AC15" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD15" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE15" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AH15" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI15" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2211,66 +2688,66 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ15" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="AR15" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AS15" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F16">
         <v>25000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K16">
         <v>210</v>
       </c>
       <c r="S16" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA16" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AC16" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD16" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE16" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="AH16" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI16" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2282,66 +2759,66 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ16" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="AR16" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AS16" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="17" spans="4:45">
+    <row r="17" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F17">
         <v>25000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K17">
         <v>211</v>
       </c>
       <c r="S17" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA17" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB17" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AC17" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD17" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE17" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AH17" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI17" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ17" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2353,66 +2830,66 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AQ17" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="AR17" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AS17" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="18" spans="4:45">
+    <row r="18" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F18">
         <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K18">
         <v>2136</v>
       </c>
       <c r="S18" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AA18" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AB18" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="AC18" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AD18" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AE18" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="AH18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AI18" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AJ18" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2424,51 +2901,976 @@
         <v>80</v>
       </c>
       <c r="AP18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>11999</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19">
+        <v>224</v>
+      </c>
+      <c r="S19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL19">
+        <v>120</v>
+      </c>
+      <c r="AM19">
+        <v>75</v>
+      </c>
+      <c r="AN19">
+        <v>120</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>9999</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20">
+        <v>223</v>
+      </c>
+      <c r="S20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL20">
+        <v>120</v>
+      </c>
+      <c r="AM20">
+        <v>77</v>
+      </c>
+      <c r="AN20">
+        <v>120</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>120000</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21">
+        <v>222</v>
+      </c>
+      <c r="S21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL21">
+        <v>200</v>
+      </c>
+      <c r="AM21">
+        <v>75</v>
+      </c>
+      <c r="AN21">
+        <v>300</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22">
+        <v>24999</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22">
+        <v>221</v>
+      </c>
+      <c r="S22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL22">
+        <v>120</v>
+      </c>
+      <c r="AM22">
+        <v>75</v>
+      </c>
+      <c r="AN22">
+        <v>138</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23">
+        <v>40000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23">
+        <v>220</v>
+      </c>
+      <c r="S23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL23">
+        <v>80</v>
+      </c>
+      <c r="AM23">
+        <v>75</v>
+      </c>
+      <c r="AN23">
+        <v>140</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>35000</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24">
+        <v>219</v>
+      </c>
+      <c r="S24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL24">
+        <v>70</v>
+      </c>
+      <c r="AM24">
+        <v>75</v>
+      </c>
+      <c r="AN24">
+        <v>140</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>14999</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25">
+        <v>218</v>
+      </c>
+      <c r="S25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL25">
+        <v>90</v>
+      </c>
+      <c r="AM25">
+        <v>77</v>
+      </c>
+      <c r="AN25">
+        <v>180</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26">
+        <v>15000</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS18" t="s">
+      <c r="I26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26">
+        <v>217</v>
+      </c>
+      <c r="S26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL26">
+        <v>86</v>
+      </c>
+      <c r="AM26">
+        <v>76</v>
+      </c>
+      <c r="AN26">
+        <v>180</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27">
+        <v>15000</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27">
+        <v>215</v>
+      </c>
+      <c r="S27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL27">
+        <v>90</v>
+      </c>
+      <c r="AM27">
+        <v>75</v>
+      </c>
+      <c r="AN27">
+        <v>180</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <v>12000</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28">
+        <v>216</v>
+      </c>
+      <c r="S28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL28">
+        <v>80</v>
+      </c>
+      <c r="AM28">
+        <v>3</v>
+      </c>
+      <c r="AN28">
+        <v>200</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29">
+        <v>20000</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29">
+        <v>214</v>
+      </c>
+      <c r="S29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL29">
+        <v>100</v>
+      </c>
+      <c r="AM29">
+        <v>74</v>
+      </c>
+      <c r="AN29">
+        <v>200</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30">
+        <v>15000</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>116</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30">
+        <v>213</v>
+      </c>
+      <c r="S30" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL30">
+        <v>80</v>
+      </c>
+      <c r="AM30">
+        <v>72</v>
+      </c>
+      <c r="AN30">
+        <v>180</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31">
+        <v>25000</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31">
+        <v>212</v>
+      </c>
+      <c r="S31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL31">
+        <v>85</v>
+      </c>
+      <c r="AM31">
+        <v>76</v>
+      </c>
+      <c r="AN31">
+        <v>160</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7404733F-592F-41B3-B828-BC14FDFAD535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333AB836-038A-4417-906E-E02FEAA75445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="150">
   <si>
     <t>Address</t>
   </si>
@@ -187,13 +187,13 @@
     <t>Комплект офисной мебели</t>
   </si>
   <si>
+    <t>Стол офисный</t>
+  </si>
+  <si>
+    <t>Столешница офисный стол</t>
+  </si>
+  <si>
     <t>Стол руководителя</t>
-  </si>
-  <si>
-    <t>Стол офисный</t>
-  </si>
-  <si>
-    <t>Столешница офисный стол</t>
   </si>
   <si>
     <t>Стол переговорный 
@@ -340,31 +340,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол для переговоров SteelCase 
-Артикул 192
-Стильный компьютерный стол белого цвета на прочных металлических ногах. Идеально подойдет как для работы в офисе, так и для домашнего использования. Современный дизайн в сочетании с устойчивой конструкцией делает этот стол не только эстетически привлекательным, но и надежным для ежедневного использования. Просторная рабочая поверхность позволяет удобно разместить всю технику и аксессуары.
-Размер ДхШхВ: 200х80х75
-Цвет белый
-Цена 15 000 руб 
-Количество 3
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
   </si>
   <si>
     <t>Кабинет руководителя
@@ -806,33 +781,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Стол руководителя
-Артикул 217
-Стол руководителя в современном стиле светлого цвета — это сочетание элегантности и функциональности. Мебель в отличном состоянии. Большой эргономичный стол обеспечивает комфортное рабочее пространство
-Размеры ДхШхВ: 180х86х76
-Цвет сосна 
-Цена 15 000
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Стол офисный
 Артикул 215
 Офисный стол бежевого цвета — это универсальное и стильное решение для рабочего пространства. Офисный стол бежевого цвета — это универсальное и стильное решение для рабочего пространства.
@@ -1044,9 +992,6 @@
     <t>https://yadi.sk/i/o17ZWaV_t58i9Q | https://yadi.sk/i/ofnxTQFi8A5MNw | https://yadi.sk/i/aXiG3TT8Ireygw | https://yadi.sk/i/6HwqFuN55lh3aw | https://yadi.sk/i/8elVM3Z0LwMRug | https://yadi.sk/i/X0UXgaGIpjzwbQ | https://yadi.sk/i/xusaigJmBvB-vQ</t>
   </si>
   <si>
-    <t>https://yadi.sk/i/afujttMAVUgXAw | https://yadi.sk/i/4RifNr1rKLDwjA | https://yadi.sk/i/o1txawDgMHBuag | https://yadi.sk/i/zlxsqyb6GZegCw | https://yadi.sk/i/QtVlFQd1kiXblQ</t>
-  </si>
-  <si>
     <t>https://yadi.sk/i/I6OkWC090Bzr9g | https://yadi.sk/i/XzKLZC5JrA7-tQ | https://yadi.sk/i/5N9vesXkn26ohA | https://yadi.sk/i/_U8LexsmwQkC4g</t>
   </si>
   <si>
@@ -1162,6 +1107,31 @@
   </si>
   <si>
     <t>Кабинет | Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол для переговоров SteelCase 
+Артикул 192
+Стильный компьютерный стол белого цвета на прочных металлических ногах. Идеально подойдет как для работы в офисе, так и для домашнего использования. Современный дизайн в сочетании с устойчивой конструкцией делает этот стол не только эстетически привлекательным, но и надежным для ежедневного использования. Просторная рабочая поверхность позволяет удобно разместить всю технику и аксессуары.
+Размер ДхШхВ: 200х80х75
+Цвет белый
+Цена 20 000 руб 
+Количество 3
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+                 ➕ При поиске нас в навигаторе наберите – 
+                 Офис комфорт Одинцово 
+                 ➕ Наш телеграмм канал – office comfort es
+                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+                 -------------------------------------------------------------------
+                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+                 Можем укомплектовать 100-200 рабочих мест.
+                 </t>
   </si>
 </sst>
 </file>
@@ -1231,12 +1201,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1576,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:AS30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ19" sqref="AQ19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,43 +1705,43 @@
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC2" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>121</v>
       </c>
-      <c r="AC2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>124</v>
-      </c>
       <c r="AE2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AH2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>133</v>
       </c>
-      <c r="AI2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>136</v>
-      </c>
       <c r="AK2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1780,13 +1753,13 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AQ2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AS2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -1800,43 +1773,43 @@
         <v>9999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC3" t="s">
         <v>120</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>124</v>
-      </c>
       <c r="AE3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AH3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>133</v>
       </c>
-      <c r="AI3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>136</v>
-      </c>
       <c r="AK3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1848,13 +1821,13 @@
         <v>80</v>
       </c>
       <c r="AP3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AS3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1868,43 +1841,43 @@
         <v>19999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K4">
         <v>132</v>
       </c>
       <c r="S4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC4" t="s">
         <v>120</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>121</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>123</v>
       </c>
-      <c r="AD4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>126</v>
-      </c>
       <c r="AH4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK4" t="s">
         <v>137</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>140</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1916,16 +1889,16 @@
         <v>160</v>
       </c>
       <c r="AP4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AR4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1939,43 +1912,43 @@
         <v>24999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K5">
         <v>168</v>
       </c>
       <c r="S5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC5" t="s">
         <v>120</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>121</v>
       </c>
-      <c r="AC5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>124</v>
       </c>
-      <c r="AE5" t="s">
-        <v>127</v>
-      </c>
       <c r="AH5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK5" t="s">
         <v>137</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>140</v>
       </c>
       <c r="AL5">
         <v>90</v>
@@ -1987,16 +1960,16 @@
         <v>170</v>
       </c>
       <c r="AP5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AR5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -2010,43 +1983,43 @@
         <v>50000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K6">
         <v>183</v>
       </c>
       <c r="S6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC6" t="s">
         <v>120</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>121</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI6" t="s">
         <v>123</v>
       </c>
-      <c r="AD6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>126</v>
-      </c>
       <c r="AJ6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK6" t="s">
         <v>137</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>140</v>
       </c>
       <c r="AL6">
         <v>130</v>
@@ -2058,13 +2031,13 @@
         <v>360</v>
       </c>
       <c r="AP6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AQ6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AS6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -2078,43 +2051,43 @@
         <v>99999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K7">
         <v>186</v>
       </c>
       <c r="S7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC7" t="s">
         <v>120</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>121</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI7" t="s">
         <v>123</v>
       </c>
-      <c r="AD7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>126</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AL7">
         <v>170</v>
@@ -2126,13 +2099,13 @@
         <v>360</v>
       </c>
       <c r="AP7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AS7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -2146,43 +2119,43 @@
         <v>9999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>188</v>
       </c>
       <c r="S8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC8" t="s">
         <v>120</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>121</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI8" t="s">
         <v>123</v>
       </c>
-      <c r="AD8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>126</v>
-      </c>
       <c r="AJ8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK8" t="s">
         <v>137</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>140</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -2194,66 +2167,66 @@
         <v>180</v>
       </c>
       <c r="AP8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AS8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
-        <v>65</v>
+      <c r="E9" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="F9">
-        <v>15000</v>
+        <v>19999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K9">
         <v>192</v>
       </c>
       <c r="S9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB9" t="s">
         <v>119</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>120</v>
       </c>
-      <c r="AB9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI9" t="s">
         <v>123</v>
       </c>
-      <c r="AD9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>126</v>
-      </c>
       <c r="AJ9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK9" t="s">
         <v>137</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>140</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2265,13 +2238,13 @@
         <v>200</v>
       </c>
       <c r="AP9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS9" t="s">
         <v>146</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -2279,49 +2252,49 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <v>90000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K10">
         <v>196</v>
       </c>
       <c r="S10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB10" t="s">
         <v>119</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>120</v>
       </c>
-      <c r="AB10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>123</v>
-      </c>
       <c r="AD10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK10" t="s">
         <v>137</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>140</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -2333,16 +2306,16 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS10" t="s">
         <v>146</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2350,49 +2323,49 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>40000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K11">
         <v>197</v>
       </c>
       <c r="S11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB11" t="s">
         <v>119</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>120</v>
       </c>
-      <c r="AB11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>123</v>
-      </c>
       <c r="AD11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH11" t="s">
         <v>130</v>
       </c>
-      <c r="AH11" t="s">
-        <v>133</v>
-      </c>
       <c r="AI11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>135</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>138</v>
-      </c>
       <c r="AK11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AL11">
         <v>120</v>
@@ -2404,16 +2377,16 @@
         <v>160</v>
       </c>
       <c r="AP11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS11" t="s">
         <v>146</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2421,49 +2394,49 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12">
         <v>20000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K12">
         <v>205</v>
       </c>
       <c r="S12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB12" t="s">
         <v>119</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>120</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE12" t="s">
         <v>122</v>
       </c>
-      <c r="AC12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>125</v>
-      </c>
       <c r="AH12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK12" t="s">
         <v>137</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>140</v>
       </c>
       <c r="AL12">
         <v>120</v>
@@ -2475,16 +2448,16 @@
         <v>200</v>
       </c>
       <c r="AP12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AR12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2492,49 +2465,49 @@
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>19999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K13">
         <v>207</v>
       </c>
       <c r="S13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB13" t="s">
         <v>119</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>120</v>
       </c>
-      <c r="AB13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>123</v>
-      </c>
       <c r="AD13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK13" t="s">
         <v>137</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>140</v>
       </c>
       <c r="AL13">
         <v>94</v>
@@ -2546,16 +2519,16 @@
         <v>197</v>
       </c>
       <c r="AP13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AR13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -2563,49 +2536,49 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>25000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K14">
         <v>208</v>
       </c>
       <c r="S14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB14" t="s">
         <v>119</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>120</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE14" t="s">
         <v>122</v>
       </c>
-      <c r="AC14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>125</v>
-      </c>
       <c r="AH14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK14" t="s">
         <v>137</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>140</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2617,16 +2590,16 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS14" t="s">
         <v>146</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -2634,49 +2607,49 @@
         <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <v>21000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K15">
         <v>209</v>
       </c>
       <c r="S15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB15" t="s">
         <v>119</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>120</v>
       </c>
-      <c r="AB15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>123</v>
-      </c>
       <c r="AD15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH15" t="s">
         <v>130</v>
       </c>
-      <c r="AH15" t="s">
-        <v>133</v>
-      </c>
       <c r="AI15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK15" t="s">
         <v>137</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>140</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2688,16 +2661,16 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS15" t="s">
         <v>146</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -2705,49 +2678,49 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>25000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K16">
         <v>210</v>
       </c>
       <c r="S16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB16" t="s">
         <v>119</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>120</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE16" t="s">
         <v>122</v>
       </c>
-      <c r="AC16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>125</v>
-      </c>
       <c r="AH16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK16" t="s">
         <v>137</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>140</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2759,16 +2732,16 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS16" t="s">
         <v>146</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
@@ -2776,49 +2749,49 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>25000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>211</v>
       </c>
       <c r="S17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB17" t="s">
         <v>119</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>120</v>
       </c>
-      <c r="AB17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>123</v>
-      </c>
       <c r="AD17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH17" t="s">
         <v>130</v>
       </c>
-      <c r="AH17" t="s">
-        <v>133</v>
-      </c>
       <c r="AI17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK17" t="s">
         <v>137</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>140</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2830,16 +2803,16 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS17" t="s">
         <v>146</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
@@ -2847,49 +2820,49 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18">
         <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K18">
         <v>2136</v>
       </c>
       <c r="S18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC18" t="s">
         <v>120</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AD18" t="s">
         <v>121</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI18" t="s">
         <v>123</v>
       </c>
-      <c r="AD18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
         <v>133</v>
       </c>
-      <c r="AI18" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>136</v>
-      </c>
       <c r="AK18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2901,13 +2874,13 @@
         <v>80</v>
       </c>
       <c r="AP18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AS18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
@@ -2915,49 +2888,49 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19">
         <v>11999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K19">
         <v>224</v>
       </c>
       <c r="S19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB19" t="s">
         <v>119</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>120</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE19" t="s">
         <v>122</v>
       </c>
-      <c r="AC19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>125</v>
-      </c>
       <c r="AH19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>133</v>
       </c>
-      <c r="AI19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>136</v>
-      </c>
       <c r="AK19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AL19">
         <v>120</v>
@@ -2969,13 +2942,13 @@
         <v>120</v>
       </c>
       <c r="AP19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AS19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="4:45" x14ac:dyDescent="0.25">
@@ -2983,49 +2956,49 @@
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20">
         <v>9999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K20">
         <v>223</v>
       </c>
       <c r="S20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB20" t="s">
         <v>119</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>120</v>
       </c>
-      <c r="AB20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>123</v>
-      </c>
       <c r="AD20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AH20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>133</v>
       </c>
-      <c r="AI20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>136</v>
-      </c>
       <c r="AK20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AL20">
         <v>120</v>
@@ -3037,13 +3010,13 @@
         <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AQ20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AS20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="4:45" x14ac:dyDescent="0.25">
@@ -3051,49 +3024,49 @@
         <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21">
         <v>120000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K21">
         <v>222</v>
       </c>
       <c r="S21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB21" t="s">
         <v>119</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AC21" t="s">
         <v>120</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AD21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE21" t="s">
         <v>122</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AH21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI21" t="s">
         <v>123</v>
       </c>
-      <c r="AD21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>126</v>
-      </c>
       <c r="AJ21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AL21">
         <v>200</v>
@@ -3105,16 +3078,16 @@
         <v>300</v>
       </c>
       <c r="AP21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AQ21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AR21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="4:45" x14ac:dyDescent="0.25">
@@ -3122,49 +3095,49 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22">
         <v>24999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K22">
         <v>221</v>
       </c>
       <c r="S22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB22" t="s">
         <v>119</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>120</v>
       </c>
-      <c r="AB22" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>123</v>
-      </c>
       <c r="AD22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AH22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>135</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>138</v>
-      </c>
       <c r="AK22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AL22">
         <v>120</v>
@@ -3176,16 +3149,16 @@
         <v>138</v>
       </c>
       <c r="AP22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AR22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="4:45" x14ac:dyDescent="0.25">
@@ -3193,49 +3166,49 @@
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23">
         <v>40000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K23">
         <v>220</v>
       </c>
       <c r="S23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB23" t="s">
         <v>119</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AC23" t="s">
         <v>120</v>
       </c>
-      <c r="AB23" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>123</v>
-      </c>
       <c r="AD23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AH23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK23" t="s">
         <v>137</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>140</v>
       </c>
       <c r="AL23">
         <v>80</v>
@@ -3247,16 +3220,16 @@
         <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AR23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="4:45" x14ac:dyDescent="0.25">
@@ -3264,49 +3237,49 @@
         <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24">
         <v>35000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K24">
         <v>219</v>
       </c>
       <c r="S24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB24" t="s">
         <v>119</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AC24" t="s">
         <v>120</v>
       </c>
-      <c r="AB24" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>123</v>
-      </c>
       <c r="AD24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH24" t="s">
         <v>130</v>
       </c>
-      <c r="AH24" t="s">
-        <v>133</v>
-      </c>
       <c r="AI24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK24" t="s">
         <v>137</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>140</v>
       </c>
       <c r="AL24">
         <v>70</v>
@@ -3318,16 +3291,16 @@
         <v>140</v>
       </c>
       <c r="AP24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AR24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AS24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="4:45" x14ac:dyDescent="0.25">
@@ -3335,49 +3308,49 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25">
         <v>14999</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K25">
         <v>218</v>
       </c>
       <c r="S25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB25" t="s">
         <v>119</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AC25" t="s">
         <v>120</v>
       </c>
-      <c r="AB25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>123</v>
-      </c>
       <c r="AD25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH25" t="s">
         <v>130</v>
       </c>
-      <c r="AH25" t="s">
-        <v>133</v>
-      </c>
       <c r="AI25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK25" t="s">
         <v>137</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>140</v>
       </c>
       <c r="AL25">
         <v>90</v>
@@ -3389,13 +3362,13 @@
         <v>180</v>
       </c>
       <c r="AP25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AS25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="4:45" x14ac:dyDescent="0.25">
@@ -3403,67 +3376,67 @@
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26">
         <v>15000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K26">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB26" t="s">
         <v>119</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AC26" t="s">
         <v>120</v>
       </c>
-      <c r="AB26" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>123</v>
-      </c>
       <c r="AD26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH26" t="s">
         <v>130</v>
       </c>
-      <c r="AH26" t="s">
-        <v>133</v>
-      </c>
       <c r="AI26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK26" t="s">
         <v>137</v>
       </c>
-      <c r="AK26" t="s">
-        <v>140</v>
-      </c>
       <c r="AL26">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AM26">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN26">
         <v>180</v>
       </c>
       <c r="AP26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AS26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="4:45" x14ac:dyDescent="0.25">
@@ -3471,67 +3444,67 @@
         <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K27">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB27" t="s">
         <v>119</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AC27" t="s">
         <v>120</v>
       </c>
-      <c r="AB27" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>123</v>
-      </c>
       <c r="AD27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AH27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK27" t="s">
         <v>137</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27">
+        <v>80</v>
+      </c>
+      <c r="AM27">
+        <v>3</v>
+      </c>
+      <c r="AN27">
+        <v>200</v>
+      </c>
+      <c r="AP27" t="s">
         <v>140</v>
       </c>
-      <c r="AL27">
-        <v>90</v>
-      </c>
-      <c r="AM27">
-        <v>75</v>
-      </c>
-      <c r="AN27">
-        <v>180</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>142</v>
-      </c>
       <c r="AQ27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AS27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="4:45" x14ac:dyDescent="0.25">
@@ -3539,274 +3512,206 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K28">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB28" t="s">
         <v>119</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AC28" t="s">
         <v>120</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AD28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE28" t="s">
         <v>122</v>
       </c>
-      <c r="AC28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>129</v>
-      </c>
       <c r="AH28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ28" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK28" t="s">
         <v>137</v>
       </c>
-      <c r="AK28" t="s">
-        <v>140</v>
-      </c>
       <c r="AL28">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM28">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="AN28">
         <v>200</v>
       </c>
       <c r="AP28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>143</v>
       </c>
-      <c r="AQ28" t="s">
-        <v>142</v>
-      </c>
       <c r="AS28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K29">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB29" t="s">
         <v>119</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AC29" t="s">
         <v>120</v>
       </c>
-      <c r="AB29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>123</v>
-      </c>
       <c r="AD29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK29" t="s">
         <v>137</v>
       </c>
-      <c r="AK29" t="s">
-        <v>140</v>
-      </c>
       <c r="AL29">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM29">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AN29">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AS29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30">
+        <v>212</v>
+      </c>
+      <c r="S30" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30">
-        <v>213</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="AA30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB30" t="s">
         <v>119</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AC30" t="s">
         <v>120</v>
       </c>
-      <c r="AB30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>123</v>
-      </c>
       <c r="AD30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE30" t="s">
         <v>129</v>
       </c>
       <c r="AH30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK30" t="s">
         <v>137</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AL30">
+        <v>85</v>
+      </c>
+      <c r="AM30">
+        <v>76</v>
+      </c>
+      <c r="AN30">
+        <v>160</v>
+      </c>
+      <c r="AP30" t="s">
         <v>140</v>
       </c>
-      <c r="AL30">
-        <v>80</v>
-      </c>
-      <c r="AM30">
-        <v>72</v>
-      </c>
-      <c r="AN30">
-        <v>180</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>142</v>
-      </c>
       <c r="AQ30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS30" t="s">
         <v>146</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31">
-        <v>25000</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K31">
-        <v>212</v>
-      </c>
-      <c r="S31" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL31">
-        <v>85</v>
-      </c>
-      <c r="AM31">
-        <v>76</v>
-      </c>
-      <c r="AN31">
-        <v>160</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3869,8 +3774,6 @@
     <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="G30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="I30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333AB836-038A-4417-906E-E02FEAA75445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AD63AE-FFC1-4949-AE50-2973D8600009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="149">
   <si>
     <t>Address</t>
   </si>
@@ -971,42 +971,6 @@
     <t>https://disk.yandex.ru/i/d7VhfnI3Tzeyhw | https://disk.yandex.ru/i/3LhVw5XmxI4kEA | https://disk.yandex.ru/i/E8Oe5s46i5Iihw | https://disk.yandex.ru/i/85xR4DpK7PwOQA | https://disk.yandex.ru/i/XgBGVKbNp_5CSg</t>
   </si>
   <si>
-    <t>https://yadi.sk/i/UJg_tt48nQP0KA | https://yadi.sk/i/a52b9VyAtbIu9g | https://yadi.sk/i/AnI2BFpXsdtFJw | https://yadi.sk/i/Q_kbCcX6oK3HlQ</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/oEdEkaqeyt7JXA | https://yadi.sk/i/VeS7Hpd3fCSkZA | https://yadi.sk/i/rdM9ZwVv6d-YuQ</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/s2e1TD7Xr_AHWg | https://yadi.sk/i/lHgTU5xnx8JgEA | https://yadi.sk/i/6yYze2-97mCKrA | https://yadi.sk/i/lVOJvS437YD51A | https://yadi.sk/i/OIgF5DMX41jnEA | https://yadi.sk/i/T7twRjXcRfSiIQ | https://yadi.sk/i/aJJyJdglztgmWQ | https://yadi.sk/i/nk9l0UhdeoDRWQ | https://yadi.sk/i/GQRetH6b5YhfGQ | https://yadi.sk/i/9WivDPidJ3gENw</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/TxWEuWDD4arstA | https://yadi.sk/i/RUdN1roQ_5vgpA | https://yadi.sk/i/phdZ7Bwe-WcedQ | https://yadi.sk/i/X5SrSmW0yi-fsQ | https://yadi.sk/i/zDj1dIGmljOU8A | https://yadi.sk/i/4qpTeD7dMcUN3A | https://yadi.sk/i/b-V0CEgfMWrxPQ | https://yadi.sk/i/7XcHAqNfUlThUg | https://yadi.sk/i/Uw6iwlQAZ-q9Mg | https://yadi.sk/i/KqpV6OkZusUGgA</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/Q4ob5KGKpvzs9Q | https://yadi.sk/i/Vy-WxF5UBtCSWg | https://yadi.sk/i/QPh3DYxGMnLIgw | https://yadi.sk/i/JviaYtmX61tYYg | https://yadi.sk/i/XOqc-NoKV7nkBw | https://yadi.sk/i/M3k0NxpYrAe_7Q | https://yadi.sk/i/Q7ntBKBu7lTJKA | https://yadi.sk/i/uWhyFu8Vcvfteg | https://yadi.sk/i/dum8db07-eJrFQ | https://yadi.sk/i/hOMZWfq_OH52_g</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/xLhNqFCRGaT6Dw | https://yadi.sk/i/65AgfmgdR6_KBg | https://yadi.sk/i/Do7La_ustE0Zfw | https://yadi.sk/i/0yuslDTBYb48OQ | https://yadi.sk/i/fQ-0pM9TjTx1kA | https://yadi.sk/i/dVdjd9bKNN034A | https://yadi.sk/i/5LkL_MGgRTEXYw | https://yadi.sk/i/01l2geLXjJ6Erw | https://yadi.sk/i/ytRDzqKu8wzcEA | https://yadi.sk/i/aMjgPp1Ov5ccmg</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/o17ZWaV_t58i9Q | https://yadi.sk/i/ofnxTQFi8A5MNw | https://yadi.sk/i/aXiG3TT8Ireygw | https://yadi.sk/i/6HwqFuN55lh3aw | https://yadi.sk/i/8elVM3Z0LwMRug | https://yadi.sk/i/X0UXgaGIpjzwbQ | https://yadi.sk/i/xusaigJmBvB-vQ</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/I6OkWC090Bzr9g | https://yadi.sk/i/XzKLZC5JrA7-tQ | https://yadi.sk/i/5N9vesXkn26ohA | https://yadi.sk/i/_U8LexsmwQkC4g</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/G3AsGoOOpSM_ew | https://yadi.sk/i/d6Kut4CuVXA03w | https://yadi.sk/i/FKZ_6uehxZf3xg | https://yadi.sk/i/Q09nWLEsa4Wv3Q | https://yadi.sk/i/GYFixWWDevBOVg</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/xDgK82fkCe2xWA | https://yadi.sk/i/f1sVPUKHcsxneQ | https://yadi.sk/i/oJMSTF3am0xKcA | https://yadi.sk/i/9E_oVVTpKVc5kw | https://yadi.sk/i/5vkfKF5NxhMBrQ | https://yadi.sk/i/qR67rikrBokMzA</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/rI-mxgSK1qyLPw | https://yadi.sk/i/rJS6LV-_n9ms6A | https://yadi.sk/i/ehqqLVaX8_WxGA | https://yadi.sk/i/DyebLQ3H36Rz_A</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/mAOhRoFPl12JKg | https://yadi.sk/i/yhO6A5lvXeW-eQ | https://yadi.sk/i/lOlYx7PcHK1bpw | https://yadi.sk/i/QnScUCQqtAwBBQ | https://yadi.sk/i/7Z1vOE4M7wBXbg | https://yadi.sk/i/9Z6HvSuDl_oHkw | https://yadi.sk/i/dTjDCVSBeqcRqQ | https://yadi.sk/i/FhIvyAiJlwlzCQ | https://yadi.sk/i/g_TmssrqEXkVhQ | https://yadi.sk/i/eojJXx2pt-1szg</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1086,9 +1050,6 @@
   </si>
   <si>
     <t>Стекло</t>
-  </si>
-  <si>
-    <t>ДСП | ЛДСП</t>
   </si>
   <si>
     <t>Металл</t>
@@ -1132,6 +1093,42 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/mAOhRoFPl12JKg | https://disk.yandex.ru/i/yhO6A5lvXeW-eQ | https://disk.yandex.ru/i/lOlYx7PcHK1bpw | https://disk.yandex.ru/i/QnScUCQqtAwBBQ | https://disk.yandex.ru/i/7Z1vOE4M7wBXbg | https://disk.yandex.ru/i/9Z6HvSuDl_oHkw | https://disk.yandex.ru/i/dTjDCVSBeqcRqQ | https://disk.yandex.ru/i/FhIvyAiJlwlzCQ | https://disk.yandex.ru/i/g_TmssrqEXkVhQ | https://disk.yandex.ru/i/eojJXx2pt-1szg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/rI-mxgSK1qyLPw | https://disk.yandex.ru/i/rJS6LV-_n9ms6A | https://disk.yandex.ru/i/ehqqLVaX8_WxGA | https://disk.yandex.ru/i/DyebLQ3H36Rz_A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xDgK82fkCe2xWA | https://disk.yandex.ru/i/f1sVPUKHcsxneQ | https://disk.yandex.ru/i/oJMSTF3am0xKcA | https://disk.yandex.ru/i/9E_oVVTpKVc5kw | https://disk.yandex.ru/i/5vkfKF5NxhMBrQ | https://disk.yandex.ru/i/qR67rikrBokMzA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/I6OkWC090Bzr9g | https://disk.yandex.ru/i/XzKLZC5JrA7-tQ | https://disk.yandex.ru/i/5N9vesXkn26ohA | https://disk.yandex.ru/i/_U8LexsmwQkC4g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/G3AsGoOOpSM_ew | https://disk.yandex.ru/i/d6Kut4CuVXA03w | https://disk.yandex.ru/i/FKZ_6uehxZf3xg | https://disk.yandex.ru/i/Q09nWLEsa4Wv3Q | https://disk.yandex.ru/i/GYFixWWDevBOVg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/o17ZWaV_t58i9Q | https://disk.yandex.ru/i/ofnxTQFi8A5MNw | https://disk.yandex.ru/i/aXiG3TT8Ireygw | https://disk.yandex.ru/i/6HwqFuN55lh3aw | https://disk.yandex.ru/i/8elVM3Z0LwMRug | https://disk.yandex.ru/i/X0UXgaGIpjzwbQ | https://disk.yandex.ru/i/xusaigJmBvB-vQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xLhNqFCRGaT6Dw | https://disk.yandex.ru/i/65AgfmgdR6_KBg | https://disk.yandex.ru/i/Do7La_ustE0Zfw | https://disk.yandex.ru/i/0yuslDTBYb48OQ | https://disk.yandex.ru/i/fQ-0pM9TjTx1kA | https://disk.yandex.ru/i/dVdjd9bKNN034A | https://disk.yandex.ru/i/5LkL_MGgRTEXYw | https://disk.yandex.ru/i/01l2geLXjJ6Erw | https://disk.yandex.ru/i/ytRDzqKu8wzcEA | https://disk.yandex.ru/i/aMjgPp1Ov5ccmg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Q4ob5KGKpvzs9Q | https://disk.yandex.ru/i/Vy-WxF5UBtCSWg | https://disk.yandex.ru/i/QPh3DYxGMnLIgw | https://disk.yandex.ru/i/JviaYtmX61tYYg | https://disk.yandex.ru/i/XOqc-NoKV7nkBw | https://disk.yandex.ru/i/M3k0NxpYrAe_7Q | https://disk.yandex.ru/i/Q7ntBKBu7lTJKA | https://disk.yandex.ru/i/uWhyFu8Vcvfteg | https://disk.yandex.ru/i/dum8db07-eJrFQ | https://disk.yandex.ru/i/hOMZWfq_OH52_g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/TxWEuWDD4arstA | https://disk.yandex.ru/i/RUdN1roQ_5vgpA | https://disk.yandex.ru/i/phdZ7Bwe-WcedQ | https://disk.yandex.ru/i/X5SrSmW0yi-fsQ | https://disk.yandex.ru/i/zDj1dIGmljOU8A | https://disk.yandex.ru/i/4qpTeD7dMcUN3A | https://disk.yandex.ru/i/b-V0CEgfMWrxPQ | https://disk.yandex.ru/i/7XcHAqNfUlThUg | https://disk.yandex.ru/i/Uw6iwlQAZ-q9Mg | https://disk.yandex.ru/i/KqpV6OkZusUGgA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/s2e1TD7Xr_AHWg | https://disk.yandex.ru/i/lHgTU5xnx8JgEA | https://disk.yandex.ru/i/6yYze2-97mCKrA | https://disk.yandex.ru/i/lVOJvS437YD51A | https://disk.yandex.ru/i/OIgF5DMX41jnEA | https://disk.yandex.ru/i/T7twRjXcRfSiIQ | https://disk.yandex.ru/i/aJJyJdglztgmWQ | https://disk.yandex.ru/i/nk9l0UhdeoDRWQ | https://disk.yandex.ru/i/GQRetH6b5YhfGQ | https://disk.yandex.ru/i/9WivDPidJ3gENw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/oEdEkaqeyt7JXA | https://disk.yandex.ru/i/VeS7Hpd3fCSkZA | https://disk.yandex.ru/i/rdM9ZwVv6d-YuQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/UJg_tt48nQP0KA | https://disk.yandex.ru/i/a52b9VyAtbIu9g | https://disk.yandex.ru/i/AnI2BFpXsdtFJw | https://disk.yandex.ru/i/Q_kbCcX6oK3HlQ</t>
   </si>
 </sst>
 </file>
@@ -1551,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,40 +1705,40 @@
         <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AI2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>121</v>
       </c>
-      <c r="AE2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>133</v>
-      </c>
       <c r="AK2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1753,13 +1750,13 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="AQ2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -1776,40 +1773,40 @@
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" t="s">
         <v>118</v>
       </c>
-      <c r="AC3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AI3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>121</v>
       </c>
-      <c r="AE3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>133</v>
-      </c>
       <c r="AK3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1821,13 +1818,13 @@
         <v>80</v>
       </c>
       <c r="AP3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AS3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1844,40 +1841,40 @@
         <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K4">
         <v>132</v>
       </c>
       <c r="S4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH4" t="s">
         <v>118</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AI4" t="s">
         <v>120</v>
       </c>
-      <c r="AD4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1889,16 +1886,16 @@
         <v>160</v>
       </c>
       <c r="AP4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AR4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1915,40 +1912,40 @@
         <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K5">
         <v>168</v>
       </c>
       <c r="S5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH5" t="s">
         <v>118</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AI5" t="s">
         <v>120</v>
       </c>
-      <c r="AD5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL5">
         <v>90</v>
@@ -1960,16 +1957,16 @@
         <v>170</v>
       </c>
       <c r="AP5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AQ5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AR5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1986,40 +1983,40 @@
         <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>183</v>
       </c>
       <c r="S6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6" t="s">
         <v>118</v>
       </c>
-      <c r="AC6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AI6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK6" t="s">
         <v>125</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>137</v>
       </c>
       <c r="AL6">
         <v>130</v>
@@ -2031,13 +2028,13 @@
         <v>360</v>
       </c>
       <c r="AP6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AQ6" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AS6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -2054,40 +2051,40 @@
         <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>186</v>
       </c>
       <c r="S7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH7" t="s">
         <v>118</v>
       </c>
-      <c r="AC7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>130</v>
-      </c>
       <c r="AI7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AJ7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AK7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL7">
         <v>170</v>
@@ -2099,13 +2096,13 @@
         <v>360</v>
       </c>
       <c r="AP7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AQ7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AS7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -2122,40 +2119,40 @@
         <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K8">
         <v>188</v>
       </c>
       <c r="S8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH8" t="s">
         <v>118</v>
       </c>
-      <c r="AC8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>130</v>
-      </c>
       <c r="AI8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AJ8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -2167,21 +2164,21 @@
         <v>180</v>
       </c>
       <c r="AP8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AS8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F9">
         <v>19999</v>
@@ -2190,43 +2187,43 @@
         <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K9">
         <v>192</v>
       </c>
       <c r="S9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="AD9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AE9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="AF9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="AH9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AI9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AJ9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2238,13 +2235,13 @@
         <v>200</v>
       </c>
       <c r="AP9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AS9" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -2261,40 +2258,40 @@
         <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K10">
         <v>196</v>
       </c>
       <c r="S10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA10" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB10" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI10" t="s">
         <v>120</v>
       </c>
-      <c r="AD10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -2306,16 +2303,16 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ10" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AR10" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS10" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2332,40 +2329,40 @@
         <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K11">
         <v>197</v>
       </c>
       <c r="S11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI11" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="AK11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL11">
         <v>120</v>
@@ -2377,16 +2374,16 @@
         <v>160</v>
       </c>
       <c r="AP11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ11" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AR11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS11" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2403,40 +2400,40 @@
         <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K12">
         <v>205</v>
       </c>
       <c r="S12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI12" t="s">
         <v>120</v>
       </c>
-      <c r="AD12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="AJ12" t="s">
         <v>122</v>
       </c>
-      <c r="AH12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>134</v>
-      </c>
       <c r="AK12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL12">
         <v>120</v>
@@ -2448,16 +2445,16 @@
         <v>200</v>
       </c>
       <c r="AP12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AR12" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS12" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2474,40 +2471,40 @@
         <v>97</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K13">
         <v>207</v>
       </c>
       <c r="S13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE13" t="s">
         <v>116</v>
       </c>
-      <c r="AA13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AH13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI13" t="s">
         <v>120</v>
       </c>
-      <c r="AD13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL13">
         <v>94</v>
@@ -2519,16 +2516,16 @@
         <v>197</v>
       </c>
       <c r="AP13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AQ13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AR13" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS13" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -2545,40 +2542,40 @@
         <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K14">
         <v>208</v>
       </c>
       <c r="S14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB14" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI14" t="s">
         <v>120</v>
       </c>
-      <c r="AD14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AJ14" t="s">
         <v>122</v>
       </c>
-      <c r="AH14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>134</v>
-      </c>
       <c r="AK14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2590,16 +2587,16 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AR14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -2616,40 +2613,40 @@
         <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K15">
         <v>209</v>
       </c>
       <c r="S15" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA15" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB15" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI15" t="s">
         <v>120</v>
       </c>
-      <c r="AD15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK15" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2661,16 +2658,16 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AR15" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -2687,40 +2684,40 @@
         <v>100</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K16">
         <v>210</v>
       </c>
       <c r="S16" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA16" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB16" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI16" t="s">
         <v>120</v>
       </c>
-      <c r="AD16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AJ16" t="s">
         <v>122</v>
       </c>
-      <c r="AH16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>134</v>
-      </c>
       <c r="AK16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2732,16 +2729,16 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ16" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AR16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS16" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
@@ -2758,40 +2755,40 @@
         <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K17">
         <v>211</v>
       </c>
       <c r="S17" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA17" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB17" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI17" t="s">
         <v>120</v>
       </c>
-      <c r="AD17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ17" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2803,16 +2800,16 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ17" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AR17" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS17" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
@@ -2829,40 +2826,40 @@
         <v>102</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K18">
         <v>2136</v>
       </c>
       <c r="S18" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA18" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH18" t="s">
         <v>118</v>
       </c>
-      <c r="AC18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="AI18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>121</v>
       </c>
-      <c r="AE18" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>133</v>
-      </c>
       <c r="AK18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2874,13 +2871,13 @@
         <v>80</v>
       </c>
       <c r="AP18" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AQ18" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AS18" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
@@ -2894,43 +2891,43 @@
         <v>11999</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="K19">
         <v>224</v>
       </c>
       <c r="S19" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA19" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI19" t="s">
         <v>120</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AJ19" t="s">
         <v>121</v>
       </c>
-      <c r="AE19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>133</v>
-      </c>
       <c r="AK19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL19">
         <v>120</v>
@@ -2942,13 +2939,13 @@
         <v>120</v>
       </c>
       <c r="AP19" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ19" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AS19" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="4:45" x14ac:dyDescent="0.25">
@@ -2962,43 +2959,43 @@
         <v>9999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>223</v>
       </c>
       <c r="S20" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA20" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI20" t="s">
         <v>119</v>
       </c>
-      <c r="AC20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AJ20" t="s">
         <v>121</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AK20" t="s">
         <v>125</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>137</v>
       </c>
       <c r="AL20">
         <v>120</v>
@@ -3010,13 +3007,13 @@
         <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AQ20" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AS20" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="4:45" x14ac:dyDescent="0.25">
@@ -3030,43 +3027,43 @@
         <v>120000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K21">
         <v>222</v>
       </c>
       <c r="S21" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA21" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB21" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="AD21" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AE21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AH21" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AI21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AJ21" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK21" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL21">
         <v>200</v>
@@ -3078,16 +3075,16 @@
         <v>300</v>
       </c>
       <c r="AP21" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AQ21" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AR21" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS21" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="4:45" x14ac:dyDescent="0.25">
@@ -3101,43 +3098,43 @@
         <v>24999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K22">
         <v>221</v>
       </c>
       <c r="S22" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA22" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB22" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI22" t="s">
         <v>120</v>
       </c>
-      <c r="AD22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AJ22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK22" t="s">
         <v>125</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>137</v>
       </c>
       <c r="AL22">
         <v>120</v>
@@ -3149,16 +3146,16 @@
         <v>138</v>
       </c>
       <c r="AP22" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ22" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AR22" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS22" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="4:45" x14ac:dyDescent="0.25">
@@ -3172,43 +3169,43 @@
         <v>40000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K23">
         <v>220</v>
       </c>
       <c r="S23" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA23" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB23" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI23" t="s">
         <v>120</v>
       </c>
-      <c r="AD23" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AJ23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK23" t="s">
         <v>125</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>137</v>
       </c>
       <c r="AL23">
         <v>80</v>
@@ -3220,16 +3217,16 @@
         <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ23" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AR23" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS23" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="4:45" x14ac:dyDescent="0.25">
@@ -3243,43 +3240,43 @@
         <v>35000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K24">
         <v>219</v>
       </c>
       <c r="S24" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA24" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB24" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI24" t="s">
         <v>120</v>
       </c>
-      <c r="AD24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ24" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK24" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL24">
         <v>70</v>
@@ -3291,16 +3288,16 @@
         <v>140</v>
       </c>
       <c r="AP24" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ24" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AR24" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS24" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="4:45" x14ac:dyDescent="0.25">
@@ -3314,43 +3311,43 @@
         <v>14999</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K25">
         <v>218</v>
       </c>
       <c r="S25" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA25" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB25" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI25" t="s">
         <v>120</v>
       </c>
-      <c r="AD25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK25" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL25">
         <v>90</v>
@@ -3362,13 +3359,13 @@
         <v>180</v>
       </c>
       <c r="AP25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AS25" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="4:45" x14ac:dyDescent="0.25">
@@ -3382,43 +3379,43 @@
         <v>15000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K26">
         <v>215</v>
       </c>
       <c r="S26" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA26" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB26" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI26" t="s">
         <v>120</v>
       </c>
-      <c r="AD26" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ26" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL26">
         <v>90</v>
@@ -3430,13 +3427,13 @@
         <v>180</v>
       </c>
       <c r="AP26" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ26" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AS26" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="4:45" x14ac:dyDescent="0.25">
@@ -3450,43 +3447,43 @@
         <v>12000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K27">
         <v>216</v>
       </c>
       <c r="S27" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA27" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB27" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI27" t="s">
         <v>120</v>
       </c>
-      <c r="AD27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ27" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK27" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL27">
         <v>80</v>
@@ -3498,13 +3495,13 @@
         <v>200</v>
       </c>
       <c r="AP27" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AQ27" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AS27" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="4:45" x14ac:dyDescent="0.25">
@@ -3518,43 +3515,43 @@
         <v>20000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K28">
         <v>214</v>
       </c>
       <c r="S28" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA28" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB28" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI28" t="s">
         <v>120</v>
       </c>
-      <c r="AD28" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AJ28" t="s">
         <v>122</v>
       </c>
-      <c r="AH28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>134</v>
-      </c>
       <c r="AK28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL28">
         <v>100</v>
@@ -3566,13 +3563,13 @@
         <v>200</v>
       </c>
       <c r="AP28" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ28" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AS28" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="4:45" x14ac:dyDescent="0.25">
@@ -3586,43 +3583,43 @@
         <v>15000</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K29">
         <v>213</v>
       </c>
       <c r="S29" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA29" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB29" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI29" t="s">
         <v>120</v>
       </c>
-      <c r="AD29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ29" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL29">
         <v>80</v>
@@ -3634,13 +3631,13 @@
         <v>180</v>
       </c>
       <c r="AP29" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AQ29" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AS29" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="4:45" x14ac:dyDescent="0.25">
@@ -3654,43 +3651,43 @@
         <v>25000</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K30">
         <v>212</v>
       </c>
       <c r="S30" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE30" t="s">
         <v>117</v>
       </c>
-      <c r="AB30" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC30" t="s">
+      <c r="AH30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI30" t="s">
         <v>120</v>
       </c>
-      <c r="AD30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ30" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AK30" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AL30">
         <v>85</v>
@@ -3702,16 +3699,16 @@
         <v>160</v>
       </c>
       <c r="AP30" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AQ30" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AR30" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS30" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3750,30 +3747,19 @@
     <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I25" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I27" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I28" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I29" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G30" r:id="rId46" display="https://yadi.sk/i/mAOhRoFPl12JKg | https://yadi.sk/i/yhO6A5lvXeW-eQ | https://yadi.sk/i/lOlYx7PcHK1bpw | https://yadi.sk/i/QnScUCQqtAwBBQ | https://yadi.sk/i/7Z1vOE4M7wBXbg | https://yadi.sk/i/9Z6HvSuDl_oHkw | https://yadi.sk/i/dTjDCVSBeqcRqQ | https://ya" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I30" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AD63AE-FFC1-4949-AE50-2973D8600009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="155">
   <si>
     <t>Address</t>
   </si>
@@ -157,6 +151,9 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>CanBeDisassembled</t>
+  </si>
+  <si>
     <t>Стол переговорный</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>Стол руководителя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабинет руководителя </t>
   </si>
   <si>
     <t>Стол переговорный 
@@ -340,6 +340,31 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол для переговоров SteelCase 
+Артикул 192
+Стильный компьютерный стол белого цвета на прочных металлических ногах. Идеально подойдет как для работы в офисе, так и для домашнего использования. Современный дизайн в сочетании с устойчивой конструкцией делает этот стол не только эстетически привлекательным, но и надежным для ежедневного использования. Просторная рабочая поверхность позволяет удобно разместить всю технику и аксессуары.
+Размер ДхШхВ: 200х80х75
+Цвет белый
+Цена 20 000 руб 
+Количество 3
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+                 ➕ При поиске нас в навигаторе наберите – 
+                 Офис комфорт Одинцово 
+                 ➕ Наш телеграмм канал – office comfort es
+                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+                 -------------------------------------------------------------------
+                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+                 Можем укомплектовать 100-200 рабочих мест.
+                 </t>
   </si>
   <si>
     <t>Кабинет руководителя
@@ -836,33 +861,6 @@
     </t>
   </si>
   <si>
-    <t>Стол руководителя
-Артикул 214
-Офисный стол на металлических ногах цвета Шимо — это стильное и практичное решение для современного рабочего пространства.
-Особенности:
- - Привлекательный цвет: изысканный оттенок Шимо добавляет уюта и тепла интерьеру, легко сочетается с другой офисной мебелью.
- - Прочная конструкция: металлические ножки обеспечивают устойчивость и надежность стола, гарантируя его долговечность.
-- Функциональность: отверстие для проводов упрощает организацию рабочего места, помогая держать кабели в порядке и экономя пространство.
-Размеры ДхШхВ: 200х100х74
-Цвет Шимо
-Цена 20 000 руб 
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Стол для переговоров
 Артикул 213
 Офисный стол для переговоров белого цвета на металлических ногах — это элегантное и функциональное решение для вашего рабочего пространства. Идеально подходит для конференц-залов, переговорных комнат и современных офисных пространств. Этот стол подчеркнет ваш вкус и станет важным элементом эффективной работы команды.
@@ -920,222 +918,262 @@
     </t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/v6krD4LPKukU9w | https://disk.yandex.ru/i/YSLTN_yXvUECGw | https://disk.yandex.ru/i/xPr-iOtZAGbhvg | https://disk.yandex.ru/i/BQUE4ZnI8lC0oA | https://disk.yandex.ru/i/0zZmb2pmI5FdHA | https://disk.yandex.ru/i/wk-skrHJFOGwvA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/vM0qg0crKZmyqQ | https://disk.yandex.ru/i/OxloUWElvXA_FQ | https://disk.yandex.ru/i/j9cGHsN0YxaVgg | https://disk.yandex.ru/i/VHzBSNc4kkiHkA | https://disk.yandex.ru/i/4MEkQ6dDio2OBA | https://disk.yandex.ru/i/ZOcnsS9CNAx9kQ | https://disk.yandex.ru/i/QKJj1Qtx7k2xug | https://disk.yandex.ru/i/ntZxv4uc68gOWg | https://disk.yandex.ru/i/DAN0HWYPcoA8Cw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/UHXRg6OxlEfUxg | https://disk.yandex.ru/i/PTTxLwvQo2wbOg | https://disk.yandex.ru/i/r8haHNYVYkEfug | https://disk.yandex.ru/i/wZvttGINkhGIPA | https://disk.yandex.ru/i/FPO_HMnaw_NKXg | https://disk.yandex.ru/i/4Lbq_Ng2NpSwkQ | https://disk.yandex.ru/i/st90yK27BGQlFQ | https://disk.yandex.ru/i/8jNbAfpOEXukxQ | https://disk.yandex.ru/i/HCJWd61-NB0yhA | https://disk.yandex.ru/i/DG-w_PhezIyGgg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/aMfzSub9xTFXjw | https://disk.yandex.ru/i/maJyjBkoYISzIw | https://disk.yandex.ru/i/0wsihDFD--fR_Q | https://disk.yandex.ru/i/Gz4J3t-erXm8AA | https://disk.yandex.ru/i/TMtg8xaYCSa-CQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/SfiLSfb6sZfsGQ | https://disk.yandex.ru/i/mMtAuNHDYZAAog | https://disk.yandex.ru/i/4fm4IQOxGm3rRg | https://disk.yandex.ru/i/-KwWZNye2KgpXg | https://disk.yandex.ru/i/1O8voVaNyCzv6g | https://disk.yandex.ru/i/oDvHEQ_TvosWMg | https://disk.yandex.ru/i/8K037bCwGKI3sQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/T0jflNijHZmtUg | https://disk.yandex.ru/i/Orwhna4soUAO0w | https://disk.yandex.ru/i/C1JG3DsLTCLLkw | https://disk.yandex.ru/i/RRIBSu4IfM7K8A | https://disk.yandex.ru/i/vEq7re9pkJjpew | https://disk.yandex.ru/i/cssTFMJNR3yM_Q</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/YUqv1-fJ5z4pIg | https://disk.yandex.ru/i/hlH4PJWp6goS5A | https://disk.yandex.ru/i/zOu4tUC4ggOi_A | https://disk.yandex.ru/i/t8OXCkysyTmxlA | https://disk.yandex.ru/i/557Bzug0MWZbOg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/1aTqiuWn9-lL9Q | https://disk.yandex.ru/i/uckFkWKMcnrTbg | https://disk.yandex.ru/i/ae8H10ig2MudAQ | https://disk.yandex.ru/i/vpib0o8A1KEfYw | https://disk.yandex.ru/i/ahH_FLlcBfx7_A | https://disk.yandex.ru/i/J1DtSL8r8BmzdA | https://disk.yandex.ru/i/1QyzSzFrZxYPgw | https://disk.yandex.ru/i/Nz8Tmi4Jli1IKg | https://disk.yandex.ru/i/_4DMU3B-Z5cE-A | https://disk.yandex.ru/i/BnE9oWNA91SUzg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/9Fa3SdublDpVqw | https://disk.yandex.ru/i/oopBCeXN0pOY7w | https://disk.yandex.ru/i/8IJqF__1fn0AdA | https://disk.yandex.ru/i/tpno5M0JXgBYGQ | https://disk.yandex.ru/i/frvmm-YLfFA2vQ | https://disk.yandex.ru/i/F5APb11MLbfjjg | https://disk.yandex.ru/i/LHcUCki4lOh6iA | https://disk.yandex.ru/i/VNeJPg_8ycy3og | https://disk.yandex.ru/i/MIp3PdPIo5giAA | https://disk.yandex.ru/i/BtEq6CItf1ngVg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Cr3HM9bi813R2w | https://disk.yandex.ru/i/55RyI3HDMryjdQ | https://disk.yandex.ru/i/pknHia8uSr6VcQ | https://disk.yandex.ru/i/DylOghCc2uqBRw | https://disk.yandex.ru/i/4SR57qkS_TUcMg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/HWLDYbtUpq0qlQ | https://disk.yandex.ru/i/vInlxVuQE03X7A | https://disk.yandex.ru/i/a3TMO838uEudgw | https://disk.yandex.ru/i/sZw1tMAeO5oNrA | https://disk.yandex.ru/i/1gG7UrG_S6_JsA | https://disk.yandex.ru/i/JEiPTBSmCZLVRg | https://disk.yandex.ru/i/czjDGmZQoXe30Q | https://disk.yandex.ru/i/woUhjXEYoPywIw | https://disk.yandex.ru/i/JyPZu-nkNH1DSg | https://disk.yandex.ru/i/zDHPGHlKicWIrw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/nyuhp_rcq9mpRw | https://disk.yandex.ru/i/9ZBcNQKOh9RNJQ | https://disk.yandex.ru/i/q19oOBTxah3OAg | https://disk.yandex.ru/i/B5xuGJs6k9smtg | https://disk.yandex.ru/i/iNZFdD74Cqbmnw | https://disk.yandex.ru/i/lxOderh0uiVZPg | https://disk.yandex.ru/i/4f9F-E4jfGZF-A | https://disk.yandex.ru/i/OjZTag84BA__qw | https://disk.yandex.ru/i/qIOQD7LeuPP-Gw | https://disk.yandex.ru/i/sEbH6BRS_qnyCg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/XGNkB3NO6IaZYA | https://disk.yandex.ru/i/P88chKGHgwwdRw | https://disk.yandex.ru/i/9ZBcNQKOh9RNJQ | https://disk.yandex.ru/i/B5xuGJs6k9smtg | https://disk.yandex.ru/i/q19oOBTxah3OAg | https://disk.yandex.ru/i/n4wa2xeEAXgZGg | https://disk.yandex.ru/i/iNZFdD74Cqbmnw | https://disk.yandex.ru/i/lxOderh0uiVZPg | https://disk.yandex.ru/i/4f9F-E4jfGZF-A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/GsAY2-mDDa5n8Q | https://disk.yandex.ru/i/AwDoeQ9tmRpk_Q | https://disk.yandex.ru/i/WbG_DCUtV66iNQ | https://disk.yandex.ru/i/kVVIDcViwF3RvQ | https://disk.yandex.ru/i/lj1sVacCNSbzUA | https://disk.yandex.ru/i/Mg2eBy1hi18pxg | https://disk.yandex.ru/i/w7PPlVkAVYnB6A | https://disk.yandex.ru/i/7z7oHzhaX-h91w</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/EdK37TeCWOkhaw | https://disk.yandex.ru/i/AwDoeQ9tmRpk_Q | https://disk.yandex.ru/i/WbG_DCUtV66iNQ | https://disk.yandex.ru/i/kVVIDcViwF3RvQ | https://disk.yandex.ru/i/lj1sVacCNSbzUA | https://disk.yandex.ru/i/kKhRBRut8Nkm2g | https://disk.yandex.ru/i/tQ2EDy7NET_mEA | https://disk.yandex.ru/i/bSm89Zl9twjXkA | https://disk.yandex.ru/i/OjZTag84BA__qw | https://disk.yandex.ru/i/qIOQD7LeuPP-Gw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/d7VhfnI3Tzeyhw | https://disk.yandex.ru/i/3LhVw5XmxI4kEA | https://disk.yandex.ru/i/E8Oe5s46i5Iihw | https://disk.yandex.ru/i/85xR4DpK7PwOQA | https://disk.yandex.ru/i/XgBGVKbNp_5CSg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
-  </si>
-  <si>
-    <t>Мебель и интерьер</t>
-  </si>
-  <si>
-    <t>Столы и стулья</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Б/у</t>
-  </si>
-  <si>
-    <t>В наличии</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
-    <t>Красный</t>
-  </si>
-  <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
-    <t>Столы</t>
-  </si>
-  <si>
-    <t>Кухонный</t>
-  </si>
-  <si>
-    <t>Письменный</t>
-  </si>
-  <si>
-    <t>Круглый</t>
-  </si>
-  <si>
-    <t>Прямоугольный</t>
-  </si>
-  <si>
-    <t>Угловой</t>
-  </si>
-  <si>
-    <t>Овальный</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Дерево</t>
-  </si>
-  <si>
-    <t>ДСП</t>
-  </si>
-  <si>
-    <t>ЛДСП</t>
-  </si>
-  <si>
-    <t>Стекло</t>
-  </si>
-  <si>
-    <t>Металл</t>
-  </si>
-  <si>
-    <t>Тумба</t>
-  </si>
-  <si>
-    <t>Бар/кафе | Кабинет | Кухня</t>
-  </si>
-  <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
-    <t>Кабинет | Кухня</t>
-  </si>
-  <si>
-    <t>Кабинет | Кухня | Бар/Кафе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол для переговоров SteelCase 
-Артикул 192
-Стильный компьютерный стол белого цвета на прочных металлических ногах. Идеально подойдет как для работы в офисе, так и для домашнего использования. Современный дизайн в сочетании с устойчивой конструкцией делает этот стол не только эстетически привлекательным, но и надежным для ежедневного использования. Просторная рабочая поверхность позволяет удобно разместить всю технику и аксессуары.
-Размер ДхШхВ: 200х80х75
-Цвет белый
-Цена 20 000 руб 
-Количество 3
+    <t xml:space="preserve">Кабинет руководителя 
+Артикул 227
+Размеры ДхШхВ: Стол - 160х99х73
+Брифинг-100х60х73
+Тумба приставная-60х53х73.5
+Тумба орг.техника-90х43х94
+Шкаф стекло полки-80х44х199
+Гардероб-77х36х198
+Цена 50 000
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
     К столам можем подобрать тумбы, кресла и шкафы.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кабинет руководителя
+Артикул 225
+Описание
+Размеры ДхШхВ: Стол - 120х60х73
+Брифинг - 120х60х73
+Шкаф для документов - 40х44х205
+Шкаф гардероб - 89х44х205
+Тумба
+Цвет: лиственница серая
+Цена: 40 000 руб
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/v6krD4LPKukU9w | https://disk.yandex.ru/i/YSLTN_yXvUECGw | https://disk.yandex.ru/i/xPr-iOtZAGbhvg | https://disk.yandex.ru/i/BQUE4ZnI8lC0oA | https://disk.yandex.ru/i/0zZmb2pmI5FdHA | https://disk.yandex.ru/i/wk-skrHJFOGwvA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/vM0qg0crKZmyqQ | https://disk.yandex.ru/i/OxloUWElvXA_FQ | https://disk.yandex.ru/i/j9cGHsN0YxaVgg | https://disk.yandex.ru/i/VHzBSNc4kkiHkA | https://disk.yandex.ru/i/4MEkQ6dDio2OBA | https://disk.yandex.ru/i/ZOcnsS9CNAx9kQ | https://disk.yandex.ru/i/QKJj1Qtx7k2xug | https://disk.yandex.ru/i/ntZxv4uc68gOWg | https://disk.yandex.ru/i/DAN0HWYPcoA8Cw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/UHXRg6OxlEfUxg | https://disk.yandex.ru/i/PTTxLwvQo2wbOg | https://disk.yandex.ru/i/r8haHNYVYkEfug | https://disk.yandex.ru/i/wZvttGINkhGIPA | https://disk.yandex.ru/i/FPO_HMnaw_NKXg | https://disk.yandex.ru/i/4Lbq_Ng2NpSwkQ | https://disk.yandex.ru/i/st90yK27BGQlFQ | https://disk.yandex.ru/i/8jNbAfpOEXukxQ | https://disk.yandex.ru/i/HCJWd61-NB0yhA | https://disk.yandex.ru/i/DG-w_PhezIyGgg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/aMfzSub9xTFXjw | https://disk.yandex.ru/i/maJyjBkoYISzIw | https://disk.yandex.ru/i/0wsihDFD--fR_Q | https://disk.yandex.ru/i/Gz4J3t-erXm8AA | https://disk.yandex.ru/i/TMtg8xaYCSa-CQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/SfiLSfb6sZfsGQ | https://disk.yandex.ru/i/mMtAuNHDYZAAog | https://disk.yandex.ru/i/4fm4IQOxGm3rRg | https://disk.yandex.ru/i/-KwWZNye2KgpXg | https://disk.yandex.ru/i/1O8voVaNyCzv6g | https://disk.yandex.ru/i/oDvHEQ_TvosWMg | https://disk.yandex.ru/i/8K037bCwGKI3sQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/T0jflNijHZmtUg | https://disk.yandex.ru/i/Orwhna4soUAO0w | https://disk.yandex.ru/i/C1JG3DsLTCLLkw | https://disk.yandex.ru/i/RRIBSu4IfM7K8A | https://disk.yandex.ru/i/vEq7re9pkJjpew | https://disk.yandex.ru/i/cssTFMJNR3yM_Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YUqv1-fJ5z4pIg | https://disk.yandex.ru/i/hlH4PJWp6goS5A | https://disk.yandex.ru/i/zOu4tUC4ggOi_A | https://disk.yandex.ru/i/t8OXCkysyTmxlA | https://disk.yandex.ru/i/557Bzug0MWZbOg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1aTqiuWn9-lL9Q | https://disk.yandex.ru/i/uckFkWKMcnrTbg | https://disk.yandex.ru/i/ae8H10ig2MudAQ | https://disk.yandex.ru/i/vpib0o8A1KEfYw | https://disk.yandex.ru/i/ahH_FLlcBfx7_A | https://disk.yandex.ru/i/J1DtSL8r8BmzdA | https://disk.yandex.ru/i/1QyzSzFrZxYPgw | https://disk.yandex.ru/i/Nz8Tmi4Jli1IKg | https://disk.yandex.ru/i/_4DMU3B-Z5cE-A | https://disk.yandex.ru/i/BnE9oWNA91SUzg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9Fa3SdublDpVqw | https://disk.yandex.ru/i/oopBCeXN0pOY7w | https://disk.yandex.ru/i/8IJqF__1fn0AdA | https://disk.yandex.ru/i/tpno5M0JXgBYGQ | https://disk.yandex.ru/i/frvmm-YLfFA2vQ | https://disk.yandex.ru/i/F5APb11MLbfjjg | https://disk.yandex.ru/i/LHcUCki4lOh6iA | https://disk.yandex.ru/i/VNeJPg_8ycy3og | https://disk.yandex.ru/i/MIp3PdPIo5giAA | https://disk.yandex.ru/i/BtEq6CItf1ngVg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Cr3HM9bi813R2w | https://disk.yandex.ru/i/55RyI3HDMryjdQ | https://disk.yandex.ru/i/pknHia8uSr6VcQ | https://disk.yandex.ru/i/DylOghCc2uqBRw | https://disk.yandex.ru/i/4SR57qkS_TUcMg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/HWLDYbtUpq0qlQ | https://disk.yandex.ru/i/vInlxVuQE03X7A | https://disk.yandex.ru/i/a3TMO838uEudgw | https://disk.yandex.ru/i/sZw1tMAeO5oNrA | https://disk.yandex.ru/i/1gG7UrG_S6_JsA | https://disk.yandex.ru/i/JEiPTBSmCZLVRg | https://disk.yandex.ru/i/czjDGmZQoXe30Q | https://disk.yandex.ru/i/woUhjXEYoPywIw | https://disk.yandex.ru/i/JyPZu-nkNH1DSg | https://disk.yandex.ru/i/zDHPGHlKicWIrw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/nyuhp_rcq9mpRw | https://disk.yandex.ru/i/9ZBcNQKOh9RNJQ | https://disk.yandex.ru/i/q19oOBTxah3OAg | https://disk.yandex.ru/i/B5xuGJs6k9smtg | https://disk.yandex.ru/i/iNZFdD74Cqbmnw | https://disk.yandex.ru/i/lxOderh0uiVZPg | https://disk.yandex.ru/i/4f9F-E4jfGZF-A | https://disk.yandex.ru/i/OjZTag84BA__qw | https://disk.yandex.ru/i/qIOQD7LeuPP-Gw | https://disk.yandex.ru/i/sEbH6BRS_qnyCg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/XGNkB3NO6IaZYA | https://disk.yandex.ru/i/P88chKGHgwwdRw | https://disk.yandex.ru/i/9ZBcNQKOh9RNJQ | https://disk.yandex.ru/i/B5xuGJs6k9smtg | https://disk.yandex.ru/i/q19oOBTxah3OAg | https://disk.yandex.ru/i/n4wa2xeEAXgZGg | https://disk.yandex.ru/i/iNZFdD74Cqbmnw | https://disk.yandex.ru/i/lxOderh0uiVZPg | https://disk.yandex.ru/i/4f9F-E4jfGZF-A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/GsAY2-mDDa5n8Q | https://disk.yandex.ru/i/AwDoeQ9tmRpk_Q | https://disk.yandex.ru/i/WbG_DCUtV66iNQ | https://disk.yandex.ru/i/kVVIDcViwF3RvQ | https://disk.yandex.ru/i/lj1sVacCNSbzUA | https://disk.yandex.ru/i/Mg2eBy1hi18pxg | https://disk.yandex.ru/i/w7PPlVkAVYnB6A | https://disk.yandex.ru/i/7z7oHzhaX-h91w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/EdK37TeCWOkhaw | https://disk.yandex.ru/i/AwDoeQ9tmRpk_Q | https://disk.yandex.ru/i/WbG_DCUtV66iNQ | https://disk.yandex.ru/i/kVVIDcViwF3RvQ | https://disk.yandex.ru/i/lj1sVacCNSbzUA | https://disk.yandex.ru/i/kKhRBRut8Nkm2g | https://disk.yandex.ru/i/tQ2EDy7NET_mEA | https://disk.yandex.ru/i/bSm89Zl9twjXkA | https://disk.yandex.ru/i/OjZTag84BA__qw | https://disk.yandex.ru/i/qIOQD7LeuPP-Gw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/d7VhfnI3Tzeyhw | https://disk.yandex.ru/i/3LhVw5XmxI4kEA | https://disk.yandex.ru/i/E8Oe5s46i5Iihw | https://disk.yandex.ru/i/85xR4DpK7PwOQA | https://disk.yandex.ru/i/XgBGVKbNp_5CSg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/UJg_tt48nQP0KA | https://disk.yandex.ru/i/a52b9VyAtbIu9g | https://disk.yandex.ru/i/AnI2BFpXsdtFJw | https://disk.yandex.ru/i/Q_kbCcX6oK3HlQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/oEdEkaqeyt7JXA | https://disk.yandex.ru/i/VeS7Hpd3fCSkZA | https://disk.yandex.ru/i/rdM9ZwVv6d-YuQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/s2e1TD7Xr_AHWg | https://disk.yandex.ru/i/lHgTU5xnx8JgEA | https://disk.yandex.ru/i/6yYze2-97mCKrA | https://disk.yandex.ru/i/lVOJvS437YD51A | https://disk.yandex.ru/i/OIgF5DMX41jnEA | https://disk.yandex.ru/i/T7twRjXcRfSiIQ | https://disk.yandex.ru/i/aJJyJdglztgmWQ | https://disk.yandex.ru/i/nk9l0UhdeoDRWQ | https://disk.yandex.ru/i/GQRetH6b5YhfGQ | https://disk.yandex.ru/i/9WivDPidJ3gENw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/TxWEuWDD4arstA | https://disk.yandex.ru/i/RUdN1roQ_5vgpA | https://disk.yandex.ru/i/phdZ7Bwe-WcedQ | https://disk.yandex.ru/i/X5SrSmW0yi-fsQ | https://disk.yandex.ru/i/zDj1dIGmljOU8A | https://disk.yandex.ru/i/4qpTeD7dMcUN3A | https://disk.yandex.ru/i/b-V0CEgfMWrxPQ | https://disk.yandex.ru/i/7XcHAqNfUlThUg | https://disk.yandex.ru/i/Uw6iwlQAZ-q9Mg | https://disk.yandex.ru/i/KqpV6OkZusUGgA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Q4ob5KGKpvzs9Q | https://disk.yandex.ru/i/Vy-WxF5UBtCSWg | https://disk.yandex.ru/i/QPh3DYxGMnLIgw | https://disk.yandex.ru/i/JviaYtmX61tYYg | https://disk.yandex.ru/i/XOqc-NoKV7nkBw | https://disk.yandex.ru/i/M3k0NxpYrAe_7Q | https://disk.yandex.ru/i/Q7ntBKBu7lTJKA | https://disk.yandex.ru/i/uWhyFu8Vcvfteg | https://disk.yandex.ru/i/dum8db07-eJrFQ | https://disk.yandex.ru/i/hOMZWfq_OH52_g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xLhNqFCRGaT6Dw | https://disk.yandex.ru/i/65AgfmgdR6_KBg | https://disk.yandex.ru/i/Do7La_ustE0Zfw | https://disk.yandex.ru/i/0yuslDTBYb48OQ | https://disk.yandex.ru/i/fQ-0pM9TjTx1kA | https://disk.yandex.ru/i/dVdjd9bKNN034A | https://disk.yandex.ru/i/5LkL_MGgRTEXYw | https://disk.yandex.ru/i/01l2geLXjJ6Erw | https://disk.yandex.ru/i/ytRDzqKu8wzcEA | https://disk.yandex.ru/i/aMjgPp1Ov5ccmg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/o17ZWaV_t58i9Q | https://disk.yandex.ru/i/ofnxTQFi8A5MNw | https://disk.yandex.ru/i/aXiG3TT8Ireygw | https://disk.yandex.ru/i/6HwqFuN55lh3aw | https://disk.yandex.ru/i/8elVM3Z0LwMRug | https://disk.yandex.ru/i/X0UXgaGIpjzwbQ | https://disk.yandex.ru/i/xusaigJmBvB-vQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/I6OkWC090Bzr9g | https://disk.yandex.ru/i/XzKLZC5JrA7-tQ | https://disk.yandex.ru/i/5N9vesXkn26ohA | https://disk.yandex.ru/i/_U8LexsmwQkC4g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/G3AsGoOOpSM_ew | https://disk.yandex.ru/i/d6Kut4CuVXA03w | https://disk.yandex.ru/i/FKZ_6uehxZf3xg | https://disk.yandex.ru/i/Q09nWLEsa4Wv3Q | https://disk.yandex.ru/i/GYFixWWDevBOVg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/rI-mxgSK1qyLPw | https://disk.yandex.ru/i/rJS6LV-_n9ms6A | https://disk.yandex.ru/i/ehqqLVaX8_WxGA | https://disk.yandex.ru/i/DyebLQ3H36Rz_A</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/mAOhRoFPl12JKg | https://disk.yandex.ru/i/yhO6A5lvXeW-eQ | https://disk.yandex.ru/i/lOlYx7PcHK1bpw | https://disk.yandex.ru/i/QnScUCQqtAwBBQ | https://disk.yandex.ru/i/7Z1vOE4M7wBXbg | https://disk.yandex.ru/i/9Z6HvSuDl_oHkw | https://disk.yandex.ru/i/dTjDCVSBeqcRqQ | https://disk.yandex.ru/i/FhIvyAiJlwlzCQ | https://disk.yandex.ru/i/g_TmssrqEXkVhQ | https://disk.yandex.ru/i/eojJXx2pt-1szg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/rI-mxgSK1qyLPw | https://disk.yandex.ru/i/rJS6LV-_n9ms6A | https://disk.yandex.ru/i/ehqqLVaX8_WxGA | https://disk.yandex.ru/i/DyebLQ3H36Rz_A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/xDgK82fkCe2xWA | https://disk.yandex.ru/i/f1sVPUKHcsxneQ | https://disk.yandex.ru/i/oJMSTF3am0xKcA | https://disk.yandex.ru/i/9E_oVVTpKVc5kw | https://disk.yandex.ru/i/5vkfKF5NxhMBrQ | https://disk.yandex.ru/i/qR67rikrBokMzA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/I6OkWC090Bzr9g | https://disk.yandex.ru/i/XzKLZC5JrA7-tQ | https://disk.yandex.ru/i/5N9vesXkn26ohA | https://disk.yandex.ru/i/_U8LexsmwQkC4g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/G3AsGoOOpSM_ew | https://disk.yandex.ru/i/d6Kut4CuVXA03w | https://disk.yandex.ru/i/FKZ_6uehxZf3xg | https://disk.yandex.ru/i/Q09nWLEsa4Wv3Q | https://disk.yandex.ru/i/GYFixWWDevBOVg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/o17ZWaV_t58i9Q | https://disk.yandex.ru/i/ofnxTQFi8A5MNw | https://disk.yandex.ru/i/aXiG3TT8Ireygw | https://disk.yandex.ru/i/6HwqFuN55lh3aw | https://disk.yandex.ru/i/8elVM3Z0LwMRug | https://disk.yandex.ru/i/X0UXgaGIpjzwbQ | https://disk.yandex.ru/i/xusaigJmBvB-vQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/xLhNqFCRGaT6Dw | https://disk.yandex.ru/i/65AgfmgdR6_KBg | https://disk.yandex.ru/i/Do7La_ustE0Zfw | https://disk.yandex.ru/i/0yuslDTBYb48OQ | https://disk.yandex.ru/i/fQ-0pM9TjTx1kA | https://disk.yandex.ru/i/dVdjd9bKNN034A | https://disk.yandex.ru/i/5LkL_MGgRTEXYw | https://disk.yandex.ru/i/01l2geLXjJ6Erw | https://disk.yandex.ru/i/ytRDzqKu8wzcEA | https://disk.yandex.ru/i/aMjgPp1Ov5ccmg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Q4ob5KGKpvzs9Q | https://disk.yandex.ru/i/Vy-WxF5UBtCSWg | https://disk.yandex.ru/i/QPh3DYxGMnLIgw | https://disk.yandex.ru/i/JviaYtmX61tYYg | https://disk.yandex.ru/i/XOqc-NoKV7nkBw | https://disk.yandex.ru/i/M3k0NxpYrAe_7Q | https://disk.yandex.ru/i/Q7ntBKBu7lTJKA | https://disk.yandex.ru/i/uWhyFu8Vcvfteg | https://disk.yandex.ru/i/dum8db07-eJrFQ | https://disk.yandex.ru/i/hOMZWfq_OH52_g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/TxWEuWDD4arstA | https://disk.yandex.ru/i/RUdN1roQ_5vgpA | https://disk.yandex.ru/i/phdZ7Bwe-WcedQ | https://disk.yandex.ru/i/X5SrSmW0yi-fsQ | https://disk.yandex.ru/i/zDj1dIGmljOU8A | https://disk.yandex.ru/i/4qpTeD7dMcUN3A | https://disk.yandex.ru/i/b-V0CEgfMWrxPQ | https://disk.yandex.ru/i/7XcHAqNfUlThUg | https://disk.yandex.ru/i/Uw6iwlQAZ-q9Mg | https://disk.yandex.ru/i/KqpV6OkZusUGgA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/s2e1TD7Xr_AHWg | https://disk.yandex.ru/i/lHgTU5xnx8JgEA | https://disk.yandex.ru/i/6yYze2-97mCKrA | https://disk.yandex.ru/i/lVOJvS437YD51A | https://disk.yandex.ru/i/OIgF5DMX41jnEA | https://disk.yandex.ru/i/T7twRjXcRfSiIQ | https://disk.yandex.ru/i/aJJyJdglztgmWQ | https://disk.yandex.ru/i/nk9l0UhdeoDRWQ | https://disk.yandex.ru/i/GQRetH6b5YhfGQ | https://disk.yandex.ru/i/9WivDPidJ3gENw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/oEdEkaqeyt7JXA | https://disk.yandex.ru/i/VeS7Hpd3fCSkZA | https://disk.yandex.ru/i/rdM9ZwVv6d-YuQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/UJg_tt48nQP0KA | https://disk.yandex.ru/i/a52b9VyAtbIu9g | https://disk.yandex.ru/i/AnI2BFpXsdtFJw | https://disk.yandex.ru/i/Q_kbCcX6oK3HlQ</t>
+    <t>https://disk.yandex.ru/i/P8H3zBgU2nV8tg | https://disk.yandex.ru/i/yCbqh9u0CislDg | https://disk.yandex.ru/i/FmarA-FonT_FCw | https://disk.yandex.ru/i/Pa9A9nXQhpNDJg | https://disk.yandex.ru/i/sx_43WOvIFDbyQ | https://disk.yandex.ru/i/gVpzxbpgmncS_w | https://disk.yandex.ru/i/4dZM6GGKDZ61FA | https://disk.yandex.ru/i/v1SEYiNL6CQv7A | https://disk.yandex.ru/i/OwlBd0SD4q-vgQ | https://disk.yandex.ru/i/Y_Lkx07RlyTWmA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/7gifxSd52FKbhg | https://disk.yandex.ru/i/OXFh_AC0o-ODJw | https://disk.yandex.ru/i/UzXzHKsFWzHekw | https://disk.yandex.ru/i/kX6aQMGnOl2yLg | https://disk.yandex.ru/i/Kh4bGm7DXzof5w | https://disk.yandex.ru/i/DQg6ambGWKlSGQ | https://disk.yandex.ru/i/688YCkOrh-3vtQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
+  </si>
+  <si>
+    <t>Мебель и интерьер</t>
+  </si>
+  <si>
+    <t>Столы и стулья</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Б/у</t>
+  </si>
+  <si>
+    <t>В наличии</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t>Жёлтый</t>
+  </si>
+  <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t>Столы</t>
+  </si>
+  <si>
+    <t>Кухонный</t>
+  </si>
+  <si>
+    <t>Письменный</t>
+  </si>
+  <si>
+    <t>Круглый</t>
+  </si>
+  <si>
+    <t>Прямоугольный</t>
+  </si>
+  <si>
+    <t>Угловой</t>
+  </si>
+  <si>
+    <t>Овальный</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Дерево</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
+    <t>ЛДСП</t>
+  </si>
+  <si>
+    <t>Стекло</t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>Тумба</t>
+  </si>
+  <si>
+    <t>Бар/кафе | Кабинет | Кухня</t>
+  </si>
+  <si>
+    <t>Кабинет</t>
+  </si>
+  <si>
+    <t>Кабинет | Кухня</t>
+  </si>
+  <si>
+    <t>Кабинет | Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t>b''</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1198,37 +1236,26 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1266,9 +1293,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1300,27 +1327,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1352,27 +1361,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1545,16 +1536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AP20" sqref="AP20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,55 +1679,58 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="AC2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="AH2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AJ2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AK2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1750,63 +1742,66 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="AQ2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="AS2" t="s">
-        <v>132</v>
+        <v>150</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>9999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="AC3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE3" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="AH3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AJ3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AK3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1818,63 +1813,66 @@
         <v>80</v>
       </c>
       <c r="AP3" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ3" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AS3" t="s">
-        <v>132</v>
+        <v>150</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>19999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K4">
         <v>132</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="AC4" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE4" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AH4" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI4" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ4" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1886,66 +1884,69 @@
         <v>160</v>
       </c>
       <c r="AP4" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ4" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AR4" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS4" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>24999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K5">
         <v>168</v>
       </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA5" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB5" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="AC5" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD5" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE5" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="AH5" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI5" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ5" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK5" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL5">
         <v>90</v>
@@ -1957,66 +1958,69 @@
         <v>170</v>
       </c>
       <c r="AP5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AQ5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AR5" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS5" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>50000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K6">
         <v>183</v>
       </c>
       <c r="S6" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA6" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="AC6" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE6" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AH6" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI6" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AJ6" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK6" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL6">
         <v>130</v>
@@ -2028,63 +2032,66 @@
         <v>360</v>
       </c>
       <c r="AP6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="AQ6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AS6" t="s">
-        <v>132</v>
+        <v>150</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>99999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K7">
         <v>186</v>
       </c>
       <c r="S7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="AC7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD7" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="AH7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AJ7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AK7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL7">
         <v>170</v>
@@ -2096,63 +2103,66 @@
         <v>360</v>
       </c>
       <c r="AP7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AQ7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AS7" t="s">
-        <v>132</v>
+        <v>150</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>9999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K8">
         <v>188</v>
       </c>
       <c r="S8" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA8" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB8" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="AC8" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD8" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE8" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="AH8" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI8" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AJ8" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -2164,66 +2174,69 @@
         <v>180</v>
       </c>
       <c r="AP8" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ8" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AS8" t="s">
-        <v>134</v>
+        <v>152</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>136</v>
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
       </c>
       <c r="F9">
         <v>19999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K9">
         <v>192</v>
       </c>
       <c r="S9" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA9" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB9" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC9" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD9" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE9" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="AH9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI9" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AJ9" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2235,63 +2248,66 @@
         <v>200</v>
       </c>
       <c r="AP9" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ9" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AS9" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46">
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>90000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K10">
         <v>196</v>
       </c>
       <c r="S10" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA10" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB10" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC10" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD10" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE10" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="AH10" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI10" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -2303,66 +2319,69 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ10" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AR10" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS10" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46">
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>40000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K11">
         <v>197</v>
       </c>
       <c r="S11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA11" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB11" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC11" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD11" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE11" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="AH11" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI11" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL11">
         <v>120</v>
@@ -2374,66 +2393,69 @@
         <v>160</v>
       </c>
       <c r="AP11" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ11" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AR11" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS11" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46">
       <c r="D12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>20000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K12">
         <v>205</v>
       </c>
       <c r="S12" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA12" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB12" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC12" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD12" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE12" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="AH12" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI12" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ12" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL12">
         <v>120</v>
@@ -2445,66 +2467,69 @@
         <v>200</v>
       </c>
       <c r="AP12" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ12" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AR12" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS12" t="s">
-        <v>135</v>
+        <v>153</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46">
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <v>19999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K13">
         <v>207</v>
       </c>
       <c r="S13" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA13" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB13" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC13" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD13" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE13" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="AH13" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI13" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ13" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL13">
         <v>94</v>
@@ -2516,66 +2541,69 @@
         <v>197</v>
       </c>
       <c r="AP13" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AQ13" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AR13" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS13" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <v>25000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K14">
         <v>208</v>
       </c>
       <c r="S14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA14" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB14" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC14" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD14" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE14" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="AH14" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ14" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2587,66 +2615,69 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ14" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AR14" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS14" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F15">
         <v>21000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K15">
         <v>209</v>
       </c>
       <c r="S15" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA15" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB15" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC15" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD15" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE15" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="AH15" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI15" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ15" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2658,66 +2689,69 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ15" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AR15" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS15" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="D16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16">
         <v>25000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K16">
         <v>210</v>
       </c>
       <c r="S16" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA16" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB16" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC16" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD16" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE16" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="AH16" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI16" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ16" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2729,66 +2763,69 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ16" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AR16" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS16" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="17" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:46">
       <c r="D17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F17">
         <v>25000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K17">
         <v>211</v>
       </c>
       <c r="S17" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA17" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB17" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC17" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD17" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE17" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="AH17" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI17" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2800,66 +2837,69 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ17" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AR17" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS17" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="18" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:46">
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F18">
         <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K18">
         <v>2136</v>
       </c>
       <c r="S18" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA18" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB18" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="AC18" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD18" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE18" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="AH18" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI18" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AJ18" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2871,63 +2911,66 @@
         <v>80</v>
       </c>
       <c r="AP18" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AQ18" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AS18" t="s">
-        <v>132</v>
+        <v>150</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="19" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:46">
       <c r="D19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F19">
         <v>11999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K19">
         <v>224</v>
       </c>
       <c r="S19" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA19" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB19" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC19" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD19" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE19" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="AH19" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI19" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL19">
         <v>120</v>
@@ -2939,63 +2982,66 @@
         <v>120</v>
       </c>
       <c r="AP19" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ19" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AS19" t="s">
-        <v>134</v>
+        <v>152</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="20" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:46">
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F20">
         <v>9999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K20">
         <v>223</v>
       </c>
       <c r="S20" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB20" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC20" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD20" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE20" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AH20" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI20" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AJ20" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL20">
         <v>120</v>
@@ -3007,63 +3053,66 @@
         <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AQ20" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="AS20" t="s">
-        <v>135</v>
+        <v>153</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="21" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:46">
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F21">
         <v>120000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K21">
         <v>222</v>
       </c>
       <c r="S21" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA21" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB21" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC21" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD21" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE21" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="AH21" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI21" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AJ21" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="AK21" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL21">
         <v>200</v>
@@ -3075,66 +3124,69 @@
         <v>300</v>
       </c>
       <c r="AP21" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AQ21" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AR21" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS21" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="22" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:46">
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F22">
         <v>24999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K22">
         <v>221</v>
       </c>
       <c r="S22" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA22" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB22" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC22" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD22" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE22" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AH22" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI22" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ22" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AK22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL22">
         <v>120</v>
@@ -3146,66 +3198,69 @@
         <v>138</v>
       </c>
       <c r="AP22" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ22" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AR22" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS22" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="23" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:46">
       <c r="D23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F23">
         <v>40000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K23">
         <v>220</v>
       </c>
       <c r="S23" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA23" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB23" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC23" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD23" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE23" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AH23" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI23" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ23" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL23">
         <v>80</v>
@@ -3217,66 +3272,69 @@
         <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ23" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AR23" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS23" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="24" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:46">
       <c r="D24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F24">
         <v>35000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K24">
         <v>219</v>
       </c>
       <c r="S24" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA24" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB24" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC24" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD24" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE24" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="AH24" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI24" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ24" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL24">
         <v>70</v>
@@ -3288,66 +3346,69 @@
         <v>140</v>
       </c>
       <c r="AP24" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ24" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AR24" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS24" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="25" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:46">
       <c r="D25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F25">
         <v>14999</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K25">
         <v>218</v>
       </c>
       <c r="S25" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA25" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB25" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC25" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD25" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE25" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="AH25" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI25" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ25" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK25" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL25">
         <v>90</v>
@@ -3359,63 +3420,66 @@
         <v>180</v>
       </c>
       <c r="AP25" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ25" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AS25" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="26" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:46">
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F26">
         <v>15000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K26">
         <v>215</v>
       </c>
       <c r="S26" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA26" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB26" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC26" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD26" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE26" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="AH26" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI26" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ26" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL26">
         <v>90</v>
@@ -3427,63 +3491,66 @@
         <v>180</v>
       </c>
       <c r="AP26" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AQ26" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AS26" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="27" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:46">
       <c r="D27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F27">
         <v>12000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K27">
         <v>216</v>
       </c>
       <c r="S27" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA27" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB27" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC27" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD27" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE27" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="AH27" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AI27" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AJ27" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL27">
         <v>80</v>
@@ -3495,271 +3562,373 @@
         <v>200</v>
       </c>
       <c r="AP27" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AQ27" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AS27" t="s">
-        <v>135</v>
+        <v>153</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="28" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:46">
       <c r="D28" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F28">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K28">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S28" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AA28" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AB28" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="AC28" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD28" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AE28" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="AH28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL28">
+        <v>80</v>
+      </c>
+      <c r="AM28">
+        <v>72</v>
+      </c>
+      <c r="AN28">
+        <v>180</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="4:46">
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29">
+        <v>25000</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29">
+        <v>212</v>
+      </c>
+      <c r="S29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL29">
+        <v>85</v>
+      </c>
+      <c r="AM29">
+        <v>76</v>
+      </c>
+      <c r="AN29">
+        <v>160</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="4:46">
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30">
+        <v>50000</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="I30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="K30">
+        <v>227</v>
+      </c>
+      <c r="S30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA30" t="s">
         <v>122</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AB30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC30" t="s">
         <v>125</v>
       </c>
-      <c r="AL28">
-        <v>100</v>
-      </c>
-      <c r="AM28">
-        <v>74</v>
-      </c>
-      <c r="AN28">
-        <v>200</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29">
-        <v>15000</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="AD30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI30" t="s">
         <v>138</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K29">
-        <v>213</v>
-      </c>
-      <c r="S29" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL29">
-        <v>80</v>
-      </c>
-      <c r="AM29">
-        <v>72</v>
-      </c>
-      <c r="AN29">
-        <v>180</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30">
-        <v>25000</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30">
-        <v>212</v>
-      </c>
-      <c r="S30" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ30" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="AK30" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL30">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="AM30">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AN30">
         <v>160</v>
       </c>
       <c r="AP30" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="AQ30" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="AR30" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AS30" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="4:46">
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31">
+        <v>40000</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31">
+        <v>225</v>
+      </c>
+      <c r="S31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL31">
+        <v>60</v>
+      </c>
+      <c r="AM31">
+        <v>73</v>
+      </c>
+      <c r="AN31">
+        <v>120</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I25" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="I27" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I28" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I29" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G30" r:id="rId46" display="https://yadi.sk/i/mAOhRoFPl12JKg | https://yadi.sk/i/yhO6A5lvXeW-eQ | https://yadi.sk/i/lOlYx7PcHK1bpw | https://yadi.sk/i/QnScUCQqtAwBBQ | https://yadi.sk/i/7Z1vOE4M7wBXbg | https://yadi.sk/i/9Z6HvSuDl_oHkw | https://yadi.sk/i/dTjDCVSBeqcRqQ | https://ya" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I30" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="G26" r:id="rId49"/>
+    <hyperlink ref="I26" r:id="rId50"/>
+    <hyperlink ref="G27" r:id="rId51"/>
+    <hyperlink ref="I27" r:id="rId52"/>
+    <hyperlink ref="G28" r:id="rId53"/>
+    <hyperlink ref="I28" r:id="rId54"/>
+    <hyperlink ref="G29" r:id="rId55"/>
+    <hyperlink ref="I29" r:id="rId56"/>
+    <hyperlink ref="G30" r:id="rId57"/>
+    <hyperlink ref="I30" r:id="rId58"/>
+    <hyperlink ref="G31" r:id="rId59"/>
+    <hyperlink ref="I31" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1919B0F2-84A7-4CC8-925B-0A7767E95A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="154">
   <si>
     <t>Address</t>
   </si>
@@ -1165,15 +1171,12 @@
   <si>
     <t>Кабинет | Кухня | Бар/Кафе</t>
   </si>
-  <si>
-    <t>b''</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1244,18 +1247,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1293,9 +1304,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1327,9 +1338,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1361,9 +1390,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1536,14 +1583,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AT30" sqref="AT2:AT30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1732,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1751,10 +1800,10 @@
         <v>150</v>
       </c>
       <c r="AT2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1822,10 +1871,10 @@
         <v>150</v>
       </c>
       <c r="AT3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1896,10 +1945,10 @@
         <v>151</v>
       </c>
       <c r="AT4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1970,10 +2019,10 @@
         <v>151</v>
       </c>
       <c r="AT5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>46</v>
       </c>
@@ -2041,10 +2090,10 @@
         <v>150</v>
       </c>
       <c r="AT6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>50</v>
       </c>
@@ -2112,10 +2161,10 @@
         <v>150</v>
       </c>
       <c r="AT7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>51</v>
       </c>
@@ -2183,10 +2232,10 @@
         <v>152</v>
       </c>
       <c r="AT8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>52</v>
       </c>
@@ -2257,10 +2306,10 @@
         <v>151</v>
       </c>
       <c r="AT9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>49</v>
       </c>
@@ -2331,10 +2380,10 @@
         <v>151</v>
       </c>
       <c r="AT10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>53</v>
       </c>
@@ -2405,10 +2454,10 @@
         <v>151</v>
       </c>
       <c r="AT11" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>50</v>
       </c>
@@ -2479,10 +2528,10 @@
         <v>153</v>
       </c>
       <c r="AT12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>54</v>
       </c>
@@ -2553,10 +2602,10 @@
         <v>151</v>
       </c>
       <c r="AT13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>55</v>
       </c>
@@ -2627,10 +2676,10 @@
         <v>151</v>
       </c>
       <c r="AT14" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>55</v>
       </c>
@@ -2701,10 +2750,10 @@
         <v>151</v>
       </c>
       <c r="AT15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>55</v>
       </c>
@@ -2775,10 +2824,10 @@
         <v>151</v>
       </c>
       <c r="AT16" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="17" spans="4:46">
+    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>55</v>
       </c>
@@ -2849,10 +2898,10 @@
         <v>151</v>
       </c>
       <c r="AT17" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="18" spans="4:46">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>47</v>
       </c>
@@ -2920,10 +2969,10 @@
         <v>150</v>
       </c>
       <c r="AT18" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="19" spans="4:46">
+    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>47</v>
       </c>
@@ -2991,10 +3040,10 @@
         <v>152</v>
       </c>
       <c r="AT19" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="20" spans="4:46">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>47</v>
       </c>
@@ -3062,10 +3111,10 @@
         <v>153</v>
       </c>
       <c r="AT20" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="21" spans="4:46">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>50</v>
       </c>
@@ -3136,10 +3185,10 @@
         <v>151</v>
       </c>
       <c r="AT21" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="22" spans="4:46">
+    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>53</v>
       </c>
@@ -3210,10 +3259,10 @@
         <v>151</v>
       </c>
       <c r="AT22" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="23" spans="4:46">
+    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>49</v>
       </c>
@@ -3284,10 +3333,10 @@
         <v>151</v>
       </c>
       <c r="AT23" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="24" spans="4:46">
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>49</v>
       </c>
@@ -3358,10 +3407,10 @@
         <v>151</v>
       </c>
       <c r="AT24" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="25" spans="4:46">
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>54</v>
       </c>
@@ -3429,10 +3478,10 @@
         <v>151</v>
       </c>
       <c r="AT25" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="26" spans="4:46">
+    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>56</v>
       </c>
@@ -3500,10 +3549,10 @@
         <v>151</v>
       </c>
       <c r="AT26" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="27" spans="4:46">
+    <row r="27" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>57</v>
       </c>
@@ -3571,10 +3620,10 @@
         <v>153</v>
       </c>
       <c r="AT27" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="28" spans="4:46">
+    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>50</v>
       </c>
@@ -3642,10 +3691,10 @@
         <v>153</v>
       </c>
       <c r="AT28" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="29" spans="4:46">
+    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>58</v>
       </c>
@@ -3716,10 +3765,10 @@
         <v>151</v>
       </c>
       <c r="AT29" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="30" spans="4:46">
+    <row r="30" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>59</v>
       </c>
@@ -3793,7 +3842,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="4:46">
+    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>49</v>
       </c>
@@ -3869,66 +3918,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
-    <hyperlink ref="G25" r:id="rId47"/>
-    <hyperlink ref="I25" r:id="rId48"/>
-    <hyperlink ref="G26" r:id="rId49"/>
-    <hyperlink ref="I26" r:id="rId50"/>
-    <hyperlink ref="G27" r:id="rId51"/>
-    <hyperlink ref="I27" r:id="rId52"/>
-    <hyperlink ref="G28" r:id="rId53"/>
-    <hyperlink ref="I28" r:id="rId54"/>
-    <hyperlink ref="G29" r:id="rId55"/>
-    <hyperlink ref="I29" r:id="rId56"/>
-    <hyperlink ref="G30" r:id="rId57"/>
-    <hyperlink ref="I30" r:id="rId58"/>
-    <hyperlink ref="G31" r:id="rId59"/>
-    <hyperlink ref="I31" r:id="rId60"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1919B0F2-84A7-4CC8-925B-0A7767E95A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="165">
   <si>
     <t>Address</t>
   </si>
@@ -163,33 +157,33 @@
     <t>Стол переговорный</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол с тумбой </t>
+  </si>
+  <si>
+    <t>Кабинет руководителя</t>
+  </si>
+  <si>
+    <t>Стол для переговоров</t>
+  </si>
+  <si>
+    <t>Переговорный стол офисный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол для переговоров SteelCase </t>
+  </si>
+  <si>
+    <t>Офисная мебель</t>
+  </si>
+  <si>
+    <t>Стол для руководителя</t>
+  </si>
+  <si>
+    <t>Комплект офисной мебели</t>
+  </si>
+  <si>
     <t>Стол круглый</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол с тумбой </t>
-  </si>
-  <si>
-    <t>Кабинет руководителя</t>
-  </si>
-  <si>
-    <t>Стол для переговоров</t>
-  </si>
-  <si>
-    <t>Переговорный стол офисный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол для переговоров SteelCase </t>
-  </si>
-  <si>
-    <t>Офисная мебель</t>
-  </si>
-  <si>
-    <t>Стол для руководителя</t>
-  </si>
-  <si>
-    <t>Комплект офисной мебели</t>
-  </si>
-  <si>
     <t>Стол офисный</t>
   </si>
   <si>
@@ -200,6 +194,15 @@
   </si>
   <si>
     <t xml:space="preserve">Кабинет руководителя </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол руководителя </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол для переговоров </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол руководителя с брифингом </t>
   </si>
   <si>
     <t>Стол переговорный 
@@ -209,26 +212,6 @@
 Высота 78
 Цена: 99 999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол круглыйОписание: Качественный презентабельный стол на крепкой металлической ножке. 
-Цвет: Шемо
-Цена: 10000
-Количество: 1
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
@@ -980,12 +963,138 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол руководителя 
+Артикул 2436
+Стол угловой в кабинет руководителя с брифингом до 3 человек. Стол от германской компании Берлин сделан из высококачественных материалов. 
+Размеры ДхШхВ: Стол - 160х100х75
+Брифинг - 100х60
+Производство: Берлин
+Цвет: молочный
+Количество: 3 шт
+Цена: 18000 за 1 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол для переговоров 
+Артикул 228
+Описание
+Размер ДхШхВ: 150х120х78
+Цена 10000
+Цвет 
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол руководителя с брифингом 
+Артикул 2451
+Стол в кабинет руководителя с брифингом до 3 человек. Стол от германской компании Берлин сделан из высококачественных материалов.
+Размеры ДхШхВ: Стол - 140х85х74
+Брифинг - 100х60х74
+Производство: Берлин
+Цвет: молочный
+Количество: 1 шт
+Цена: 18000 за 1 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол руководителя 
+Артикул 2450
+Стол в кабинет руководителя с брифингом до 3 человек. Стол от германской компании Берлин сделан из высококачественных материалов.
+Размеры ДхШхВ: Стол - 140х85х74
+Брифинг - 100х60х74
+Производство: Берлин
+Цвет: молочный
+Количество: 1 шт
+Цена: 18000 за 1 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол для переговоров
+Артикул 229
+Стол для переговоров в отличном состоянии, большой и презентабельный офисный стол для переговоров до 15-18 человек.
+Размеры ДхШхВ: 400х200х75
+Цвет шимо
+Цена 99 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/v6krD4LPKukU9w | https://disk.yandex.ru/i/YSLTN_yXvUECGw | https://disk.yandex.ru/i/xPr-iOtZAGbhvg | https://disk.yandex.ru/i/BQUE4ZnI8lC0oA | https://disk.yandex.ru/i/0zZmb2pmI5FdHA | https://disk.yandex.ru/i/wk-skrHJFOGwvA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/vM0qg0crKZmyqQ | https://disk.yandex.ru/i/OxloUWElvXA_FQ | https://disk.yandex.ru/i/j9cGHsN0YxaVgg | https://disk.yandex.ru/i/VHzBSNc4kkiHkA | https://disk.yandex.ru/i/4MEkQ6dDio2OBA | https://disk.yandex.ru/i/ZOcnsS9CNAx9kQ | https://disk.yandex.ru/i/QKJj1Qtx7k2xug | https://disk.yandex.ru/i/ntZxv4uc68gOWg | https://disk.yandex.ru/i/DAN0HWYPcoA8Cw</t>
   </si>
   <si>
@@ -1068,6 +1177,21 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/7gifxSd52FKbhg | https://disk.yandex.ru/i/OXFh_AC0o-ODJw | https://disk.yandex.ru/i/UzXzHKsFWzHekw | https://disk.yandex.ru/i/kX6aQMGnOl2yLg | https://disk.yandex.ru/i/Kh4bGm7DXzof5w | https://disk.yandex.ru/i/DQg6ambGWKlSGQ | https://disk.yandex.ru/i/688YCkOrh-3vtQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BmoBkouS4pOJfg | https://disk.yandex.ru/i/4k47QZSw8OMZdg | https://disk.yandex.ru/i/HsZVBssxyv0tJQ | https://disk.yandex.ru/i/yTzbOn3KXPl85Q | https://disk.yandex.ru/i/PYN4Yo51TcDTBA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/HzZANI1lRBT2VQ | https://disk.yandex.ru/i/Hj5G7Fx78dIIHA | https://disk.yandex.ru/i/aGNSJh9R0YGuQQ | https://disk.yandex.ru/i/pOeJBRaDy5AJeQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/s3mwCoCpL7JFcw | https://disk.yandex.ru/i/0AYPSh2aR76cWA | https://disk.yandex.ru/i/RMlg6fJKMdU8RA | https://disk.yandex.ru/i/87WpAfEe8iBMIg | https://disk.yandex.ru/i/2VFM9CZ5az1-Iw | https://disk.yandex.ru/i/8nkKR3VV0MS6Jw | https://disk.yandex.ru/i/TVs05P3_7J-i0g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/zEtSyCHXsZoMgQ | https://disk.yandex.ru/i/UkaIVPzrKhds3A | https://disk.yandex.ru/i/jKFdefNwgz40WA | https://disk.yandex.ru/i/6qgZOz8G0n5VmQ | https://disk.yandex.ru/i/Yy95RrfshV4pkg | https://disk.yandex.ru/i/SWxosuLwtOS0ZA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/mhO4d2DdGtKEFg | https://disk.yandex.ru/i/rtQeuuJNnvsXWw | https://disk.yandex.ru/i/CBmDRkir1d39ng | https://disk.yandex.ru/i/srpRptdretExNg | https://disk.yandex.ru/i/28bnw8QpTsnm1Q | https://disk.yandex.ru/i/Ei5ITngzk1YkYg | https://disk.yandex.ru/i/SLC3ocPHVcpNJw | https://disk.yandex.ru/i/VWyenqpVVWXKig | https://disk.yandex.ru/i/v_O_lSC4qH6BWw</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1175,8 +1299,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,26 +1371,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1304,9 +1420,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1338,27 +1454,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1390,27 +1488,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1583,16 +1663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AT30" sqref="AT2:AT30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,54 +1810,54 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AA2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AB2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AC2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AD2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AE2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AH2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AI2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AJ2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="AK2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1791,501 +1869,501 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AQ2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AS2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AT2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>9999</v>
+        <v>19999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AA3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AB3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AC3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AD3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AE3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AH3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AI3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AJ3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AK3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL3">
         <v>80</v>
       </c>
       <c r="AM3">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AN3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ3" t="s">
-        <v>148</v>
+        <v>156</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>160</v>
       </c>
       <c r="AS3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AT3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>19999</v>
+        <v>24999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K4">
+        <v>168</v>
+      </c>
+      <c r="S4" t="s">
         <v>132</v>
       </c>
-      <c r="S4" t="s">
-        <v>121</v>
-      </c>
       <c r="AA4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AB4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AC4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AD4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AE4" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="AH4" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AI4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AJ4" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AK4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM4">
         <v>75</v>
       </c>
       <c r="AN4">
+        <v>170</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR4" t="s">
         <v>160</v>
       </c>
-      <c r="AP4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>149</v>
-      </c>
       <c r="AS4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5">
+        <v>50000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5">
+        <v>183</v>
+      </c>
+      <c r="S5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>151</v>
       </c>
-      <c r="AT4" t="s">
-        <v>143</v>
+      <c r="AK5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL5">
+        <v>130</v>
+      </c>
+      <c r="AM5">
+        <v>72</v>
+      </c>
+      <c r="AN5">
+        <v>360</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="6" spans="1:46">
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5">
-        <v>24999</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5">
-        <v>168</v>
-      </c>
-      <c r="S5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>99999</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6">
+        <v>186</v>
+      </c>
+      <c r="S6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC6" t="s">
         <v>136</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AD6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE6" t="s">
         <v>138</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL5">
-        <v>90</v>
-      </c>
-      <c r="AM5">
+      <c r="AH6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL6">
+        <v>170</v>
+      </c>
+      <c r="AM6">
         <v>75</v>
-      </c>
-      <c r="AN5">
-        <v>170</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6">
-        <v>50000</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K6">
-        <v>183</v>
-      </c>
-      <c r="S6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL6">
-        <v>130</v>
-      </c>
-      <c r="AM6">
-        <v>72</v>
       </c>
       <c r="AN6">
         <v>360</v>
       </c>
       <c r="AP6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AQ6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AS6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AT6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F7">
-        <v>99999</v>
+        <v>9999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K7">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AA7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AB7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AC7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AD7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AE7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AH7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AI7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AJ7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="AK7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL7">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AM7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN7">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AP7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AQ7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AS7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="AT7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F8">
-        <v>9999</v>
+        <v>19999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S8" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AA8" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AB8" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AC8" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AD8" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AE8" t="s">
-        <v>131</v>
+        <v>142</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>142</v>
       </c>
       <c r="AH8" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AI8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AJ8" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AK8" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL8">
         <v>80</v>
       </c>
       <c r="AM8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN8">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP8" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ8" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="AS8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AT8" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F9">
-        <v>19999</v>
+        <v>90000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K9">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="S9" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AA9" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AB9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AC9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AD9" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AE9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AH9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AI9" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="AJ9" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AK9" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2294,365 +2372,368 @@
         <v>75</v>
       </c>
       <c r="AN9">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP9" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ9" t="s">
-        <v>148</v>
+        <v>159</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>160</v>
       </c>
       <c r="AS9" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AT9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10">
+        <v>40000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10">
+        <v>197</v>
+      </c>
+      <c r="S10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10">
-        <v>90000</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="AH10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL10">
         <v>120</v>
       </c>
-      <c r="K10">
-        <v>196</v>
-      </c>
-      <c r="S10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL10">
-        <v>80</v>
-      </c>
       <c r="AM10">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN10">
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ10" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AR10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>20000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11">
+        <v>205</v>
+      </c>
+      <c r="S11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI11" t="s">
         <v>149</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AJ11" t="s">
         <v>151</v>
       </c>
-      <c r="AT10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11">
-        <v>40000</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11">
-        <v>197</v>
-      </c>
-      <c r="S11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>141</v>
-      </c>
       <c r="AK11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL11">
         <v>120</v>
       </c>
       <c r="AM11">
+        <v>76</v>
+      </c>
+      <c r="AN11">
+        <v>200</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="AN11">
+      <c r="F12">
+        <v>19999</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12">
+        <v>207</v>
+      </c>
+      <c r="S12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL12">
+        <v>94</v>
+      </c>
+      <c r="AM12">
+        <v>74</v>
+      </c>
+      <c r="AN12">
+        <v>197</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR12" t="s">
         <v>160</v>
       </c>
-      <c r="AP11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>143</v>
+      <c r="AS12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12">
-        <v>20000</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12">
-        <v>205</v>
-      </c>
-      <c r="S12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL12">
-        <v>120</v>
-      </c>
-      <c r="AM12">
-        <v>76</v>
-      </c>
-      <c r="AN12">
-        <v>200</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46">
       <c r="D13" t="s">
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>19999</v>
+        <v>25000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K13">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AA13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AB13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AC13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AD13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AE13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL13">
+        <v>80</v>
+      </c>
+      <c r="AM13">
+        <v>75</v>
+      </c>
+      <c r="AN13">
+        <v>160</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>21000</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14">
+        <v>209</v>
+      </c>
+      <c r="S14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA14" t="s">
         <v>133</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AB14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC14" t="s">
         <v>136</v>
       </c>
-      <c r="AI13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK13" t="s">
+      <c r="AD14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE14" t="s">
         <v>143</v>
       </c>
-      <c r="AL13">
-        <v>94</v>
-      </c>
-      <c r="AM13">
-        <v>74</v>
-      </c>
-      <c r="AN13">
-        <v>197</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR13" t="s">
+      <c r="AH14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI14" t="s">
         <v>149</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AJ14" t="s">
         <v>151</v>
       </c>
-      <c r="AT13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14">
-        <v>25000</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14">
-        <v>208</v>
-      </c>
-      <c r="S14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>140</v>
-      </c>
       <c r="AK14" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2664,69 +2745,69 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ14" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AR14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>25000</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15">
+        <v>210</v>
+      </c>
+      <c r="S15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI15" t="s">
         <v>149</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AJ15" t="s">
         <v>151</v>
       </c>
-      <c r="AT14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15">
-        <v>21000</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15">
-        <v>209</v>
-      </c>
-      <c r="S15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>140</v>
-      </c>
       <c r="AK15" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2738,69 +2819,69 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AR15" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AS15" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AT15" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F16">
         <v>25000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K16">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S16" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AA16" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AB16" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AC16" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AD16" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AE16" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="AH16" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AI16" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AJ16" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AK16" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2812,69 +2893,69 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ16" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AR16" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AS16" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AT16" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:46">
       <c r="D17" t="s">
         <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>25000</v>
+        <v>4999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K17">
-        <v>211</v>
+        <v>2136</v>
       </c>
       <c r="S17" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AA17" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AB17" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="AC17" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AD17" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AE17" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AH17" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AI17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2883,436 +2964,436 @@
         <v>75</v>
       </c>
       <c r="AN17">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AQ17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="4:46">
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18">
+        <v>11999</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18">
+        <v>224</v>
+      </c>
+      <c r="S18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI18" t="s">
         <v>149</v>
       </c>
-      <c r="AS17" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18">
-        <v>4999</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="AJ18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL18">
         <v>120</v>
-      </c>
-      <c r="K18">
-        <v>2136</v>
-      </c>
-      <c r="S18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL18">
-        <v>80</v>
       </c>
       <c r="AM18">
         <v>75</v>
       </c>
       <c r="AN18">
+        <v>120</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="4:46">
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
         <v>80</v>
       </c>
-      <c r="AP18" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS18" t="s">
+      <c r="F19">
+        <v>9999</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19">
+        <v>223</v>
+      </c>
+      <c r="S19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>150</v>
       </c>
-      <c r="AT18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19">
-        <v>11999</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19">
-        <v>224</v>
-      </c>
-      <c r="S19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>139</v>
-      </c>
       <c r="AK19" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL19">
         <v>120</v>
       </c>
       <c r="AM19">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN19">
         <v>120</v>
       </c>
       <c r="AP19" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AQ19" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AS19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="4:46">
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20">
+        <v>120000</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20">
+        <v>222</v>
+      </c>
+      <c r="S20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL20">
+        <v>200</v>
+      </c>
+      <c r="AM20">
+        <v>75</v>
+      </c>
+      <c r="AN20">
+        <v>300</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="4:46">
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21">
+        <v>24999</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21">
+        <v>221</v>
+      </c>
+      <c r="S21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>152</v>
       </c>
-      <c r="AT19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20">
-        <v>9999</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="AK21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL21">
         <v>120</v>
-      </c>
-      <c r="K20">
-        <v>223</v>
-      </c>
-      <c r="S20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL20">
-        <v>120</v>
-      </c>
-      <c r="AM20">
-        <v>77</v>
-      </c>
-      <c r="AN20">
-        <v>120</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21">
-        <v>120000</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21">
-        <v>222</v>
-      </c>
-      <c r="S21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL21">
-        <v>200</v>
       </c>
       <c r="AM21">
         <v>75</v>
       </c>
       <c r="AN21">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="AP21" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AQ21" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AR21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="4:46">
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22">
+        <v>40000</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22">
+        <v>220</v>
+      </c>
+      <c r="S22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI22" t="s">
         <v>149</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AJ22" t="s">
         <v>151</v>
       </c>
-      <c r="AT21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="AK22" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL22">
         <v>80</v>
-      </c>
-      <c r="F22">
-        <v>24999</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22">
-        <v>221</v>
-      </c>
-      <c r="S22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL22">
-        <v>120</v>
       </c>
       <c r="AM22">
         <v>75</v>
       </c>
       <c r="AN22">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AP22" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ22" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AR22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="4:46">
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>35000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23">
+        <v>219</v>
+      </c>
+      <c r="S23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI23" t="s">
         <v>149</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AJ23" t="s">
         <v>151</v>
       </c>
-      <c r="AT22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23">
-        <v>40000</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23">
-        <v>220</v>
-      </c>
-      <c r="S23" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>140</v>
-      </c>
       <c r="AK23" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL23">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM23">
         <v>75</v>
@@ -3321,663 +3402,961 @@
         <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ23" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AR23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="4:46">
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24">
+        <v>14999</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24">
+        <v>218</v>
+      </c>
+      <c r="S24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI24" t="s">
         <v>149</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AJ24" t="s">
         <v>151</v>
       </c>
-      <c r="AT23" t="s">
-        <v>143</v>
+      <c r="AK24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL24">
+        <v>90</v>
+      </c>
+      <c r="AM24">
+        <v>77</v>
+      </c>
+      <c r="AN24">
+        <v>180</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24">
-        <v>35000</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="2" t="s">
+    <row r="25" spans="4:46">
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25">
+        <v>15000</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K24">
-        <v>219</v>
-      </c>
-      <c r="S24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="I25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25">
+        <v>215</v>
+      </c>
+      <c r="S25" t="s">
         <v>132</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AA25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC25" t="s">
         <v>136</v>
       </c>
-      <c r="AI24" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL24">
-        <v>70</v>
-      </c>
-      <c r="AM24">
-        <v>75</v>
-      </c>
-      <c r="AN24">
-        <v>140</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR24" t="s">
+      <c r="AD25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI25" t="s">
         <v>149</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AJ25" t="s">
         <v>151</v>
       </c>
-      <c r="AT24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25">
-        <v>14999</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K25">
-        <v>218</v>
-      </c>
-      <c r="S25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>140</v>
-      </c>
       <c r="AK25" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL25">
         <v>90</v>
       </c>
       <c r="AM25">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN25">
         <v>180</v>
       </c>
       <c r="AP25" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AQ25" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AS25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="4:46">
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26">
+        <v>12000</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26">
+        <v>216</v>
+      </c>
+      <c r="S26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>151</v>
       </c>
-      <c r="AT25" t="s">
-        <v>143</v>
+      <c r="AK26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL26">
+        <v>80</v>
+      </c>
+      <c r="AM26">
+        <v>3</v>
+      </c>
+      <c r="AN26">
+        <v>200</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26">
+    <row r="27" spans="4:46">
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27">
         <v>15000</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26">
-        <v>215</v>
-      </c>
-      <c r="S26" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA26" t="s">
+      <c r="G27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AB26" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE26" t="s">
+      <c r="I27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="K27">
+        <v>213</v>
+      </c>
+      <c r="S27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC27" t="s">
         <v>136</v>
       </c>
-      <c r="AI26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL26">
-        <v>90</v>
-      </c>
-      <c r="AM26">
-        <v>75</v>
-      </c>
-      <c r="AN26">
-        <v>180</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS26" t="s">
+      <c r="AD27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>151</v>
       </c>
-      <c r="AT26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27">
-        <v>12000</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27">
-        <v>216</v>
-      </c>
-      <c r="S27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>140</v>
-      </c>
       <c r="AK27" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL27">
         <v>80</v>
       </c>
       <c r="AM27">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AN27">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP27" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AQ27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="4:46">
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28">
+        <v>25000</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28">
+        <v>212</v>
+      </c>
+      <c r="S28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE28" t="s">
         <v>145</v>
       </c>
-      <c r="AS27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT27" t="s">
+      <c r="AH28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL28">
+        <v>85</v>
+      </c>
+      <c r="AM28">
+        <v>76</v>
+      </c>
+      <c r="AN28">
+        <v>160</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="4:46">
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29">
+        <v>50000</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29">
+        <v>227</v>
+      </c>
+      <c r="S29" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE29" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28">
-        <v>15000</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28">
-        <v>213</v>
-      </c>
-      <c r="S28" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL28">
-        <v>80</v>
-      </c>
-      <c r="AM28">
-        <v>72</v>
-      </c>
-      <c r="AN28">
-        <v>180</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29">
-        <v>25000</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29">
-        <v>212</v>
-      </c>
-      <c r="S29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>134</v>
-      </c>
       <c r="AH29" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AI29" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AJ29" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AK29" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL29">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="AM29">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AN29">
         <v>160</v>
       </c>
       <c r="AP29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="4:46">
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30">
+        <v>40000</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30">
+        <v>225</v>
+      </c>
+      <c r="S30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE30" t="s">
         <v>146</v>
       </c>
-      <c r="AQ29" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR29" t="s">
+      <c r="AH30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI30" t="s">
         <v>149</v>
       </c>
-      <c r="AS29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30">
-        <v>50000</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K30">
-        <v>227</v>
-      </c>
-      <c r="S30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>138</v>
-      </c>
       <c r="AJ30" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="AK30" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL30">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AM30">
         <v>73</v>
       </c>
       <c r="AN30">
+        <v>120</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR30" t="s">
         <v>160</v>
       </c>
-      <c r="AP30" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR30" t="s">
+      <c r="AS30" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="4:46">
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <v>18000</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31">
+        <v>2436</v>
+      </c>
+      <c r="S31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI31" t="s">
         <v>149</v>
       </c>
-      <c r="AS30" t="s">
+      <c r="AJ31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL31">
+        <v>100</v>
+      </c>
+      <c r="AM31">
+        <v>75</v>
+      </c>
+      <c r="AN31">
+        <v>160</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="4:46">
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32">
+        <v>10000</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32">
+        <v>228</v>
+      </c>
+      <c r="S32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>151</v>
       </c>
-      <c r="AT30" t="s">
+      <c r="AK32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL32">
+        <v>120</v>
+      </c>
+      <c r="AM32">
+        <v>78</v>
+      </c>
+      <c r="AN32">
+        <v>150</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="4:46">
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33">
+        <v>18000</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33">
+        <v>2451</v>
+      </c>
+      <c r="S33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE33" t="s">
         <v>143</v>
       </c>
+      <c r="AH33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL33">
+        <v>85</v>
+      </c>
+      <c r="AM33">
+        <v>74</v>
+      </c>
+      <c r="AN33">
+        <v>140</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="34" spans="4:46">
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34">
+        <v>18000</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34">
+        <v>2450</v>
+      </c>
+      <c r="S34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL34">
+        <v>85</v>
+      </c>
+      <c r="AM34">
+        <v>74</v>
+      </c>
+      <c r="AN34">
+        <v>140</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="4:46">
+      <c r="D35" t="s">
         <v>49</v>
       </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31">
-        <v>40000</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K31">
-        <v>225</v>
-      </c>
-      <c r="S31" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE31" t="s">
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <v>99999</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35">
+        <v>229</v>
+      </c>
+      <c r="S35" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB35" t="s">
         <v>135</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AC35" t="s">
         <v>136</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AD35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE35" t="s">
         <v>138</v>
       </c>
-      <c r="AJ31" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL31">
-        <v>60</v>
-      </c>
-      <c r="AM31">
-        <v>73</v>
-      </c>
-      <c r="AN31">
-        <v>120</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR31" t="s">
+      <c r="AH35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI35" t="s">
         <v>149</v>
       </c>
-      <c r="AS31" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>143</v>
+      <c r="AJ35" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL35">
+        <v>200</v>
+      </c>
+      <c r="AM35">
+        <v>75</v>
+      </c>
+      <c r="AN35">
+        <v>400</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="G26" r:id="rId49"/>
+    <hyperlink ref="I26" r:id="rId50"/>
+    <hyperlink ref="G27" r:id="rId51"/>
+    <hyperlink ref="I27" r:id="rId52"/>
+    <hyperlink ref="G28" r:id="rId53"/>
+    <hyperlink ref="I28" r:id="rId54"/>
+    <hyperlink ref="G29" r:id="rId55"/>
+    <hyperlink ref="I29" r:id="rId56"/>
+    <hyperlink ref="G30" r:id="rId57"/>
+    <hyperlink ref="I30" r:id="rId58"/>
+    <hyperlink ref="G31" r:id="rId59"/>
+    <hyperlink ref="I31" r:id="rId60"/>
+    <hyperlink ref="G32" r:id="rId61"/>
+    <hyperlink ref="I32" r:id="rId62"/>
+    <hyperlink ref="G33" r:id="rId63"/>
+    <hyperlink ref="I33" r:id="rId64"/>
+    <hyperlink ref="G34" r:id="rId65"/>
+    <hyperlink ref="I34" r:id="rId66"/>
+    <hyperlink ref="G35" r:id="rId67"/>
+    <hyperlink ref="I35" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="157">
   <si>
     <t>Address</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>Стол руководителя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кабинет руководителя </t>
   </si>
   <si>
     <t xml:space="preserve">Стол руководителя </t>
@@ -655,37 +652,6 @@
 Цвет: Карельский орех
 Цена: 120 000
 Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Офисная мебель
-Артикул 221
-Создайте стильное и практичное рабочее пространство с комплектом офисной мебели цвета венге. Этот комплект идеально сочетает современный дизайн, функциональность и компактность, обеспечивая комфортную работу и порядок в вашем офисе.
-Комплектация:
-- Угловой стол: просторная рабочая поверхность с продуманным отверстием для проводов, позволяющим организовать технику без лишних кабелей.
-- Компактный шкаф: универсальный шкаф для одежды и документов, который помогает поддерживать порядок в офисе.
-- Тумба под оргтехнику: надежное место для размещения принтера, сканера или других устройств.
-- Подкатная тумба на колесиках: мобильное решение для хранения канцелярии и личных вещей, всегда под рукой.
-Размер ДхШхВ: Стол - 138х120х75
-Тумба под оргтехнику - 110х40х80
-Шкафы - 55х40х21
-Тумба на колесиках
-Цвет: венге
-Цена: 24 999
-Количество: 1
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
@@ -907,62 +873,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Кабинет руководителя 
-Артикул 227
-Размеры ДхШхВ: Стол - 160х99х73
-Брифинг-100х60х73
-Тумба приставная-60х53х73.5
-Тумба орг.техника-90х43х94
-Шкаф стекло полки-80х44х199
-Гардероб-77х36х198
-Цена 50 000
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t>Кабинет руководителя
-Артикул 225
-Описание
-Размеры ДхШхВ: Стол - 120х60х73
-Брифинг - 120х60х73
-Шкаф для документов - 40х44х205
-Шкаф гардероб - 89х44х205
-Тумба
-Цвет: лиственница серая
-Цена: 40 000 руб
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол руководителя 
 Артикул 2436
 Стол угловой в кабинет руководителя с брифингом до 3 человек. Стол от германской компании Берлин сделан из высококачественных материалов. 
@@ -1149,9 +1059,6 @@
     <t>https://disk.yandex.ru/i/s2e1TD7Xr_AHWg | https://disk.yandex.ru/i/lHgTU5xnx8JgEA | https://disk.yandex.ru/i/6yYze2-97mCKrA | https://disk.yandex.ru/i/lVOJvS437YD51A | https://disk.yandex.ru/i/OIgF5DMX41jnEA | https://disk.yandex.ru/i/T7twRjXcRfSiIQ | https://disk.yandex.ru/i/aJJyJdglztgmWQ | https://disk.yandex.ru/i/nk9l0UhdeoDRWQ | https://disk.yandex.ru/i/GQRetH6b5YhfGQ | https://disk.yandex.ru/i/9WivDPidJ3gENw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/TxWEuWDD4arstA | https://disk.yandex.ru/i/RUdN1roQ_5vgpA | https://disk.yandex.ru/i/phdZ7Bwe-WcedQ | https://disk.yandex.ru/i/X5SrSmW0yi-fsQ | https://disk.yandex.ru/i/zDj1dIGmljOU8A | https://disk.yandex.ru/i/4qpTeD7dMcUN3A | https://disk.yandex.ru/i/b-V0CEgfMWrxPQ | https://disk.yandex.ru/i/7XcHAqNfUlThUg | https://disk.yandex.ru/i/Uw6iwlQAZ-q9Mg | https://disk.yandex.ru/i/KqpV6OkZusUGgA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Q4ob5KGKpvzs9Q | https://disk.yandex.ru/i/Vy-WxF5UBtCSWg | https://disk.yandex.ru/i/QPh3DYxGMnLIgw | https://disk.yandex.ru/i/JviaYtmX61tYYg | https://disk.yandex.ru/i/XOqc-NoKV7nkBw | https://disk.yandex.ru/i/M3k0NxpYrAe_7Q | https://disk.yandex.ru/i/Q7ntBKBu7lTJKA | https://disk.yandex.ru/i/uWhyFu8Vcvfteg | https://disk.yandex.ru/i/dum8db07-eJrFQ | https://disk.yandex.ru/i/hOMZWfq_OH52_g</t>
   </si>
   <si>
@@ -1173,12 +1080,6 @@
     <t>https://disk.yandex.ru/i/mAOhRoFPl12JKg | https://disk.yandex.ru/i/yhO6A5lvXeW-eQ | https://disk.yandex.ru/i/lOlYx7PcHK1bpw | https://disk.yandex.ru/i/QnScUCQqtAwBBQ | https://disk.yandex.ru/i/7Z1vOE4M7wBXbg | https://disk.yandex.ru/i/9Z6HvSuDl_oHkw | https://disk.yandex.ru/i/dTjDCVSBeqcRqQ | https://disk.yandex.ru/i/FhIvyAiJlwlzCQ | https://disk.yandex.ru/i/g_TmssrqEXkVhQ | https://disk.yandex.ru/i/eojJXx2pt-1szg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/P8H3zBgU2nV8tg | https://disk.yandex.ru/i/yCbqh9u0CislDg | https://disk.yandex.ru/i/FmarA-FonT_FCw | https://disk.yandex.ru/i/Pa9A9nXQhpNDJg | https://disk.yandex.ru/i/sx_43WOvIFDbyQ | https://disk.yandex.ru/i/gVpzxbpgmncS_w | https://disk.yandex.ru/i/4dZM6GGKDZ61FA | https://disk.yandex.ru/i/v1SEYiNL6CQv7A | https://disk.yandex.ru/i/OwlBd0SD4q-vgQ | https://disk.yandex.ru/i/Y_Lkx07RlyTWmA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/7gifxSd52FKbhg | https://disk.yandex.ru/i/OXFh_AC0o-ODJw | https://disk.yandex.ru/i/UzXzHKsFWzHekw | https://disk.yandex.ru/i/kX6aQMGnOl2yLg | https://disk.yandex.ru/i/Kh4bGm7DXzof5w | https://disk.yandex.ru/i/DQg6ambGWKlSGQ | https://disk.yandex.ru/i/688YCkOrh-3vtQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/BmoBkouS4pOJfg | https://disk.yandex.ru/i/4k47QZSw8OMZdg | https://disk.yandex.ru/i/HsZVBssxyv0tJQ | https://disk.yandex.ru/i/yTzbOn3KXPl85Q | https://disk.yandex.ru/i/PYN4Yo51TcDTBA</t>
   </si>
   <si>
@@ -1237,9 +1138,6 @@
   </si>
   <si>
     <t>Разноцветный</t>
-  </si>
-  <si>
-    <t>Серый</t>
   </si>
   <si>
     <t>Столы</t>
@@ -1664,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT35"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1815,49 +1713,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AC2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AD2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AH2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AK2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1869,16 +1767,16 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AQ2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AS2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AT2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1886,49 +1784,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>19999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K3">
         <v>132</v>
       </c>
       <c r="S3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE3" t="s">
         <v>132</v>
       </c>
-      <c r="AA3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>139</v>
       </c>
-      <c r="AH3" t="s">
-        <v>147</v>
-      </c>
       <c r="AI3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1940,19 +1838,19 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AR3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1960,49 +1858,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>24999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K4">
         <v>168</v>
       </c>
       <c r="S4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE4" t="s">
         <v>133</v>
       </c>
-      <c r="AB4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>140</v>
-      </c>
       <c r="AH4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -2014,19 +1912,19 @@
         <v>170</v>
       </c>
       <c r="AP4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AQ4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AR4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -2034,49 +1932,49 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>50000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K5">
         <v>183</v>
       </c>
       <c r="S5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI5" t="s">
         <v>132</v>
       </c>
-      <c r="AA5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>139</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL5">
         <v>130</v>
@@ -2088,16 +1986,16 @@
         <v>360</v>
       </c>
       <c r="AP5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AQ5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AS5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AT5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -2105,49 +2003,49 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>99999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K6">
         <v>186</v>
       </c>
       <c r="S6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI6" t="s">
         <v>132</v>
       </c>
-      <c r="AA6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>139</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AK6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL6">
         <v>170</v>
@@ -2159,16 +2057,16 @@
         <v>360</v>
       </c>
       <c r="AP6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AQ6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AS6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AT6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -2176,49 +2074,49 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>9999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K7">
         <v>188</v>
       </c>
       <c r="S7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI7" t="s">
         <v>132</v>
       </c>
-      <c r="AA7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>139</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -2230,16 +2128,16 @@
         <v>180</v>
       </c>
       <c r="AP7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AS7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AT7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -2247,52 +2145,52 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>19999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K8">
         <v>192</v>
       </c>
       <c r="S8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI8" t="s">
         <v>132</v>
       </c>
-      <c r="AA8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>139</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -2304,16 +2202,16 @@
         <v>200</v>
       </c>
       <c r="AP8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AS8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -2321,49 +2219,49 @@
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>90000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K9">
         <v>196</v>
       </c>
       <c r="S9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE9" t="s">
         <v>135</v>
       </c>
-      <c r="AC9" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>142</v>
-      </c>
       <c r="AH9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2375,19 +2273,19 @@
         <v>160</v>
       </c>
       <c r="AP9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AR9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -2395,49 +2293,49 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>40000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K10">
         <v>197</v>
       </c>
       <c r="S10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE10" t="s">
         <v>136</v>
       </c>
-      <c r="AD10" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>143</v>
-      </c>
       <c r="AH10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL10">
         <v>120</v>
@@ -2449,19 +2347,19 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AR10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2469,49 +2367,49 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>20000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K11">
         <v>205</v>
       </c>
       <c r="S11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AD11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AH11" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL11">
         <v>120</v>
@@ -2523,19 +2421,19 @@
         <v>200</v>
       </c>
       <c r="AP11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS11" t="s">
         <v>156</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>164</v>
-      </c>
       <c r="AT11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2543,49 +2441,49 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12">
         <v>19999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K12">
         <v>207</v>
       </c>
       <c r="S12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AD12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE12" t="s">
         <v>137</v>
       </c>
-      <c r="AE12" t="s">
-        <v>144</v>
-      </c>
       <c r="AH12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL12">
         <v>94</v>
@@ -2597,19 +2495,19 @@
         <v>197</v>
       </c>
       <c r="AP12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AQ12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AR12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2617,49 +2515,49 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>25000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K13">
         <v>208</v>
       </c>
       <c r="S13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AD13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AH13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2671,19 +2569,19 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AR13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2691,49 +2589,49 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14">
         <v>21000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K14">
         <v>209</v>
       </c>
       <c r="S14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE14" t="s">
         <v>136</v>
       </c>
-      <c r="AD14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AH14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>143</v>
       </c>
-      <c r="AH14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>151</v>
-      </c>
       <c r="AK14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2745,19 +2643,19 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ14" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AR14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2765,49 +2663,49 @@
         <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <v>25000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K15">
         <v>210</v>
       </c>
       <c r="S15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AD15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AH15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2819,19 +2717,19 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AR15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2839,49 +2737,49 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16">
         <v>25000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K16">
         <v>211</v>
       </c>
       <c r="S16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB16" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE16" t="s">
         <v>136</v>
       </c>
-      <c r="AD16" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AH16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>143</v>
       </c>
-      <c r="AH16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>151</v>
-      </c>
       <c r="AK16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2893,19 +2791,19 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ16" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AR16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="4:46">
@@ -2913,49 +2811,49 @@
         <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17">
         <v>4999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K17">
         <v>2136</v>
       </c>
       <c r="S17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI17" t="s">
         <v>132</v>
       </c>
-      <c r="AA17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE17" t="s">
+      <c r="AJ17" t="s">
         <v>142</v>
       </c>
-      <c r="AH17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>150</v>
-      </c>
       <c r="AK17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2967,16 +2865,16 @@
         <v>80</v>
       </c>
       <c r="AP17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AQ17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AS17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AT17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2984,49 +2882,49 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18">
         <v>11999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K18">
         <v>224</v>
       </c>
       <c r="S18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB18" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AD18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AH18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ18" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AK18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL18">
         <v>120</v>
@@ -3038,16 +2936,16 @@
         <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AS18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AT18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="4:46">
@@ -3055,49 +2953,49 @@
         <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19">
         <v>9999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K19">
         <v>223</v>
       </c>
       <c r="S19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AD19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE19" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AH19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AJ19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AK19" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL19">
         <v>120</v>
@@ -3109,16 +3007,16 @@
         <v>120</v>
       </c>
       <c r="AP19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AQ19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AS19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AT19" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="4:46">
@@ -3126,49 +3024,49 @@
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20">
         <v>120000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K20">
         <v>222</v>
       </c>
       <c r="S20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI20" t="s">
         <v>132</v>
       </c>
-      <c r="AA20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>139</v>
-      </c>
       <c r="AJ20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL20">
         <v>200</v>
@@ -3180,93 +3078,93 @@
         <v>300</v>
       </c>
       <c r="AP20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AQ20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AR20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="4:46">
       <c r="D21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21">
-        <v>24999</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K21">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA21" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB21" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AD21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI21" t="s">
         <v>141</v>
       </c>
-      <c r="AH21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>149</v>
-      </c>
       <c r="AJ21" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="AK21" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL21">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM21">
         <v>75</v>
       </c>
       <c r="AN21">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ21" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AR21" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS21" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT21" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="4:46">
@@ -3274,52 +3172,52 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K22">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE22" t="s">
         <v>136</v>
       </c>
-      <c r="AD22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AH22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI22" t="s">
         <v>141</v>
       </c>
-      <c r="AH22" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>149</v>
-      </c>
       <c r="AJ22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL22">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM22">
         <v>75</v>
@@ -3328,963 +3226,741 @@
         <v>140</v>
       </c>
       <c r="AP22" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ22" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AR22" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="4:46">
       <c r="D23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23">
-        <v>35000</v>
+        <v>14999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K23">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB23" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE23" t="s">
         <v>136</v>
       </c>
-      <c r="AD23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AH23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>143</v>
       </c>
-      <c r="AH23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>151</v>
-      </c>
       <c r="AK23" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL23">
+        <v>90</v>
+      </c>
+      <c r="AM23">
+        <v>77</v>
+      </c>
+      <c r="AN23">
+        <v>180</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS23" t="s">
         <v>154</v>
       </c>
-      <c r="AL23">
-        <v>70</v>
-      </c>
-      <c r="AM23">
-        <v>75</v>
-      </c>
-      <c r="AN23">
-        <v>140</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>162</v>
-      </c>
       <c r="AT23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="4:46">
       <c r="D24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24">
-        <v>14999</v>
+        <v>15000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K24">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE24" t="s">
         <v>135</v>
       </c>
-      <c r="AC24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AH24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>143</v>
       </c>
-      <c r="AH24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>151</v>
-      </c>
       <c r="AK24" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL24">
         <v>90</v>
       </c>
       <c r="AM24">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN24">
         <v>180</v>
       </c>
       <c r="AP24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AQ24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AS24" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT24" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="4:46">
       <c r="D25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K25">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA25" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE25" t="s">
         <v>135</v>
       </c>
-      <c r="AC25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>142</v>
-      </c>
       <c r="AH25" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL25">
+        <v>80</v>
+      </c>
+      <c r="AM25">
+        <v>3</v>
+      </c>
+      <c r="AN25">
+        <v>200</v>
+      </c>
+      <c r="AP25" t="s">
         <v>149</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL25">
-        <v>90</v>
-      </c>
-      <c r="AM25">
-        <v>75</v>
-      </c>
-      <c r="AN25">
-        <v>180</v>
-      </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS25" t="s">
         <v>156</v>
       </c>
-      <c r="AQ25" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>162</v>
-      </c>
       <c r="AT25" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="4:46">
       <c r="D26" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K26">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE26" t="s">
         <v>135</v>
       </c>
-      <c r="AC26" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>142</v>
-      </c>
       <c r="AH26" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI26" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ26" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AK26" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL26">
         <v>80</v>
       </c>
       <c r="AM26">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AN26">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP26" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AQ26" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS26" t="s">
         <v>156</v>
       </c>
-      <c r="AS26" t="s">
-        <v>164</v>
-      </c>
       <c r="AT26" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="4:46">
       <c r="D27" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K27">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S27" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA27" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB27" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC27" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AD27" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AH27" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL27">
+        <v>85</v>
+      </c>
+      <c r="AM27">
+        <v>76</v>
+      </c>
+      <c r="AN27">
+        <v>160</v>
+      </c>
+      <c r="AP27" t="s">
         <v>149</v>
       </c>
-      <c r="AJ27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK27" t="s">
+      <c r="AQ27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS27" t="s">
         <v>154</v>
       </c>
-      <c r="AL27">
-        <v>80</v>
-      </c>
-      <c r="AM27">
-        <v>72</v>
-      </c>
-      <c r="AN27">
-        <v>180</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>164</v>
-      </c>
       <c r="AT27" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="4:46">
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K28">
-        <v>212</v>
+        <v>2436</v>
       </c>
       <c r="S28" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB28" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE28" t="s">
         <v>136</v>
       </c>
-      <c r="AD28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>145</v>
-      </c>
       <c r="AH28" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI28" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AK28" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AL28">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AM28">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN28">
         <v>160</v>
       </c>
       <c r="AP28" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AQ28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AR28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AS28" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT28" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="4:46">
       <c r="D29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="K29">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S29" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA29" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB29" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE29" t="s">
         <v>136</v>
       </c>
-      <c r="AD29" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE29" t="s">
+      <c r="AH29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>143</v>
       </c>
-      <c r="AH29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>152</v>
-      </c>
       <c r="AK29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL29">
+        <v>120</v>
+      </c>
+      <c r="AM29">
+        <v>78</v>
+      </c>
+      <c r="AN29">
+        <v>150</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS29" t="s">
         <v>154</v>
       </c>
-      <c r="AL29">
-        <v>99</v>
-      </c>
-      <c r="AM29">
-        <v>73</v>
-      </c>
-      <c r="AN29">
-        <v>160</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>162</v>
-      </c>
       <c r="AT29" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="4:46">
       <c r="D30" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30">
+        <v>2451</v>
+      </c>
+      <c r="S30" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30">
-        <v>225</v>
-      </c>
-      <c r="S30" t="s">
-        <v>132</v>
-      </c>
       <c r="AA30" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AB30" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE30" t="s">
         <v>136</v>
       </c>
-      <c r="AD30" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>146</v>
-      </c>
       <c r="AH30" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AI30" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AJ30" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL30">
+        <v>85</v>
+      </c>
+      <c r="AM30">
+        <v>74</v>
+      </c>
+      <c r="AN30">
+        <v>140</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR30" t="s">
         <v>152</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AS30" t="s">
         <v>154</v>
       </c>
-      <c r="AL30">
-        <v>60</v>
-      </c>
-      <c r="AM30">
-        <v>73</v>
-      </c>
-      <c r="AN30">
-        <v>120</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>162</v>
-      </c>
       <c r="AT30" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="4:46">
       <c r="D31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31">
         <v>18000</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31">
+        <v>2450</v>
+      </c>
+      <c r="S31" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA31" t="s">
         <v>126</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31">
-        <v>2436</v>
-      </c>
-      <c r="S31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>133</v>
-      </c>
       <c r="AB31" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC31" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE31" t="s">
         <v>136</v>
       </c>
-      <c r="AD31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE31" t="s">
+      <c r="AH31" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>143</v>
       </c>
-      <c r="AH31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ31" t="s">
+      <c r="AK31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL31">
+        <v>85</v>
+      </c>
+      <c r="AM31">
+        <v>74</v>
+      </c>
+      <c r="AN31">
+        <v>140</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR31" t="s">
         <v>152</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AS31" t="s">
         <v>154</v>
       </c>
-      <c r="AL31">
-        <v>100</v>
-      </c>
-      <c r="AM31">
-        <v>75</v>
-      </c>
-      <c r="AN31">
-        <v>160</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>162</v>
-      </c>
       <c r="AT31" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="4:46">
       <c r="D32" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32">
-        <v>10000</v>
+        <v>99999</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K32">
+        <v>229</v>
+      </c>
+      <c r="S32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE32" t="s">
         <v>131</v>
       </c>
-      <c r="K32">
-        <v>228</v>
-      </c>
-      <c r="S32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>143</v>
-      </c>
       <c r="AH32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL32">
+        <v>200</v>
+      </c>
+      <c r="AM32">
+        <v>75</v>
+      </c>
+      <c r="AN32">
+        <v>400</v>
+      </c>
+      <c r="AP32" t="s">
         <v>147</v>
       </c>
-      <c r="AI32" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK32" t="s">
+      <c r="AQ32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS32" t="s">
         <v>154</v>
       </c>
-      <c r="AL32">
-        <v>120</v>
-      </c>
-      <c r="AM32">
-        <v>78</v>
-      </c>
-      <c r="AN32">
-        <v>150</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>162</v>
-      </c>
       <c r="AT32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="4:46">
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33">
-        <v>18000</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33">
-        <v>2451</v>
-      </c>
-      <c r="S33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL33">
-        <v>85</v>
-      </c>
-      <c r="AM33">
-        <v>74</v>
-      </c>
-      <c r="AN33">
-        <v>140</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="4:46">
-      <c r="D34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34">
-        <v>18000</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34">
-        <v>2450</v>
-      </c>
-      <c r="S34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL34">
-        <v>85</v>
-      </c>
-      <c r="AM34">
-        <v>74</v>
-      </c>
-      <c r="AN34">
-        <v>140</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="4:46">
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35">
-        <v>99999</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K35">
-        <v>229</v>
-      </c>
-      <c r="S35" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL35">
-        <v>200</v>
-      </c>
-      <c r="AM35">
-        <v>75</v>
-      </c>
-      <c r="AN35">
-        <v>400</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4351,12 +4027,6 @@
     <hyperlink ref="I31" r:id="rId60"/>
     <hyperlink ref="G32" r:id="rId61"/>
     <hyperlink ref="I32" r:id="rId62"/>
-    <hyperlink ref="G33" r:id="rId63"/>
-    <hyperlink ref="I33" r:id="rId64"/>
-    <hyperlink ref="G34" r:id="rId65"/>
-    <hyperlink ref="I34" r:id="rId66"/>
-    <hyperlink ref="G35" r:id="rId67"/>
-    <hyperlink ref="I35" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="156">
   <si>
     <t>Address</t>
   </si>
@@ -269,16 +269,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол переговорный
-Артикул 183
-⚫️Переговорный стол из закаленного стекла на металлическом каркасе  - это стильное и функциональное решение для крупных деловых встреч и переговоров в офисе. Такой стол сочетает в себе элегантность и современный дизайн, что делает его привлекательным элементом офисного интерьера.
-Стеклянная столешница изготовлена из закаленного стекла, что обеспечивает прочность и долговечность изделия. Такой материал легко моется и устойчив к истиранию, что делает его идеальным для использования в офисной среде.Имеет царапины.
-Металлический каркас обеспечивает надежную поддержку и стабильность стола.Стол вмещает 16 человек ,имеет просторную и удобную форму, которая позволяет с комфортом разместить всех участников встречи.
-▪️Размеры ДхШхВ:360х130х72
-Цена: 50000
-Количество: 1</t>
   </si>
   <si>
     <t>Стол для переговоров
@@ -1002,6 +992,37 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Кабинет руководителя
+Артикул 231
+Кабинет руководителя в современном стиле светлого цвета — это сочетание элегантности и функциональности. Мебель в отличном состоянии Большой эргономичный стол с брифингом на 4-5 человека обеспечивает комфортное рабочее пространство и создает условия для эффективных совещаний. В комплекте тумба на колесиках для удобного хранения, тумба под оргтехнику, а также вместительный гардероб и шкаф для документов, которые помогут поддерживать порядок в кабинете. Этот комплект мебели станет идеальным решением для руководителей, ценящих современный дизайн и практичность.
+Размеры ДхШхВ: Стол - 180х86х75
+Брифинг - 140х73
+Шкафы - 82х45х220
+Тумба под оргтехнику - 82х44х74
+Тумба на колёсиках - 48х59х68
+Цена: 50 000 руб.
+Цвет:
+Количество: 1 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
   </si>
   <si>
@@ -1011,9 +1032,6 @@
     <t>https://disk.yandex.ru/i/UHXRg6OxlEfUxg | https://disk.yandex.ru/i/PTTxLwvQo2wbOg | https://disk.yandex.ru/i/r8haHNYVYkEfug | https://disk.yandex.ru/i/wZvttGINkhGIPA | https://disk.yandex.ru/i/FPO_HMnaw_NKXg | https://disk.yandex.ru/i/4Lbq_Ng2NpSwkQ | https://disk.yandex.ru/i/st90yK27BGQlFQ | https://disk.yandex.ru/i/8jNbAfpOEXukxQ | https://disk.yandex.ru/i/HCJWd61-NB0yhA | https://disk.yandex.ru/i/DG-w_PhezIyGgg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/aMfzSub9xTFXjw | https://disk.yandex.ru/i/maJyjBkoYISzIw | https://disk.yandex.ru/i/0wsihDFD--fR_Q | https://disk.yandex.ru/i/Gz4J3t-erXm8AA | https://disk.yandex.ru/i/TMtg8xaYCSa-CQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/SfiLSfb6sZfsGQ | https://disk.yandex.ru/i/mMtAuNHDYZAAog | https://disk.yandex.ru/i/4fm4IQOxGm3rRg | https://disk.yandex.ru/i/-KwWZNye2KgpXg | https://disk.yandex.ru/i/1O8voVaNyCzv6g | https://disk.yandex.ru/i/oDvHEQ_TvosWMg | https://disk.yandex.ru/i/8K037bCwGKI3sQ</t>
   </si>
   <si>
@@ -1095,6 +1113,9 @@
     <t>https://disk.yandex.ru/i/mhO4d2DdGtKEFg | https://disk.yandex.ru/i/rtQeuuJNnvsXWw | https://disk.yandex.ru/i/CBmDRkir1d39ng | https://disk.yandex.ru/i/srpRptdretExNg | https://disk.yandex.ru/i/28bnw8QpTsnm1Q | https://disk.yandex.ru/i/Ei5ITngzk1YkYg | https://disk.yandex.ru/i/SLC3ocPHVcpNJw | https://disk.yandex.ru/i/VWyenqpVVWXKig | https://disk.yandex.ru/i/v_O_lSC4qH6BWw</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/igtYdrUIfTi4CA | https://disk.yandex.ru/i/erEoEDSrsBd4xA | https://disk.yandex.ru/i/51LgM2QvBZFBJQ | https://disk.yandex.ru/i/1G4bOaea1cVj9A | https://disk.yandex.ru/i/4tPVYq5S_JFI2Q | https://disk.yandex.ru/i/boM08MpjPDqBZg | https://disk.yandex.ru/i/GT13NVSyJe5jPw</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1125,18 +1146,18 @@
     <t>Жёлтый</t>
   </si>
   <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
     <t>Чёрный</t>
   </si>
   <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
-    <t>Красный</t>
-  </si>
-  <si>
     <t>Разноцветный</t>
   </si>
   <si>
@@ -1171,9 +1192,6 @@
   </si>
   <si>
     <t>ЛДСП</t>
-  </si>
-  <si>
-    <t>Стекло</t>
   </si>
   <si>
     <t>Металл</t>
@@ -1773,7 +1791,7 @@
         <v>147</v>
       </c>
       <c r="AS2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AT2" t="s">
         <v>146</v>
@@ -1844,10 +1862,10 @@
         <v>148</v>
       </c>
       <c r="AR3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT3" t="s">
         <v>146</v>
@@ -1918,10 +1936,10 @@
         <v>149</v>
       </c>
       <c r="AR4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT4" t="s">
         <v>146</v>
@@ -1929,13 +1947,13 @@
     </row>
     <row r="5" spans="1:46">
       <c r="D5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>65</v>
       </c>
       <c r="F5">
-        <v>50000</v>
+        <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>96</v>
@@ -1944,7 +1962,7 @@
         <v>124</v>
       </c>
       <c r="K5">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S5" t="s">
         <v>125</v>
@@ -1962,7 +1980,7 @@
         <v>130</v>
       </c>
       <c r="AE5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AH5" t="s">
         <v>139</v>
@@ -1971,28 +1989,28 @@
         <v>132</v>
       </c>
       <c r="AJ5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AK5" t="s">
         <v>146</v>
       </c>
       <c r="AL5">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AM5">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN5">
         <v>360</v>
       </c>
       <c r="AP5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AQ5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AS5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AT5" t="s">
         <v>146</v>
@@ -2000,13 +2018,13 @@
     </row>
     <row r="6" spans="1:46">
       <c r="D6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>66</v>
       </c>
       <c r="F6">
-        <v>99999</v>
+        <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>97</v>
@@ -2015,7 +2033,7 @@
         <v>124</v>
       </c>
       <c r="K6">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S6" t="s">
         <v>125</v>
@@ -2033,7 +2051,7 @@
         <v>130</v>
       </c>
       <c r="AE6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AH6" t="s">
         <v>139</v>
@@ -2042,28 +2060,28 @@
         <v>132</v>
       </c>
       <c r="AJ6" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AK6" t="s">
         <v>146</v>
       </c>
       <c r="AL6">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AM6">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN6">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AP6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AT6" t="s">
         <v>146</v>
@@ -2071,13 +2089,13 @@
     </row>
     <row r="7" spans="1:46">
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
       </c>
       <c r="F7">
-        <v>9999</v>
+        <v>19999</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>98</v>
@@ -2086,7 +2104,7 @@
         <v>124</v>
       </c>
       <c r="K7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S7" t="s">
         <v>125</v>
@@ -2095,7 +2113,7 @@
         <v>126</v>
       </c>
       <c r="AB7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC7" t="s">
         <v>129</v>
@@ -2104,7 +2122,10 @@
         <v>130</v>
       </c>
       <c r="AE7" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>134</v>
       </c>
       <c r="AH7" t="s">
         <v>139</v>
@@ -2122,19 +2143,19 @@
         <v>80</v>
       </c>
       <c r="AM7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN7">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP7" t="s">
         <v>148</v>
       </c>
       <c r="AQ7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AT7" t="s">
         <v>146</v>
@@ -2142,13 +2163,13 @@
     </row>
     <row r="8" spans="1:46">
       <c r="D8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
       </c>
       <c r="F8">
-        <v>19999</v>
+        <v>90000</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>99</v>
@@ -2157,7 +2178,7 @@
         <v>124</v>
       </c>
       <c r="K8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="S8" t="s">
         <v>125</v>
@@ -2175,16 +2196,13 @@
         <v>130</v>
       </c>
       <c r="AE8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH8" t="s">
         <v>139</v>
       </c>
       <c r="AI8" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AJ8" t="s">
         <v>143</v>
@@ -2199,16 +2217,19 @@
         <v>75</v>
       </c>
       <c r="AN8">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP8" t="s">
         <v>148</v>
       </c>
       <c r="AQ8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR8" t="s">
         <v>151</v>
       </c>
       <c r="AS8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT8" t="s">
         <v>146</v>
@@ -2216,13 +2237,13 @@
     </row>
     <row r="9" spans="1:46">
       <c r="D9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
       </c>
       <c r="F9">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>100</v>
@@ -2231,7 +2252,7 @@
         <v>124</v>
       </c>
       <c r="K9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S9" t="s">
         <v>125</v>
@@ -2258,16 +2279,16 @@
         <v>141</v>
       </c>
       <c r="AJ9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s">
         <v>146</v>
       </c>
       <c r="AL9">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN9">
         <v>160</v>
@@ -2276,13 +2297,13 @@
         <v>148</v>
       </c>
       <c r="AQ9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR9" t="s">
         <v>151</v>
       </c>
-      <c r="AR9" t="s">
-        <v>152</v>
-      </c>
       <c r="AS9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT9" t="s">
         <v>146</v>
@@ -2290,13 +2311,13 @@
     </row>
     <row r="10" spans="1:46">
       <c r="D10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
       </c>
       <c r="F10">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>101</v>
@@ -2305,7 +2326,7 @@
         <v>124</v>
       </c>
       <c r="K10">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="S10" t="s">
         <v>125</v>
@@ -2323,7 +2344,7 @@
         <v>130</v>
       </c>
       <c r="AE10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AH10" t="s">
         <v>139</v>
@@ -2332,7 +2353,7 @@
         <v>141</v>
       </c>
       <c r="AJ10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s">
         <v>146</v>
@@ -2341,22 +2362,22 @@
         <v>120</v>
       </c>
       <c r="AM10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN10">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AP10" t="s">
         <v>148</v>
       </c>
       <c r="AQ10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR10" t="s">
         <v>151</v>
       </c>
-      <c r="AR10" t="s">
-        <v>152</v>
-      </c>
       <c r="AS10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AT10" t="s">
         <v>146</v>
@@ -2364,13 +2385,13 @@
     </row>
     <row r="11" spans="1:46">
       <c r="D11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>71</v>
       </c>
       <c r="F11">
-        <v>20000</v>
+        <v>19999</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>102</v>
@@ -2379,7 +2400,7 @@
         <v>124</v>
       </c>
       <c r="K11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S11" t="s">
         <v>125</v>
@@ -2397,7 +2418,7 @@
         <v>130</v>
       </c>
       <c r="AE11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AH11" t="s">
         <v>139</v>
@@ -2412,25 +2433,25 @@
         <v>146</v>
       </c>
       <c r="AL11">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="AM11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AN11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AP11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AQ11" t="s">
         <v>148</v>
       </c>
       <c r="AR11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AT11" t="s">
         <v>146</v>
@@ -2438,13 +2459,13 @@
     </row>
     <row r="12" spans="1:46">
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
       </c>
       <c r="F12">
-        <v>19999</v>
+        <v>25000</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>103</v>
@@ -2453,7 +2474,7 @@
         <v>124</v>
       </c>
       <c r="K12">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S12" t="s">
         <v>125</v>
@@ -2471,7 +2492,7 @@
         <v>130</v>
       </c>
       <c r="AE12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AH12" t="s">
         <v>139</v>
@@ -2486,25 +2507,25 @@
         <v>146</v>
       </c>
       <c r="AL12">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AM12">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN12">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT12" t="s">
         <v>146</v>
@@ -2518,7 +2539,7 @@
         <v>73</v>
       </c>
       <c r="F13">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>104</v>
@@ -2527,7 +2548,7 @@
         <v>124</v>
       </c>
       <c r="K13">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S13" t="s">
         <v>125</v>
@@ -2545,7 +2566,7 @@
         <v>130</v>
       </c>
       <c r="AE13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AH13" t="s">
         <v>139</v>
@@ -2572,13 +2593,13 @@
         <v>148</v>
       </c>
       <c r="AQ13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR13" t="s">
         <v>151</v>
       </c>
-      <c r="AR13" t="s">
-        <v>152</v>
-      </c>
       <c r="AS13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT13" t="s">
         <v>146</v>
@@ -2592,7 +2613,7 @@
         <v>74</v>
       </c>
       <c r="F14">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>105</v>
@@ -2601,7 +2622,7 @@
         <v>124</v>
       </c>
       <c r="K14">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S14" t="s">
         <v>125</v>
@@ -2619,7 +2640,7 @@
         <v>130</v>
       </c>
       <c r="AE14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AH14" t="s">
         <v>139</v>
@@ -2646,13 +2667,13 @@
         <v>148</v>
       </c>
       <c r="AQ14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR14" t="s">
         <v>151</v>
       </c>
-      <c r="AR14" t="s">
-        <v>152</v>
-      </c>
       <c r="AS14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT14" t="s">
         <v>146</v>
@@ -2675,7 +2696,7 @@
         <v>124</v>
       </c>
       <c r="K15">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S15" t="s">
         <v>125</v>
@@ -2693,7 +2714,7 @@
         <v>130</v>
       </c>
       <c r="AE15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AH15" t="s">
         <v>139</v>
@@ -2720,13 +2741,13 @@
         <v>148</v>
       </c>
       <c r="AQ15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR15" t="s">
         <v>151</v>
       </c>
-      <c r="AR15" t="s">
-        <v>152</v>
-      </c>
       <c r="AS15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT15" t="s">
         <v>146</v>
@@ -2734,13 +2755,13 @@
     </row>
     <row r="16" spans="1:46">
       <c r="D16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>76</v>
       </c>
       <c r="F16">
-        <v>25000</v>
+        <v>4999</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>107</v>
@@ -2749,7 +2770,7 @@
         <v>124</v>
       </c>
       <c r="K16">
-        <v>211</v>
+        <v>2136</v>
       </c>
       <c r="S16" t="s">
         <v>125</v>
@@ -2758,7 +2779,7 @@
         <v>126</v>
       </c>
       <c r="AB16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC16" t="s">
         <v>129</v>
@@ -2767,16 +2788,16 @@
         <v>130</v>
       </c>
       <c r="AE16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH16" t="s">
         <v>139</v>
       </c>
       <c r="AI16" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AJ16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s">
         <v>146</v>
@@ -2788,19 +2809,16 @@
         <v>75</v>
       </c>
       <c r="AN16">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AQ16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS16" t="s">
         <v>152</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>154</v>
       </c>
       <c r="AT16" t="s">
         <v>146</v>
@@ -2814,7 +2832,7 @@
         <v>77</v>
       </c>
       <c r="F17">
-        <v>4999</v>
+        <v>11999</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>108</v>
@@ -2823,7 +2841,7 @@
         <v>124</v>
       </c>
       <c r="K17">
-        <v>2136</v>
+        <v>224</v>
       </c>
       <c r="S17" t="s">
         <v>125</v>
@@ -2832,7 +2850,7 @@
         <v>126</v>
       </c>
       <c r="AB17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC17" t="s">
         <v>129</v>
@@ -2841,13 +2859,13 @@
         <v>130</v>
       </c>
       <c r="AE17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH17" t="s">
         <v>139</v>
       </c>
       <c r="AI17" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AJ17" t="s">
         <v>142</v>
@@ -2856,22 +2874,22 @@
         <v>146</v>
       </c>
       <c r="AL17">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM17">
         <v>75</v>
       </c>
       <c r="AN17">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AS17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AT17" t="s">
         <v>146</v>
@@ -2885,7 +2903,7 @@
         <v>78</v>
       </c>
       <c r="F18">
-        <v>11999</v>
+        <v>9999</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>109</v>
@@ -2894,7 +2912,7 @@
         <v>124</v>
       </c>
       <c r="K18">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S18" t="s">
         <v>125</v>
@@ -2912,13 +2930,13 @@
         <v>130</v>
       </c>
       <c r="AE18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AH18" t="s">
         <v>139</v>
       </c>
       <c r="AI18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ18" t="s">
         <v>142</v>
@@ -2930,16 +2948,16 @@
         <v>120</v>
       </c>
       <c r="AM18">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN18">
         <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AQ18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS18" t="s">
         <v>155</v>
@@ -2950,13 +2968,13 @@
     </row>
     <row r="19" spans="4:46">
       <c r="D19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
         <v>79</v>
       </c>
       <c r="F19">
-        <v>9999</v>
+        <v>120000</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>110</v>
@@ -2965,7 +2983,7 @@
         <v>124</v>
       </c>
       <c r="K19">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S19" t="s">
         <v>125</v>
@@ -2983,37 +3001,40 @@
         <v>130</v>
       </c>
       <c r="AE19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AH19" t="s">
         <v>139</v>
       </c>
       <c r="AI19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AJ19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK19" t="s">
         <v>146</v>
       </c>
       <c r="AL19">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AM19">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN19">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AP19" t="s">
         <v>149</v>
       </c>
       <c r="AQ19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR19" t="s">
         <v>151</v>
       </c>
       <c r="AS19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AT19" t="s">
         <v>146</v>
@@ -3021,13 +3042,13 @@
     </row>
     <row r="20" spans="4:46">
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>80</v>
       </c>
       <c r="F20">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>111</v>
@@ -3036,7 +3057,7 @@
         <v>124</v>
       </c>
       <c r="K20">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S20" t="s">
         <v>125</v>
@@ -3054,40 +3075,40 @@
         <v>130</v>
       </c>
       <c r="AE20" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AH20" t="s">
         <v>139</v>
       </c>
       <c r="AI20" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AJ20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AK20" t="s">
         <v>146</v>
       </c>
       <c r="AL20">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AM20">
         <v>75</v>
       </c>
       <c r="AN20">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="AP20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ20" t="s">
         <v>148</v>
       </c>
       <c r="AR20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT20" t="s">
         <v>146</v>
@@ -3101,7 +3122,7 @@
         <v>81</v>
       </c>
       <c r="F21">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>112</v>
@@ -3110,7 +3131,7 @@
         <v>124</v>
       </c>
       <c r="K21">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S21" t="s">
         <v>125</v>
@@ -3128,7 +3149,7 @@
         <v>130</v>
       </c>
       <c r="AE21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AH21" t="s">
         <v>139</v>
@@ -3143,7 +3164,7 @@
         <v>146</v>
       </c>
       <c r="AL21">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM21">
         <v>75</v>
@@ -3158,10 +3179,10 @@
         <v>148</v>
       </c>
       <c r="AR21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT21" t="s">
         <v>146</v>
@@ -3169,13 +3190,13 @@
     </row>
     <row r="22" spans="4:46">
       <c r="D22" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>82</v>
       </c>
       <c r="F22">
-        <v>35000</v>
+        <v>14999</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>113</v>
@@ -3184,7 +3205,7 @@
         <v>124</v>
       </c>
       <c r="K22">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S22" t="s">
         <v>125</v>
@@ -3202,7 +3223,7 @@
         <v>130</v>
       </c>
       <c r="AE22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH22" t="s">
         <v>139</v>
@@ -3217,13 +3238,13 @@
         <v>146</v>
       </c>
       <c r="AL22">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AM22">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN22">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AP22" t="s">
         <v>148</v>
@@ -3231,11 +3252,8 @@
       <c r="AQ22" t="s">
         <v>148</v>
       </c>
-      <c r="AR22" t="s">
-        <v>152</v>
-      </c>
       <c r="AS22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT22" t="s">
         <v>146</v>
@@ -3243,13 +3261,13 @@
     </row>
     <row r="23" spans="4:46">
       <c r="D23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
       <c r="F23">
-        <v>14999</v>
+        <v>15000</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>114</v>
@@ -3258,7 +3276,7 @@
         <v>124</v>
       </c>
       <c r="K23">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S23" t="s">
         <v>125</v>
@@ -3276,7 +3294,7 @@
         <v>130</v>
       </c>
       <c r="AE23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH23" t="s">
         <v>139</v>
@@ -3294,7 +3312,7 @@
         <v>90</v>
       </c>
       <c r="AM23">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN23">
         <v>180</v>
@@ -3306,7 +3324,7 @@
         <v>148</v>
       </c>
       <c r="AS23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT23" t="s">
         <v>146</v>
@@ -3314,13 +3332,13 @@
     </row>
     <row r="24" spans="4:46">
       <c r="D24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
         <v>84</v>
       </c>
       <c r="F24">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>115</v>
@@ -3329,7 +3347,7 @@
         <v>124</v>
       </c>
       <c r="K24">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S24" t="s">
         <v>125</v>
@@ -3347,7 +3365,7 @@
         <v>130</v>
       </c>
       <c r="AE24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH24" t="s">
         <v>139</v>
@@ -3362,22 +3380,22 @@
         <v>146</v>
       </c>
       <c r="AL24">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM24">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="AN24">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AQ24" t="s">
         <v>148</v>
       </c>
       <c r="AS24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AT24" t="s">
         <v>146</v>
@@ -3385,13 +3403,13 @@
     </row>
     <row r="25" spans="4:46">
       <c r="D25" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
         <v>85</v>
       </c>
       <c r="F25">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>116</v>
@@ -3400,7 +3418,7 @@
         <v>124</v>
       </c>
       <c r="K25">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S25" t="s">
         <v>125</v>
@@ -3418,7 +3436,7 @@
         <v>130</v>
       </c>
       <c r="AE25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH25" t="s">
         <v>139</v>
@@ -3436,19 +3454,19 @@
         <v>80</v>
       </c>
       <c r="AM25">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AN25">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AT25" t="s">
         <v>146</v>
@@ -3456,13 +3474,13 @@
     </row>
     <row r="26" spans="4:46">
       <c r="D26" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>86</v>
       </c>
       <c r="F26">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>117</v>
@@ -3471,7 +3489,7 @@
         <v>124</v>
       </c>
       <c r="K26">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S26" t="s">
         <v>125</v>
@@ -3489,7 +3507,7 @@
         <v>130</v>
       </c>
       <c r="AE26" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AH26" t="s">
         <v>139</v>
@@ -3504,22 +3522,25 @@
         <v>146</v>
       </c>
       <c r="AL26">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM26">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AN26">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AP26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>148</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>151</v>
       </c>
       <c r="AS26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AT26" t="s">
         <v>146</v>
@@ -3527,13 +3548,13 @@
     </row>
     <row r="27" spans="4:46">
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>87</v>
       </c>
       <c r="F27">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>118</v>
@@ -3542,7 +3563,7 @@
         <v>124</v>
       </c>
       <c r="K27">
-        <v>212</v>
+        <v>2436</v>
       </c>
       <c r="S27" t="s">
         <v>125</v>
@@ -3560,7 +3581,7 @@
         <v>130</v>
       </c>
       <c r="AE27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AH27" t="s">
         <v>139</v>
@@ -3569,31 +3590,31 @@
         <v>141</v>
       </c>
       <c r="AJ27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK27" t="s">
         <v>146</v>
       </c>
       <c r="AL27">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AM27">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN27">
         <v>160</v>
       </c>
       <c r="AP27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT27" t="s">
         <v>146</v>
@@ -3601,13 +3622,13 @@
     </row>
     <row r="28" spans="4:46">
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
         <v>88</v>
       </c>
       <c r="F28">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>119</v>
@@ -3616,7 +3637,7 @@
         <v>124</v>
       </c>
       <c r="K28">
-        <v>2436</v>
+        <v>228</v>
       </c>
       <c r="S28" t="s">
         <v>125</v>
@@ -3634,7 +3655,7 @@
         <v>130</v>
       </c>
       <c r="AE28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH28" t="s">
         <v>139</v>
@@ -3643,31 +3664,28 @@
         <v>141</v>
       </c>
       <c r="AJ28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK28" t="s">
         <v>146</v>
       </c>
       <c r="AL28">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AM28">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AN28">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AP28" t="s">
         <v>148</v>
       </c>
       <c r="AQ28" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AS28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT28" t="s">
         <v>146</v>
@@ -3675,13 +3693,13 @@
     </row>
     <row r="29" spans="4:46">
       <c r="D29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>89</v>
       </c>
       <c r="F29">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>120</v>
@@ -3690,7 +3708,7 @@
         <v>124</v>
       </c>
       <c r="K29">
-        <v>228</v>
+        <v>2451</v>
       </c>
       <c r="S29" t="s">
         <v>125</v>
@@ -3708,7 +3726,7 @@
         <v>130</v>
       </c>
       <c r="AE29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH29" t="s">
         <v>139</v>
@@ -3723,13 +3741,13 @@
         <v>146</v>
       </c>
       <c r="AL29">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AM29">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AN29">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AP29" t="s">
         <v>148</v>
@@ -3737,8 +3755,11 @@
       <c r="AQ29" t="s">
         <v>148</v>
       </c>
+      <c r="AR29" t="s">
+        <v>151</v>
+      </c>
       <c r="AS29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT29" t="s">
         <v>146</v>
@@ -3746,7 +3767,7 @@
     </row>
     <row r="30" spans="4:46">
       <c r="D30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
@@ -3761,7 +3782,7 @@
         <v>124</v>
       </c>
       <c r="K30">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="S30" t="s">
         <v>125</v>
@@ -3779,7 +3800,7 @@
         <v>130</v>
       </c>
       <c r="AE30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH30" t="s">
         <v>139</v>
@@ -3809,10 +3830,10 @@
         <v>148</v>
       </c>
       <c r="AR30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT30" t="s">
         <v>146</v>
@@ -3820,13 +3841,13 @@
     </row>
     <row r="31" spans="4:46">
       <c r="D31" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
       </c>
       <c r="F31">
-        <v>18000</v>
+        <v>99999</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>122</v>
@@ -3835,7 +3856,7 @@
         <v>124</v>
       </c>
       <c r="K31">
-        <v>2450</v>
+        <v>229</v>
       </c>
       <c r="S31" t="s">
         <v>125</v>
@@ -3853,7 +3874,7 @@
         <v>130</v>
       </c>
       <c r="AE31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AH31" t="s">
         <v>139</v>
@@ -3862,31 +3883,28 @@
         <v>141</v>
       </c>
       <c r="AJ31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK31" t="s">
         <v>146</v>
       </c>
       <c r="AL31">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AM31">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN31">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="AP31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ31" t="s">
         <v>148</v>
       </c>
-      <c r="AR31" t="s">
-        <v>152</v>
-      </c>
       <c r="AS31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT31" t="s">
         <v>146</v>
@@ -3894,13 +3912,13 @@
     </row>
     <row r="32" spans="4:46">
       <c r="D32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
         <v>92</v>
       </c>
       <c r="F32">
-        <v>99999</v>
+        <v>50000</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>123</v>
@@ -3909,7 +3927,7 @@
         <v>124</v>
       </c>
       <c r="K32">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S32" t="s">
         <v>125</v>
@@ -3927,7 +3945,7 @@
         <v>130</v>
       </c>
       <c r="AE32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AH32" t="s">
         <v>139</v>
@@ -3936,28 +3954,31 @@
         <v>141</v>
       </c>
       <c r="AJ32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AK32" t="s">
         <v>146</v>
       </c>
       <c r="AL32">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="AM32">
         <v>75</v>
       </c>
       <c r="AN32">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="AP32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AQ32" t="s">
         <v>148</v>
       </c>
+      <c r="AR32" t="s">
+        <v>151</v>
+      </c>
       <c r="AS32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT32" t="s">
         <v>146</v>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="158">
   <si>
     <t>Address</t>
   </si>
@@ -1023,6 +1023,30 @@
     </t>
   </si>
   <si>
+    <t>Стол руководителя
+Артикул 233
+Офисный стол для директоров бу. Стол с большой рабочей поверхностью и удобной эргономикой. 
+На столе есть дефекты. 
+Размеры ДхШхВ: 215х180х75
+Цвет 
+Цена 29 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
   </si>
   <si>
@@ -1114,6 +1138,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/igtYdrUIfTi4CA | https://disk.yandex.ru/i/erEoEDSrsBd4xA | https://disk.yandex.ru/i/51LgM2QvBZFBJQ | https://disk.yandex.ru/i/1G4bOaea1cVj9A | https://disk.yandex.ru/i/4tPVYq5S_JFI2Q | https://disk.yandex.ru/i/boM08MpjPDqBZg | https://disk.yandex.ru/i/GT13NVSyJe5jPw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/-ONo1C8F5MRC5Q | https://disk.yandex.ru/i/GXLcjVxqcBOimw | https://disk.yandex.ru/i/5URrfIWCeIH7lQ | https://disk.yandex.ru/i/BmVfLq-ulZqDAQ | https://disk.yandex.ru/i/0pdVOuWmNpK8Kw | https://disk.yandex.ru/i/aS1g-0vhz5-Vlg | https://disk.yandex.ru/i/zHMLHl3UCNOMiw | https://disk.yandex.ru/i/8pSQrResjinI8g</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1580,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT32"/>
+  <dimension ref="A1:AT33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1737,43 +1764,43 @@
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AJ2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1785,16 +1812,16 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AQ2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AS2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AT2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1808,43 +1835,43 @@
         <v>19999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K3">
         <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AH3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1856,19 +1883,19 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1882,43 +1909,43 @@
         <v>24999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4">
         <v>168</v>
       </c>
       <c r="S4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AH4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -1930,19 +1957,19 @@
         <v>170</v>
       </c>
       <c r="AP4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AQ4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AR4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1956,43 +1983,43 @@
         <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K5">
         <v>186</v>
       </c>
       <c r="S5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AJ5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL5">
         <v>170</v>
@@ -2004,16 +2031,16 @@
         <v>360</v>
       </c>
       <c r="AP5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AQ5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AS5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AT5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -2027,43 +2054,43 @@
         <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K6">
         <v>188</v>
       </c>
       <c r="S6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI6" t="s">
         <v>134</v>
       </c>
-      <c r="AH6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -2075,16 +2102,16 @@
         <v>180</v>
       </c>
       <c r="AP6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AT6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -2098,46 +2125,46 @@
         <v>19999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K7">
         <v>192</v>
       </c>
       <c r="S7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI7" t="s">
         <v>134</v>
       </c>
-      <c r="AF7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -2149,16 +2176,16 @@
         <v>200</v>
       </c>
       <c r="AP7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AS7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -2172,43 +2199,43 @@
         <v>90000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K8">
         <v>196</v>
       </c>
       <c r="S8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AH8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -2220,19 +2247,19 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AR8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -2246,43 +2273,43 @@
         <v>40000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K9">
         <v>197</v>
       </c>
       <c r="S9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AK9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL9">
         <v>120</v>
@@ -2294,19 +2321,19 @@
         <v>160</v>
       </c>
       <c r="AP9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AR9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -2320,43 +2347,43 @@
         <v>20000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10">
         <v>205</v>
       </c>
       <c r="S10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL10">
         <v>120</v>
@@ -2368,19 +2395,19 @@
         <v>200</v>
       </c>
       <c r="AP10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AT10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2394,43 +2421,43 @@
         <v>19999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K11">
         <v>207</v>
       </c>
       <c r="S11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL11">
         <v>94</v>
@@ -2442,19 +2469,19 @@
         <v>197</v>
       </c>
       <c r="AP11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AQ11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2468,43 +2495,43 @@
         <v>25000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K12">
         <v>208</v>
       </c>
       <c r="S12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2516,19 +2543,19 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AR12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2542,43 +2569,43 @@
         <v>21000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K13">
         <v>209</v>
       </c>
       <c r="S13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2590,19 +2617,19 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AR13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2616,43 +2643,43 @@
         <v>25000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K14">
         <v>210</v>
       </c>
       <c r="S14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2664,19 +2691,19 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AR14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2690,43 +2717,43 @@
         <v>25000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K15">
         <v>211</v>
       </c>
       <c r="S15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2738,19 +2765,19 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AR15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2764,43 +2791,43 @@
         <v>4999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K16">
         <v>2136</v>
       </c>
       <c r="S16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI16" t="s">
         <v>134</v>
       </c>
-      <c r="AH16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2812,16 +2839,16 @@
         <v>80</v>
       </c>
       <c r="AP16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AQ16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AS16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AT16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="4:46">
@@ -2835,43 +2862,43 @@
         <v>11999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K17">
         <v>224</v>
       </c>
       <c r="S17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL17">
         <v>120</v>
@@ -2883,16 +2910,16 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AS17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AT17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2906,43 +2933,43 @@
         <v>9999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K18">
         <v>223</v>
       </c>
       <c r="S18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AH18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AJ18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL18">
         <v>120</v>
@@ -2954,16 +2981,16 @@
         <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AQ18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AS18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AT18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="4:46">
@@ -2977,43 +3004,43 @@
         <v>120000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K19">
         <v>222</v>
       </c>
       <c r="S19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AK19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL19">
         <v>200</v>
@@ -3025,19 +3052,19 @@
         <v>300</v>
       </c>
       <c r="AP19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AQ19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="4:46">
@@ -3051,43 +3078,43 @@
         <v>40000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20">
         <v>220</v>
       </c>
       <c r="S20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AH20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL20">
         <v>80</v>
@@ -3099,19 +3126,19 @@
         <v>140</v>
       </c>
       <c r="AP20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="4:46">
@@ -3125,43 +3152,43 @@
         <v>35000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K21">
         <v>219</v>
       </c>
       <c r="S21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL21">
         <v>70</v>
@@ -3173,19 +3200,19 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="4:46">
@@ -3199,43 +3226,43 @@
         <v>14999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22">
         <v>218</v>
       </c>
       <c r="S22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL22">
         <v>90</v>
@@ -3247,16 +3274,16 @@
         <v>180</v>
       </c>
       <c r="AP22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="4:46">
@@ -3270,43 +3297,43 @@
         <v>15000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K23">
         <v>215</v>
       </c>
       <c r="S23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AH23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL23">
         <v>90</v>
@@ -3318,16 +3345,16 @@
         <v>180</v>
       </c>
       <c r="AP23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="4:46">
@@ -3341,43 +3368,43 @@
         <v>12000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K24">
         <v>216</v>
       </c>
       <c r="S24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AH24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL24">
         <v>80</v>
@@ -3389,16 +3416,16 @@
         <v>200</v>
       </c>
       <c r="AP24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AQ24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AT24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="4:46">
@@ -3412,43 +3439,43 @@
         <v>15000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K25">
         <v>213</v>
       </c>
       <c r="S25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AH25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL25">
         <v>80</v>
@@ -3460,16 +3487,16 @@
         <v>180</v>
       </c>
       <c r="AP25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AS25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AT25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="4:46">
@@ -3483,43 +3510,43 @@
         <v>25000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K26">
         <v>212</v>
       </c>
       <c r="S26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL26">
         <v>85</v>
@@ -3531,19 +3558,19 @@
         <v>160</v>
       </c>
       <c r="AP26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AQ26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="4:46">
@@ -3557,43 +3584,43 @@
         <v>18000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K27">
         <v>2436</v>
       </c>
       <c r="S27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AK27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL27">
         <v>100</v>
@@ -3605,19 +3632,19 @@
         <v>160</v>
       </c>
       <c r="AP27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AR27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="4:46">
@@ -3631,43 +3658,43 @@
         <v>10000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K28">
         <v>228</v>
       </c>
       <c r="S28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL28">
         <v>120</v>
@@ -3679,16 +3706,16 @@
         <v>150</v>
       </c>
       <c r="AP28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="4:46">
@@ -3702,43 +3729,43 @@
         <v>18000</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K29">
         <v>2451</v>
       </c>
       <c r="S29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL29">
         <v>85</v>
@@ -3750,19 +3777,19 @@
         <v>140</v>
       </c>
       <c r="AP29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="4:46">
@@ -3776,43 +3803,43 @@
         <v>18000</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K30">
         <v>2450</v>
       </c>
       <c r="S30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL30">
         <v>85</v>
@@ -3824,19 +3851,19 @@
         <v>140</v>
       </c>
       <c r="AP30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AS30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="4:46">
@@ -3850,43 +3877,43 @@
         <v>99999</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K31">
         <v>229</v>
       </c>
       <c r="S31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AK31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL31">
         <v>200</v>
@@ -3898,16 +3925,16 @@
         <v>400</v>
       </c>
       <c r="AP31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AQ31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AT31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="4:46">
@@ -3921,43 +3948,43 @@
         <v>50000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K32">
         <v>231</v>
       </c>
       <c r="S32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AH32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL32">
         <v>86</v>
@@ -3969,19 +3996,93 @@
         <v>180</v>
       </c>
       <c r="AP32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AR32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="4:46">
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33">
+        <v>29999</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33">
+        <v>233</v>
+      </c>
+      <c r="S33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL33">
+        <v>180</v>
+      </c>
+      <c r="AM33">
+        <v>75</v>
+      </c>
+      <c r="AN33">
+        <v>215</v>
+      </c>
+      <c r="AP33" t="s">
         <v>151</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AQ33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR33" t="s">
         <v>153</v>
       </c>
-      <c r="AT32" t="s">
-        <v>146</v>
+      <c r="AS33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4048,6 +4149,8 @@
     <hyperlink ref="I31" r:id="rId60"/>
     <hyperlink ref="G32" r:id="rId61"/>
     <hyperlink ref="I32" r:id="rId62"/>
+    <hyperlink ref="G33" r:id="rId63"/>
+    <hyperlink ref="I33" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -212,7 +212,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -237,7 +236,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -262,7 +260,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -286,7 +283,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -309,7 +305,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -571,7 +566,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -328,7 +328,6 @@
                  ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
                  ➕ При поиске нас в навигаторе наберите – 
                  Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
                  🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
                  -------------------------------------------------------------------
                  Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -358,7 +357,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -384,7 +382,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -410,7 +407,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -439,7 +435,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -466,7 +461,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -491,7 +485,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -519,7 +512,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -546,7 +538,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="164">
   <si>
     <t>Address</t>
   </si>
@@ -1032,6 +1032,93 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Кабинет руководителя
+Артикул 236
+Офисная мебель для руководителя. Большой стол со встроенной розеткой создаст максимальный комфорт при работе.
+Большие шкафы для документов и гардеробный шкаф помогут упорядочить и ваши вещи.
+На столе есть небольшие дефекты!
+Стол можно использовать в качестве директорского и переговорного!
+Размеры ДхШхВ: Стол - 200х90х75
+Шкафы для документов - 90х45х235
+Гардероб - 90х45х197
+Тумба под оргтехнику - 120х50х68
+Цвет: орех
+Цена 59 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабинет руководителя
+Артикул 235
+Размер ДхШхВ: Стол - 180х85х74
+Брифинг - 140х60х80
+Тумба под оргтехнику - 80х42х70
+Шкафы - 80х45х1х214
+Цвет яблоня
+Цена 49 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кабинет руководителя
+Артикул 234
+Размер ДхШхВ: Стол - 180х85х74
+Брифинг - 124х90х68
+Тумба под оргтехнику - 120х53х64
+Шкафы - 80х45х1х201
+Цвет яблоня
+Цена 54 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
   </si>
   <si>
@@ -1126,6 +1213,15 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/-ONo1C8F5MRC5Q | https://disk.yandex.ru/i/GXLcjVxqcBOimw | https://disk.yandex.ru/i/5URrfIWCeIH7lQ | https://disk.yandex.ru/i/BmVfLq-ulZqDAQ | https://disk.yandex.ru/i/0pdVOuWmNpK8Kw | https://disk.yandex.ru/i/aS1g-0vhz5-Vlg | https://disk.yandex.ru/i/zHMLHl3UCNOMiw | https://disk.yandex.ru/i/8pSQrResjinI8g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/8OrptxDP1SCAXg | https://disk.yandex.ru/i/KTe__eLylPbk0A | https://disk.yandex.ru/i/3x8Uc0kG9PySMA | https://disk.yandex.ru/i/Vd4HaiHH14z3MQ | https://disk.yandex.ru/i/NgRVifjrxyjZhA | https://disk.yandex.ru/i/FjuIidaF8q4msg | https://disk.yandex.ru/i/R2SomtDhXsvnmw | https://disk.yandex.ru/i/_SY6e9I-v7dL0A | https://disk.yandex.ru/i/_BFBWUs5KmJqdg | https://disk.yandex.ru/i/OO5sOTXo5sK_Ew</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/SJMyAUFWYo4Gdw | https://disk.yandex.ru/i/fiZoVXXPxO-s7w | https://disk.yandex.ru/i/_w2wkjrLCWs3Nw | https://disk.yandex.ru/i/MWg8IRtUZv6wBg | https://disk.yandex.ru/i/i1jwFHjOCn3ncg | https://disk.yandex.ru/i/XJO9jsoy-VJRbA | https://disk.yandex.ru/i/2rW0glZUCPSQFQ | https://disk.yandex.ru/i/VyYOiIl-bu7FUQ | https://disk.yandex.ru/i/aa6CdOhuNP_26A | https://disk.yandex.ru/i/s1_KkVRCXsA30w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yktOHmwyEAFzNg | https://disk.yandex.ru/i/fSBDveTvl31b_Q | https://disk.yandex.ru/i/0kW7mCGbkj2Ctw | https://disk.yandex.ru/i/0oEy6S28Mujuqw | https://disk.yandex.ru/i/u18xLxEv-MK2GA | https://disk.yandex.ru/i/cVIZ-a7gTXRlKg | https://disk.yandex.ru/i/_adWeda-XGaRfg | https://disk.yandex.ru/i/AuqYvJaGhzaEpg | https://disk.yandex.ru/i/XRjfqBCgAzguCQ | https://disk.yandex.ru/i/DG3sK0paA0Thlg</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1592,7 +1688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT33"/>
+  <dimension ref="A1:AT36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1749,43 +1845,43 @@
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AJ2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AK2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1797,16 +1893,16 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AS2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AT2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1820,43 +1916,43 @@
         <v>19999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K3">
         <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AH3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1868,19 +1964,19 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1894,43 +1990,43 @@
         <v>24999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K4">
         <v>168</v>
       </c>
       <c r="S4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AH4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -1942,19 +2038,19 @@
         <v>170</v>
       </c>
       <c r="AP4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AQ4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AR4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1968,43 +2064,43 @@
         <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K5">
         <v>186</v>
       </c>
       <c r="S5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AJ5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AK5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL5">
         <v>170</v>
@@ -2016,16 +2112,16 @@
         <v>360</v>
       </c>
       <c r="AP5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AQ5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AT5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -2039,43 +2135,43 @@
         <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K6">
         <v>188</v>
       </c>
       <c r="S6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -2087,16 +2183,16 @@
         <v>180</v>
       </c>
       <c r="AP6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AS6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AT6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -2110,46 +2206,46 @@
         <v>19999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K7">
         <v>192</v>
       </c>
       <c r="S7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AF7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AJ7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -2161,16 +2257,16 @@
         <v>200</v>
       </c>
       <c r="AP7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AS7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -2184,43 +2280,43 @@
         <v>90000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K8">
         <v>196</v>
       </c>
       <c r="S8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -2232,19 +2328,19 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -2258,43 +2354,43 @@
         <v>40000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K9">
         <v>197</v>
       </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AK9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL9">
         <v>120</v>
@@ -2306,19 +2402,19 @@
         <v>160</v>
       </c>
       <c r="AP9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -2332,43 +2428,43 @@
         <v>20000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K10">
         <v>205</v>
       </c>
       <c r="S10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI10" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ10" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL10">
         <v>120</v>
@@ -2380,19 +2476,19 @@
         <v>200</v>
       </c>
       <c r="AP10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AT10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2406,43 +2502,43 @@
         <v>19999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K11">
         <v>207</v>
       </c>
       <c r="S11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD11" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AH11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL11">
         <v>94</v>
@@ -2454,19 +2550,19 @@
         <v>197</v>
       </c>
       <c r="AP11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AQ11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2480,43 +2576,43 @@
         <v>25000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K12">
         <v>208</v>
       </c>
       <c r="S12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD12" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2528,19 +2624,19 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ12" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS12" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2554,43 +2650,43 @@
         <v>21000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K13">
         <v>209</v>
       </c>
       <c r="S13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD13" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE13" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ13" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2602,19 +2698,19 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS13" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2628,43 +2724,43 @@
         <v>25000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K14">
         <v>210</v>
       </c>
       <c r="S14" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB14" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC14" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD14" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI14" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK14" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2676,19 +2772,19 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT14" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2702,43 +2798,43 @@
         <v>25000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K15">
         <v>211</v>
       </c>
       <c r="S15" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD15" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE15" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH15" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ15" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2750,19 +2846,19 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ15" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR15" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS15" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2776,43 +2872,43 @@
         <v>4999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K16">
         <v>2136</v>
       </c>
       <c r="S16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB16" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD16" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE16" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AJ16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2824,16 +2920,16 @@
         <v>80</v>
       </c>
       <c r="AP16" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AQ16" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS16" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AT16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="4:46">
@@ -2847,43 +2943,43 @@
         <v>11999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K17">
         <v>224</v>
       </c>
       <c r="S17" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA17" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB17" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC17" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD17" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE17" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ17" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL17">
         <v>120</v>
@@ -2895,16 +2991,16 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ17" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AS17" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AT17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2918,43 +3014,43 @@
         <v>9999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K18">
         <v>223</v>
       </c>
       <c r="S18" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA18" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB18" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD18" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AH18" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI18" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AJ18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AK18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL18">
         <v>120</v>
@@ -2966,16 +3062,16 @@
         <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AQ18" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AS18" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AT18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="4:46">
@@ -2989,43 +3085,43 @@
         <v>120000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K19">
         <v>222</v>
       </c>
       <c r="S19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA19" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB19" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC19" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD19" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH19" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI19" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AJ19" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AK19" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL19">
         <v>200</v>
@@ -3037,19 +3133,19 @@
         <v>300</v>
       </c>
       <c r="AP19" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AQ19" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS19" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT19" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="4:46">
@@ -3063,43 +3159,43 @@
         <v>40000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K20">
         <v>220</v>
       </c>
       <c r="S20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA20" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC20" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD20" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE20" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AH20" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL20">
         <v>80</v>
@@ -3111,19 +3207,19 @@
         <v>140</v>
       </c>
       <c r="AP20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR20" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="4:46">
@@ -3137,43 +3233,43 @@
         <v>35000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K21">
         <v>219</v>
       </c>
       <c r="S21" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA21" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB21" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD21" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE21" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH21" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI21" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ21" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK21" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL21">
         <v>70</v>
@@ -3185,19 +3281,19 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR21" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS21" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT21" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="4:46">
@@ -3211,43 +3307,43 @@
         <v>14999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K22">
         <v>218</v>
       </c>
       <c r="S22" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA22" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB22" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC22" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE22" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH22" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI22" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ22" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL22">
         <v>90</v>
@@ -3259,16 +3355,16 @@
         <v>180</v>
       </c>
       <c r="AP22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AS22" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="4:46">
@@ -3282,43 +3378,43 @@
         <v>15000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K23">
         <v>215</v>
       </c>
       <c r="S23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA23" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB23" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC23" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD23" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE23" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI23" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ23" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL23">
         <v>90</v>
@@ -3330,16 +3426,16 @@
         <v>180</v>
       </c>
       <c r="AP23" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ23" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AS23" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="4:46">
@@ -3353,43 +3449,43 @@
         <v>12000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K24">
         <v>216</v>
       </c>
       <c r="S24" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA24" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC24" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD24" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE24" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH24" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI24" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ24" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL24">
         <v>80</v>
@@ -3401,16 +3497,16 @@
         <v>200</v>
       </c>
       <c r="AP24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AQ24" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AS24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AT24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="4:46">
@@ -3424,43 +3520,43 @@
         <v>15000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K25">
         <v>213</v>
       </c>
       <c r="S25" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA25" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB25" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD25" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH25" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI25" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ25" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK25" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL25">
         <v>80</v>
@@ -3472,16 +3568,16 @@
         <v>180</v>
       </c>
       <c r="AP25" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ25" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AS25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AT25" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="4:46">
@@ -3495,43 +3591,43 @@
         <v>25000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K26">
         <v>212</v>
       </c>
       <c r="S26" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA26" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB26" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC26" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD26" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE26" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH26" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI26" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ26" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK26" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL26">
         <v>85</v>
@@ -3543,19 +3639,19 @@
         <v>160</v>
       </c>
       <c r="AP26" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AQ26" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR26" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS26" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT26" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="4:46">
@@ -3569,43 +3665,43 @@
         <v>18000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K27">
         <v>2436</v>
       </c>
       <c r="S27" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD27" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE27" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH27" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI27" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ27" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AK27" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL27">
         <v>100</v>
@@ -3617,19 +3713,19 @@
         <v>160</v>
       </c>
       <c r="AP27" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ27" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AR27" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT27" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="4:46">
@@ -3643,43 +3739,43 @@
         <v>10000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K28">
         <v>228</v>
       </c>
       <c r="S28" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA28" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB28" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD28" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE28" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI28" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ28" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK28" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL28">
         <v>120</v>
@@ -3691,16 +3787,16 @@
         <v>150</v>
       </c>
       <c r="AP28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AS28" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT28" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="4:46">
@@ -3714,43 +3810,43 @@
         <v>18000</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K29">
         <v>2451</v>
       </c>
       <c r="S29" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC29" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD29" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE29" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH29" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI29" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ29" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK29" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL29">
         <v>85</v>
@@ -3762,19 +3858,19 @@
         <v>140</v>
       </c>
       <c r="AP29" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ29" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR29" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS29" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT29" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="4:46">
@@ -3788,43 +3884,43 @@
         <v>18000</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K30">
         <v>2450</v>
       </c>
       <c r="S30" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA30" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC30" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD30" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH30" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ30" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK30" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL30">
         <v>85</v>
@@ -3836,19 +3932,19 @@
         <v>140</v>
       </c>
       <c r="AP30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR30" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS30" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT30" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="4:46">
@@ -3862,43 +3958,43 @@
         <v>99999</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K31">
         <v>229</v>
       </c>
       <c r="S31" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA31" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB31" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC31" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD31" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE31" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH31" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI31" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ31" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AK31" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL31">
         <v>200</v>
@@ -3910,16 +4006,16 @@
         <v>400</v>
       </c>
       <c r="AP31" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AQ31" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AS31" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT31" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="4:46">
@@ -3933,43 +4029,43 @@
         <v>50000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K32">
         <v>231</v>
       </c>
       <c r="S32" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA32" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB32" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC32" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD32" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE32" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH32" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI32" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ32" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AK32" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL32">
         <v>86</v>
@@ -3981,19 +4077,19 @@
         <v>180</v>
       </c>
       <c r="AP32" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AQ32" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR32" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AS32" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AT32" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="4:46">
@@ -4007,43 +4103,43 @@
         <v>29999</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K33">
         <v>233</v>
       </c>
       <c r="S33" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA33" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC33" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AD33" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE33" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH33" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI33" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ33" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AK33" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AL33">
         <v>180</v>
@@ -4055,19 +4151,241 @@
         <v>215</v>
       </c>
       <c r="AP33" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="4:46">
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34">
+        <v>59999</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34">
+        <v>236</v>
+      </c>
+      <c r="S34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>151</v>
       </c>
-      <c r="AQ33" t="s">
+      <c r="AK34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL34">
+        <v>90</v>
+      </c>
+      <c r="AM34">
+        <v>75</v>
+      </c>
+      <c r="AN34">
+        <v>200</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="4:46">
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35">
+        <v>49999</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35">
+        <v>235</v>
+      </c>
+      <c r="S35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI35" t="s">
         <v>149</v>
       </c>
-      <c r="AR33" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>148</v>
+      <c r="AJ35" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL35">
+        <v>85</v>
+      </c>
+      <c r="AM35">
+        <v>74</v>
+      </c>
+      <c r="AN35">
+        <v>180</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="4:46">
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36">
+        <v>54999</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36">
+        <v>234</v>
+      </c>
+      <c r="S36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL36">
+        <v>85</v>
+      </c>
+      <c r="AM36">
+        <v>74</v>
+      </c>
+      <c r="AN36">
+        <v>180</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4136,6 +4454,12 @@
     <hyperlink ref="I32" r:id="rId62"/>
     <hyperlink ref="G33" r:id="rId63"/>
     <hyperlink ref="I33" r:id="rId64"/>
+    <hyperlink ref="G34" r:id="rId65"/>
+    <hyperlink ref="I34" r:id="rId66"/>
+    <hyperlink ref="G35" r:id="rId67"/>
+    <hyperlink ref="I35" r:id="rId68"/>
+    <hyperlink ref="G36" r:id="rId69"/>
+    <hyperlink ref="I36" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1008,30 +1008,6 @@
     </t>
   </si>
   <si>
-    <t>Стол руководителя
-Артикул 233
-Офисный стол для директоров бу. Стол с большой рабочей поверхностью и удобной эргономикой. 
-На столе есть дефекты. 
-Размеры ДхШхВ: 215х180х75
-Цвет 
-Цена 29 999
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кабинет руководителя
 Артикул 236
 Офисная мебель для руководителя. Большой стол со встроенной розеткой создаст максимальный комфорт при работе.
@@ -1119,6 +1095,37 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Кабинет руководителя
+Артикул 233
+Мебель офисная для директоров бу. Стол с большой рабочей поверхностью и удобной эргономикой. 
+На столе есть дефекты. 
+Шкаф гардероб так же может служить вам как шкаф для документов. 
+Размеры ДхШхВ: Стол - 215х180х75
+Шкафы для документов - 90х43х190
+Шкаф гардероб - 90х43х160
+Цвет 
+Цена 54 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
   </si>
   <si>
@@ -1212,9 +1219,6 @@
     <t>https://disk.yandex.ru/i/igtYdrUIfTi4CA | https://disk.yandex.ru/i/erEoEDSrsBd4xA | https://disk.yandex.ru/i/51LgM2QvBZFBJQ | https://disk.yandex.ru/i/1G4bOaea1cVj9A | https://disk.yandex.ru/i/4tPVYq5S_JFI2Q | https://disk.yandex.ru/i/boM08MpjPDqBZg | https://disk.yandex.ru/i/GT13NVSyJe5jPw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/-ONo1C8F5MRC5Q | https://disk.yandex.ru/i/GXLcjVxqcBOimw | https://disk.yandex.ru/i/5URrfIWCeIH7lQ | https://disk.yandex.ru/i/BmVfLq-ulZqDAQ | https://disk.yandex.ru/i/0pdVOuWmNpK8Kw | https://disk.yandex.ru/i/aS1g-0vhz5-Vlg | https://disk.yandex.ru/i/zHMLHl3UCNOMiw | https://disk.yandex.ru/i/8pSQrResjinI8g</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/8OrptxDP1SCAXg | https://disk.yandex.ru/i/KTe__eLylPbk0A | https://disk.yandex.ru/i/3x8Uc0kG9PySMA | https://disk.yandex.ru/i/Vd4HaiHH14z3MQ | https://disk.yandex.ru/i/NgRVifjrxyjZhA | https://disk.yandex.ru/i/FjuIidaF8q4msg | https://disk.yandex.ru/i/R2SomtDhXsvnmw | https://disk.yandex.ru/i/_SY6e9I-v7dL0A | https://disk.yandex.ru/i/_BFBWUs5KmJqdg | https://disk.yandex.ru/i/OO5sOTXo5sK_Ew</t>
   </si>
   <si>
@@ -1222,6 +1226,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/yktOHmwyEAFzNg | https://disk.yandex.ru/i/fSBDveTvl31b_Q | https://disk.yandex.ru/i/0kW7mCGbkj2Ctw | https://disk.yandex.ru/i/0oEy6S28Mujuqw | https://disk.yandex.ru/i/u18xLxEv-MK2GA | https://disk.yandex.ru/i/cVIZ-a7gTXRlKg | https://disk.yandex.ru/i/_adWeda-XGaRfg | https://disk.yandex.ru/i/AuqYvJaGhzaEpg | https://disk.yandex.ru/i/XRjfqBCgAzguCQ | https://disk.yandex.ru/i/DG3sK0paA0Thlg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/JQfyetGJQJ9HPQ | https://disk.yandex.ru/i/-ONo1C8F5MRC5Q | https://disk.yandex.ru/i/K2kXkEu5pidhOg | https://disk.yandex.ru/i/GXLcjVxqcBOimw | https://disk.yandex.ru/i/5URrfIWCeIH7lQ | https://disk.yandex.ru/i/BmVfLq-ulZqDAQ | https://disk.yandex.ru/i/0pdVOuWmNpK8Kw | https://disk.yandex.ru/i/aS1g-0vhz5-Vlg | https://disk.yandex.ru/i/zHMLHl3UCNOMiw | https://disk.yandex.ru/i/8pSQrResjinI8g | https://disk.yandex.ru/i/kHKys7rAbgc22g</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -4094,13 +4101,13 @@
     </row>
     <row r="33" spans="4:46">
       <c r="D33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
         <v>93</v>
       </c>
       <c r="F33">
-        <v>29999</v>
+        <v>59999</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>128</v>
@@ -4109,7 +4116,7 @@
         <v>132</v>
       </c>
       <c r="K33">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="S33" t="s">
         <v>133</v>
@@ -4136,25 +4143,25 @@
         <v>149</v>
       </c>
       <c r="AJ33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK33" t="s">
         <v>154</v>
       </c>
       <c r="AL33">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AM33">
         <v>75</v>
       </c>
       <c r="AN33">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AP33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AR33" t="s">
         <v>159</v>
@@ -4174,7 +4181,7 @@
         <v>94</v>
       </c>
       <c r="F34">
-        <v>59999</v>
+        <v>49999</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>129</v>
@@ -4183,7 +4190,7 @@
         <v>132</v>
       </c>
       <c r="K34">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S34" t="s">
         <v>133</v>
@@ -4216,13 +4223,13 @@
         <v>154</v>
       </c>
       <c r="AL34">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM34">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN34">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP34" t="s">
         <v>156</v>
@@ -4248,7 +4255,7 @@
         <v>95</v>
       </c>
       <c r="F35">
-        <v>49999</v>
+        <v>54999</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>130</v>
@@ -4257,7 +4264,7 @@
         <v>132</v>
       </c>
       <c r="K35">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S35" t="s">
         <v>133</v>
@@ -4331,7 +4338,7 @@
         <v>132</v>
       </c>
       <c r="K36">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S36" t="s">
         <v>133</v>
@@ -4358,25 +4365,25 @@
         <v>149</v>
       </c>
       <c r="AJ36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK36" t="s">
         <v>154</v>
       </c>
       <c r="AL36">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="AM36">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN36">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="AP36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AQ36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR36" t="s">
         <v>159</v>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="160">
   <si>
     <t>Address</t>
   </si>
@@ -374,31 +374,6 @@
 Цвет
 Цена 40 000
 Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол для переговоров
-Артикул 205
-Офисный стол для переговоров большого размера, классического, всеми любимого цвета венге, этот стол не только добавит изысканности в ваш офис, но и станет функциональным центром для деловых встреч. Стол может вместить до 8 человек
-На столе есть небольшие царапины 
-Этот офисный стол идеально подходит для организации эффективных переговоров. Выполненный из высококачественных материалов, он обеспечивает надежность и долговечность, что делает его прекрасным выбором для вашего бизнеса.
-Размеры ДхШхВ: 200х120х76
-Цвет: венге
-Цена: 20 000
-Количество: 1 шт
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
@@ -563,33 +538,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол круглый
-Артикул 224
-Описание
-Размеры ДхШхВ: 120х120х75
-Цвет: карельский орех
-Цена: 11 999
-Количество: 1 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
   </si>
   <si>
     <t>Стол круглый
@@ -1041,35 +989,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Кабинет руководителя
-Артикул 235
-Размер ДхШхВ: Стол - 180х85х74
-Брифинг - 140х60х80
-Тумба под оргтехнику - 80х42х70
-Шкафы - 80х45х1х214
-Цвет яблоня
-Цена 49 999
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Кабинет руководителя
 Артикул 234
 Размер ДхШхВ: Стол - 180х85х74
@@ -1126,6 +1045,34 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Стол для переговоров
+Артикул 238
+Офисный стол для переговоров большого размера, классического цвета орех, этот стол не только добавит изысканности в ваш офис, но и станет функциональным центром для деловых встреч. Стол может вместить до 8 человек
+Этот офисный стол идеально подходит для организации эффективных переговоров. Выполненный из высококачественных материалов, он обеспечивает надежность и долговечность, что делает его прекрасным выбором для вашего бизнеса.
+Размеры ДхШхВ: 200х120х76
+Цвет: орех
+Цена: 15 000
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
   </si>
   <si>
@@ -1150,9 +1097,6 @@
     <t>https://disk.yandex.ru/i/9Fa3SdublDpVqw | https://disk.yandex.ru/i/oopBCeXN0pOY7w | https://disk.yandex.ru/i/8IJqF__1fn0AdA | https://disk.yandex.ru/i/tpno5M0JXgBYGQ | https://disk.yandex.ru/i/frvmm-YLfFA2vQ | https://disk.yandex.ru/i/F5APb11MLbfjjg | https://disk.yandex.ru/i/LHcUCki4lOh6iA | https://disk.yandex.ru/i/VNeJPg_8ycy3og | https://disk.yandex.ru/i/MIp3PdPIo5giAA | https://disk.yandex.ru/i/BtEq6CItf1ngVg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/Cr3HM9bi813R2w | https://disk.yandex.ru/i/55RyI3HDMryjdQ | https://disk.yandex.ru/i/pknHia8uSr6VcQ | https://disk.yandex.ru/i/DylOghCc2uqBRw | https://disk.yandex.ru/i/4SR57qkS_TUcMg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/HWLDYbtUpq0qlQ | https://disk.yandex.ru/i/vInlxVuQE03X7A | https://disk.yandex.ru/i/a3TMO838uEudgw | https://disk.yandex.ru/i/sZw1tMAeO5oNrA | https://disk.yandex.ru/i/1gG7UrG_S6_JsA | https://disk.yandex.ru/i/JEiPTBSmCZLVRg | https://disk.yandex.ru/i/czjDGmZQoXe30Q | https://disk.yandex.ru/i/woUhjXEYoPywIw | https://disk.yandex.ru/i/JyPZu-nkNH1DSg | https://disk.yandex.ru/i/zDHPGHlKicWIrw</t>
   </si>
   <si>
@@ -1171,9 +1115,6 @@
     <t>https://disk.yandex.ru/i/d7VhfnI3Tzeyhw | https://disk.yandex.ru/i/3LhVw5XmxI4kEA | https://disk.yandex.ru/i/E8Oe5s46i5Iihw | https://disk.yandex.ru/i/85xR4DpK7PwOQA | https://disk.yandex.ru/i/XgBGVKbNp_5CSg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/UJg_tt48nQP0KA | https://disk.yandex.ru/i/a52b9VyAtbIu9g | https://disk.yandex.ru/i/AnI2BFpXsdtFJw | https://disk.yandex.ru/i/Q_kbCcX6oK3HlQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/oEdEkaqeyt7JXA | https://disk.yandex.ru/i/VeS7Hpd3fCSkZA | https://disk.yandex.ru/i/rdM9ZwVv6d-YuQ</t>
   </si>
   <si>
@@ -1222,13 +1163,13 @@
     <t>https://disk.yandex.ru/i/8OrptxDP1SCAXg | https://disk.yandex.ru/i/KTe__eLylPbk0A | https://disk.yandex.ru/i/3x8Uc0kG9PySMA | https://disk.yandex.ru/i/Vd4HaiHH14z3MQ | https://disk.yandex.ru/i/NgRVifjrxyjZhA | https://disk.yandex.ru/i/FjuIidaF8q4msg | https://disk.yandex.ru/i/R2SomtDhXsvnmw | https://disk.yandex.ru/i/_SY6e9I-v7dL0A | https://disk.yandex.ru/i/_BFBWUs5KmJqdg | https://disk.yandex.ru/i/OO5sOTXo5sK_Ew</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/SJMyAUFWYo4Gdw | https://disk.yandex.ru/i/fiZoVXXPxO-s7w | https://disk.yandex.ru/i/_w2wkjrLCWs3Nw | https://disk.yandex.ru/i/MWg8IRtUZv6wBg | https://disk.yandex.ru/i/i1jwFHjOCn3ncg | https://disk.yandex.ru/i/XJO9jsoy-VJRbA | https://disk.yandex.ru/i/2rW0glZUCPSQFQ | https://disk.yandex.ru/i/VyYOiIl-bu7FUQ | https://disk.yandex.ru/i/aa6CdOhuNP_26A | https://disk.yandex.ru/i/s1_KkVRCXsA30w</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/yktOHmwyEAFzNg | https://disk.yandex.ru/i/fSBDveTvl31b_Q | https://disk.yandex.ru/i/0kW7mCGbkj2Ctw | https://disk.yandex.ru/i/0oEy6S28Mujuqw | https://disk.yandex.ru/i/u18xLxEv-MK2GA | https://disk.yandex.ru/i/cVIZ-a7gTXRlKg | https://disk.yandex.ru/i/_adWeda-XGaRfg | https://disk.yandex.ru/i/AuqYvJaGhzaEpg | https://disk.yandex.ru/i/XRjfqBCgAzguCQ | https://disk.yandex.ru/i/DG3sK0paA0Thlg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/JQfyetGJQJ9HPQ | https://disk.yandex.ru/i/-ONo1C8F5MRC5Q | https://disk.yandex.ru/i/K2kXkEu5pidhOg | https://disk.yandex.ru/i/GXLcjVxqcBOimw | https://disk.yandex.ru/i/5URrfIWCeIH7lQ | https://disk.yandex.ru/i/BmVfLq-ulZqDAQ | https://disk.yandex.ru/i/0pdVOuWmNpK8Kw | https://disk.yandex.ru/i/aS1g-0vhz5-Vlg | https://disk.yandex.ru/i/zHMLHl3UCNOMiw | https://disk.yandex.ru/i/8pSQrResjinI8g | https://disk.yandex.ru/i/kHKys7rAbgc22g</t>
+    <t>https://disk.yandex.ru/i/JQfyetGJQJ9HPQ | https://disk.yandex.ru/i/-ONo1C8F5MRC5Q | https://disk.yandex.ru/i/K2kXkEu5pidhOg | https://disk.yandex.ru/i/GXLcjVxqcBOimw | https://disk.yandex.ru/i/5URrfIWCeIH7lQ | https://disk.yandex.ru/i/BmVfLq-ulZqDAQ | https://disk.yandex.ru/i/0pdVOuWmNpK8Kw | https://disk.yandex.ru/i/aS1g-0vhz5-Vlg | https://disk.yandex.ru/i/8pSQrResjinI8g | https://disk.yandex.ru/i/kHKys7rAbgc22g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/lnvqJEpZMKs7og | https://disk.yandex.ru/i/WsPusi5nNEPX9w | https://disk.yandex.ru/i/Klq0PsB2O8m1tQ | https://disk.yandex.ru/i/JOQijHyk_cSBJg</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1695,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT36"/>
+  <dimension ref="A1:AT34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1852,43 +1793,43 @@
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC2" t="s">
         <v>133</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>135</v>
       </c>
-      <c r="AC2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>139</v>
-      </c>
       <c r="AH2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AI2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AJ2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AK2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1900,16 +1841,16 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AQ2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AT2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1923,43 +1864,43 @@
         <v>19999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K3">
         <v>132</v>
       </c>
       <c r="S3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC3" t="s">
         <v>133</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>134</v>
       </c>
-      <c r="AB3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>138</v>
-      </c>
       <c r="AE3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AH3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>147</v>
       </c>
-      <c r="AI3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>151</v>
-      </c>
       <c r="AK3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1971,19 +1912,19 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AR3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1997,43 +1938,43 @@
         <v>24999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K4">
         <v>168</v>
       </c>
       <c r="S4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC4" t="s">
         <v>133</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>137</v>
       </c>
-      <c r="AD4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>141</v>
-      </c>
       <c r="AH4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>147</v>
       </c>
-      <c r="AI4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>151</v>
-      </c>
       <c r="AK4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -2045,19 +1986,19 @@
         <v>170</v>
       </c>
       <c r="AP4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS4" t="s">
         <v>157</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>161</v>
-      </c>
       <c r="AT4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -2071,43 +2012,43 @@
         <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K5">
         <v>186</v>
       </c>
       <c r="S5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC5" t="s">
         <v>133</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>134</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AE5" t="s">
         <v>135</v>
       </c>
-      <c r="AC5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>139</v>
-      </c>
       <c r="AH5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AI5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AJ5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AK5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL5">
         <v>170</v>
@@ -2119,16 +2060,16 @@
         <v>360</v>
       </c>
       <c r="AP5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AQ5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AS5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AT5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -2142,43 +2083,43 @@
         <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K6">
         <v>188</v>
       </c>
       <c r="S6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC6" t="s">
         <v>133</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
         <v>134</v>
       </c>
-      <c r="AB6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>138</v>
       </c>
-      <c r="AE6" t="s">
-        <v>142</v>
-      </c>
       <c r="AH6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>147</v>
       </c>
-      <c r="AI6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>151</v>
-      </c>
       <c r="AK6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -2190,16 +2131,16 @@
         <v>180</v>
       </c>
       <c r="AP6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AS6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AT6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -2213,46 +2154,46 @@
         <v>19999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K7">
         <v>192</v>
       </c>
       <c r="S7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC7" t="s">
         <v>133</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
         <v>134</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI7" t="s">
         <v>136</v>
       </c>
-      <c r="AC7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AJ7" t="s">
         <v>147</v>
       </c>
-      <c r="AI7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>151</v>
-      </c>
       <c r="AK7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -2264,16 +2205,16 @@
         <v>200</v>
       </c>
       <c r="AP7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AS7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -2287,43 +2228,43 @@
         <v>90000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K8">
         <v>196</v>
       </c>
       <c r="S8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC8" t="s">
         <v>133</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>134</v>
       </c>
-      <c r="AB8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>138</v>
       </c>
-      <c r="AE8" t="s">
-        <v>142</v>
-      </c>
       <c r="AH8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>147</v>
       </c>
-      <c r="AI8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>151</v>
-      </c>
       <c r="AK8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -2335,19 +2276,19 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AR8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -2361,43 +2302,43 @@
         <v>40000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K9">
         <v>197</v>
       </c>
       <c r="S9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC9" t="s">
         <v>133</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>134</v>
       </c>
-      <c r="AB9" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>138</v>
-      </c>
       <c r="AE9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH9" t="s">
         <v>143</v>
       </c>
-      <c r="AH9" t="s">
-        <v>147</v>
-      </c>
       <c r="AI9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AJ9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AK9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL9">
         <v>120</v>
@@ -2409,167 +2350,167 @@
         <v>160</v>
       </c>
       <c r="AP9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AR9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:46">
       <c r="D10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
       </c>
       <c r="F10">
-        <v>20000</v>
+        <v>19999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10">
+        <v>207</v>
+      </c>
+      <c r="S10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB10" t="s">
         <v>132</v>
       </c>
-      <c r="K10">
-        <v>205</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="AC10" t="s">
         <v>133</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
         <v>134</v>
       </c>
-      <c r="AB10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>138</v>
-      </c>
       <c r="AE10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>147</v>
       </c>
-      <c r="AI10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>151</v>
-      </c>
       <c r="AK10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL10">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="AM10">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AN10">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AP10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AQ10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AR10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:46">
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>71</v>
       </c>
       <c r="F11">
-        <v>19999</v>
+        <v>25000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11">
+        <v>208</v>
+      </c>
+      <c r="S11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB11" t="s">
         <v>132</v>
       </c>
-      <c r="K11">
-        <v>207</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="AC11" t="s">
         <v>133</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>134</v>
       </c>
-      <c r="AB11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>138</v>
-      </c>
       <c r="AE11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AH11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>147</v>
       </c>
-      <c r="AI11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>151</v>
-      </c>
       <c r="AK11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL11">
+        <v>80</v>
+      </c>
+      <c r="AM11">
+        <v>75</v>
+      </c>
+      <c r="AN11">
+        <v>160</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>154</v>
       </c>
-      <c r="AL11">
-        <v>94</v>
-      </c>
-      <c r="AM11">
-        <v>74</v>
-      </c>
-      <c r="AN11">
-        <v>197</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="AR11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS11" t="s">
         <v>157</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>161</v>
-      </c>
       <c r="AT11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2580,46 +2521,46 @@
         <v>72</v>
       </c>
       <c r="F12">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12">
+        <v>209</v>
+      </c>
+      <c r="S12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB12" t="s">
         <v>132</v>
       </c>
-      <c r="K12">
-        <v>208</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="AC12" t="s">
         <v>133</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
         <v>134</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>138</v>
       </c>
       <c r="AE12" t="s">
         <v>139</v>
       </c>
       <c r="AH12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>147</v>
       </c>
-      <c r="AI12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>151</v>
-      </c>
       <c r="AK12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2631,19 +2572,19 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AR12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2654,46 +2595,46 @@
         <v>73</v>
       </c>
       <c r="F13">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13">
+        <v>210</v>
+      </c>
+      <c r="S13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB13" t="s">
         <v>132</v>
       </c>
-      <c r="K13">
-        <v>209</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="AC13" t="s">
         <v>133</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
         <v>134</v>
       </c>
-      <c r="AB13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>138</v>
-      </c>
       <c r="AE13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH13" t="s">
         <v>143</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>147</v>
       </c>
-      <c r="AI13" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>151</v>
-      </c>
       <c r="AK13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2705,19 +2646,19 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AR13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2731,43 +2672,43 @@
         <v>25000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14">
+        <v>211</v>
+      </c>
+      <c r="S14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB14" t="s">
         <v>132</v>
       </c>
-      <c r="K14">
-        <v>210</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="AC14" t="s">
         <v>133</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
         <v>134</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>138</v>
       </c>
       <c r="AE14" t="s">
         <v>139</v>
       </c>
       <c r="AH14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>147</v>
       </c>
-      <c r="AI14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>151</v>
-      </c>
       <c r="AK14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2779,69 +2720,69 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AR14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:46">
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>75</v>
       </c>
       <c r="F15">
-        <v>25000</v>
+        <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K15">
-        <v>211</v>
+        <v>2136</v>
       </c>
       <c r="S15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC15" t="s">
         <v>133</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
         <v>134</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AE15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI15" t="s">
         <v>136</v>
       </c>
-      <c r="AC15" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>149</v>
-      </c>
       <c r="AJ15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AK15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2850,22 +2791,19 @@
         <v>75</v>
       </c>
       <c r="AN15">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS15" t="s">
         <v>156</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>161</v>
-      </c>
       <c r="AT15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2876,507 +2814,507 @@
         <v>76</v>
       </c>
       <c r="F16">
-        <v>4999</v>
+        <v>9999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16">
+        <v>223</v>
+      </c>
+      <c r="S16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB16" t="s">
         <v>132</v>
       </c>
-      <c r="K16">
-        <v>2136</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="AC16" t="s">
         <v>133</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
         <v>134</v>
       </c>
-      <c r="AB16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>138</v>
-      </c>
       <c r="AE16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AI16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AJ16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL16">
+        <v>120</v>
+      </c>
+      <c r="AM16">
+        <v>77</v>
+      </c>
+      <c r="AN16">
+        <v>120</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>154</v>
       </c>
-      <c r="AL16">
-        <v>80</v>
-      </c>
-      <c r="AM16">
-        <v>75</v>
-      </c>
-      <c r="AN16">
-        <v>80</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>157</v>
-      </c>
       <c r="AS16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AT16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="4:46">
       <c r="D17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>77</v>
       </c>
       <c r="F17">
-        <v>11999</v>
+        <v>120000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17">
+        <v>222</v>
+      </c>
+      <c r="S17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB17" t="s">
         <v>132</v>
       </c>
-      <c r="K17">
-        <v>224</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="AC17" t="s">
         <v>133</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AD17" t="s">
         <v>134</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AE17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI17" t="s">
         <v>136</v>
       </c>
-      <c r="AC17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>149</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>150</v>
-      </c>
       <c r="AK17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL17">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AM17">
         <v>75</v>
       </c>
       <c r="AN17">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AP17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AQ17" t="s">
-        <v>158</v>
+        <v>152</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>155</v>
       </c>
       <c r="AS17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AT17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="4:46">
       <c r="D18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>78</v>
       </c>
       <c r="F18">
-        <v>9999</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18">
+        <v>220</v>
+      </c>
+      <c r="S18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB18" t="s">
         <v>132</v>
       </c>
-      <c r="K18">
-        <v>223</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AC18" t="s">
         <v>133</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
         <v>134</v>
       </c>
-      <c r="AB18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>138</v>
-      </c>
       <c r="AE18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI18" t="s">
         <v>145</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
         <v>147</v>
       </c>
-      <c r="AI18" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>150</v>
-      </c>
       <c r="AK18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL18">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM18">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN18">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS18" t="s">
         <v>157</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>163</v>
-      </c>
       <c r="AT18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="4:46">
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>79</v>
       </c>
       <c r="F19">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19">
+        <v>219</v>
+      </c>
+      <c r="S19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB19" t="s">
         <v>132</v>
       </c>
-      <c r="K19">
-        <v>222</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AC19" t="s">
         <v>133</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AD19" t="s">
         <v>134</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>138</v>
       </c>
       <c r="AE19" t="s">
         <v>139</v>
       </c>
       <c r="AH19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>147</v>
       </c>
-      <c r="AI19" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>153</v>
-      </c>
       <c r="AK19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL19">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AM19">
         <v>75</v>
       </c>
       <c r="AN19">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="AP19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS19" t="s">
         <v>157</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>161</v>
-      </c>
       <c r="AT19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="4:46">
       <c r="D20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>80</v>
       </c>
       <c r="F20">
-        <v>40000</v>
+        <v>14999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20">
+        <v>218</v>
+      </c>
+      <c r="S20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB20" t="s">
         <v>132</v>
       </c>
-      <c r="K20">
-        <v>220</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AC20" t="s">
         <v>133</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AD20" t="s">
         <v>134</v>
       </c>
-      <c r="AB20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>138</v>
-      </c>
       <c r="AE20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI20" t="s">
         <v>145</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AJ20" t="s">
         <v>147</v>
       </c>
-      <c r="AI20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>151</v>
-      </c>
       <c r="AK20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL20">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM20">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN20">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AP20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ20" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AS20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="4:46">
       <c r="D21" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
         <v>81</v>
       </c>
       <c r="F21">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21">
+        <v>215</v>
+      </c>
+      <c r="S21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB21" t="s">
         <v>132</v>
       </c>
-      <c r="K21">
-        <v>219</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="AC21" t="s">
         <v>133</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AD21" t="s">
         <v>134</v>
       </c>
-      <c r="AB21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>138</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AH21" t="s">
         <v>143</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>147</v>
       </c>
-      <c r="AI21" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>151</v>
-      </c>
       <c r="AK21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL21">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AM21">
         <v>75</v>
       </c>
       <c r="AN21">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AP21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ21" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AS21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="4:46">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
         <v>82</v>
       </c>
       <c r="F22">
-        <v>14999</v>
+        <v>12000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22">
+        <v>216</v>
+      </c>
+      <c r="S22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB22" t="s">
         <v>132</v>
       </c>
-      <c r="K22">
-        <v>218</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="AC22" t="s">
         <v>133</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AD22" t="s">
         <v>134</v>
       </c>
-      <c r="AB22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>138</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AH22" t="s">
         <v>143</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>147</v>
       </c>
-      <c r="AI22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>151</v>
-      </c>
       <c r="AK22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL22">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM22">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="AN22">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AQ22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AS22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AT22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="4:46">
       <c r="D23" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
@@ -3385,285 +3323,288 @@
         <v>15000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23">
+        <v>213</v>
+      </c>
+      <c r="S23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB23" t="s">
         <v>132</v>
       </c>
-      <c r="K23">
-        <v>215</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="AC23" t="s">
         <v>133</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AD23" t="s">
         <v>134</v>
       </c>
-      <c r="AB23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>138</v>
       </c>
-      <c r="AE23" t="s">
-        <v>142</v>
-      </c>
       <c r="AH23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>147</v>
       </c>
-      <c r="AI23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>151</v>
-      </c>
       <c r="AK23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL23">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM23">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AN23">
         <v>180</v>
       </c>
       <c r="AP23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AS23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AT23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="4:46">
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
         <v>84</v>
       </c>
       <c r="F24">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24">
+        <v>212</v>
+      </c>
+      <c r="S24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB24" t="s">
         <v>132</v>
       </c>
-      <c r="K24">
-        <v>216</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="AC24" t="s">
         <v>133</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AD24" t="s">
         <v>134</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>138</v>
       </c>
       <c r="AE24" t="s">
         <v>142</v>
       </c>
       <c r="AH24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>147</v>
       </c>
-      <c r="AI24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>151</v>
-      </c>
       <c r="AK24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL24">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM24">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AN24">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS24" t="s">
         <v>157</v>
       </c>
-      <c r="AQ24" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>163</v>
-      </c>
       <c r="AT24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="4:46">
       <c r="D25" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
         <v>85</v>
       </c>
       <c r="F25">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25">
+        <v>2436</v>
+      </c>
+      <c r="S25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB25" t="s">
         <v>132</v>
       </c>
-      <c r="K25">
-        <v>213</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="AC25" t="s">
         <v>133</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AD25" t="s">
         <v>134</v>
       </c>
-      <c r="AB25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>138</v>
-      </c>
       <c r="AE25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AH25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AI25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AJ25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AK25" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL25">
+        <v>100</v>
+      </c>
+      <c r="AM25">
+        <v>75</v>
+      </c>
+      <c r="AN25">
+        <v>160</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>154</v>
       </c>
-      <c r="AL25">
-        <v>80</v>
-      </c>
-      <c r="AM25">
-        <v>72</v>
-      </c>
-      <c r="AN25">
-        <v>180</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>158</v>
+      <c r="AR25" t="s">
+        <v>155</v>
       </c>
       <c r="AS25" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AT25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="4:46">
       <c r="D26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
         <v>86</v>
       </c>
       <c r="F26">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26">
+        <v>228</v>
+      </c>
+      <c r="S26" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB26" t="s">
         <v>132</v>
       </c>
-      <c r="K26">
-        <v>212</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="AC26" t="s">
         <v>133</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AD26" t="s">
         <v>134</v>
       </c>
-      <c r="AB26" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>138</v>
-      </c>
       <c r="AE26" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AH26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>147</v>
       </c>
-      <c r="AI26" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>151</v>
-      </c>
       <c r="AK26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL26">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AM26">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AN26">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AP26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS26" t="s">
         <v>157</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>161</v>
-      </c>
       <c r="AT26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="4:46">
       <c r="D27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>87</v>
@@ -3672,357 +3613,360 @@
         <v>18000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27">
+        <v>2451</v>
+      </c>
+      <c r="S27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB27" t="s">
         <v>132</v>
       </c>
-      <c r="K27">
-        <v>2436</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="AC27" t="s">
         <v>133</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AD27" t="s">
         <v>134</v>
       </c>
-      <c r="AB27" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>138</v>
-      </c>
       <c r="AE27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH27" t="s">
         <v>143</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>147</v>
       </c>
-      <c r="AI27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL27">
+        <v>85</v>
+      </c>
+      <c r="AM27">
+        <v>74</v>
+      </c>
+      <c r="AN27">
+        <v>140</v>
+      </c>
+      <c r="AP27" t="s">
         <v>152</v>
       </c>
-      <c r="AK27" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL27">
-        <v>100</v>
-      </c>
-      <c r="AM27">
-        <v>75</v>
-      </c>
-      <c r="AN27">
-        <v>160</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>156</v>
-      </c>
       <c r="AQ27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AR27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="4:46">
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>88</v>
       </c>
       <c r="F28">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28">
+        <v>2450</v>
+      </c>
+      <c r="S28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB28" t="s">
         <v>132</v>
       </c>
-      <c r="K28">
-        <v>228</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="AC28" t="s">
         <v>133</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AD28" t="s">
         <v>134</v>
       </c>
-      <c r="AB28" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>138</v>
-      </c>
       <c r="AE28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH28" t="s">
         <v>143</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>147</v>
       </c>
-      <c r="AI28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>151</v>
-      </c>
       <c r="AK28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL28">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AM28">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AN28">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AP28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ28" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>155</v>
       </c>
       <c r="AS28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="4:46">
       <c r="D29" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
         <v>89</v>
       </c>
       <c r="F29">
-        <v>18000</v>
+        <v>99999</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29">
+        <v>229</v>
+      </c>
+      <c r="S29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB29" t="s">
         <v>132</v>
       </c>
-      <c r="K29">
-        <v>2451</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="AC29" t="s">
         <v>133</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AD29" t="s">
         <v>134</v>
       </c>
-      <c r="AB29" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>138</v>
-      </c>
       <c r="AE29" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH29" t="s">
         <v>143</v>
       </c>
-      <c r="AH29" t="s">
-        <v>147</v>
-      </c>
       <c r="AI29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>149</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AK29" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL29">
+        <v>200</v>
+      </c>
+      <c r="AM29">
+        <v>75</v>
+      </c>
+      <c r="AN29">
+        <v>400</v>
+      </c>
+      <c r="AP29" t="s">
         <v>151</v>
       </c>
-      <c r="AK29" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL29">
-        <v>85</v>
-      </c>
-      <c r="AM29">
-        <v>74</v>
-      </c>
-      <c r="AN29">
-        <v>140</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>156</v>
-      </c>
       <c r="AQ29" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AS29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="4:46">
       <c r="D30" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
       </c>
       <c r="F30">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30">
+        <v>231</v>
+      </c>
+      <c r="S30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB30" t="s">
         <v>132</v>
       </c>
-      <c r="K30">
-        <v>2450</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="AC30" t="s">
         <v>133</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AD30" t="s">
         <v>134</v>
       </c>
-      <c r="AB30" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>138</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AH30" t="s">
         <v>143</v>
       </c>
-      <c r="AH30" t="s">
+      <c r="AI30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>147</v>
       </c>
-      <c r="AI30" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>151</v>
-      </c>
       <c r="AK30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL30">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM30">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN30">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AP30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AR30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="4:46">
       <c r="D31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
       </c>
       <c r="F31">
-        <v>99999</v>
+        <v>59999</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31">
+        <v>236</v>
+      </c>
+      <c r="S31" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB31" t="s">
         <v>132</v>
       </c>
-      <c r="K31">
-        <v>229</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="AC31" t="s">
         <v>133</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AD31" t="s">
         <v>134</v>
       </c>
-      <c r="AB31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>138</v>
-      </c>
       <c r="AE31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AH31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>147</v>
       </c>
-      <c r="AI31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>153</v>
-      </c>
       <c r="AK31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL31">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AM31">
         <v>75</v>
       </c>
       <c r="AN31">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AP31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR31" t="s">
         <v>155</v>
       </c>
-      <c r="AQ31" t="s">
-        <v>156</v>
-      </c>
       <c r="AS31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="4:46">
@@ -4033,70 +3977,70 @@
         <v>92</v>
       </c>
       <c r="F32">
-        <v>50000</v>
+        <v>54999</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32">
+        <v>234</v>
+      </c>
+      <c r="S32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB32" t="s">
         <v>132</v>
       </c>
-      <c r="K32">
-        <v>231</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="AC32" t="s">
         <v>133</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AD32" t="s">
         <v>134</v>
       </c>
-      <c r="AB32" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>138</v>
-      </c>
       <c r="AE32" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AH32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>147</v>
       </c>
-      <c r="AI32" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>151</v>
-      </c>
       <c r="AK32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL32">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM32">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN32">
         <v>180</v>
       </c>
       <c r="AP32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AR32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="4:46">
@@ -4107,292 +4051,141 @@
         <v>93</v>
       </c>
       <c r="F33">
-        <v>59999</v>
+        <v>54999</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="K33">
+        <v>233</v>
+      </c>
+      <c r="S33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB33" t="s">
         <v>132</v>
       </c>
-      <c r="K33">
-        <v>236</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="AC33" t="s">
         <v>133</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AD33" t="s">
         <v>134</v>
       </c>
-      <c r="AB33" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>138</v>
-      </c>
       <c r="AE33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AH33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AI33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AJ33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AK33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL33">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AM33">
         <v>75</v>
       </c>
       <c r="AN33">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AP33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AQ33" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AR33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AS33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="4:46">
       <c r="D34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
         <v>94</v>
       </c>
       <c r="F34">
-        <v>49999</v>
+        <v>15000</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34">
+        <v>238</v>
+      </c>
+      <c r="S34" t="s">
         <v>129</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="AA34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB34" t="s">
         <v>132</v>
       </c>
-      <c r="K34">
-        <v>235</v>
-      </c>
-      <c r="S34" t="s">
+      <c r="AC34" t="s">
         <v>133</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AD34" t="s">
         <v>134</v>
       </c>
-      <c r="AB34" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>138</v>
-      </c>
       <c r="AE34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AH34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AI34" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>149</v>
       </c>
-      <c r="AJ34" t="s">
-        <v>151</v>
-      </c>
       <c r="AK34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL34">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AM34">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN34">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AQ34" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AS34" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AT34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="4:46">
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35">
-        <v>54999</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K35">
-        <v>234</v>
-      </c>
-      <c r="S35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL35">
-        <v>85</v>
-      </c>
-      <c r="AM35">
-        <v>74</v>
-      </c>
-      <c r="AN35">
-        <v>180</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="4:46">
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36">
-        <v>54999</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36">
-        <v>233</v>
-      </c>
-      <c r="S36" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL36">
-        <v>180</v>
-      </c>
-      <c r="AM36">
-        <v>75</v>
-      </c>
-      <c r="AN36">
-        <v>215</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4463,10 +4256,6 @@
     <hyperlink ref="I33" r:id="rId64"/>
     <hyperlink ref="G34" r:id="rId65"/>
     <hyperlink ref="I34" r:id="rId66"/>
-    <hyperlink ref="G35" r:id="rId67"/>
-    <hyperlink ref="I35" r:id="rId68"/>
-    <hyperlink ref="G36" r:id="rId69"/>
-    <hyperlink ref="I36" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC714766-81F3-4A90-B465-2E06E44B906D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="171">
   <si>
     <t>Address</t>
   </si>
@@ -169,37 +175,40 @@
     <t>Переговорный стол офисный</t>
   </si>
   <si>
+    <t>Офисная мебель</t>
+  </si>
+  <si>
+    <t>Стол для руководителя</t>
+  </si>
+  <si>
+    <t>Комплект офисной мебели</t>
+  </si>
+  <si>
+    <t>Стол круглый</t>
+  </si>
+  <si>
+    <t>Стол офисный</t>
+  </si>
+  <si>
+    <t>Столешница офисный стол</t>
+  </si>
+  <si>
+    <t>Стол руководителя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол руководителя </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол для переговоров </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол руководителя с брифингом </t>
+  </si>
+  <si>
     <t xml:space="preserve">Стол для переговоров SteelCase </t>
   </si>
   <si>
-    <t>Офисная мебель</t>
-  </si>
-  <si>
-    <t>Стол для руководителя</t>
-  </si>
-  <si>
-    <t>Комплект офисной мебели</t>
-  </si>
-  <si>
-    <t>Стол круглый</t>
-  </si>
-  <si>
-    <t>Стол офисный</t>
-  </si>
-  <si>
-    <t>Столешница офисный стол</t>
-  </si>
-  <si>
-    <t>Стол руководителя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол руководителя </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол для переговоров </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол руководителя с брифингом </t>
+    <t>Переговорный стол</t>
   </si>
   <si>
     <t>Стол переговорный 
@@ -311,30 +320,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол для переговоров SteelCase 
-Артикул 192
-Стильный компьютерный стол белого цвета на прочных металлических ногах. Идеально подойдет как для работы в офисе, так и для домашнего использования. Современный дизайн в сочетании с устойчивой конструкцией делает этот стол не только эстетически привлекательным, но и надежным для ежедневного использования. Просторная рабочая поверхность позволяет удобно разместить всю технику и аксессуары.
-Размер ДхШхВ: 200х80х75
-Цвет белый
-Цена 20 000 руб 
-Количество 3
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
   </si>
   <si>
     <t>Кабинет руководителя
@@ -1073,6 +1058,163 @@
     </t>
   </si>
   <si>
+    <t>Стол переговорный
+Артикул 243
+Офисный стол для переговоров цвета венге, вмещает до 14 человек. Массивный стол на прочных металлических ногах. 
+На столе есть небольшие дефекты. 
+Размеры ДхШхВ: 240х12х74
+Цвет: венге
+Цена 29 999
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол для переговоров
+Артикул 242
+Офисный стол для переговоров в состоянии нового. Стол большого размера имеет презентабельный вид, хорошо подойдёт для любого офиса
+Размеры ДхШхВ: 240х120х75
+Цвет молочный
+Цена 34 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол переговорный
+Артикул 241
+Офисный стол для переговоров цвета венге, вмещает до 12 человек. Массивный стол выполнен из прочных качественных материалов. 
+На столе есть небольшие дефекты. 
+Размеры ДхШхВ: 230х115х75
+Цвет: венге
+Цена 24 999
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол для переговоров SteelCase 
+Артикул 192
+Стильный компьютерный стол белого цвета на прочных металлических ногах. Идеально подойдет как для работы в офисе, так и для домашнего использования. Современный дизайн в сочетании с устойчивой конструкцией делает этот стол не только эстетически привлекательным, но и надежным для ежедневного использования. Просторная рабочая поверхность позволяет удобно разместить всю технику и аксессуары.
+Размер ДхШхВ: 200х80х75
+Цвет белый
+Цена 19 999 руб 
+Количество 2
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Переговорный стол
+Артикул 240
+Описание: белый стол в отличном состоянии на металлическом каркасе для 8 персон.
+Размеры ДхШхВ: 200х80х73
+Цена: 20 000 руб. 
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кабинет руководителя
+Артикул 239
+Большой и изысканный кабинет для директоров и руководителей. 
+В кабинет входит полный комплект мебели, которая вам потребуется для работы. 
+Вся офисная мебель выполнена из качественных материалов, кожи и дерева. 
+У стола есть множество ящиков которые сделают вашу работу более продуктивной и чистой. 
+Кресло руководителя рассчитано на большой вес до 120 кг. 
+Размеры ДхШхВ: Стол - 220х100х82
+Брифинг - 120х70х82
+Шкаф для документов - 115х55х212
+Гардероб - 65х55х212
+Тумба - 120х80х81
+Кресло руководителя
+4 стула для переговоров
+Цвет 
+Цена 550 000
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
   </si>
   <si>
@@ -1088,9 +1230,6 @@
     <t>https://disk.yandex.ru/i/T0jflNijHZmtUg | https://disk.yandex.ru/i/Orwhna4soUAO0w | https://disk.yandex.ru/i/C1JG3DsLTCLLkw | https://disk.yandex.ru/i/RRIBSu4IfM7K8A | https://disk.yandex.ru/i/vEq7re9pkJjpew | https://disk.yandex.ru/i/cssTFMJNR3yM_Q</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/YUqv1-fJ5z4pIg | https://disk.yandex.ru/i/hlH4PJWp6goS5A | https://disk.yandex.ru/i/zOu4tUC4ggOi_A | https://disk.yandex.ru/i/t8OXCkysyTmxlA | https://disk.yandex.ru/i/557Bzug0MWZbOg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/1aTqiuWn9-lL9Q | https://disk.yandex.ru/i/uckFkWKMcnrTbg | https://disk.yandex.ru/i/ae8H10ig2MudAQ | https://disk.yandex.ru/i/vpib0o8A1KEfYw | https://disk.yandex.ru/i/ahH_FLlcBfx7_A | https://disk.yandex.ru/i/J1DtSL8r8BmzdA | https://disk.yandex.ru/i/1QyzSzFrZxYPgw | https://disk.yandex.ru/i/Nz8Tmi4Jli1IKg | https://disk.yandex.ru/i/_4DMU3B-Z5cE-A | https://disk.yandex.ru/i/BnE9oWNA91SUzg</t>
   </si>
   <si>
@@ -1170,6 +1309,24 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/lnvqJEpZMKs7og | https://disk.yandex.ru/i/WsPusi5nNEPX9w | https://disk.yandex.ru/i/Klq0PsB2O8m1tQ | https://disk.yandex.ru/i/JOQijHyk_cSBJg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/XspMAezusvCgGg | https://disk.yandex.ru/i/xnB0UPFRMJKZEA | https://disk.yandex.ru/i/qyBZRAEnOuDcKw | https://disk.yandex.ru/i/97hsAJo-V9AI9A | https://disk.yandex.ru/i/BmoBkouS4pOJfg | https://disk.yandex.ru/i/4k47QZSw8OMZdg | https://disk.yandex.ru/i/HsZVBssxyv0tJQ | https://disk.yandex.ru/i/yTzbOn3KXPl85Q | https://disk.yandex.ru/i/PYN4Yo51TcDTBA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/oFrj_flCDghW-w | https://disk.yandex.ru/i/HxKmQXMGuFWQLQ | https://disk.yandex.ru/i/AwXK9786zO_KlQ | https://disk.yandex.ru/i/-yTKtxUxGkgxaA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/g2PmTMJRSTPVJg | https://disk.yandex.ru/i/V0Ym-WE33ufKpw | https://disk.yandex.ru/i/OpSDGrNFvDNU7g | https://disk.yandex.ru/i/dWIMv0G4rXWK0w | https://disk.yandex.ru/i/5eP-E57YT6C_GQ | https://disk.yandex.ru/i/sYjfjFd-5rqibA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/hgVgQjm8Nzvcdg | https://disk.yandex.ru/i/iQ9_57f4hBn2Fg | https://disk.yandex.ru/i/MLNNHe3QrxTHpg | https://disk.yandex.ru/i/hboUl59ol5YZIA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/oKa7IrarELLY-g | https://disk.yandex.ru/i/sDg1espreWozKQ | https://disk.yandex.ru/i/x0Bszd7PnOyrVQ | https://disk.yandex.ru/i/GoeTa5wMc2Yirg | https://disk.yandex.ru/i/kY7kHkOHLNcVpQ | https://disk.yandex.ru/i/kxYLuheLLOP57Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9BuSokh8_lSZQg | https://disk.yandex.ru/i/JIAlGhgShXdvrQ | https://disk.yandex.ru/i/2hVuzsPUOvkWDQ | https://disk.yandex.ru/i/N6kMxf2BFYFj-g | https://disk.yandex.ru/i/pRJoRnjVYczM7g | https://disk.yandex.ru/i/pVXI-zj28hXEpg | https://disk.yandex.ru/i/PFDcuRR2KT6P5w | https://disk.yandex.ru/i/mW0IyfFURGQhcw | https://disk.yandex.ru/i/1WRjvklRT-3CAA | https://disk.yandex.ru/i/PU6B34dfVGHb5g</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1271,8 +1428,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,18 +1500,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1392,9 +1557,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1426,9 +1591,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1460,9 +1643,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1635,14 +1836,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1782,54 +1985,54 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AC2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AH2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AJ2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AK2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1841,66 +2044,66 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AQ2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AS2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AT2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>19999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K3">
         <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB3" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AC3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AH3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1912,69 +2115,69 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AR3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>24999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K4">
         <v>168</v>
       </c>
       <c r="S4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AC4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AH4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -1986,69 +2189,69 @@
         <v>170</v>
       </c>
       <c r="AP4" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AQ4" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AR4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K5">
         <v>186</v>
       </c>
       <c r="S5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AC5" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AH5" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI5" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AJ5" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AK5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL5">
         <v>170</v>
@@ -2060,66 +2263,66 @@
         <v>360</v>
       </c>
       <c r="AP5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AQ5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AS5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AT5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K6">
         <v>188</v>
       </c>
       <c r="S6" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA6" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB6" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AC6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AH6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AJ6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -2131,69 +2334,66 @@
         <v>180</v>
       </c>
       <c r="AP6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AS6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>90000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7">
+        <v>196</v>
+      </c>
+      <c r="S7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>158</v>
       </c>
-      <c r="AT6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7">
-        <v>19999</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7">
-        <v>192</v>
-      </c>
-      <c r="S7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>147</v>
-      </c>
       <c r="AK7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -2202,291 +2402,294 @@
         <v>75</v>
       </c>
       <c r="AN7">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <v>40000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8">
+        <v>197</v>
+      </c>
+      <c r="S8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH8" t="s">
         <v>154</v>
       </c>
-      <c r="AS7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46">
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8">
-        <v>90000</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8">
-        <v>196</v>
-      </c>
-      <c r="S8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>143</v>
-      </c>
       <c r="AI8" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ8" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AK8" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL8">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN8">
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ8" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AR8" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS8" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT8" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9">
-        <v>40000</v>
+        <v>19999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K9">
+        <v>207</v>
+      </c>
+      <c r="S9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL9">
+        <v>94</v>
+      </c>
+      <c r="AM9">
+        <v>74</v>
+      </c>
+      <c r="AN9">
         <v>197</v>
       </c>
-      <c r="S9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL9">
-        <v>120</v>
-      </c>
-      <c r="AM9">
-        <v>73</v>
-      </c>
-      <c r="AN9">
-        <v>160</v>
-      </c>
       <c r="AP9" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AQ9" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AR9" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS9" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10">
-        <v>19999</v>
+        <v>25000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S10" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA10" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB10" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AC10" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD10" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL10">
+        <v>80</v>
+      </c>
+      <c r="AM10">
+        <v>75</v>
+      </c>
+      <c r="AN10">
+        <v>160</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>21000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11">
+        <v>209</v>
+      </c>
+      <c r="S11" t="s">
         <v>140</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AA11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB11" t="s">
         <v>143</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AC11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD11" t="s">
         <v>145</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="AE11" t="s">
         <v>150</v>
       </c>
-      <c r="AL10">
-        <v>94</v>
-      </c>
-      <c r="AM10">
-        <v>74</v>
-      </c>
-      <c r="AN10">
-        <v>197</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46">
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11">
-        <v>25000</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11">
-        <v>208</v>
-      </c>
-      <c r="S11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>135</v>
-      </c>
       <c r="AH11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ11" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK11" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2498,69 +2701,69 @@
         <v>160</v>
       </c>
       <c r="AP11" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12">
+        <v>25000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12">
+        <v>210</v>
+      </c>
+      <c r="S12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH12" t="s">
         <v>154</v>
       </c>
-      <c r="AR11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12">
-        <v>21000</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12">
-        <v>209</v>
-      </c>
-      <c r="S12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>143</v>
-      </c>
       <c r="AI12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ12" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2572,69 +2775,69 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ12" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AR12" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS12" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT12" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <v>25000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K13">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AC13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE13" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AH13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK13" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2646,69 +2849,69 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ13" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AR13" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS13" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT13" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14">
-        <v>25000</v>
+        <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K14">
-        <v>211</v>
+        <v>2136</v>
       </c>
       <c r="S14" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB14" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AC14" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD14" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE14" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AH14" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ14" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AK14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2717,291 +2920,291 @@
         <v>75</v>
       </c>
       <c r="AN14">
+        <v>80</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>9999</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15">
+        <v>223</v>
+      </c>
+      <c r="S15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL15">
+        <v>120</v>
+      </c>
+      <c r="AM15">
+        <v>77</v>
+      </c>
+      <c r="AN15">
+        <v>120</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16">
+        <v>120000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16">
+        <v>222</v>
+      </c>
+      <c r="S16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>160</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AK16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL16">
+        <v>200</v>
+      </c>
+      <c r="AM16">
+        <v>75</v>
+      </c>
+      <c r="AN16">
+        <v>300</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17">
+        <v>40000</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17">
+        <v>220</v>
+      </c>
+      <c r="S17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE17" t="s">
         <v>152</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AH17" t="s">
         <v>154</v>
       </c>
-      <c r="AR14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15">
-        <v>4999</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15">
-        <v>2136</v>
-      </c>
-      <c r="S15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL15">
+      <c r="AI17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL17">
         <v>80</v>
-      </c>
-      <c r="AM15">
-        <v>75</v>
-      </c>
-      <c r="AN15">
-        <v>80</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16">
-        <v>9999</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K16">
-        <v>223</v>
-      </c>
-      <c r="S16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL16">
-        <v>120</v>
-      </c>
-      <c r="AM16">
-        <v>77</v>
-      </c>
-      <c r="AN16">
-        <v>120</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>154</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="4:46">
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17">
-        <v>120000</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K17">
-        <v>222</v>
-      </c>
-      <c r="S17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL17">
-        <v>200</v>
       </c>
       <c r="AM17">
         <v>75</v>
       </c>
       <c r="AN17">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AQ17" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AR17" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS17" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT17" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="18" spans="4:46">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K18">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S18" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA18" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB18" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AC18" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD18" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE18" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH18" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI18" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ18" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK18" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL18">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM18">
         <v>75</v>
@@ -3010,646 +3213,646 @@
         <v>140</v>
       </c>
       <c r="AP18" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ18" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AR18" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS18" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>14999</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19">
+        <v>218</v>
+      </c>
+      <c r="S19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE19" t="s">
         <v>150</v>
       </c>
+      <c r="AH19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL19">
+        <v>90</v>
+      </c>
+      <c r="AM19">
+        <v>77</v>
+      </c>
+      <c r="AN19">
+        <v>180</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="19" spans="4:46">
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19">
-        <v>35000</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19">
-        <v>219</v>
-      </c>
-      <c r="S19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE19" t="s">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20">
+        <v>15000</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="K20">
+        <v>215</v>
+      </c>
+      <c r="S20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB20" t="s">
         <v>143</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AC20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD20" t="s">
         <v>145</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL19">
-        <v>70</v>
-      </c>
-      <c r="AM19">
-        <v>75</v>
-      </c>
-      <c r="AN19">
-        <v>140</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="4:46">
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20">
-        <v>14999</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20">
-        <v>218</v>
-      </c>
-      <c r="S20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>134</v>
-      </c>
       <c r="AE20" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AH20" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI20" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK20" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL20">
         <v>90</v>
       </c>
       <c r="AM20">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN20">
         <v>180</v>
       </c>
       <c r="AP20" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ20" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AS20" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT20" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="21" spans="4:46">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21">
+        <v>12000</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21">
+        <v>216</v>
+      </c>
+      <c r="S21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL21">
+        <v>80</v>
+      </c>
+      <c r="AM21">
+        <v>3</v>
+      </c>
+      <c r="AN21">
+        <v>200</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22">
         <v>15000</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21">
-        <v>215</v>
-      </c>
-      <c r="S21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="G22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22">
+        <v>213</v>
+      </c>
+      <c r="S22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB22" t="s">
         <v>143</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AC22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD22" t="s">
         <v>145</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL21">
-        <v>90</v>
-      </c>
-      <c r="AM21">
-        <v>75</v>
-      </c>
-      <c r="AN21">
-        <v>180</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="4:46">
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22">
-        <v>12000</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K22">
-        <v>216</v>
-      </c>
-      <c r="S22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>134</v>
-      </c>
       <c r="AE22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AH22" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI22" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ22" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK22" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL22">
         <v>80</v>
       </c>
       <c r="AM22">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AN22">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>25000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23">
+        <v>212</v>
+      </c>
+      <c r="S23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE23" t="s">
         <v>153</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>150</v>
+      <c r="AH23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL23">
+        <v>85</v>
+      </c>
+      <c r="AM23">
+        <v>76</v>
+      </c>
+      <c r="AN23">
+        <v>160</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="23" spans="4:46">
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23">
-        <v>15000</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23">
-        <v>213</v>
-      </c>
-      <c r="S23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL23">
-        <v>80</v>
-      </c>
-      <c r="AM23">
-        <v>72</v>
-      </c>
-      <c r="AN23">
-        <v>180</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>154</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="4:46">
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K24">
-        <v>212</v>
+        <v>2436</v>
       </c>
       <c r="S24" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA24" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB24" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AC24" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD24" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE24" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AH24" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI24" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ24" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AK24" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL24">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AM24">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN24">
         <v>160</v>
       </c>
       <c r="AP24" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AQ24" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="AR24" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS24" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT24" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="25" spans="4:46">
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K25">
-        <v>2436</v>
+        <v>228</v>
       </c>
       <c r="S25" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA25" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB25" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AC25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD25" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE25" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="AH25" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI25" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ25" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AK25" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL25">
+        <v>120</v>
+      </c>
+      <c r="AM25">
+        <v>78</v>
+      </c>
+      <c r="AN25">
         <v>150</v>
       </c>
-      <c r="AL25">
-        <v>100</v>
-      </c>
-      <c r="AM25">
-        <v>75</v>
-      </c>
-      <c r="AN25">
-        <v>160</v>
-      </c>
       <c r="AP25" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ25" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AS25" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT25" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="26" spans="4:46">
+    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F26">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K26">
-        <v>228</v>
+        <v>2451</v>
       </c>
       <c r="S26" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA26" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB26" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AC26" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD26" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE26" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="AH26" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI26" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ26" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK26" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL26">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AM26">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AN26">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AP26" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ26" t="s">
-        <v>152</v>
+        <v>163</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>166</v>
       </c>
       <c r="AS26" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT26" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="27" spans="4:46">
+    <row r="27" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F27">
         <v>18000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K27">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="S27" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA27" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB27" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AC27" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD27" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE27" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="AH27" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI27" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ27" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK27" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL27">
         <v>85</v>
@@ -3661,601 +3864,966 @@
         <v>140</v>
       </c>
       <c r="AP27" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ27" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AR27" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS27" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT27" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="28" spans="4:46">
+    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F28">
-        <v>18000</v>
+        <v>99999</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28">
+        <v>229</v>
+      </c>
+      <c r="S28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL28">
+        <v>200</v>
+      </c>
+      <c r="AM28">
+        <v>75</v>
+      </c>
+      <c r="AN28">
+        <v>400</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29">
+        <v>50000</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K28">
-        <v>2450</v>
-      </c>
-      <c r="S28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="I29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="K29">
+        <v>231</v>
+      </c>
+      <c r="S29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB29" t="s">
         <v>143</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AC29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD29" t="s">
         <v>145</v>
       </c>
-      <c r="AJ28" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL28">
-        <v>85</v>
-      </c>
-      <c r="AM28">
-        <v>74</v>
-      </c>
-      <c r="AN28">
-        <v>140</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="4:46">
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29">
-        <v>99999</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29">
-        <v>229</v>
-      </c>
-      <c r="S29" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>134</v>
-      </c>
       <c r="AE29" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="AH29" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI29" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ29" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AK29" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL29">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="AM29">
         <v>75</v>
       </c>
       <c r="AN29">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="AP29" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AQ29" t="s">
-        <v>152</v>
+        <v>163</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>166</v>
       </c>
       <c r="AS29" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT29" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="30" spans="4:46">
+    <row r="30" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30">
+        <v>59999</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30">
+        <v>236</v>
+      </c>
+      <c r="S30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL30">
         <v>90</v>
-      </c>
-      <c r="F30">
-        <v>50000</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K30">
-        <v>231</v>
-      </c>
-      <c r="S30" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL30">
-        <v>86</v>
       </c>
       <c r="AM30">
         <v>75</v>
       </c>
       <c r="AN30">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP30" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ30" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AR30" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS30" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT30" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="31" spans="4:46">
+    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31">
-        <v>59999</v>
+        <v>54999</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K31">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S31" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA31" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB31" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AC31" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AD31" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AE31" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AH31" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI31" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AJ31" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AK31" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AL31">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM31">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN31">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP31" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AQ31" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AR31" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AS31" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AT31" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="32" spans="4:46">
+    <row r="32" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F32">
         <v>54999</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K32">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S32" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA32" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AB32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL32">
+        <v>180</v>
+      </c>
+      <c r="AM32">
+        <v>75</v>
+      </c>
+      <c r="AN32">
+        <v>215</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33">
+        <v>15000</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="I33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33">
+        <v>238</v>
+      </c>
+      <c r="S33" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL33">
+        <v>120</v>
+      </c>
+      <c r="AM33">
+        <v>76</v>
+      </c>
+      <c r="AN33">
+        <v>200</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34">
+        <v>29999</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="I34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34">
+        <v>243</v>
+      </c>
+      <c r="S34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL34">
+        <v>12</v>
+      </c>
+      <c r="AM34">
+        <v>74</v>
+      </c>
+      <c r="AN34">
+        <v>240</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <v>34999</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="I35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35">
+        <v>242</v>
+      </c>
+      <c r="S35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL35">
+        <v>120</v>
+      </c>
+      <c r="AM35">
+        <v>75</v>
+      </c>
+      <c r="AN35">
+        <v>240</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36">
+        <v>24999</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AH32" t="s">
+      <c r="I36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36">
+        <v>241</v>
+      </c>
+      <c r="S36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB36" t="s">
         <v>143</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AC36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD36" t="s">
         <v>145</v>
       </c>
-      <c r="AJ32" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL32">
-        <v>85</v>
-      </c>
-      <c r="AM32">
-        <v>74</v>
-      </c>
-      <c r="AN32">
-        <v>180</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>150</v>
+      <c r="AE36" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL36">
+        <v>115</v>
+      </c>
+      <c r="AM36">
+        <v>75</v>
+      </c>
+      <c r="AN36">
+        <v>230</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="33" spans="4:46">
-      <c r="D33" t="s">
+    <row r="37" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37">
+        <v>19999</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K37">
+        <v>192</v>
+      </c>
+      <c r="S37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL37">
+        <v>80</v>
+      </c>
+      <c r="AM37">
+        <v>75</v>
+      </c>
+      <c r="AN37">
+        <v>200</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38">
+        <v>20000</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38">
+        <v>240</v>
+      </c>
+      <c r="S38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL38">
+        <v>80</v>
+      </c>
+      <c r="AM38">
+        <v>73</v>
+      </c>
+      <c r="AN38">
+        <v>200</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33">
-        <v>54999</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33">
-        <v>233</v>
-      </c>
-      <c r="S33" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH33" t="s">
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>550000</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39">
+        <v>239</v>
+      </c>
+      <c r="S39" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB39" t="s">
         <v>143</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AC39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD39" t="s">
         <v>145</v>
       </c>
-      <c r="AJ33" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL33">
-        <v>180</v>
-      </c>
-      <c r="AM33">
-        <v>75</v>
-      </c>
-      <c r="AN33">
-        <v>215</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="4:46">
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34">
-        <v>15000</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K34">
-        <v>238</v>
-      </c>
-      <c r="S34" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL34">
-        <v>120</v>
-      </c>
-      <c r="AM34">
-        <v>76</v>
-      </c>
-      <c r="AN34">
-        <v>200</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>150</v>
+      <c r="AE39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL39">
+        <v>100</v>
+      </c>
+      <c r="AM39">
+        <v>82</v>
+      </c>
+      <c r="AN39">
+        <v>220</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
-    <hyperlink ref="G25" r:id="rId47"/>
-    <hyperlink ref="I25" r:id="rId48"/>
-    <hyperlink ref="G26" r:id="rId49"/>
-    <hyperlink ref="I26" r:id="rId50"/>
-    <hyperlink ref="G27" r:id="rId51"/>
-    <hyperlink ref="I27" r:id="rId52"/>
-    <hyperlink ref="G28" r:id="rId53"/>
-    <hyperlink ref="I28" r:id="rId54"/>
-    <hyperlink ref="G29" r:id="rId55"/>
-    <hyperlink ref="I29" r:id="rId56"/>
-    <hyperlink ref="G30" r:id="rId57"/>
-    <hyperlink ref="I30" r:id="rId58"/>
-    <hyperlink ref="G31" r:id="rId59"/>
-    <hyperlink ref="I31" r:id="rId60"/>
-    <hyperlink ref="G32" r:id="rId61"/>
-    <hyperlink ref="I32" r:id="rId62"/>
-    <hyperlink ref="G33" r:id="rId63"/>
-    <hyperlink ref="I33" r:id="rId64"/>
-    <hyperlink ref="G34" r:id="rId65"/>
-    <hyperlink ref="I34" r:id="rId66"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="I37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC714766-81F3-4A90-B465-2E06E44B906D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="175">
   <si>
     <t>Address</t>
   </si>
@@ -209,6 +203,9 @@
   </si>
   <si>
     <t>Переговорный стол</t>
+  </si>
+  <si>
+    <t>Кабинет для руководителя</t>
   </si>
   <si>
     <t>Стол переговорный 
@@ -642,33 +639,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Стол для руководителя
-Артикул 218
-Стол руководителя в современном стиле цвета Дуб сонома— это сочетание элегантности и функциональности. Большой эргономичный стол обеспечивает комфортное рабочее пространство. К столу можем подобрать мебель: шкафы, тумбы, стулья, кресла Большой эргономичный стол обеспечивает комфортное рабочее пространство
-Размеры ДхШхВ: 180х90х77
-Цвет: Дуб сонома
-Цена: 14 999
-Количество 1 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Стол офисный
 Артикул 215
 Офисный стол бежевого цвета — это универсальное и стильное решение для рабочего пространства. Офисный стол бежевого цвета — это универсальное и стильное решение для рабочего пространства.
@@ -974,31 +944,6 @@
     </t>
   </si>
   <si>
-    <t>Кабинет руководителя
-Артикул 234
-Размер ДхШхВ: Стол - 180х85х74
-Брифинг - 124х90х68
-Тумба под оргтехнику - 120х53х64
-Шкафы - 80х45х1х201
-Цвет яблоня
-Цена 54 999
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кабинет руководителя
 Артикул 233
 Мебель офисная для директоров бу. Стол с большой рабочей поверхностью и удобной эргономикой. 
@@ -1215,6 +1160,88 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол для переговоров 
+Артикул 244
+Офисный стол для переговоров, вмещает до 12 человек. Массивный стол выполнен из прочных качественных материалов. 
+На столе есть дефекты. 
+Размеры ДхШхВ: 240х120х75
+Цвет: коричневый 
+Цена 39 999
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол переговорный
+Артикул 245
+Офисный стол для переговоров в хорошем состоянии. Стол выполнен из толстого ДСП, что делает его надёжным выбором.
+Размеры ДхШхВ: 210х100х76
+Цвет ольха
+Цена 24 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кабинет для руководителя
+Артикул 218
+Кабинет для директоров и руководителей в современном стиле цвета Дуб сонома— это сочетание элегантности и функциональности. Большой эргономичный стол обеспечивает комфортное рабочее пространство. 
+Шкаф гардероб с зеркалом и полками обеспечит порядок для ваших вещей. А шкаф для документов и тумба помогут упорядочить ваши документы. 
+Размеры ДхШхВ: Стол - 180х90х77
+Брифинг - 100х80х77
+Шкафы - 92х43х207
+Тумба подкатная 
+Цвет: Дуб сонома
+Цена: 44 999
+Количество 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
   </si>
   <si>
@@ -1266,9 +1293,6 @@
     <t>https://disk.yandex.ru/i/xLhNqFCRGaT6Dw | https://disk.yandex.ru/i/65AgfmgdR6_KBg | https://disk.yandex.ru/i/Do7La_ustE0Zfw | https://disk.yandex.ru/i/0yuslDTBYb48OQ | https://disk.yandex.ru/i/fQ-0pM9TjTx1kA | https://disk.yandex.ru/i/dVdjd9bKNN034A | https://disk.yandex.ru/i/5LkL_MGgRTEXYw | https://disk.yandex.ru/i/01l2geLXjJ6Erw | https://disk.yandex.ru/i/ytRDzqKu8wzcEA | https://disk.yandex.ru/i/aMjgPp1Ov5ccmg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/o17ZWaV_t58i9Q | https://disk.yandex.ru/i/ofnxTQFi8A5MNw | https://disk.yandex.ru/i/aXiG3TT8Ireygw | https://disk.yandex.ru/i/6HwqFuN55lh3aw | https://disk.yandex.ru/i/8elVM3Z0LwMRug | https://disk.yandex.ru/i/X0UXgaGIpjzwbQ | https://disk.yandex.ru/i/xusaigJmBvB-vQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/I6OkWC090Bzr9g | https://disk.yandex.ru/i/XzKLZC5JrA7-tQ | https://disk.yandex.ru/i/5N9vesXkn26ohA | https://disk.yandex.ru/i/_U8LexsmwQkC4g</t>
   </si>
   <si>
@@ -1302,9 +1326,6 @@
     <t>https://disk.yandex.ru/i/8OrptxDP1SCAXg | https://disk.yandex.ru/i/KTe__eLylPbk0A | https://disk.yandex.ru/i/3x8Uc0kG9PySMA | https://disk.yandex.ru/i/Vd4HaiHH14z3MQ | https://disk.yandex.ru/i/NgRVifjrxyjZhA | https://disk.yandex.ru/i/FjuIidaF8q4msg | https://disk.yandex.ru/i/R2SomtDhXsvnmw | https://disk.yandex.ru/i/_SY6e9I-v7dL0A | https://disk.yandex.ru/i/_BFBWUs5KmJqdg | https://disk.yandex.ru/i/OO5sOTXo5sK_Ew</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/yktOHmwyEAFzNg | https://disk.yandex.ru/i/fSBDveTvl31b_Q | https://disk.yandex.ru/i/0kW7mCGbkj2Ctw | https://disk.yandex.ru/i/0oEy6S28Mujuqw | https://disk.yandex.ru/i/u18xLxEv-MK2GA | https://disk.yandex.ru/i/cVIZ-a7gTXRlKg | https://disk.yandex.ru/i/_adWeda-XGaRfg | https://disk.yandex.ru/i/AuqYvJaGhzaEpg | https://disk.yandex.ru/i/XRjfqBCgAzguCQ | https://disk.yandex.ru/i/DG3sK0paA0Thlg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/JQfyetGJQJ9HPQ | https://disk.yandex.ru/i/-ONo1C8F5MRC5Q | https://disk.yandex.ru/i/K2kXkEu5pidhOg | https://disk.yandex.ru/i/GXLcjVxqcBOimw | https://disk.yandex.ru/i/5URrfIWCeIH7lQ | https://disk.yandex.ru/i/BmVfLq-ulZqDAQ | https://disk.yandex.ru/i/0pdVOuWmNpK8Kw | https://disk.yandex.ru/i/aS1g-0vhz5-Vlg | https://disk.yandex.ru/i/8pSQrResjinI8g | https://disk.yandex.ru/i/kHKys7rAbgc22g</t>
   </si>
   <si>
@@ -1329,6 +1350,15 @@
     <t>https://disk.yandex.ru/i/9BuSokh8_lSZQg | https://disk.yandex.ru/i/JIAlGhgShXdvrQ | https://disk.yandex.ru/i/2hVuzsPUOvkWDQ | https://disk.yandex.ru/i/N6kMxf2BFYFj-g | https://disk.yandex.ru/i/pRJoRnjVYczM7g | https://disk.yandex.ru/i/pVXI-zj28hXEpg | https://disk.yandex.ru/i/PFDcuRR2KT6P5w | https://disk.yandex.ru/i/mW0IyfFURGQhcw | https://disk.yandex.ru/i/1WRjvklRT-3CAA | https://disk.yandex.ru/i/PU6B34dfVGHb5g</t>
   </si>
   <si>
+    <t xml:space="preserve"> https://disk.yandex.ru/i/AAvgr8hNtpWmTg | https://disk.yandex.ru/i/S0fXYYKULeaLIg | https://disk.yandex.ru/i/8nMhLctvEvD3ew | https://disk.yandex.ru/i/0yPJ2zBbXAnhHw | https://disk.yandex.ru/i/KmRo2eeD9nVh5Q </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PcTZyedF1rDOJg | https://disk.yandex.ru/i/LfEJ0P5ilCXSVQ | https://disk.yandex.ru/i/RhTS5e7F4puvbA | https://disk.yandex.ru/i/W8nSOPZgDne_dA | https://disk.yandex.ru/i/zEtSyCHXsZoMgQ | https://disk.yandex.ru/i/UkaIVPzrKhds3A | https://disk.yandex.ru/i/jKFdefNwgz40WA | https://disk.yandex.ru/i/6qgZOz8G0n5VmQ | https://disk.yandex.ru/i/Yy95RrfshV4pkg | https://disk.yandex.ru/i/SWxosuLwtOS0ZA | https://disk.yandex.ru/i/s3mwCoCpL7JFcw | https://disk.yandex.ru/i/0AYPSh2aR76cWA | https://disk.yandex.ru/i/RMlg6fJKMdU8RA | https://disk.yandex.ru/i/87WpAfEe8iBMIg | https://disk.yandex.ru/i/2VFM9CZ5az1-Iw | https://disk.yandex.ru/i/8nkKR3VV0MS6Jw | https://disk.yandex.ru/i/TVs05P3_7J-i0g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OEPZHMOhF0ffDw | https://disk.yandex.ru/i/o17ZWaV_t58i9Q | https://disk.yandex.ru/i/ofnxTQFi8A5MNw | https://disk.yandex.ru/i/aXiG3TT8Ireygw | https://disk.yandex.ru/i/6HwqFuN55lh3aw | https://disk.yandex.ru/i/8elVM3Z0LwMRug | https://disk.yandex.ru/i/X0UXgaGIpjzwbQ | https://disk.yandex.ru/i/xusaigJmBvB-vQ | https://disk.yandex.ru/i/z3Y9H7Voo58qDQ | https://disk.yandex.ru/i/gjRqqo4532T9VA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1372,6 +1402,9 @@
   </si>
   <si>
     <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Серый</t>
   </si>
   <si>
     <t>Столы</t>
@@ -1428,8 +1461,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1500,26 +1533,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1557,9 +1582,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1591,27 +1616,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1643,27 +1650,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1836,16 +1825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1985,54 +1972,54 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AH2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AJ2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AK2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -2044,66 +2031,66 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AQ2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AS2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AT2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>19999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K3">
         <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AH3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -2115,69 +2102,69 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AR3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>24999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K4">
         <v>168</v>
       </c>
       <c r="S4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -2189,69 +2176,69 @@
         <v>170</v>
       </c>
       <c r="AP4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AQ4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AR4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K5">
         <v>186</v>
       </c>
       <c r="S5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AH5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AK5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL5">
         <v>170</v>
@@ -2263,66 +2250,66 @@
         <v>360</v>
       </c>
       <c r="AP5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AQ5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AS5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AT5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K6">
         <v>188</v>
       </c>
       <c r="S6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -2334,66 +2321,66 @@
         <v>180</v>
       </c>
       <c r="AP6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AS6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AT6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>90000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K7">
         <v>196</v>
       </c>
       <c r="S7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -2405,69 +2392,69 @@
         <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AR7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>40000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K8">
         <v>197</v>
       </c>
       <c r="S8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AH8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AK8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL8">
         <v>120</v>
@@ -2479,69 +2466,69 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AR8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>19999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K9">
         <v>207</v>
       </c>
       <c r="S9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AH9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL9">
         <v>94</v>
@@ -2553,69 +2540,69 @@
         <v>197</v>
       </c>
       <c r="AP9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AQ9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AR9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46">
       <c r="D10" t="s">
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>25000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K10">
         <v>208</v>
       </c>
       <c r="S10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AH10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -2627,69 +2614,69 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AR10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46">
       <c r="D11" t="s">
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>21000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K11">
         <v>209</v>
       </c>
       <c r="S11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AH11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2701,69 +2688,69 @@
         <v>160</v>
       </c>
       <c r="AP11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AR11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46">
       <c r="D12" t="s">
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12">
         <v>25000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K12">
         <v>210</v>
       </c>
       <c r="S12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AH12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2775,69 +2762,69 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AR12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46">
       <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>25000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K13">
         <v>211</v>
       </c>
       <c r="S13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AH13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ13" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2849,69 +2836,69 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AR13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS13" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K14">
         <v>2136</v>
       </c>
       <c r="S14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AK14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2923,66 +2910,66 @@
         <v>80</v>
       </c>
       <c r="AP14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AQ14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AS14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AT14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="D15" t="s">
         <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <v>9999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K15">
         <v>223</v>
       </c>
       <c r="S15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AH15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AJ15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AK15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL15">
         <v>120</v>
@@ -2994,66 +2981,66 @@
         <v>120</v>
       </c>
       <c r="AP15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AQ15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AS15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AT15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="D16" t="s">
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>120000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K16">
         <v>222</v>
       </c>
       <c r="S16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AH16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AK16" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL16">
         <v>200</v>
@@ -3065,69 +3052,69 @@
         <v>300</v>
       </c>
       <c r="AP16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AQ16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AR16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT16" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:46">
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17">
         <v>40000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K17">
         <v>220</v>
       </c>
       <c r="S17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AH17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -3139,69 +3126,69 @@
         <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AR17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS17" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:46">
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18">
         <v>35000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K18">
         <v>219</v>
       </c>
       <c r="S18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AH18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL18">
         <v>70</v>
@@ -3213,572 +3200,575 @@
         <v>140</v>
       </c>
       <c r="AP18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AR18" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:46">
       <c r="D19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19">
-        <v>14999</v>
+        <v>15000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K19">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AH19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL19">
         <v>90</v>
       </c>
       <c r="AM19">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN19">
         <v>180</v>
       </c>
       <c r="AP19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AS19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="4:46">
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20">
+        <v>12000</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20">
+        <v>216</v>
+      </c>
+      <c r="S20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL20">
+        <v>80</v>
+      </c>
+      <c r="AM20">
+        <v>3</v>
+      </c>
+      <c r="AN20">
+        <v>200</v>
+      </c>
+      <c r="AP20" t="s">
         <v>168</v>
       </c>
-      <c r="AT19" t="s">
-        <v>161</v>
+      <c r="AQ20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20">
+    <row r="21" spans="4:46">
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21">
         <v>15000</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20">
-        <v>215</v>
-      </c>
-      <c r="S20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="G21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21">
+        <v>213</v>
+      </c>
+      <c r="S21" t="s">
         <v>143</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AA21" t="s">
         <v>144</v>
       </c>
-      <c r="AD20" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ20" t="s">
+      <c r="AB21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH21" t="s">
         <v>158</v>
       </c>
-      <c r="AK20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL20">
-        <v>90</v>
-      </c>
-      <c r="AM20">
-        <v>75</v>
-      </c>
-      <c r="AN20">
-        <v>180</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21">
-        <v>12000</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21">
-        <v>216</v>
-      </c>
-      <c r="S21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>154</v>
-      </c>
       <c r="AI21" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL21">
         <v>80</v>
       </c>
       <c r="AM21">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AN21">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ21" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AS21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="4:46">
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22">
+        <v>25000</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22">
+        <v>212</v>
+      </c>
+      <c r="S22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL22">
+        <v>85</v>
+      </c>
+      <c r="AM22">
+        <v>76</v>
+      </c>
+      <c r="AN22">
+        <v>160</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR22" t="s">
         <v>170</v>
       </c>
-      <c r="AT21" t="s">
-        <v>161</v>
+      <c r="AS22" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22">
-        <v>15000</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22">
-        <v>213</v>
-      </c>
-      <c r="S22" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB22" t="s">
+    <row r="23" spans="4:46">
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23">
+        <v>18000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23">
+        <v>2436</v>
+      </c>
+      <c r="S23" t="s">
         <v>143</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AA23" t="s">
         <v>144</v>
       </c>
-      <c r="AD22" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL22">
-        <v>80</v>
-      </c>
-      <c r="AM22">
-        <v>72</v>
-      </c>
-      <c r="AN22">
-        <v>180</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23">
-        <v>25000</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K23">
-        <v>212</v>
-      </c>
-      <c r="S23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>141</v>
-      </c>
       <c r="AB23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE23" t="s">
         <v>153</v>
       </c>
       <c r="AH23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ23" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AK23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL23">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AM23">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN23">
         <v>160</v>
       </c>
       <c r="AP23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ23" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AR23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:46">
       <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24">
+        <v>228</v>
+      </c>
+      <c r="S24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL24">
+        <v>120</v>
+      </c>
+      <c r="AM24">
+        <v>78</v>
+      </c>
+      <c r="AN24">
+        <v>150</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="4:46">
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <v>18000</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25">
+        <v>2451</v>
+      </c>
+      <c r="S25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL25">
+        <v>85</v>
+      </c>
+      <c r="AM25">
+        <v>74</v>
+      </c>
+      <c r="AN25">
+        <v>140</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="4:46">
+      <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24">
-        <v>18000</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K24">
-        <v>2436</v>
-      </c>
-      <c r="S24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL24">
-        <v>100</v>
-      </c>
-      <c r="AM24">
-        <v>75</v>
-      </c>
-      <c r="AN24">
-        <v>160</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25">
-        <v>10000</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25">
-        <v>228</v>
-      </c>
-      <c r="S25" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL25">
-        <v>120</v>
-      </c>
-      <c r="AM25">
-        <v>78</v>
-      </c>
-      <c r="AN25">
-        <v>150</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26">
         <v>18000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K26">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="S26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AH26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI26" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL26">
         <v>85</v>
@@ -3790,1040 +3780,1109 @@
         <v>140</v>
       </c>
       <c r="AP26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AR26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="4:46">
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27">
+        <v>99999</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27">
+        <v>229</v>
+      </c>
+      <c r="S27" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL27">
+        <v>200</v>
+      </c>
+      <c r="AM27">
+        <v>75</v>
+      </c>
+      <c r="AN27">
+        <v>400</v>
+      </c>
+      <c r="AP27" t="s">
         <v>166</v>
       </c>
-      <c r="AS26" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>161</v>
+      <c r="AQ27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="27" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27">
-        <v>18000</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K27">
-        <v>2450</v>
-      </c>
-      <c r="S27" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB27" t="s">
+    <row r="28" spans="4:46">
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28">
+        <v>50000</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28">
+        <v>231</v>
+      </c>
+      <c r="S28" t="s">
         <v>143</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AA28" t="s">
         <v>144</v>
       </c>
-      <c r="AD27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ27" t="s">
+      <c r="AB28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH28" t="s">
         <v>158</v>
       </c>
-      <c r="AK27" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL27">
-        <v>85</v>
-      </c>
-      <c r="AM27">
-        <v>74</v>
-      </c>
-      <c r="AN27">
-        <v>140</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28">
-        <v>99999</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K28">
-        <v>229</v>
-      </c>
-      <c r="S28" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>154</v>
-      </c>
       <c r="AI28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AK28" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL28">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="AM28">
         <v>75</v>
       </c>
       <c r="AN28">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="AP28" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AQ28" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>170</v>
       </c>
       <c r="AS28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT28" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:46">
       <c r="D29" t="s">
         <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F29">
-        <v>50000</v>
+        <v>59999</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K29">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="S29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE29" t="s">
         <v>149</v>
       </c>
       <c r="AH29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI29" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK29" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL29">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AM29">
         <v>75</v>
       </c>
       <c r="AN29">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP29" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ29" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AR29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS29" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AT29" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="30" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:46">
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F30">
-        <v>59999</v>
+        <v>54999</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K30">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="S30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AH30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ30" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AK30" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL30">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AM30">
         <v>75</v>
       </c>
       <c r="AN30">
+        <v>215</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="4:46">
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31">
+        <v>15000</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31">
+        <v>238</v>
+      </c>
+      <c r="S31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL31">
+        <v>120</v>
+      </c>
+      <c r="AM31">
+        <v>76</v>
+      </c>
+      <c r="AN31">
         <v>200</v>
       </c>
-      <c r="AP30" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>161</v>
+      <c r="AP31" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31">
-        <v>54999</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K31">
-        <v>234</v>
-      </c>
-      <c r="S31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB31" t="s">
+    <row r="32" spans="4:46">
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32">
+        <v>29999</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32">
+        <v>243</v>
+      </c>
+      <c r="S32" t="s">
         <v>143</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AA32" t="s">
         <v>144</v>
       </c>
-      <c r="AD31" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE31" t="s">
+      <c r="AB32" t="s">
         <v>146</v>
       </c>
-      <c r="AH31" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ31" t="s">
+      <c r="AC32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH32" t="s">
         <v>158</v>
       </c>
-      <c r="AK31" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL31">
-        <v>85</v>
-      </c>
-      <c r="AM31">
+      <c r="AI32" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL32">
+        <v>12</v>
+      </c>
+      <c r="AM32">
         <v>74</v>
       </c>
-      <c r="AN31">
-        <v>180</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>161</v>
+      <c r="AN32">
+        <v>240</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="32" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32">
-        <v>54999</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K32">
-        <v>233</v>
-      </c>
-      <c r="S32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL32">
-        <v>180</v>
-      </c>
-      <c r="AM32">
-        <v>75</v>
-      </c>
-      <c r="AN32">
-        <v>215</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:46">
       <c r="D33" t="s">
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F33">
-        <v>15000</v>
+        <v>34999</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K33">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="S33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE33" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AH33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI33" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AK33" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL33">
         <v>120</v>
       </c>
       <c r="AM33">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN33">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AP33" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ33" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AS33" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AT33" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="34" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:46">
       <c r="D34" t="s">
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F34">
-        <v>29999</v>
+        <v>24999</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K34">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB34" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL34">
+        <v>115</v>
+      </c>
+      <c r="AM34">
+        <v>75</v>
+      </c>
+      <c r="AN34">
+        <v>230</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="4:46">
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35">
+        <v>19999</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K35">
+        <v>192</v>
+      </c>
+      <c r="S35" t="s">
         <v>143</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AA35" t="s">
         <v>144</v>
       </c>
-      <c r="AD34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE34" t="s">
+      <c r="AB35" t="s">
         <v>146</v>
       </c>
-      <c r="AH34" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ34" t="s">
+      <c r="AC35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH35" t="s">
         <v>158</v>
       </c>
-      <c r="AK34" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL34">
-        <v>12</v>
-      </c>
-      <c r="AM34">
-        <v>74</v>
-      </c>
-      <c r="AN34">
-        <v>240</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35">
-        <v>34999</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K35">
-        <v>242</v>
-      </c>
-      <c r="S35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>154</v>
-      </c>
       <c r="AI35" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ35" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL35">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM35">
         <v>75</v>
       </c>
       <c r="AN35">
+        <v>200</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="4:46">
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36">
+        <v>20000</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36">
         <v>240</v>
       </c>
-      <c r="AP35" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>161</v>
+      <c r="S36" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL36">
+        <v>80</v>
+      </c>
+      <c r="AM36">
+        <v>73</v>
+      </c>
+      <c r="AN36">
+        <v>200</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="36" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36">
-        <v>24999</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K36">
-        <v>241</v>
-      </c>
-      <c r="S36" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB36" t="s">
+    <row r="37" spans="4:46">
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37">
+        <v>550000</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37">
+        <v>239</v>
+      </c>
+      <c r="S37" t="s">
         <v>143</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AA37" t="s">
         <v>144</v>
       </c>
-      <c r="AD36" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE36" t="s">
+      <c r="AB37" t="s">
         <v>146</v>
       </c>
-      <c r="AH36" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL36">
-        <v>115</v>
-      </c>
-      <c r="AM36">
-        <v>75</v>
-      </c>
-      <c r="AN36">
-        <v>230</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37">
-        <v>19999</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K37">
-        <v>192</v>
-      </c>
-      <c r="S37" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>143</v>
-      </c>
       <c r="AC37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE37" t="s">
         <v>149</v>
       </c>
       <c r="AH37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI37" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ37" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL37">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM37">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AN37">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AP37" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ37" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>170</v>
       </c>
       <c r="AS37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AT37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="38" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:46">
       <c r="D38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F38">
-        <v>20000</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>137</v>
+        <v>39999</v>
+      </c>
+      <c r="G38" t="s">
+        <v>139</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K38">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="S38" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AA38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE38" t="s">
         <v>149</v>
       </c>
       <c r="AH38" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI38" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL38">
+        <v>120</v>
+      </c>
+      <c r="AM38">
+        <v>75</v>
+      </c>
+      <c r="AN38">
+        <v>240</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="4:46">
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39">
+        <v>24999</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K39">
+        <v>245</v>
+      </c>
+      <c r="S39" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH39" t="s">
         <v>158</v>
       </c>
-      <c r="AK38" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL38">
-        <v>80</v>
-      </c>
-      <c r="AM38">
-        <v>73</v>
-      </c>
-      <c r="AN38">
-        <v>200</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39">
-        <v>550000</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K39">
-        <v>239</v>
-      </c>
-      <c r="S39" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>154</v>
-      </c>
       <c r="AI39" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ39" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK39" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL39">
         <v>100</v>
       </c>
       <c r="AM39">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AN39">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AP39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="4:46">
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40">
+        <v>44999</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K40">
+        <v>218</v>
+      </c>
+      <c r="S40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>162</v>
       </c>
-      <c r="AQ39" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>161</v>
+      <c r="AK40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL40">
+        <v>90</v>
+      </c>
+      <c r="AM40">
+        <v>77</v>
+      </c>
+      <c r="AN40">
+        <v>180</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="I38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="G26" r:id="rId49"/>
+    <hyperlink ref="I26" r:id="rId50"/>
+    <hyperlink ref="G27" r:id="rId51"/>
+    <hyperlink ref="I27" r:id="rId52"/>
+    <hyperlink ref="G28" r:id="rId53"/>
+    <hyperlink ref="I28" r:id="rId54"/>
+    <hyperlink ref="G29" r:id="rId55"/>
+    <hyperlink ref="I29" r:id="rId56"/>
+    <hyperlink ref="G30" r:id="rId57"/>
+    <hyperlink ref="I30" r:id="rId58"/>
+    <hyperlink ref="G31" r:id="rId59"/>
+    <hyperlink ref="I31" r:id="rId60"/>
+    <hyperlink ref="G32" r:id="rId61"/>
+    <hyperlink ref="I32" r:id="rId62"/>
+    <hyperlink ref="G33" r:id="rId63"/>
+    <hyperlink ref="I33" r:id="rId64"/>
+    <hyperlink ref="G34" r:id="rId65"/>
+    <hyperlink ref="I34" r:id="rId66"/>
+    <hyperlink ref="G35" r:id="rId67"/>
+    <hyperlink ref="I35" r:id="rId68"/>
+    <hyperlink ref="G36" r:id="rId69"/>
+    <hyperlink ref="I36" r:id="rId70"/>
+    <hyperlink ref="G37" r:id="rId71"/>
+    <hyperlink ref="I37" r:id="rId72"/>
+    <hyperlink ref="I38" r:id="rId73"/>
+    <hyperlink ref="G39" r:id="rId74"/>
+    <hyperlink ref="I39" r:id="rId75"/>
+    <hyperlink ref="G40" r:id="rId76"/>
+    <hyperlink ref="I40" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AD6EC6-FDA7-4282-9B57-50E8ECC63CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1326,9 +1332,6 @@
     <t>https://disk.yandex.ru/i/8OrptxDP1SCAXg | https://disk.yandex.ru/i/KTe__eLylPbk0A | https://disk.yandex.ru/i/3x8Uc0kG9PySMA | https://disk.yandex.ru/i/Vd4HaiHH14z3MQ | https://disk.yandex.ru/i/NgRVifjrxyjZhA | https://disk.yandex.ru/i/FjuIidaF8q4msg | https://disk.yandex.ru/i/R2SomtDhXsvnmw | https://disk.yandex.ru/i/_SY6e9I-v7dL0A | https://disk.yandex.ru/i/_BFBWUs5KmJqdg | https://disk.yandex.ru/i/OO5sOTXo5sK_Ew</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/JQfyetGJQJ9HPQ | https://disk.yandex.ru/i/-ONo1C8F5MRC5Q | https://disk.yandex.ru/i/K2kXkEu5pidhOg | https://disk.yandex.ru/i/GXLcjVxqcBOimw | https://disk.yandex.ru/i/5URrfIWCeIH7lQ | https://disk.yandex.ru/i/BmVfLq-ulZqDAQ | https://disk.yandex.ru/i/0pdVOuWmNpK8Kw | https://disk.yandex.ru/i/aS1g-0vhz5-Vlg | https://disk.yandex.ru/i/8pSQrResjinI8g | https://disk.yandex.ru/i/kHKys7rAbgc22g</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/lnvqJEpZMKs7og | https://disk.yandex.ru/i/WsPusi5nNEPX9w | https://disk.yandex.ru/i/Klq0PsB2O8m1tQ | https://disk.yandex.ru/i/JOQijHyk_cSBJg</t>
   </si>
   <si>
@@ -1353,12 +1356,6 @@
     <t xml:space="preserve"> https://disk.yandex.ru/i/AAvgr8hNtpWmTg | https://disk.yandex.ru/i/S0fXYYKULeaLIg | https://disk.yandex.ru/i/8nMhLctvEvD3ew | https://disk.yandex.ru/i/0yPJ2zBbXAnhHw | https://disk.yandex.ru/i/KmRo2eeD9nVh5Q </t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/PcTZyedF1rDOJg | https://disk.yandex.ru/i/LfEJ0P5ilCXSVQ | https://disk.yandex.ru/i/RhTS5e7F4puvbA | https://disk.yandex.ru/i/W8nSOPZgDne_dA | https://disk.yandex.ru/i/zEtSyCHXsZoMgQ | https://disk.yandex.ru/i/UkaIVPzrKhds3A | https://disk.yandex.ru/i/jKFdefNwgz40WA | https://disk.yandex.ru/i/6qgZOz8G0n5VmQ | https://disk.yandex.ru/i/Yy95RrfshV4pkg | https://disk.yandex.ru/i/SWxosuLwtOS0ZA | https://disk.yandex.ru/i/s3mwCoCpL7JFcw | https://disk.yandex.ru/i/0AYPSh2aR76cWA | https://disk.yandex.ru/i/RMlg6fJKMdU8RA | https://disk.yandex.ru/i/87WpAfEe8iBMIg | https://disk.yandex.ru/i/2VFM9CZ5az1-Iw | https://disk.yandex.ru/i/8nkKR3VV0MS6Jw | https://disk.yandex.ru/i/TVs05P3_7J-i0g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/OEPZHMOhF0ffDw | https://disk.yandex.ru/i/o17ZWaV_t58i9Q | https://disk.yandex.ru/i/ofnxTQFi8A5MNw | https://disk.yandex.ru/i/aXiG3TT8Ireygw | https://disk.yandex.ru/i/6HwqFuN55lh3aw | https://disk.yandex.ru/i/8elVM3Z0LwMRug | https://disk.yandex.ru/i/X0UXgaGIpjzwbQ | https://disk.yandex.ru/i/xusaigJmBvB-vQ | https://disk.yandex.ru/i/z3Y9H7Voo58qDQ | https://disk.yandex.ru/i/gjRqqo4532T9VA</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1456,13 +1453,22 @@
   </si>
   <si>
     <t>Кабинет | Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PcTZyedF1rDOJg | https://disk.yandex.ru/i/LfEJ0P5ilCXSVQ | https://disk.yandex.ru/i/RhTS5e7F4puvbA | https://disk.yandex.ru/i/W8nSOPZgDne_dA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/HyzF6oPWr07g_Q | https://disk.yandex.ru/i/GhQCaatDtnVqLQ | https://disk.yandex.ru/i/pM0vR4uP1w8Wig | https://disk.yandex.ru/i/ZavWODbe3T432g | https://disk.yandex.ru/i/BIxKW5nf3bhTfg | https://disk.yandex.ru/i/0eUPoGmRi-RTOw | https://disk.yandex.ru/i/AKzr7x8U3tje2w | https://disk.yandex.ru/i/a25cKjo5iODQ8A | https://disk.yandex.ru/i/Ru_VNwAhzSVa4A | https://disk.yandex.ru/i/WCkh8LDa_ikcsw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/RfVVeT-aCLZuvw | https://disk.yandex.ru/i/6GJR3J5bmAy-aQ | https://disk.yandex.ru/i/uMgdfKyLG_yTTg | https://disk.yandex.ru/i/wflbctyAgnL_lQ | https://disk.yandex.ru/i/Nh8m6BS1aUxRxg | https://disk.yandex.ru/i/6E3j4fC57CPh_w | https://disk.yandex.ru/i/wNqo4EQdRbtL5Q | https://disk.yandex.ru/i/h4ItcOeLw4npig | https://disk.yandex.ru/i/Pst58JOFdDtQLA | https://disk.yandex.ru/i/RiigoqQLLTHdOQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1533,18 +1539,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1582,9 +1596,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1616,9 +1630,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1650,9 +1682,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1825,14 +1875,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1972,7 +2024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1986,40 +2038,40 @@
         <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AA2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC2" t="s">
         <v>144</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>145</v>
       </c>
-      <c r="AC2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>148</v>
-      </c>
       <c r="AE2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>158</v>
       </c>
-      <c r="AI2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>161</v>
-      </c>
       <c r="AK2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -2031,19 +2083,19 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AS2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -2057,40 +2109,40 @@
         <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K3">
         <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AA3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC3" t="s">
         <v>144</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>145</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>147</v>
       </c>
-      <c r="AD3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>150</v>
-      </c>
       <c r="AH3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -2102,22 +2154,22 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR3" t="s">
         <v>167</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>170</v>
-      </c>
       <c r="AS3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -2131,40 +2183,40 @@
         <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K4">
         <v>168</v>
       </c>
       <c r="S4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AA4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC4" t="s">
         <v>144</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>145</v>
       </c>
-      <c r="AC4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>148</v>
       </c>
-      <c r="AE4" t="s">
-        <v>151</v>
-      </c>
       <c r="AH4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -2176,22 +2228,22 @@
         <v>170</v>
       </c>
       <c r="AP4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AQ4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AR4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AS4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -2205,40 +2257,40 @@
         <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K5">
         <v>186</v>
       </c>
       <c r="S5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AA5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC5" t="s">
         <v>144</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>145</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI5" t="s">
         <v>147</v>
       </c>
-      <c r="AD5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>150</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AK5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL5">
         <v>170</v>
@@ -2250,19 +2302,19 @@
         <v>360</v>
       </c>
       <c r="AP5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS5" t="s">
         <v>168</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>171</v>
-      </c>
       <c r="AT5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -2276,40 +2328,40 @@
         <v>107</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K6">
         <v>188</v>
       </c>
       <c r="S6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AA6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC6" t="s">
         <v>144</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>145</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI6" t="s">
         <v>147</v>
       </c>
-      <c r="AD6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>150</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -2321,19 +2373,19 @@
         <v>180</v>
       </c>
       <c r="AP6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AS6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AT6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>48</v>
       </c>
@@ -2347,40 +2399,40 @@
         <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K7">
         <v>196</v>
       </c>
       <c r="S7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB7" t="s">
         <v>143</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>144</v>
       </c>
-      <c r="AB7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>147</v>
-      </c>
       <c r="AD7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -2392,22 +2444,22 @@
         <v>160</v>
       </c>
       <c r="AP7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR7" t="s">
         <v>167</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AS7" t="s">
         <v>169</v>
       </c>
-      <c r="AR7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>172</v>
-      </c>
       <c r="AT7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>51</v>
       </c>
@@ -2421,40 +2473,40 @@
         <v>109</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K8">
         <v>197</v>
       </c>
       <c r="S8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB8" t="s">
         <v>143</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>144</v>
       </c>
-      <c r="AB8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>147</v>
-      </c>
       <c r="AD8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>160</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>163</v>
-      </c>
       <c r="AK8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL8">
         <v>120</v>
@@ -2466,22 +2518,22 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR8" t="s">
         <v>167</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AS8" t="s">
         <v>169</v>
       </c>
-      <c r="AR8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>172</v>
-      </c>
       <c r="AT8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>52</v>
       </c>
@@ -2495,40 +2547,40 @@
         <v>110</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K9">
         <v>207</v>
       </c>
       <c r="S9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB9" t="s">
         <v>143</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>144</v>
       </c>
-      <c r="AB9" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>147</v>
-      </c>
       <c r="AD9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL9">
         <v>94</v>
@@ -2540,22 +2592,22 @@
         <v>197</v>
       </c>
       <c r="AP9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AQ9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR9" t="s">
         <v>167</v>
       </c>
-      <c r="AR9" t="s">
-        <v>170</v>
-      </c>
       <c r="AS9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>53</v>
       </c>
@@ -2569,40 +2621,40 @@
         <v>111</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K10">
         <v>208</v>
       </c>
       <c r="S10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB10" t="s">
         <v>143</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>144</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE10" t="s">
         <v>146</v>
       </c>
-      <c r="AC10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>149</v>
-      </c>
       <c r="AH10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -2614,22 +2666,22 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR10" t="s">
         <v>167</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AS10" t="s">
         <v>169</v>
       </c>
-      <c r="AR10" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>172</v>
-      </c>
       <c r="AT10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>53</v>
       </c>
@@ -2643,40 +2695,40 @@
         <v>112</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K11">
         <v>209</v>
       </c>
       <c r="S11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB11" t="s">
         <v>143</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>144</v>
       </c>
-      <c r="AB11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>147</v>
-      </c>
       <c r="AD11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2688,22 +2740,22 @@
         <v>160</v>
       </c>
       <c r="AP11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR11" t="s">
         <v>167</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AS11" t="s">
         <v>169</v>
       </c>
-      <c r="AR11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>172</v>
-      </c>
       <c r="AT11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>53</v>
       </c>
@@ -2717,40 +2769,40 @@
         <v>113</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K12">
         <v>210</v>
       </c>
       <c r="S12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB12" t="s">
         <v>143</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>144</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE12" t="s">
         <v>146</v>
       </c>
-      <c r="AC12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>149</v>
-      </c>
       <c r="AH12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2762,22 +2814,22 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR12" t="s">
         <v>167</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AS12" t="s">
         <v>169</v>
       </c>
-      <c r="AR12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>172</v>
-      </c>
       <c r="AT12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>53</v>
       </c>
@@ -2791,40 +2843,40 @@
         <v>114</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K13">
         <v>211</v>
       </c>
       <c r="S13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB13" t="s">
         <v>143</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>144</v>
       </c>
-      <c r="AB13" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>147</v>
-      </c>
       <c r="AD13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2836,22 +2888,22 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR13" t="s">
         <v>167</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AS13" t="s">
         <v>169</v>
       </c>
-      <c r="AR13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>172</v>
-      </c>
       <c r="AT13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>54</v>
       </c>
@@ -2865,40 +2917,40 @@
         <v>115</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K14">
         <v>2136</v>
       </c>
       <c r="S14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC14" t="s">
         <v>144</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
         <v>145</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI14" t="s">
         <v>147</v>
       </c>
-      <c r="AD14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
         <v>158</v>
       </c>
-      <c r="AI14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>161</v>
-      </c>
       <c r="AK14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2910,19 +2962,19 @@
         <v>80</v>
       </c>
       <c r="AP14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS14" t="s">
         <v>168</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>171</v>
-      </c>
       <c r="AT14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>54</v>
       </c>
@@ -2936,40 +2988,40 @@
         <v>116</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K15">
         <v>223</v>
       </c>
       <c r="S15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB15" t="s">
         <v>143</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>144</v>
       </c>
-      <c r="AB15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>147</v>
-      </c>
       <c r="AD15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH15" t="s">
         <v>155</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>158</v>
       </c>
-      <c r="AI15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>161</v>
-      </c>
       <c r="AK15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL15">
         <v>120</v>
@@ -2981,19 +3033,19 @@
         <v>120</v>
       </c>
       <c r="AP15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AQ15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AS15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AT15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>49</v>
       </c>
@@ -3007,40 +3059,40 @@
         <v>117</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K16">
         <v>222</v>
       </c>
       <c r="S16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB16" t="s">
         <v>143</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>144</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE16" t="s">
         <v>146</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AH16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI16" t="s">
         <v>147</v>
       </c>
-      <c r="AD16" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>150</v>
-      </c>
       <c r="AJ16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AK16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL16">
         <v>200</v>
@@ -3052,22 +3104,22 @@
         <v>300</v>
       </c>
       <c r="AP16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AQ16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR16" t="s">
         <v>167</v>
       </c>
-      <c r="AR16" t="s">
-        <v>170</v>
-      </c>
       <c r="AS16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="17" spans="4:46">
+    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>48</v>
       </c>
@@ -3081,40 +3133,40 @@
         <v>118</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K17">
         <v>220</v>
       </c>
       <c r="S17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB17" t="s">
         <v>143</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>144</v>
       </c>
-      <c r="AB17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>147</v>
-      </c>
       <c r="AD17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH17" t="s">
         <v>155</v>
       </c>
-      <c r="AH17" t="s">
-        <v>158</v>
-      </c>
       <c r="AI17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -3126,22 +3178,22 @@
         <v>140</v>
       </c>
       <c r="AP17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR17" t="s">
         <v>167</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>170</v>
-      </c>
       <c r="AS17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="18" spans="4:46">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>48</v>
       </c>
@@ -3155,40 +3207,40 @@
         <v>119</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K18">
         <v>219</v>
       </c>
       <c r="S18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB18" t="s">
         <v>143</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>144</v>
       </c>
-      <c r="AB18" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>147</v>
-      </c>
       <c r="AD18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL18">
         <v>70</v>
@@ -3200,22 +3252,22 @@
         <v>140</v>
       </c>
       <c r="AP18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR18" t="s">
         <v>167</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>170</v>
-      </c>
       <c r="AS18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="19" spans="4:46">
+    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>55</v>
       </c>
@@ -3229,40 +3281,40 @@
         <v>120</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K19">
         <v>215</v>
       </c>
       <c r="S19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB19" t="s">
         <v>143</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>144</v>
       </c>
-      <c r="AB19" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>147</v>
-      </c>
       <c r="AD19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL19">
         <v>90</v>
@@ -3274,19 +3326,19 @@
         <v>180</v>
       </c>
       <c r="AP19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AS19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="20" spans="4:46">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>56</v>
       </c>
@@ -3300,40 +3352,40 @@
         <v>121</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K20">
         <v>216</v>
       </c>
       <c r="S20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB20" t="s">
         <v>143</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>144</v>
       </c>
-      <c r="AB20" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>147</v>
-      </c>
       <c r="AD20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL20">
         <v>80</v>
@@ -3345,19 +3397,19 @@
         <v>200</v>
       </c>
       <c r="AP20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AQ20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AS20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AT20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="21" spans="4:46">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>49</v>
       </c>
@@ -3371,40 +3423,40 @@
         <v>122</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K21">
         <v>213</v>
       </c>
       <c r="S21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB21" t="s">
         <v>143</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AC21" t="s">
         <v>144</v>
       </c>
-      <c r="AB21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>147</v>
-      </c>
       <c r="AD21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL21">
         <v>80</v>
@@ -3416,19 +3468,19 @@
         <v>180</v>
       </c>
       <c r="AP21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AS21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AT21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="22" spans="4:46">
+    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>57</v>
       </c>
@@ -3442,40 +3494,40 @@
         <v>123</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K22">
         <v>212</v>
       </c>
       <c r="S22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB22" t="s">
         <v>143</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>144</v>
       </c>
-      <c r="AB22" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>147</v>
-      </c>
       <c r="AD22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AH22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL22">
         <v>85</v>
@@ -3487,22 +3539,22 @@
         <v>160</v>
       </c>
       <c r="AP22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AQ22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR22" t="s">
         <v>167</v>
       </c>
-      <c r="AR22" t="s">
-        <v>170</v>
-      </c>
       <c r="AS22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="23" spans="4:46">
+    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>58</v>
       </c>
@@ -3516,40 +3568,40 @@
         <v>124</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K23">
         <v>2436</v>
       </c>
       <c r="S23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB23" t="s">
         <v>143</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AC23" t="s">
         <v>144</v>
       </c>
-      <c r="AB23" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>147</v>
-      </c>
       <c r="AD23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>160</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>163</v>
-      </c>
       <c r="AK23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL23">
         <v>100</v>
@@ -3561,22 +3613,22 @@
         <v>160</v>
       </c>
       <c r="AP23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR23" t="s">
         <v>167</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AS23" t="s">
         <v>169</v>
       </c>
-      <c r="AR23" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>172</v>
-      </c>
       <c r="AT23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="24" spans="4:46">
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>59</v>
       </c>
@@ -3590,40 +3642,40 @@
         <v>125</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K24">
         <v>228</v>
       </c>
       <c r="S24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB24" t="s">
         <v>143</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AC24" t="s">
         <v>144</v>
       </c>
-      <c r="AB24" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>147</v>
-      </c>
       <c r="AD24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL24">
         <v>120</v>
@@ -3635,19 +3687,19 @@
         <v>150</v>
       </c>
       <c r="AP24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AS24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="25" spans="4:46">
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>60</v>
       </c>
@@ -3661,40 +3713,40 @@
         <v>126</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K25">
         <v>2451</v>
       </c>
       <c r="S25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB25" t="s">
         <v>143</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AC25" t="s">
         <v>144</v>
       </c>
-      <c r="AB25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>147</v>
-      </c>
       <c r="AD25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL25">
         <v>85</v>
@@ -3706,22 +3758,22 @@
         <v>140</v>
       </c>
       <c r="AP25" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR25" t="s">
         <v>167</v>
       </c>
-      <c r="AQ25" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>170</v>
-      </c>
       <c r="AS25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="26" spans="4:46">
+    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>58</v>
       </c>
@@ -3735,40 +3787,40 @@
         <v>127</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K26">
         <v>2450</v>
       </c>
       <c r="S26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB26" t="s">
         <v>143</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AC26" t="s">
         <v>144</v>
       </c>
-      <c r="AB26" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>147</v>
-      </c>
       <c r="AD26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL26">
         <v>85</v>
@@ -3780,22 +3832,22 @@
         <v>140</v>
       </c>
       <c r="AP26" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR26" t="s">
         <v>167</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>170</v>
-      </c>
       <c r="AS26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="27" spans="4:46">
+    <row r="27" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>49</v>
       </c>
@@ -3809,40 +3861,40 @@
         <v>128</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K27">
         <v>229</v>
       </c>
       <c r="S27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB27" t="s">
         <v>143</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AC27" t="s">
         <v>144</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AD27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE27" t="s">
         <v>146</v>
       </c>
-      <c r="AC27" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>149</v>
-      </c>
       <c r="AH27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AK27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL27">
         <v>200</v>
@@ -3854,19 +3906,19 @@
         <v>400</v>
       </c>
       <c r="AP27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AS27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="28" spans="4:46">
+    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>48</v>
       </c>
@@ -3880,40 +3932,40 @@
         <v>129</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K28">
         <v>231</v>
       </c>
       <c r="S28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB28" t="s">
         <v>143</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AC28" t="s">
         <v>144</v>
       </c>
-      <c r="AB28" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>147</v>
-      </c>
       <c r="AD28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL28">
         <v>86</v>
@@ -3925,22 +3977,22 @@
         <v>180</v>
       </c>
       <c r="AP28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR28" t="s">
         <v>167</v>
       </c>
-      <c r="AQ28" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>170</v>
-      </c>
       <c r="AS28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="29" spans="4:46">
+    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>48</v>
       </c>
@@ -3954,40 +4006,40 @@
         <v>130</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K29">
         <v>236</v>
       </c>
       <c r="S29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB29" t="s">
         <v>143</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AC29" t="s">
         <v>144</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AD29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE29" t="s">
         <v>146</v>
       </c>
-      <c r="AC29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>149</v>
-      </c>
       <c r="AH29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL29">
         <v>90</v>
@@ -3999,22 +4051,22 @@
         <v>200</v>
       </c>
       <c r="AP29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR29" t="s">
         <v>167</v>
       </c>
-      <c r="AQ29" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>170</v>
-      </c>
       <c r="AS29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="30" spans="4:46">
+    <row r="30" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>48</v>
       </c>
@@ -4025,43 +4077,43 @@
         <v>54999</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K30">
         <v>233</v>
       </c>
       <c r="S30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB30" t="s">
         <v>143</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AC30" t="s">
         <v>144</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AD30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE30" t="s">
         <v>146</v>
       </c>
-      <c r="AC30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>149</v>
-      </c>
       <c r="AH30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI30" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>160</v>
       </c>
-      <c r="AJ30" t="s">
-        <v>163</v>
-      </c>
       <c r="AK30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL30">
         <v>180</v>
@@ -4073,22 +4125,22 @@
         <v>215</v>
       </c>
       <c r="AP30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AQ30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AR30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AS30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="31" spans="4:46">
+    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>49</v>
       </c>
@@ -4099,43 +4151,43 @@
         <v>15000</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K31">
         <v>238</v>
       </c>
       <c r="S31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB31" t="s">
         <v>143</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AC31" t="s">
         <v>144</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AD31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE31" t="s">
         <v>146</v>
       </c>
-      <c r="AC31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>149</v>
-      </c>
       <c r="AH31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AK31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL31">
         <v>120</v>
@@ -4147,19 +4199,19 @@
         <v>200</v>
       </c>
       <c r="AP31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AS31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="32" spans="4:46">
+    <row r="32" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>46</v>
       </c>
@@ -4170,43 +4222,43 @@
         <v>29999</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K32">
         <v>243</v>
       </c>
       <c r="S32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB32" t="s">
         <v>143</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AC32" t="s">
         <v>144</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AD32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE32" t="s">
         <v>146</v>
       </c>
-      <c r="AC32" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>149</v>
-      </c>
       <c r="AH32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL32">
         <v>12</v>
@@ -4218,19 +4270,19 @@
         <v>240</v>
       </c>
       <c r="AP32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AS32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AT32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="33" spans="4:46">
+    <row r="33" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>49</v>
       </c>
@@ -4241,43 +4293,43 @@
         <v>34999</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K33">
         <v>242</v>
       </c>
       <c r="S33" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB33" t="s">
         <v>143</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AC33" t="s">
         <v>144</v>
       </c>
-      <c r="AB33" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>147</v>
-      </c>
       <c r="AD33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL33">
         <v>120</v>
@@ -4289,19 +4341,19 @@
         <v>240</v>
       </c>
       <c r="AP33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AS33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AT33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="34" spans="4:46">
+    <row r="34" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>46</v>
       </c>
@@ -4312,43 +4364,43 @@
         <v>24999</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K34">
         <v>241</v>
       </c>
       <c r="S34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB34" t="s">
         <v>143</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AC34" t="s">
         <v>144</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AD34" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE34" t="s">
         <v>146</v>
       </c>
-      <c r="AC34" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>149</v>
-      </c>
       <c r="AH34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AK34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL34">
         <v>115</v>
@@ -4360,19 +4412,19 @@
         <v>230</v>
       </c>
       <c r="AP34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AS34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AT34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="35" spans="4:46">
+    <row r="35" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>61</v>
       </c>
@@ -4383,43 +4435,43 @@
         <v>19999</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K35">
         <v>192</v>
       </c>
       <c r="S35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB35" t="s">
         <v>143</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AC35" t="s">
         <v>144</v>
       </c>
-      <c r="AB35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>147</v>
-      </c>
       <c r="AD35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL35">
         <v>80</v>
@@ -4431,19 +4483,19 @@
         <v>200</v>
       </c>
       <c r="AP35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AS35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AT35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="36" spans="4:46">
+    <row r="36" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>62</v>
       </c>
@@ -4454,43 +4506,43 @@
         <v>20000</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K36">
         <v>240</v>
       </c>
       <c r="S36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB36" t="s">
         <v>143</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AC36" t="s">
         <v>144</v>
       </c>
-      <c r="AB36" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>147</v>
-      </c>
       <c r="AD36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL36">
         <v>80</v>
@@ -4502,19 +4554,19 @@
         <v>200</v>
       </c>
       <c r="AP36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AS36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AT36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="37" spans="4:46">
+    <row r="37" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>48</v>
       </c>
@@ -4525,43 +4577,43 @@
         <v>550000</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K37">
         <v>239</v>
       </c>
       <c r="S37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB37" t="s">
         <v>143</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AC37" t="s">
         <v>144</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AD37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE37" t="s">
         <v>146</v>
       </c>
-      <c r="AC37" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>149</v>
-      </c>
       <c r="AH37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL37">
         <v>100</v>
@@ -4573,22 +4625,22 @@
         <v>220</v>
       </c>
       <c r="AP37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AQ37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AR37" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AS37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="38" spans="4:46">
+    <row r="38" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>59</v>
       </c>
@@ -4599,43 +4651,43 @@
         <v>39999</v>
       </c>
       <c r="G38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="K38">
         <v>244</v>
       </c>
       <c r="S38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB38" t="s">
         <v>143</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AC38" t="s">
         <v>144</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AD38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE38" t="s">
         <v>146</v>
       </c>
-      <c r="AC38" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>149</v>
-      </c>
       <c r="AH38" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL38">
         <v>120</v>
@@ -4647,19 +4699,19 @@
         <v>240</v>
       </c>
       <c r="AP38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AQ38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AS38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AT38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="39" spans="4:46">
+    <row r="39" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>46</v>
       </c>
@@ -4670,43 +4722,43 @@
         <v>24999</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K39">
         <v>245</v>
       </c>
       <c r="S39" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB39" t="s">
         <v>143</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AC39" t="s">
         <v>144</v>
       </c>
-      <c r="AB39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>147</v>
-      </c>
       <c r="AD39" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE39" t="s">
         <v>148</v>
       </c>
-      <c r="AE39" t="s">
-        <v>151</v>
-      </c>
       <c r="AH39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL39">
         <v>100</v>
@@ -4718,19 +4770,19 @@
         <v>210</v>
       </c>
       <c r="AP39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AQ39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AS39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AT39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="40" spans="4:46">
+    <row r="40" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>63</v>
       </c>
@@ -4741,43 +4793,43 @@
         <v>44999</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K40">
         <v>218</v>
       </c>
       <c r="S40" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB40" t="s">
         <v>143</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AC40" t="s">
         <v>144</v>
       </c>
-      <c r="AB40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>147</v>
-      </c>
       <c r="AD40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE40" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI40" t="s">
         <v>157</v>
       </c>
-      <c r="AH40" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>160</v>
-      </c>
       <c r="AJ40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AK40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL40">
         <v>90</v>
@@ -4789,100 +4841,99 @@
         <v>180</v>
       </c>
       <c r="AP40" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR40" t="s">
         <v>167</v>
       </c>
-      <c r="AQ40" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>170</v>
-      </c>
       <c r="AS40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AT40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
-    <hyperlink ref="G25" r:id="rId47"/>
-    <hyperlink ref="I25" r:id="rId48"/>
-    <hyperlink ref="G26" r:id="rId49"/>
-    <hyperlink ref="I26" r:id="rId50"/>
-    <hyperlink ref="G27" r:id="rId51"/>
-    <hyperlink ref="I27" r:id="rId52"/>
-    <hyperlink ref="G28" r:id="rId53"/>
-    <hyperlink ref="I28" r:id="rId54"/>
-    <hyperlink ref="G29" r:id="rId55"/>
-    <hyperlink ref="I29" r:id="rId56"/>
-    <hyperlink ref="G30" r:id="rId57"/>
-    <hyperlink ref="I30" r:id="rId58"/>
-    <hyperlink ref="G31" r:id="rId59"/>
-    <hyperlink ref="I31" r:id="rId60"/>
-    <hyperlink ref="G32" r:id="rId61"/>
-    <hyperlink ref="I32" r:id="rId62"/>
-    <hyperlink ref="G33" r:id="rId63"/>
-    <hyperlink ref="I33" r:id="rId64"/>
-    <hyperlink ref="G34" r:id="rId65"/>
-    <hyperlink ref="I34" r:id="rId66"/>
-    <hyperlink ref="G35" r:id="rId67"/>
-    <hyperlink ref="I35" r:id="rId68"/>
-    <hyperlink ref="G36" r:id="rId69"/>
-    <hyperlink ref="I36" r:id="rId70"/>
-    <hyperlink ref="G37" r:id="rId71"/>
-    <hyperlink ref="I37" r:id="rId72"/>
-    <hyperlink ref="I38" r:id="rId73"/>
-    <hyperlink ref="G39" r:id="rId74"/>
-    <hyperlink ref="I39" r:id="rId75"/>
-    <hyperlink ref="G40" r:id="rId76"/>
-    <hyperlink ref="I40" r:id="rId77"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G32" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G33" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G34" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G35" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G36" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G37" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="I37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G39" r:id="rId73" display="https://disk.yandex.ru/i/PcTZyedF1rDOJg | https://disk.yandex.ru/i/LfEJ0P5ilCXSVQ | https://disk.yandex.ru/i/RhTS5e7F4puvbA | https://disk.yandex.ru/i/W8nSOPZgDne_dA | https://disk.yandex.ru/i/zEtSyCHXsZoMgQ | https://disk.yandex.ru/i/UkaIVPzrKhds3A | htt" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I39" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G40" r:id="rId75" display="https://disk.yandex.ru/i/OEPZHMOhF0ffDw | https://disk.yandex.ru/i/o17ZWaV_t58i9Q | https://disk.yandex.ru/i/ofnxTQFi8A5MNw | https://disk.yandex.ru/i/aXiG3TT8Ireygw | https://disk.yandex.ru/i/6HwqFuN55lh3aw | https://disk.yandex.ru/i/8elVM3Z0LwMRug | htt" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="I40" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AD6EC6-FDA7-4282-9B57-50E8ECC63CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="171">
   <si>
     <t>Address</t>
   </si>
@@ -863,29 +857,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стол для переговоров
-Артикул 229
-Стол для переговоров в отличном состоянии, большой и презентабельный офисный стол для переговоров до 15-18 человек.
-Размеры ДхШхВ: 400х200х75
-Цвет шимо
-Цена 99 999
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кабинет руководителя
 Артикул 231
 Кабинет руководителя в современном стиле светлого цвета — это сочетание элегантности и функциональности. Мебель в отличном состоянии Большой эргономичный стол с брифингом на 4-5 человека обеспечивает комфортное рабочее пространство и создает условия для эффективных совещаний. В комплекте тумба на колесиках для удобного хранения, тумба под оргтехнику, а также вместительный гардероб и шкаф для документов, которые помогут поддерживать порядок в кабинете. Этот комплект мебели станет идеальным решением для руководителей, ценящих современный дизайн и практичность.
@@ -950,37 +921,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Кабинет руководителя
-Артикул 233
-Мебель офисная для директоров бу. Стол с большой рабочей поверхностью и удобной эргономикой. 
-На столе есть дефекты. 
-Шкаф гардероб так же может служить вам как шкаф для документов. 
-Размеры ДхШхВ: Стол - 215х180х75
-Шкафы для документов - 90х43х190
-Шкаф гардероб - 90х43х160
-Цвет 
-Цена 54 999
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол для переговоров
 Артикул 238
 Офисный стол для переговоров большого размера, классического цвета орех, этот стол не только добавит изысканности в ваш офис, но и станет функциональным центром для деловых встреч. Стол может вместить до 8 человек
@@ -1323,9 +1263,6 @@
     <t>https://disk.yandex.ru/i/zEtSyCHXsZoMgQ | https://disk.yandex.ru/i/UkaIVPzrKhds3A | https://disk.yandex.ru/i/jKFdefNwgz40WA | https://disk.yandex.ru/i/6qgZOz8G0n5VmQ | https://disk.yandex.ru/i/Yy95RrfshV4pkg | https://disk.yandex.ru/i/SWxosuLwtOS0ZA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/mhO4d2DdGtKEFg | https://disk.yandex.ru/i/rtQeuuJNnvsXWw | https://disk.yandex.ru/i/CBmDRkir1d39ng | https://disk.yandex.ru/i/srpRptdretExNg | https://disk.yandex.ru/i/28bnw8QpTsnm1Q | https://disk.yandex.ru/i/Ei5ITngzk1YkYg | https://disk.yandex.ru/i/SLC3ocPHVcpNJw | https://disk.yandex.ru/i/VWyenqpVVWXKig | https://disk.yandex.ru/i/v_O_lSC4qH6BWw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/igtYdrUIfTi4CA | https://disk.yandex.ru/i/erEoEDSrsBd4xA | https://disk.yandex.ru/i/51LgM2QvBZFBJQ | https://disk.yandex.ru/i/1G4bOaea1cVj9A | https://disk.yandex.ru/i/4tPVYq5S_JFI2Q | https://disk.yandex.ru/i/boM08MpjPDqBZg | https://disk.yandex.ru/i/GT13NVSyJe5jPw</t>
   </si>
   <si>
@@ -1356,6 +1293,12 @@
     <t xml:space="preserve"> https://disk.yandex.ru/i/AAvgr8hNtpWmTg | https://disk.yandex.ru/i/S0fXYYKULeaLIg | https://disk.yandex.ru/i/8nMhLctvEvD3ew | https://disk.yandex.ru/i/0yPJ2zBbXAnhHw | https://disk.yandex.ru/i/KmRo2eeD9nVh5Q </t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/PcTZyedF1rDOJg | https://disk.yandex.ru/i/LfEJ0P5ilCXSVQ | https://disk.yandex.ru/i/RhTS5e7F4puvbA | https://disk.yandex.ru/i/W8nSOPZgDne_dA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/HyzF6oPWr07g_Q | https://disk.yandex.ru/i/GhQCaatDtnVqLQ | https://disk.yandex.ru/i/pM0vR4uP1w8Wig | https://disk.yandex.ru/i/ZavWODbe3T432g | https://disk.yandex.ru/i/BIxKW5nf3bhTfg | https://disk.yandex.ru/i/0eUPoGmRi-RTOw | https://disk.yandex.ru/i/AKzr7x8U3tje2w | https://disk.yandex.ru/i/a25cKjo5iODQ8A | https://disk.yandex.ru/i/Ru_VNwAhzSVa4A | https://disk.yandex.ru/i/WCkh8LDa_ikcsw</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1453,22 +1396,13 @@
   </si>
   <si>
     <t>Кабинет | Кухня | Бар/Кафе</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/PcTZyedF1rDOJg | https://disk.yandex.ru/i/LfEJ0P5ilCXSVQ | https://disk.yandex.ru/i/RhTS5e7F4puvbA | https://disk.yandex.ru/i/W8nSOPZgDne_dA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/HyzF6oPWr07g_Q | https://disk.yandex.ru/i/GhQCaatDtnVqLQ | https://disk.yandex.ru/i/pM0vR4uP1w8Wig | https://disk.yandex.ru/i/ZavWODbe3T432g | https://disk.yandex.ru/i/BIxKW5nf3bhTfg | https://disk.yandex.ru/i/0eUPoGmRi-RTOw | https://disk.yandex.ru/i/AKzr7x8U3tje2w | https://disk.yandex.ru/i/a25cKjo5iODQ8A | https://disk.yandex.ru/i/Ru_VNwAhzSVa4A | https://disk.yandex.ru/i/WCkh8LDa_ikcsw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/RfVVeT-aCLZuvw | https://disk.yandex.ru/i/6GJR3J5bmAy-aQ | https://disk.yandex.ru/i/uMgdfKyLG_yTTg | https://disk.yandex.ru/i/wflbctyAgnL_lQ | https://disk.yandex.ru/i/Nh8m6BS1aUxRxg | https://disk.yandex.ru/i/6E3j4fC57CPh_w | https://disk.yandex.ru/i/wNqo4EQdRbtL5Q | https://disk.yandex.ru/i/h4ItcOeLw4npig | https://disk.yandex.ru/i/Pst58JOFdDtQLA | https://disk.yandex.ru/i/RiigoqQLLTHdOQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1539,26 +1473,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1596,9 +1522,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1630,27 +1556,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1682,27 +1590,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1875,16 +1765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +1912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -2035,43 +1923,43 @@
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" t="s">
         <v>140</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>141</v>
       </c>
-      <c r="AB2" t="s">
-        <v>142</v>
-      </c>
       <c r="AC2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD2" t="s">
         <v>144</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>145</v>
       </c>
-      <c r="AE2" t="s">
-        <v>146</v>
-      </c>
       <c r="AH2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI2" t="s">
         <v>155</v>
       </c>
-      <c r="AI2" t="s">
-        <v>156</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -2083,19 +1971,19 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AQ2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AT2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -2106,43 +1994,43 @@
         <v>19999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3">
         <v>132</v>
       </c>
       <c r="S3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA3" t="s">
         <v>140</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>141</v>
       </c>
-      <c r="AB3" t="s">
-        <v>142</v>
-      </c>
       <c r="AC3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD3" t="s">
         <v>144</v>
       </c>
-      <c r="AD3" t="s">
-        <v>145</v>
-      </c>
       <c r="AE3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -2154,22 +2042,22 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -2180,43 +2068,43 @@
         <v>24999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K4">
         <v>168</v>
       </c>
       <c r="S4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA4" t="s">
         <v>140</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>141</v>
       </c>
-      <c r="AB4" t="s">
-        <v>142</v>
-      </c>
       <c r="AC4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD4" t="s">
         <v>144</v>
       </c>
-      <c r="AD4" t="s">
-        <v>145</v>
-      </c>
       <c r="AE4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -2228,22 +2116,22 @@
         <v>170</v>
       </c>
       <c r="AP4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -2254,43 +2142,43 @@
         <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K5">
         <v>186</v>
       </c>
       <c r="S5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA5" t="s">
         <v>140</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>141</v>
       </c>
-      <c r="AB5" t="s">
-        <v>142</v>
-      </c>
       <c r="AC5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD5" t="s">
         <v>144</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>145</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI5" t="s">
         <v>146</v>
       </c>
-      <c r="AH5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>147</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL5">
         <v>170</v>
@@ -2302,19 +2190,19 @@
         <v>360</v>
       </c>
       <c r="AP5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AT5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -2325,43 +2213,43 @@
         <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K6">
         <v>188</v>
       </c>
       <c r="S6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA6" t="s">
         <v>140</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>141</v>
       </c>
-      <c r="AB6" t="s">
-        <v>142</v>
-      </c>
       <c r="AC6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD6" t="s">
         <v>144</v>
       </c>
-      <c r="AD6" t="s">
-        <v>145</v>
-      </c>
       <c r="AE6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -2373,19 +2261,19 @@
         <v>180</v>
       </c>
       <c r="AP6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AT6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
         <v>48</v>
       </c>
@@ -2396,43 +2284,43 @@
         <v>90000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K7">
         <v>196</v>
       </c>
       <c r="S7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA7" t="s">
         <v>140</v>
       </c>
-      <c r="AA7" t="s">
-        <v>141</v>
-      </c>
       <c r="AB7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC7" t="s">
         <v>143</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>144</v>
       </c>
-      <c r="AD7" t="s">
-        <v>145</v>
-      </c>
       <c r="AE7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -2444,22 +2332,22 @@
         <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR7" t="s">
         <v>166</v>
       </c>
-      <c r="AR7" t="s">
-        <v>167</v>
-      </c>
       <c r="AS7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
         <v>51</v>
       </c>
@@ -2470,43 +2358,43 @@
         <v>40000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8">
         <v>197</v>
       </c>
       <c r="S8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA8" t="s">
         <v>140</v>
       </c>
-      <c r="AA8" t="s">
-        <v>141</v>
-      </c>
       <c r="AB8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC8" t="s">
         <v>143</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>144</v>
       </c>
-      <c r="AD8" t="s">
-        <v>145</v>
-      </c>
       <c r="AE8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL8">
         <v>120</v>
@@ -2518,22 +2406,22 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR8" t="s">
         <v>166</v>
       </c>
-      <c r="AR8" t="s">
-        <v>167</v>
-      </c>
       <c r="AS8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
         <v>52</v>
       </c>
@@ -2544,43 +2432,43 @@
         <v>19999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K9">
         <v>207</v>
       </c>
       <c r="S9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA9" t="s">
         <v>140</v>
       </c>
-      <c r="AA9" t="s">
-        <v>141</v>
-      </c>
       <c r="AB9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC9" t="s">
         <v>143</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>144</v>
       </c>
-      <c r="AD9" t="s">
-        <v>145</v>
-      </c>
       <c r="AE9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL9">
         <v>94</v>
@@ -2592,22 +2480,22 @@
         <v>197</v>
       </c>
       <c r="AP9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46">
       <c r="D10" t="s">
         <v>53</v>
       </c>
@@ -2618,43 +2506,43 @@
         <v>25000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K10">
         <v>208</v>
       </c>
       <c r="S10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA10" t="s">
         <v>140</v>
       </c>
-      <c r="AA10" t="s">
-        <v>141</v>
-      </c>
       <c r="AB10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC10" t="s">
         <v>143</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>144</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>145</v>
       </c>
-      <c r="AE10" t="s">
-        <v>146</v>
-      </c>
       <c r="AH10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -2666,22 +2554,22 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR10" t="s">
         <v>166</v>
       </c>
-      <c r="AR10" t="s">
-        <v>167</v>
-      </c>
       <c r="AS10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46">
       <c r="D11" t="s">
         <v>53</v>
       </c>
@@ -2692,43 +2580,43 @@
         <v>21000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K11">
         <v>209</v>
       </c>
       <c r="S11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA11" t="s">
         <v>140</v>
       </c>
-      <c r="AA11" t="s">
-        <v>141</v>
-      </c>
       <c r="AB11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC11" t="s">
         <v>143</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>144</v>
       </c>
-      <c r="AD11" t="s">
-        <v>145</v>
-      </c>
       <c r="AE11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2740,22 +2628,22 @@
         <v>160</v>
       </c>
       <c r="AP11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR11" t="s">
         <v>166</v>
       </c>
-      <c r="AR11" t="s">
-        <v>167</v>
-      </c>
       <c r="AS11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46">
       <c r="D12" t="s">
         <v>53</v>
       </c>
@@ -2766,43 +2654,43 @@
         <v>25000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K12">
         <v>210</v>
       </c>
       <c r="S12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA12" t="s">
         <v>140</v>
       </c>
-      <c r="AA12" t="s">
-        <v>141</v>
-      </c>
       <c r="AB12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC12" t="s">
         <v>143</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>144</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>145</v>
       </c>
-      <c r="AE12" t="s">
-        <v>146</v>
-      </c>
       <c r="AH12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2814,22 +2702,22 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR12" t="s">
         <v>166</v>
       </c>
-      <c r="AR12" t="s">
-        <v>167</v>
-      </c>
       <c r="AS12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46">
       <c r="D13" t="s">
         <v>53</v>
       </c>
@@ -2840,43 +2728,43 @@
         <v>25000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K13">
         <v>211</v>
       </c>
       <c r="S13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA13" t="s">
         <v>140</v>
       </c>
-      <c r="AA13" t="s">
-        <v>141</v>
-      </c>
       <c r="AB13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC13" t="s">
         <v>143</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>144</v>
       </c>
-      <c r="AD13" t="s">
-        <v>145</v>
-      </c>
       <c r="AE13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2888,22 +2776,22 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR13" t="s">
         <v>166</v>
       </c>
-      <c r="AR13" t="s">
-        <v>167</v>
-      </c>
       <c r="AS13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="D14" t="s">
         <v>54</v>
       </c>
@@ -2914,43 +2802,43 @@
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14">
         <v>2136</v>
       </c>
       <c r="S14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA14" t="s">
         <v>140</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>141</v>
       </c>
-      <c r="AB14" t="s">
-        <v>142</v>
-      </c>
       <c r="AC14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD14" t="s">
         <v>144</v>
       </c>
-      <c r="AD14" t="s">
-        <v>145</v>
-      </c>
       <c r="AE14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2962,19 +2850,19 @@
         <v>80</v>
       </c>
       <c r="AP14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AT14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="D15" t="s">
         <v>54</v>
       </c>
@@ -2985,43 +2873,43 @@
         <v>9999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K15">
         <v>223</v>
       </c>
       <c r="S15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA15" t="s">
         <v>140</v>
       </c>
-      <c r="AA15" t="s">
-        <v>141</v>
-      </c>
       <c r="AB15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC15" t="s">
         <v>143</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>144</v>
       </c>
-      <c r="AD15" t="s">
-        <v>145</v>
-      </c>
       <c r="AE15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI15" t="s">
         <v>155</v>
       </c>
-      <c r="AI15" t="s">
-        <v>156</v>
-      </c>
       <c r="AJ15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL15">
         <v>120</v>
@@ -3033,19 +2921,19 @@
         <v>120</v>
       </c>
       <c r="AP15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>165</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>166</v>
-      </c>
       <c r="AS15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="D16" t="s">
         <v>49</v>
       </c>
@@ -3056,43 +2944,43 @@
         <v>120000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K16">
         <v>222</v>
       </c>
       <c r="S16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA16" t="s">
         <v>140</v>
       </c>
-      <c r="AA16" t="s">
-        <v>141</v>
-      </c>
       <c r="AB16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC16" t="s">
         <v>143</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>144</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>145</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AH16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI16" t="s">
         <v>146</v>
       </c>
-      <c r="AH16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>147</v>
-      </c>
       <c r="AJ16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL16">
         <v>200</v>
@@ -3104,22 +2992,22 @@
         <v>300</v>
       </c>
       <c r="AP16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:46">
       <c r="D17" t="s">
         <v>48</v>
       </c>
@@ -3130,43 +3018,43 @@
         <v>40000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K17">
         <v>220</v>
       </c>
       <c r="S17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA17" t="s">
         <v>140</v>
       </c>
-      <c r="AA17" t="s">
-        <v>141</v>
-      </c>
       <c r="AB17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC17" t="s">
         <v>143</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>144</v>
       </c>
-      <c r="AD17" t="s">
-        <v>145</v>
-      </c>
       <c r="AE17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -3178,22 +3066,22 @@
         <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:46">
       <c r="D18" t="s">
         <v>48</v>
       </c>
@@ -3204,43 +3092,43 @@
         <v>35000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K18">
         <v>219</v>
       </c>
       <c r="S18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA18" t="s">
         <v>140</v>
       </c>
-      <c r="AA18" t="s">
-        <v>141</v>
-      </c>
       <c r="AB18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC18" t="s">
         <v>143</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>144</v>
       </c>
-      <c r="AD18" t="s">
-        <v>145</v>
-      </c>
       <c r="AE18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL18">
         <v>70</v>
@@ -3252,22 +3140,22 @@
         <v>140</v>
       </c>
       <c r="AP18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:46">
       <c r="D19" t="s">
         <v>55</v>
       </c>
@@ -3278,43 +3166,43 @@
         <v>15000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K19">
         <v>215</v>
       </c>
       <c r="S19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA19" t="s">
         <v>140</v>
       </c>
-      <c r="AA19" t="s">
-        <v>141</v>
-      </c>
       <c r="AB19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC19" t="s">
         <v>143</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>144</v>
       </c>
-      <c r="AD19" t="s">
-        <v>145</v>
-      </c>
       <c r="AE19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL19">
         <v>90</v>
@@ -3326,19 +3214,19 @@
         <v>180</v>
       </c>
       <c r="AP19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:46">
       <c r="D20" t="s">
         <v>56</v>
       </c>
@@ -3349,43 +3237,43 @@
         <v>12000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K20">
         <v>216</v>
       </c>
       <c r="S20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA20" t="s">
         <v>140</v>
       </c>
-      <c r="AA20" t="s">
-        <v>141</v>
-      </c>
       <c r="AB20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC20" t="s">
         <v>143</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>144</v>
       </c>
-      <c r="AD20" t="s">
-        <v>145</v>
-      </c>
       <c r="AE20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL20">
         <v>80</v>
@@ -3397,19 +3285,19 @@
         <v>200</v>
       </c>
       <c r="AP20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:46">
       <c r="D21" t="s">
         <v>49</v>
       </c>
@@ -3420,43 +3308,43 @@
         <v>15000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K21">
         <v>213</v>
       </c>
       <c r="S21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA21" t="s">
         <v>140</v>
       </c>
-      <c r="AA21" t="s">
-        <v>141</v>
-      </c>
       <c r="AB21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC21" t="s">
         <v>143</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>144</v>
       </c>
-      <c r="AD21" t="s">
-        <v>145</v>
-      </c>
       <c r="AE21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL21">
         <v>80</v>
@@ -3468,19 +3356,19 @@
         <v>180</v>
       </c>
       <c r="AP21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AS21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:46">
       <c r="D22" t="s">
         <v>57</v>
       </c>
@@ -3491,43 +3379,43 @@
         <v>25000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K22">
         <v>212</v>
       </c>
       <c r="S22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA22" t="s">
         <v>140</v>
       </c>
-      <c r="AA22" t="s">
-        <v>141</v>
-      </c>
       <c r="AB22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC22" t="s">
         <v>143</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>144</v>
       </c>
-      <c r="AD22" t="s">
-        <v>145</v>
-      </c>
       <c r="AE22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL22">
         <v>85</v>
@@ -3539,22 +3427,22 @@
         <v>160</v>
       </c>
       <c r="AP22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:46">
       <c r="D23" t="s">
         <v>58</v>
       </c>
@@ -3565,43 +3453,43 @@
         <v>18000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K23">
         <v>2436</v>
       </c>
       <c r="S23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA23" t="s">
         <v>140</v>
       </c>
-      <c r="AA23" t="s">
-        <v>141</v>
-      </c>
       <c r="AB23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC23" t="s">
         <v>143</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>144</v>
       </c>
-      <c r="AD23" t="s">
-        <v>145</v>
-      </c>
       <c r="AE23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL23">
         <v>100</v>
@@ -3613,22 +3501,22 @@
         <v>160</v>
       </c>
       <c r="AP23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR23" t="s">
         <v>166</v>
       </c>
-      <c r="AR23" t="s">
-        <v>167</v>
-      </c>
       <c r="AS23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:46">
       <c r="D24" t="s">
         <v>59</v>
       </c>
@@ -3639,43 +3527,43 @@
         <v>10000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K24">
         <v>228</v>
       </c>
       <c r="S24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA24" t="s">
         <v>140</v>
       </c>
-      <c r="AA24" t="s">
-        <v>141</v>
-      </c>
       <c r="AB24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC24" t="s">
         <v>143</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>144</v>
       </c>
-      <c r="AD24" t="s">
-        <v>145</v>
-      </c>
       <c r="AE24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL24">
         <v>120</v>
@@ -3687,19 +3575,19 @@
         <v>150</v>
       </c>
       <c r="AP24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:46">
       <c r="D25" t="s">
         <v>60</v>
       </c>
@@ -3710,43 +3598,43 @@
         <v>18000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K25">
         <v>2451</v>
       </c>
       <c r="S25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA25" t="s">
         <v>140</v>
       </c>
-      <c r="AA25" t="s">
-        <v>141</v>
-      </c>
       <c r="AB25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC25" t="s">
         <v>143</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>144</v>
       </c>
-      <c r="AD25" t="s">
-        <v>145</v>
-      </c>
       <c r="AE25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL25">
         <v>85</v>
@@ -3758,22 +3646,22 @@
         <v>140</v>
       </c>
       <c r="AP25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:46">
       <c r="D26" t="s">
         <v>58</v>
       </c>
@@ -3784,43 +3672,43 @@
         <v>18000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K26">
         <v>2450</v>
       </c>
       <c r="S26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA26" t="s">
         <v>140</v>
       </c>
-      <c r="AA26" t="s">
-        <v>141</v>
-      </c>
       <c r="AB26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC26" t="s">
         <v>143</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>144</v>
       </c>
-      <c r="AD26" t="s">
-        <v>145</v>
-      </c>
       <c r="AE26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL26">
         <v>85</v>
@@ -3832,93 +3720,96 @@
         <v>140</v>
       </c>
       <c r="AP26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="27" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:46">
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>89</v>
       </c>
       <c r="F27">
-        <v>99999</v>
+        <v>50000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27">
+        <v>231</v>
+      </c>
+      <c r="S27" t="s">
         <v>139</v>
       </c>
-      <c r="K27">
-        <v>229</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="AA27" t="s">
         <v>140</v>
       </c>
-      <c r="AA27" t="s">
-        <v>141</v>
-      </c>
       <c r="AB27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC27" t="s">
         <v>143</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>144</v>
       </c>
-      <c r="AD27" t="s">
-        <v>145</v>
-      </c>
       <c r="AE27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AH27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AK27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL27">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="AM27">
         <v>75</v>
       </c>
       <c r="AN27">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="AP27" t="s">
         <v>163</v>
       </c>
       <c r="AQ27" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>166</v>
       </c>
       <c r="AS27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:46">
       <c r="D28" t="s">
         <v>48</v>
       </c>
@@ -3926,221 +3817,215 @@
         <v>90</v>
       </c>
       <c r="F28">
-        <v>50000</v>
+        <v>59999</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K28">
+        <v>236</v>
+      </c>
+      <c r="S28" t="s">
         <v>139</v>
       </c>
-      <c r="K28">
-        <v>231</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="AA28" t="s">
         <v>140</v>
       </c>
-      <c r="AA28" t="s">
-        <v>141</v>
-      </c>
       <c r="AB28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC28" t="s">
         <v>143</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>144</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>145</v>
       </c>
-      <c r="AE28" t="s">
-        <v>149</v>
-      </c>
       <c r="AH28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL28">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AM28">
         <v>75</v>
       </c>
       <c r="AN28">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:46">
       <c r="D29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
         <v>91</v>
       </c>
       <c r="F29">
-        <v>59999</v>
+        <v>15000</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29">
+        <v>238</v>
+      </c>
+      <c r="S29" t="s">
         <v>139</v>
       </c>
-      <c r="K29">
-        <v>236</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="AA29" t="s">
         <v>140</v>
       </c>
-      <c r="AA29" t="s">
-        <v>141</v>
-      </c>
       <c r="AB29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC29" t="s">
         <v>143</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>144</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>145</v>
       </c>
-      <c r="AE29" t="s">
-        <v>146</v>
-      </c>
       <c r="AH29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL29">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AM29">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN29">
         <v>200</v>
       </c>
       <c r="AP29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ29" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AS29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="30" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:46">
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>92</v>
       </c>
       <c r="F30">
-        <v>54999</v>
+        <v>29999</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30">
+        <v>243</v>
+      </c>
+      <c r="S30" t="s">
         <v>139</v>
       </c>
-      <c r="K30">
-        <v>233</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="AA30" t="s">
         <v>140</v>
       </c>
-      <c r="AA30" t="s">
-        <v>141</v>
-      </c>
       <c r="AB30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC30" t="s">
         <v>143</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>144</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>145</v>
       </c>
-      <c r="AE30" t="s">
-        <v>146</v>
-      </c>
       <c r="AH30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AK30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL30">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="AM30">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN30">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AP30" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ30" t="s">
         <v>165</v>
       </c>
-      <c r="AQ30" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>167</v>
-      </c>
       <c r="AS30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AT30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:46">
       <c r="D31" t="s">
         <v>49</v>
       </c>
@@ -4148,70 +4033,70 @@
         <v>93</v>
       </c>
       <c r="F31">
-        <v>15000</v>
+        <v>34999</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31">
+        <v>242</v>
+      </c>
+      <c r="S31" t="s">
         <v>139</v>
       </c>
-      <c r="K31">
-        <v>238</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="AA31" t="s">
         <v>140</v>
       </c>
-      <c r="AA31" t="s">
-        <v>141</v>
-      </c>
       <c r="AB31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC31" t="s">
         <v>143</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>144</v>
       </c>
-      <c r="AD31" t="s">
-        <v>145</v>
-      </c>
       <c r="AE31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AH31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AK31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL31">
         <v>120</v>
       </c>
       <c r="AM31">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN31">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AP31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AT31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="32" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:46">
       <c r="D32" t="s">
         <v>46</v>
       </c>
@@ -4219,410 +4104,413 @@
         <v>94</v>
       </c>
       <c r="F32">
-        <v>29999</v>
+        <v>24999</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32">
+        <v>241</v>
+      </c>
+      <c r="S32" t="s">
         <v>139</v>
       </c>
-      <c r="K32">
-        <v>243</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="AA32" t="s">
         <v>140</v>
       </c>
-      <c r="AA32" t="s">
-        <v>141</v>
-      </c>
       <c r="AB32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC32" t="s">
         <v>143</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>144</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>145</v>
       </c>
-      <c r="AE32" t="s">
-        <v>146</v>
-      </c>
       <c r="AH32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL32">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="AM32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN32">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AP32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AS32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="33" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:46">
       <c r="D33" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>95</v>
       </c>
       <c r="F33">
-        <v>34999</v>
+        <v>19999</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33">
+        <v>192</v>
+      </c>
+      <c r="S33" t="s">
         <v>139</v>
       </c>
-      <c r="K33">
-        <v>242</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="AA33" t="s">
         <v>140</v>
       </c>
-      <c r="AA33" t="s">
-        <v>141</v>
-      </c>
       <c r="AB33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC33" t="s">
         <v>143</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>144</v>
       </c>
-      <c r="AD33" t="s">
-        <v>145</v>
-      </c>
       <c r="AE33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL33">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM33">
         <v>75</v>
       </c>
       <c r="AN33">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AP33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AS33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="34" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:46">
       <c r="D34" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
         <v>96</v>
       </c>
       <c r="F34">
-        <v>24999</v>
+        <v>20000</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34">
+        <v>240</v>
+      </c>
+      <c r="S34" t="s">
         <v>139</v>
       </c>
-      <c r="K34">
-        <v>241</v>
-      </c>
-      <c r="S34" t="s">
+      <c r="AA34" t="s">
         <v>140</v>
       </c>
-      <c r="AA34" t="s">
-        <v>141</v>
-      </c>
       <c r="AB34" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC34" t="s">
         <v>143</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>144</v>
       </c>
-      <c r="AD34" t="s">
-        <v>145</v>
-      </c>
       <c r="AE34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AH34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AK34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL34">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="AM34">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN34">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AP34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AS34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="35" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:46">
       <c r="D35" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>97</v>
       </c>
       <c r="F35">
-        <v>19999</v>
+        <v>550000</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K35">
+        <v>239</v>
+      </c>
+      <c r="S35" t="s">
         <v>139</v>
       </c>
-      <c r="K35">
-        <v>192</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="AA35" t="s">
         <v>140</v>
       </c>
-      <c r="AA35" t="s">
-        <v>141</v>
-      </c>
       <c r="AB35" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC35" t="s">
         <v>143</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>144</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>145</v>
       </c>
-      <c r="AE35" t="s">
-        <v>149</v>
-      </c>
       <c r="AH35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK35" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL35">
+        <v>100</v>
+      </c>
+      <c r="AM35">
+        <v>82</v>
+      </c>
+      <c r="AN35">
+        <v>220</v>
+      </c>
+      <c r="AP35" t="s">
         <v>162</v>
       </c>
-      <c r="AL35">
-        <v>80</v>
-      </c>
-      <c r="AM35">
-        <v>75</v>
-      </c>
-      <c r="AN35">
-        <v>200</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>164</v>
-      </c>
       <c r="AQ35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR35" t="s">
         <v>166</v>
       </c>
       <c r="AS35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="36" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:46">
       <c r="D36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
         <v>98</v>
       </c>
       <c r="F36">
-        <v>20000</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>136</v>
+        <v>39999</v>
+      </c>
+      <c r="G36" t="s">
+        <v>135</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36">
+        <v>244</v>
+      </c>
+      <c r="S36" t="s">
         <v>139</v>
       </c>
-      <c r="K36">
+      <c r="AA36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL36">
+        <v>120</v>
+      </c>
+      <c r="AM36">
+        <v>75</v>
+      </c>
+      <c r="AN36">
         <v>240</v>
-      </c>
-      <c r="S36" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL36">
-        <v>80</v>
-      </c>
-      <c r="AM36">
-        <v>73</v>
-      </c>
-      <c r="AN36">
-        <v>200</v>
       </c>
       <c r="AP36" t="s">
         <v>164</v>
       </c>
       <c r="AQ36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AS36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="37" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:46">
       <c r="D37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
         <v>99</v>
       </c>
       <c r="F37">
-        <v>550000</v>
+        <v>24999</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37">
+        <v>245</v>
+      </c>
+      <c r="S37" t="s">
         <v>139</v>
       </c>
-      <c r="K37">
-        <v>239</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="AA37" t="s">
         <v>140</v>
       </c>
-      <c r="AA37" t="s">
-        <v>141</v>
-      </c>
       <c r="AB37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC37" t="s">
         <v>143</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>144</v>
       </c>
-      <c r="AD37" t="s">
-        <v>145</v>
-      </c>
       <c r="AE37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL37">
         <v>100</v>
       </c>
       <c r="AM37">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AN37">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AP37" t="s">
         <v>163</v>
@@ -4630,310 +4518,162 @@
       <c r="AQ37" t="s">
         <v>163</v>
       </c>
-      <c r="AR37" t="s">
-        <v>167</v>
-      </c>
       <c r="AS37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AT37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="38" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:46">
       <c r="D38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
         <v>100</v>
       </c>
       <c r="F38">
-        <v>39999</v>
-      </c>
-      <c r="G38" t="s">
+        <v>44999</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="K38">
+        <v>218</v>
+      </c>
+      <c r="S38" t="s">
         <v>139</v>
       </c>
-      <c r="K38">
-        <v>244</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="AA38" t="s">
         <v>140</v>
       </c>
-      <c r="AA38" t="s">
-        <v>141</v>
-      </c>
       <c r="AB38" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC38" t="s">
         <v>143</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>144</v>
       </c>
-      <c r="AD38" t="s">
-        <v>145</v>
-      </c>
       <c r="AE38" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AH38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL38">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AM38">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN38">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AP38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AQ38" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>166</v>
       </c>
       <c r="AS38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39">
-        <v>24999</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K39">
-        <v>245</v>
-      </c>
-      <c r="S39" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL39">
-        <v>100</v>
-      </c>
-      <c r="AM39">
-        <v>76</v>
-      </c>
-      <c r="AN39">
-        <v>210</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>164</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40">
-        <v>44999</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K40">
-        <v>218</v>
-      </c>
-      <c r="S40" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL40">
-        <v>90</v>
-      </c>
-      <c r="AM40">
-        <v>77</v>
-      </c>
-      <c r="AN40">
-        <v>180</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>164</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G32" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G33" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G34" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G35" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G36" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G37" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="I38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G39" r:id="rId73" display="https://disk.yandex.ru/i/PcTZyedF1rDOJg | https://disk.yandex.ru/i/LfEJ0P5ilCXSVQ | https://disk.yandex.ru/i/RhTS5e7F4puvbA | https://disk.yandex.ru/i/W8nSOPZgDne_dA | https://disk.yandex.ru/i/zEtSyCHXsZoMgQ | https://disk.yandex.ru/i/UkaIVPzrKhds3A | htt" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I39" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G40" r:id="rId75" display="https://disk.yandex.ru/i/OEPZHMOhF0ffDw | https://disk.yandex.ru/i/o17ZWaV_t58i9Q | https://disk.yandex.ru/i/ofnxTQFi8A5MNw | https://disk.yandex.ru/i/aXiG3TT8Ireygw | https://disk.yandex.ru/i/6HwqFuN55lh3aw | https://disk.yandex.ru/i/8elVM3Z0LwMRug | htt" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="I40" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="G26" r:id="rId49"/>
+    <hyperlink ref="I26" r:id="rId50"/>
+    <hyperlink ref="G27" r:id="rId51"/>
+    <hyperlink ref="I27" r:id="rId52"/>
+    <hyperlink ref="G28" r:id="rId53"/>
+    <hyperlink ref="I28" r:id="rId54"/>
+    <hyperlink ref="G29" r:id="rId55"/>
+    <hyperlink ref="I29" r:id="rId56"/>
+    <hyperlink ref="G30" r:id="rId57"/>
+    <hyperlink ref="I30" r:id="rId58"/>
+    <hyperlink ref="G31" r:id="rId59"/>
+    <hyperlink ref="I31" r:id="rId60"/>
+    <hyperlink ref="G32" r:id="rId61"/>
+    <hyperlink ref="I32" r:id="rId62"/>
+    <hyperlink ref="G33" r:id="rId63"/>
+    <hyperlink ref="I33" r:id="rId64"/>
+    <hyperlink ref="G34" r:id="rId65"/>
+    <hyperlink ref="I34" r:id="rId66"/>
+    <hyperlink ref="G35" r:id="rId67"/>
+    <hyperlink ref="I35" r:id="rId68"/>
+    <hyperlink ref="I36" r:id="rId69"/>
+    <hyperlink ref="G37" r:id="rId70"/>
+    <hyperlink ref="I37" r:id="rId71"/>
+    <hyperlink ref="G38" r:id="rId72"/>
+    <hyperlink ref="I38" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4929CAF-2B41-4AFD-A4AD-3F7ABF07A2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2340" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="174">
   <si>
     <t>Address</t>
   </si>
@@ -206,6 +212,9 @@
   </si>
   <si>
     <t>Кабинет для руководителя</t>
+  </si>
+  <si>
+    <t>Офисная мебель бу</t>
   </si>
   <si>
     <t>Стол переговорный 
@@ -1188,6 +1197,31 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Офисная мебель бу
+Артикул 237
+Описание 
+Размеры ДхШхВ: Стол - 160х80х75
+Тумба подкатная 
+Шкаф - 83х45х197
+Цвет яблоня
+Цена 12 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
   </si>
   <si>
@@ -1297,6 +1331,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/HyzF6oPWr07g_Q | https://disk.yandex.ru/i/GhQCaatDtnVqLQ | https://disk.yandex.ru/i/pM0vR4uP1w8Wig | https://disk.yandex.ru/i/ZavWODbe3T432g | https://disk.yandex.ru/i/BIxKW5nf3bhTfg | https://disk.yandex.ru/i/0eUPoGmRi-RTOw | https://disk.yandex.ru/i/AKzr7x8U3tje2w | https://disk.yandex.ru/i/a25cKjo5iODQ8A | https://disk.yandex.ru/i/Ru_VNwAhzSVa4A | https://disk.yandex.ru/i/WCkh8LDa_ikcsw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/D2Vazz97kZ0SRw | https://disk.yandex.ru/i/Y68nYKNB-mx61A | https://disk.yandex.ru/i/R9Tw42x756FA8Q | https://disk.yandex.ru/i/6ThAWFVb7xLpjQ | https://disk.yandex.ru/i/IHNKCYpFgYNRRg | https://disk.yandex.ru/i/AUP0pSozES8ZoA | https://disk.yandex.ru/i/TsfbAOO1yYejVQ | https://disk.yandex.ru/i/3kyAR4ig98k-LQ | https://disk.yandex.ru/i/xb8WqMHj9C3rGQ | https://disk.yandex.ru/i/ZjS97lfnoEDUKw</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1401,8 +1438,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1473,18 +1510,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1522,9 +1567,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,9 +1601,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1590,9 +1653,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1765,14 +1846,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,54 +1995,54 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>99999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AJ2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AK2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1971,66 +2054,66 @@
         <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AQ2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AS2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AT2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>19999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K3">
         <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AH3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -2042,69 +2125,69 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>24999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K4">
         <v>168</v>
       </c>
       <c r="S4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AH4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -2116,69 +2199,69 @@
         <v>170</v>
       </c>
       <c r="AP4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AR4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>99999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K5">
         <v>186</v>
       </c>
       <c r="S5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AK5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL5">
         <v>170</v>
@@ -2190,66 +2273,66 @@
         <v>360</v>
       </c>
       <c r="AP5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AS5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AT5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>9999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K6">
         <v>188</v>
       </c>
       <c r="S6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL6">
         <v>80</v>
@@ -2261,66 +2344,66 @@
         <v>180</v>
       </c>
       <c r="AP6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AS6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AT6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>90000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K7">
         <v>196</v>
       </c>
       <c r="S7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -2332,69 +2415,69 @@
         <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AR7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>40000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K8">
         <v>197</v>
       </c>
       <c r="S8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AK8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL8">
         <v>120</v>
@@ -2406,69 +2489,69 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AR8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>19999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K9">
         <v>207</v>
       </c>
       <c r="S9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AH9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL9">
         <v>94</v>
@@ -2480,69 +2563,69 @@
         <v>197</v>
       </c>
       <c r="AP9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>25000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K10">
         <v>208</v>
       </c>
       <c r="S10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -2554,69 +2637,69 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AR10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11">
         <v>21000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K11">
         <v>209</v>
       </c>
       <c r="S11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2628,69 +2711,69 @@
         <v>160</v>
       </c>
       <c r="AP11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AR11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12">
         <v>25000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K12">
         <v>210</v>
       </c>
       <c r="S12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2702,69 +2785,69 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AR12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13">
         <v>25000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K13">
         <v>211</v>
       </c>
       <c r="S13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2776,69 +2859,69 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AR13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K14">
         <v>2136</v>
       </c>
       <c r="S14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2850,66 +2933,66 @@
         <v>80</v>
       </c>
       <c r="AP14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AS14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AT14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15">
         <v>9999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K15">
         <v>223</v>
       </c>
       <c r="S15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AH15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AJ15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AK15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL15">
         <v>120</v>
@@ -2921,66 +3004,66 @@
         <v>120</v>
       </c>
       <c r="AP15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AS15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16">
         <v>120000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K16">
         <v>222</v>
       </c>
       <c r="S16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AK16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL16">
         <v>200</v>
@@ -2992,69 +3075,69 @@
         <v>300</v>
       </c>
       <c r="AP16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="17" spans="4:46">
+    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17">
         <v>40000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K17">
         <v>220</v>
       </c>
       <c r="S17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AH17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -3066,69 +3149,69 @@
         <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="18" spans="4:46">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18">
         <v>35000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K18">
         <v>219</v>
       </c>
       <c r="S18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL18">
         <v>70</v>
@@ -3140,69 +3223,69 @@
         <v>140</v>
       </c>
       <c r="AP18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="4:46">
+    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F19">
         <v>15000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K19">
         <v>215</v>
       </c>
       <c r="S19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL19">
         <v>90</v>
@@ -3214,66 +3297,66 @@
         <v>180</v>
       </c>
       <c r="AP19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AS19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="20" spans="4:46">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20">
         <v>12000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K20">
         <v>216</v>
       </c>
       <c r="S20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL20">
         <v>80</v>
@@ -3285,66 +3368,66 @@
         <v>200</v>
       </c>
       <c r="AP20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AS20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="21" spans="4:46">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21">
         <v>15000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K21">
         <v>213</v>
       </c>
       <c r="S21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL21">
         <v>80</v>
@@ -3356,66 +3439,66 @@
         <v>180</v>
       </c>
       <c r="AP21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AS21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="22" spans="4:46">
+    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22">
         <v>25000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K22">
         <v>212</v>
       </c>
       <c r="S22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AH22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL22">
         <v>85</v>
@@ -3427,69 +3510,69 @@
         <v>160</v>
       </c>
       <c r="AP22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="23" spans="4:46">
+    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23">
         <v>18000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K23">
         <v>2436</v>
       </c>
       <c r="S23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AK23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL23">
         <v>100</v>
@@ -3501,69 +3584,69 @@
         <v>160</v>
       </c>
       <c r="AP23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AR23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="24" spans="4:46">
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24">
         <v>10000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K24">
         <v>228</v>
       </c>
       <c r="S24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL24">
         <v>120</v>
@@ -3575,66 +3658,66 @@
         <v>150</v>
       </c>
       <c r="AP24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AS24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="25" spans="4:46">
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25">
         <v>18000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K25">
         <v>2451</v>
       </c>
       <c r="S25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL25">
         <v>85</v>
@@ -3646,69 +3729,69 @@
         <v>140</v>
       </c>
       <c r="AP25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="26" spans="4:46">
+    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26">
         <v>18000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K26">
         <v>2450</v>
       </c>
       <c r="S26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL26">
         <v>85</v>
@@ -3720,69 +3803,69 @@
         <v>140</v>
       </c>
       <c r="AP26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="27" spans="4:46">
+    <row r="27" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F27">
         <v>50000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K27">
         <v>231</v>
       </c>
       <c r="S27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI27" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK27" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL27">
         <v>86</v>
@@ -3794,69 +3877,69 @@
         <v>180</v>
       </c>
       <c r="AP27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR27" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS27" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT27" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="28" spans="4:46">
+    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28">
         <v>59999</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K28">
         <v>236</v>
       </c>
       <c r="S28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI28" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL28">
         <v>90</v>
@@ -3868,69 +3951,69 @@
         <v>200</v>
       </c>
       <c r="AP28" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ28" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="29" spans="4:46">
+    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <v>15000</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K29">
         <v>238</v>
       </c>
       <c r="S29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ29" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AK29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL29">
         <v>120</v>
@@ -3942,66 +4025,66 @@
         <v>200</v>
       </c>
       <c r="AP29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AS29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="30" spans="4:46">
+    <row r="30" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F30">
         <v>29999</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K30">
         <v>243</v>
       </c>
       <c r="S30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL30">
         <v>12</v>
@@ -4013,66 +4096,66 @@
         <v>240</v>
       </c>
       <c r="AP30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AS30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="31" spans="4:46">
+    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F31">
         <v>34999</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K31">
         <v>242</v>
       </c>
       <c r="S31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL31">
         <v>120</v>
@@ -4084,66 +4167,66 @@
         <v>240</v>
       </c>
       <c r="AP31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AS31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="32" spans="4:46">
+    <row r="32" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <v>24999</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K32">
         <v>241</v>
       </c>
       <c r="S32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ32" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AK32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL32">
         <v>115</v>
@@ -4155,66 +4238,66 @@
         <v>230</v>
       </c>
       <c r="AP32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AS32" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="33" spans="4:46">
+    <row r="33" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F33">
         <v>19999</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K33">
         <v>192</v>
       </c>
       <c r="S33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE33" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI33" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL33">
         <v>80</v>
@@ -4226,66 +4309,66 @@
         <v>200</v>
       </c>
       <c r="AP33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AS33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="34" spans="4:46">
+    <row r="34" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34">
         <v>20000</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K34">
         <v>240</v>
       </c>
       <c r="S34" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE34" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL34">
         <v>80</v>
@@ -4297,66 +4380,66 @@
         <v>200</v>
       </c>
       <c r="AP34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AS34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="35" spans="4:46">
+    <row r="35" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F35">
         <v>550000</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K35">
         <v>239</v>
       </c>
       <c r="S35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC35" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH35" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ35" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL35">
         <v>100</v>
@@ -4368,69 +4451,69 @@
         <v>220</v>
       </c>
       <c r="AP35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AQ35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AR35" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AT35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="36" spans="4:46">
+    <row r="36" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F36">
         <v>39999</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K36">
         <v>244</v>
       </c>
       <c r="S36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA36" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE36" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AH36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL36">
         <v>120</v>
@@ -4442,66 +4525,66 @@
         <v>240</v>
       </c>
       <c r="AP36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AS36" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="37" spans="4:46">
+    <row r="37" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F37">
         <v>24999</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K37">
         <v>245</v>
       </c>
       <c r="S37" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AH37" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI37" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ37" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL37">
         <v>100</v>
@@ -4513,66 +4596,66 @@
         <v>210</v>
       </c>
       <c r="AP37" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ37" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AS37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="38" spans="4:46">
+    <row r="38" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F38">
         <v>44999</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K38">
         <v>218</v>
       </c>
       <c r="S38" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA38" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AC38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AH38" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AI38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ38" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AK38" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL38">
         <v>90</v>
@@ -4584,96 +4667,172 @@
         <v>180</v>
       </c>
       <c r="AP38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39">
+        <v>12999</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K39">
+        <v>237</v>
+      </c>
+      <c r="S39" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL39">
+        <v>80</v>
+      </c>
+      <c r="AM39">
+        <v>75</v>
+      </c>
+      <c r="AN39">
+        <v>160</v>
+      </c>
+      <c r="AP39" t="s">
         <v>166</v>
       </c>
-      <c r="AS38" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>161</v>
+      <c r="AQ39" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
-    <hyperlink ref="G25" r:id="rId47"/>
-    <hyperlink ref="I25" r:id="rId48"/>
-    <hyperlink ref="G26" r:id="rId49"/>
-    <hyperlink ref="I26" r:id="rId50"/>
-    <hyperlink ref="G27" r:id="rId51"/>
-    <hyperlink ref="I27" r:id="rId52"/>
-    <hyperlink ref="G28" r:id="rId53"/>
-    <hyperlink ref="I28" r:id="rId54"/>
-    <hyperlink ref="G29" r:id="rId55"/>
-    <hyperlink ref="I29" r:id="rId56"/>
-    <hyperlink ref="G30" r:id="rId57"/>
-    <hyperlink ref="I30" r:id="rId58"/>
-    <hyperlink ref="G31" r:id="rId59"/>
-    <hyperlink ref="I31" r:id="rId60"/>
-    <hyperlink ref="G32" r:id="rId61"/>
-    <hyperlink ref="I32" r:id="rId62"/>
-    <hyperlink ref="G33" r:id="rId63"/>
-    <hyperlink ref="I33" r:id="rId64"/>
-    <hyperlink ref="G34" r:id="rId65"/>
-    <hyperlink ref="I34" r:id="rId66"/>
-    <hyperlink ref="G35" r:id="rId67"/>
-    <hyperlink ref="I35" r:id="rId68"/>
-    <hyperlink ref="I36" r:id="rId69"/>
-    <hyperlink ref="G37" r:id="rId70"/>
-    <hyperlink ref="I37" r:id="rId71"/>
-    <hyperlink ref="G38" r:id="rId72"/>
-    <hyperlink ref="I38" r:id="rId73"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G37" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G39" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4929CAF-2B41-4AFD-A4AD-3F7ABF07A2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177206B6-46B7-4CBD-AA34-8EAB9791F90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="178">
   <si>
     <t>Address</t>
   </si>
@@ -160,51 +160,48 @@
     <t>CanBeDisassembled</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол с тумбой </t>
+  </si>
+  <si>
+    <t>Кабинет руководителя</t>
+  </si>
+  <si>
+    <t>Стол для переговоров</t>
+  </si>
+  <si>
+    <t>Переговорный стол офисный</t>
+  </si>
+  <si>
+    <t>Офисная мебель</t>
+  </si>
+  <si>
+    <t>Стол для руководителя</t>
+  </si>
+  <si>
+    <t>Комплект офисной мебели</t>
+  </si>
+  <si>
+    <t>Стол круглый</t>
+  </si>
+  <si>
+    <t>Стол офисный</t>
+  </si>
+  <si>
+    <t>Столешница офисный стол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол руководителя </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол для переговоров </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол руководителя с брифингом </t>
+  </si>
+  <si>
     <t>Стол переговорный</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол с тумбой </t>
-  </si>
-  <si>
-    <t>Кабинет руководителя</t>
-  </si>
-  <si>
-    <t>Стол для переговоров</t>
-  </si>
-  <si>
-    <t>Переговорный стол офисный</t>
-  </si>
-  <si>
-    <t>Офисная мебель</t>
-  </si>
-  <si>
-    <t>Стол для руководителя</t>
-  </si>
-  <si>
-    <t>Комплект офисной мебели</t>
-  </si>
-  <si>
-    <t>Стол круглый</t>
-  </si>
-  <si>
-    <t>Стол офисный</t>
-  </si>
-  <si>
-    <t>Столешница офисный стол</t>
-  </si>
-  <si>
-    <t>Стол руководителя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол руководителя </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол для переговоров </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол руководителя с брифингом </t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол для переговоров SteelCase </t>
   </si>
   <si>
@@ -217,22 +214,7 @@
     <t>Офисная мебель бу</t>
   </si>
   <si>
-    <t>Стол переговорный 
-Описание: Большой круглый стол подойдет как для офисов в качестве переговорного стола, так и для дома, как обеденный стол для большой семьи. Лакированный стол с красивым окрасом, который хорошо подойдет для любого интерьера.
-Просим заметить, что на столе есть дефекты.
-Диаметр 200
-Высота 78
-Цена: 99 999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
+    <t>Кабинет директора</t>
   </si>
   <si>
     <t>Стол с тумбой
@@ -731,35 +713,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол руководителя
-Артикул 212
-Стол руководителя цвета венге — стильное и функциональное решение для современного офиса. Его массивная столешница из прочного материала не только придает изделию солидность, но и обеспечивает длительный срок службы. Этот комплект идеально подходит для тех, кто ценит практичность и элегантный дизайн.
-Размеры ДхШхВ: Стол - 160х85х76
-Тумба-граденция - 120х45х63
-Тумба подкатная 
-Цвет венге
-Цена 25 000
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол руководителя 
 Артикул 2436
 Стол угловой в кабинет руководителя с брифингом до 3 человек. Стол от германской компании Берлин сделан из высококачественных материалов. 
@@ -839,31 +792,6 @@
     Работаем уже 6 лет, развиваясь и улучшая сервисный центр
     Можем укомплектовать 100-200 рабочих мест.
     </t>
-  </si>
-  <si>
-    <t>Стол руководителя 
-Артикул 2450
-Стол в кабинет руководителя с брифингом до 3 человек. Стол от германской компании Берлин сделан из высококачественных материалов.
-Размеры ДхШхВ: Стол - 140х85х74
-Брифинг - 100х60х74
-Производство: Берлин
-Цвет: молочный
-Количество: 1 шт
-Цена: 18000 за 1 шт.
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t xml:space="preserve">Кабинет руководителя
@@ -1222,7 +1150,151 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/s0_JpOMbuo2BNA | https://disk.yandex.ru/i/PHeroVhElgKqMQ | https://disk.yandex.ru/i/oqW75vNC2hm7PA | https://disk.yandex.ru/i/9TDUMySdZ8jjtQ | https://disk.yandex.ru/i/Xd8kjPW488HloA | https://disk.yandex.ru/i/RMNpvAmr6DR2qQ | https://disk.yandex.ru/i/R2DvVMTFE_ad3w | https://disk.yandex.ru/i/2hknK8GVPthv1w</t>
+    <t xml:space="preserve">Кабинет руководителя
+Артикул 249
+Офисная мебель для директоров и руководителей. На столе и тумбе имеются небольшие дефекты.
+Размеры ДхШхВ: Стол - 180х92х74
+Шкаф - 182х42х191
+Тумба на колёсиках - 113х56х69
+Тумба - 92х42х68
+Цвет
+Цена 45000
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабинет руководителя
+Артикул 248
+Описание
+Размеры ДхШхВ: Стол - 200х110х74
+Брифинг 120х90х74
+Шкафы для документов - 80х46х201
+Гардероб - 80х60х215
+Тумба на колёсиках
+Цвет клен
+Цена 59 999
+Количество 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кабинет руководителя
+Артикул 254
+Элитная директорская мебель бу. На мебели есть дефекты. 
+Размеры ДхШхВ: Стол - 180х100х75
+Брифинг - 110х72
+Шкаф для документов - 90х45х210
+Гардероб - 60х42х210
+Тумба под оргтехнику
+Тумба на колёсиках
+Цвет
+Цена 60000
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Кабинет директора
+Артикул 253
+Офисная мебель бу директарской линии. Мебель с дефектами.
+Размеры ДхШхВ: Стол - 200х95х73
+Брифинг -120х80 
+Шкаф - 185х42х192
+Тумба под оргтехнику 2 шт
+Тумба на колёсиках
+Цвет вишня
+Цена 49 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабинет руководителя
+Артикул 252
+Размеры ДхШхВ: Стол-185х90х73
+Брифинг - 160х80х71
+Шкаф для документов - 90х45х209
+Шкаф гардероб - 102х40х209
+Тумба под оргтехнику - 140х45х88
+Тумба подкатная
+Цвет: бук
+Цена 59 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/vM0qg0crKZmyqQ | https://disk.yandex.ru/i/OxloUWElvXA_FQ | https://disk.yandex.ru/i/j9cGHsN0YxaVgg | https://disk.yandex.ru/i/VHzBSNc4kkiHkA | https://disk.yandex.ru/i/4MEkQ6dDio2OBA | https://disk.yandex.ru/i/ZOcnsS9CNAx9kQ | https://disk.yandex.ru/i/QKJj1Qtx7k2xug | https://disk.yandex.ru/i/ntZxv4uc68gOWg | https://disk.yandex.ru/i/DAN0HWYPcoA8Cw</t>
@@ -1282,9 +1354,6 @@
     <t>https://disk.yandex.ru/i/rI-mxgSK1qyLPw | https://disk.yandex.ru/i/rJS6LV-_n9ms6A | https://disk.yandex.ru/i/ehqqLVaX8_WxGA | https://disk.yandex.ru/i/DyebLQ3H36Rz_A</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/mAOhRoFPl12JKg | https://disk.yandex.ru/i/yhO6A5lvXeW-eQ | https://disk.yandex.ru/i/lOlYx7PcHK1bpw | https://disk.yandex.ru/i/QnScUCQqtAwBBQ | https://disk.yandex.ru/i/7Z1vOE4M7wBXbg | https://disk.yandex.ru/i/9Z6HvSuDl_oHkw | https://disk.yandex.ru/i/dTjDCVSBeqcRqQ | https://disk.yandex.ru/i/FhIvyAiJlwlzCQ | https://disk.yandex.ru/i/g_TmssrqEXkVhQ | https://disk.yandex.ru/i/eojJXx2pt-1szg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/BmoBkouS4pOJfg | https://disk.yandex.ru/i/4k47QZSw8OMZdg | https://disk.yandex.ru/i/HsZVBssxyv0tJQ | https://disk.yandex.ru/i/yTzbOn3KXPl85Q | https://disk.yandex.ru/i/PYN4Yo51TcDTBA</t>
   </si>
   <si>
@@ -1294,9 +1363,6 @@
     <t>https://disk.yandex.ru/i/s3mwCoCpL7JFcw | https://disk.yandex.ru/i/0AYPSh2aR76cWA | https://disk.yandex.ru/i/RMlg6fJKMdU8RA | https://disk.yandex.ru/i/87WpAfEe8iBMIg | https://disk.yandex.ru/i/2VFM9CZ5az1-Iw | https://disk.yandex.ru/i/8nkKR3VV0MS6Jw | https://disk.yandex.ru/i/TVs05P3_7J-i0g</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/zEtSyCHXsZoMgQ | https://disk.yandex.ru/i/UkaIVPzrKhds3A | https://disk.yandex.ru/i/jKFdefNwgz40WA | https://disk.yandex.ru/i/6qgZOz8G0n5VmQ | https://disk.yandex.ru/i/Yy95RrfshV4pkg | https://disk.yandex.ru/i/SWxosuLwtOS0ZA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/igtYdrUIfTi4CA | https://disk.yandex.ru/i/erEoEDSrsBd4xA | https://disk.yandex.ru/i/51LgM2QvBZFBJQ | https://disk.yandex.ru/i/1G4bOaea1cVj9A | https://disk.yandex.ru/i/4tPVYq5S_JFI2Q | https://disk.yandex.ru/i/boM08MpjPDqBZg | https://disk.yandex.ru/i/GT13NVSyJe5jPw</t>
   </si>
   <si>
@@ -1336,6 +1402,18 @@
     <t>https://disk.yandex.ru/i/D2Vazz97kZ0SRw | https://disk.yandex.ru/i/Y68nYKNB-mx61A | https://disk.yandex.ru/i/R9Tw42x756FA8Q | https://disk.yandex.ru/i/6ThAWFVb7xLpjQ | https://disk.yandex.ru/i/IHNKCYpFgYNRRg | https://disk.yandex.ru/i/AUP0pSozES8ZoA | https://disk.yandex.ru/i/TsfbAOO1yYejVQ | https://disk.yandex.ru/i/3kyAR4ig98k-LQ | https://disk.yandex.ru/i/xb8WqMHj9C3rGQ | https://disk.yandex.ru/i/ZjS97lfnoEDUKw</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/EUdb_vdyYEE4yw | https://disk.yandex.ru/i/0bBuUUicfY_RXg | https://disk.yandex.ru/i/b0k6u9B5mBawrA | https://disk.yandex.ru/i/32rwUhkOb6IZ6Q | https://disk.yandex.ru/i/LAM4_2V7rTbg1A | https://disk.yandex.ru/i/UrXu4Eq3gvgFjA | https://disk.yandex.ru/i/chhzCWKjlTipnw | https://disk.yandex.ru/i/sZnUDa9P0LZJdw | https://disk.yandex.ru/i/nvKFWM4WP05GUg | https://disk.yandex.ru/i/xwiF-vZ7SYXUnQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/_XTwv966GXhQOg | https://disk.yandex.ru/i/FWWtmkytRI3l9g | https://disk.yandex.ru/i/J7rv9MERRWCQNQ | https://disk.yandex.ru/i/8PhxUBtKEyYbNg | https://disk.yandex.ru/i/RzO_45G_I3qpJg | https://disk.yandex.ru/i/Pg1Q1-Ft1ez0dQ | https://disk.yandex.ru/i/aMD8eLL7Kpo9KA | https://disk.yandex.ru/i/QZr9Jqve2UNNgw | https://disk.yandex.ru/i/oTDL3Ts3wFxBnw | https://disk.yandex.ru/i/EmqIcXKcImJexA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PUlBRVObGhObyw | https://disk.yandex.ru/i/_Bsl9zXgCP5fPw | https://disk.yandex.ru/i/-jjqwxvMjzi5iQ | https://disk.yandex.ru/i/q4Fv1czoxqP5PA | https://disk.yandex.ru/i/_ZDWv8kIMZ8jzQ | https://disk.yandex.ru/i/W01CIL4SFLsN_g | https://disk.yandex.ru/i/A1_i-kUvb5bTlg | https://disk.yandex.ru/i/IniGjKsbcA7JJA | https://disk.yandex.ru/i/fMoL9m-9fYSgqQ | https://disk.yandex.ru/i/suDlOvJBjiZivA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/18SagEYWbuCECA | https://disk.yandex.ru/i/GYZsP4oDyzM_Zw | https://disk.yandex.ru/i/P2GGoROd6rqWjw | https://disk.yandex.ru/i/HEAi7sG6sUn6Vg | https://disk.yandex.ru/i/vaeixqS-2gZW7Q | https://disk.yandex.ru/i/hvtIOVFhGbArAg | https://disk.yandex.ru/i/oU_HWE3U35uHQQ | https://disk.yandex.ru/i/rq4sA1TCZMmYLw | https://disk.yandex.ru/i/e2N_p23wpkjtzg | https://disk.yandex.ru/i/dWsGcXvqHnD7dg</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1357,15 +1435,15 @@
     <t>В наличии</t>
   </si>
   <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t>Жёлтый</t>
+  </si>
+  <si>
     <t>Коричневый</t>
   </si>
   <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
     <t>Белый</t>
   </si>
   <si>
@@ -1378,61 +1456,64 @@
     <t>Чёрный</t>
   </si>
   <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
     <t>Серый</t>
   </si>
   <si>
+    <t>Оранжевый</t>
+  </si>
+  <si>
     <t>Столы</t>
   </si>
   <si>
+    <t>Письменный</t>
+  </si>
+  <si>
     <t>Кухонный</t>
   </si>
   <si>
-    <t>Письменный</t>
+    <t>Прямоугольный</t>
+  </si>
+  <si>
+    <t>Угловой</t>
   </si>
   <si>
     <t>Круглый</t>
   </si>
   <si>
-    <t>Прямоугольный</t>
-  </si>
-  <si>
-    <t>Угловой</t>
-  </si>
-  <si>
     <t>Овальный</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
+    <t>ДСП</t>
+  </si>
+  <si>
+    <t>ЛДСП</t>
+  </si>
+  <si>
     <t>Дерево</t>
   </si>
   <si>
-    <t>ДСП</t>
-  </si>
-  <si>
-    <t>ЛДСП</t>
-  </si>
-  <si>
     <t>Металл</t>
   </si>
   <si>
     <t>Тумба</t>
   </si>
   <si>
+    <t>Кабинет</t>
+  </si>
+  <si>
     <t>Бар/кафе | Кабинет | Кухня</t>
   </si>
   <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
     <t>Кабинет | Кухня</t>
   </si>
   <si>
     <t>Кабинет | Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qFlNBNi3hbdTsQ | https://disk.yandex.ru/i/qSiesTMatxFcnA | https://disk.yandex.ru/i/uLraPR8Z4HRDQw | https://disk.yandex.ru/i/pgUDnXTg0x3AKw | https://disk.yandex.ru/i/WE_8zyUKTIgmOw | https://disk.yandex.ru/i/esjYVc6J53hUJA | https://disk.yandex.ru/i/3IVzpK7KN1dZNg | https://disk.yandex.ru/i/l74ptAq4yy8OmQ</t>
   </si>
 </sst>
 </file>
@@ -1847,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT39"/>
+  <dimension ref="A1:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,67 +2084,70 @@
         <v>65</v>
       </c>
       <c r="F2">
-        <v>99999</v>
+        <v>19999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="S2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AC2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AJ2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AK2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AM2">
         <v>75</v>
       </c>
       <c r="AN2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ2" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>172</v>
       </c>
       <c r="AS2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -2074,70 +2158,70 @@
         <v>66</v>
       </c>
       <c r="F3">
-        <v>19999</v>
+        <v>24999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K3">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="S3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AC3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM3">
         <v>75</v>
       </c>
       <c r="AN3">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AP3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AQ3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AR3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -2148,70 +2232,67 @@
         <v>67</v>
       </c>
       <c r="F4">
-        <v>24999</v>
+        <v>99999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K4">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="S4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AC4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AH4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AJ4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AK4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL4">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="AM4">
         <v>75</v>
       </c>
       <c r="AN4">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="AP4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AQ4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR4" t="s">
         <v>169</v>
       </c>
       <c r="AS4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AT4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -2222,212 +2303,215 @@
         <v>68</v>
       </c>
       <c r="F5">
-        <v>99999</v>
+        <v>9999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K5">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AC5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="AK5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL5">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AM5">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN5">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AP5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AS5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AT5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
       </c>
       <c r="F6">
-        <v>9999</v>
+        <v>90000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K6">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="S6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AC6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AH6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI6" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AJ6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL6">
         <v>80</v>
       </c>
       <c r="AM6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN6">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ6" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>172</v>
       </c>
       <c r="AS6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AT6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>70</v>
       </c>
       <c r="F7">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K7">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AK7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL7">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN7">
         <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AR7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -2438,70 +2522,70 @@
         <v>71</v>
       </c>
       <c r="F8">
-        <v>40000</v>
+        <v>19999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K8">
+        <v>207</v>
+      </c>
+      <c r="S8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL8">
+        <v>94</v>
+      </c>
+      <c r="AM8">
+        <v>74</v>
+      </c>
+      <c r="AN8">
         <v>197</v>
       </c>
-      <c r="S8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL8">
-        <v>120</v>
-      </c>
-      <c r="AM8">
-        <v>73</v>
-      </c>
-      <c r="AN8">
-        <v>160</v>
-      </c>
       <c r="AP8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AQ8" t="s">
         <v>168</v>
       </c>
       <c r="AR8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -2512,120 +2596,120 @@
         <v>72</v>
       </c>
       <c r="F9">
-        <v>19999</v>
+        <v>25000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE9" t="s">
         <v>153</v>
       </c>
       <c r="AH9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL9">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AM9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN9">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="AP9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AR9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>73</v>
       </c>
       <c r="F10">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AH10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -2637,69 +2721,69 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AR10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
       </c>
       <c r="F11">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AH11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2711,24 +2795,24 @@
         <v>160</v>
       </c>
       <c r="AP11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AR11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -2737,43 +2821,43 @@
         <v>25000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K12">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE12" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AH12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2785,19 +2869,19 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AR12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
@@ -2808,46 +2892,46 @@
         <v>76</v>
       </c>
       <c r="F13">
-        <v>25000</v>
+        <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K13">
-        <v>211</v>
+        <v>2136</v>
       </c>
       <c r="S13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AC13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AH13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AJ13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AK13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2856,291 +2940,291 @@
         <v>75</v>
       </c>
       <c r="AN13">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AQ13" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR13" t="s">
         <v>169</v>
       </c>
       <c r="AS13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AT13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>77</v>
       </c>
       <c r="F14">
-        <v>4999</v>
+        <v>9999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K14">
-        <v>2136</v>
+        <v>223</v>
       </c>
       <c r="S14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AC14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AH14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="AJ14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AK14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL14">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM14">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN14">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AQ14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AS14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AT14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>78</v>
       </c>
       <c r="F15">
-        <v>9999</v>
+        <v>120000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K15">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AJ15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AK15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL15">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AM15">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN15">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AP15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AQ15" t="s">
         <v>168</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>172</v>
       </c>
       <c r="AS15" t="s">
         <v>173</v>
       </c>
       <c r="AT15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>79</v>
       </c>
       <c r="F16">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K16">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE16" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AH16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI16" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AJ16" t="s">
         <v>163</v>
       </c>
       <c r="AK16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL16">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AM16">
         <v>75</v>
       </c>
       <c r="AN16">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="AP16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AR16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>80</v>
       </c>
       <c r="F17">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K17">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL17">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM17">
         <v>75</v>
@@ -3149,93 +3233,90 @@
         <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AR17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
         <v>81</v>
       </c>
       <c r="F18">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K18">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="S18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AH18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL18">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AM18">
         <v>75</v>
       </c>
       <c r="AN18">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AP18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ18" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="4:46" x14ac:dyDescent="0.25">
@@ -3246,209 +3327,212 @@
         <v>82</v>
       </c>
       <c r="F19">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K19">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AH19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL19">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM19">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="AN19">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AQ19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AS19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AT19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
       </c>
       <c r="F20">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K20">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AH20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL20">
         <v>80</v>
       </c>
       <c r="AM20">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AN20">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AP20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AS20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AT20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
         <v>84</v>
       </c>
       <c r="F21">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21">
-        <v>213</v>
+        <v>2436</v>
       </c>
       <c r="S21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE21" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AK21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL21">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM21">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN21">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AP21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ21" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>172</v>
       </c>
       <c r="AS21" t="s">
         <v>173</v>
       </c>
       <c r="AT21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="4:46" x14ac:dyDescent="0.25">
@@ -3459,70 +3543,67 @@
         <v>85</v>
       </c>
       <c r="F22">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K22">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="S22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE22" t="s">
         <v>155</v>
       </c>
       <c r="AH22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL22">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AM22">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AN22">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AP22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ22" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="4:46" x14ac:dyDescent="0.25">
@@ -3536,360 +3617,357 @@
         <v>18000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K23">
-        <v>2436</v>
+        <v>2451</v>
       </c>
       <c r="S23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE23" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AH23" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL23">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM23">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN23">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ23" t="s">
         <v>168</v>
       </c>
       <c r="AR23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
         <v>87</v>
       </c>
       <c r="F24">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K24">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="S24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AH24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL24">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="AM24">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AN24">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AP24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ24" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>172</v>
       </c>
       <c r="AS24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>88</v>
       </c>
       <c r="F25">
-        <v>18000</v>
+        <v>59999</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K25">
-        <v>2451</v>
+        <v>236</v>
       </c>
       <c r="S25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AH25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL25">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM25">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN25">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AP25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AR25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>89</v>
       </c>
       <c r="F26">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K26">
-        <v>2450</v>
+        <v>238</v>
       </c>
       <c r="S26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AH26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ26" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AK26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL26">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AM26">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN26">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AP26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ26" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>90</v>
       </c>
       <c r="F27">
-        <v>50000</v>
+        <v>29999</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K27">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="S27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AH27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL27">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="AM27">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN27">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AP27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AS27" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AT27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="4:46" x14ac:dyDescent="0.25">
@@ -3900,860 +3978,1014 @@
         <v>91</v>
       </c>
       <c r="F28">
-        <v>59999</v>
+        <v>34999</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K28">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="S28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE28" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL28">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AM28">
         <v>75</v>
       </c>
       <c r="AN28">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AP28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS28" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AT28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>92</v>
       </c>
       <c r="F29">
-        <v>15000</v>
+        <v>24999</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K29">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD29" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE29" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AH29" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AK29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL29">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AM29">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN29">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AP29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AS29" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AT29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
         <v>93</v>
       </c>
       <c r="F30">
-        <v>29999</v>
+        <v>19999</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K30">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="S30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE30" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL30">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="AM30">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN30">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AP30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AS30" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AT30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>94</v>
       </c>
       <c r="F31">
-        <v>34999</v>
+        <v>20000</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K31">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AH31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL31">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM31">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN31">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AP31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AS31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AT31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
         <v>95</v>
       </c>
       <c r="F32">
-        <v>24999</v>
+        <v>550000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K32">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE32" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AH32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ32" t="s">
         <v>163</v>
       </c>
       <c r="AK32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL32">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AM32">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AN32">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AP32" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AQ32" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>172</v>
       </c>
       <c r="AS32" t="s">
         <v>173</v>
       </c>
       <c r="AT32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
         <v>96</v>
       </c>
       <c r="F33">
-        <v>19999</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>134</v>
+        <v>39999</v>
+      </c>
+      <c r="G33" t="s">
+        <v>136</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K33">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="S33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AH33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL33">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM33">
         <v>75</v>
       </c>
       <c r="AN33">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AP33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AQ33" t="s">
         <v>168</v>
       </c>
       <c r="AS33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AT33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
         <v>97</v>
       </c>
       <c r="F34">
-        <v>20000</v>
+        <v>24999</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K34">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="S34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB34" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD34" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AH34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL34">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM34">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN34">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AP34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ34" t="s">
         <v>168</v>
       </c>
       <c r="AS34" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AT34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
         <v>98</v>
       </c>
       <c r="F35">
-        <v>550000</v>
+        <v>44999</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K35">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="S35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA35" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC35" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD35" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE35" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AH35" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL35">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM35">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AN35">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AP35" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ35" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AR35" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
         <v>99</v>
       </c>
       <c r="F36">
-        <v>39999</v>
-      </c>
-      <c r="G36" t="s">
-        <v>137</v>
+        <v>12999</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K36">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="S36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB36" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD36" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE36" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AH36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AK36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL36">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM36">
         <v>75</v>
       </c>
       <c r="AN36">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AP36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ36" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>172</v>
       </c>
       <c r="AS36" t="s">
         <v>173</v>
       </c>
       <c r="AT36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
         <v>100</v>
       </c>
       <c r="F37">
-        <v>24999</v>
+        <v>45000</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K37">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="S37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC37" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AH37" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL37">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AM37">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AN37">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AP37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ37" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>172</v>
       </c>
       <c r="AS37" t="s">
         <v>173</v>
       </c>
       <c r="AT37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
         <v>101</v>
       </c>
       <c r="F38">
-        <v>44999</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>139</v>
+        <v>59999</v>
+      </c>
+      <c r="G38" t="s">
+        <v>177</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K38">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="S38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AH38" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL38">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AM38">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AN38">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AP38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AQ38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AR38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
         <v>102</v>
       </c>
       <c r="F39">
-        <v>12999</v>
+        <v>60000</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K39">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="S39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AB39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD39" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE39" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AH39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AI39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AL39">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM39">
         <v>75</v>
       </c>
       <c r="AN39">
+        <v>180</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40">
+        <v>49999</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40">
+        <v>253</v>
+      </c>
+      <c r="S40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH40" t="s">
         <v>160</v>
       </c>
-      <c r="AP39" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>164</v>
+      <c r="AI40" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL40">
+        <v>95</v>
+      </c>
+      <c r="AM40">
+        <v>73</v>
+      </c>
+      <c r="AN40">
+        <v>200</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41">
+        <v>59999</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41">
+        <v>252</v>
+      </c>
+      <c r="S41" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL41">
+        <v>90</v>
+      </c>
+      <c r="AM41">
+        <v>73</v>
+      </c>
+      <c r="AN41">
+        <v>185</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4820,19 +5052,22 @@
     <hyperlink ref="I31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="G32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="I32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G34" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G35" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G36" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="I36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="G37" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="I37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="I38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G39" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G39" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I39" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G40" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I40" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G41" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I41" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/director office.xlsx
+++ b/make_xl/data_xl/director office.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="179">
   <si>
     <t>Address</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Стол руководителя</t>
+  </si>
+  <si>
+    <t>Стол руководителя с брифингом</t>
   </si>
   <si>
     <t>Стол с тумбой
@@ -1184,6 +1187,131 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол для переговоров
+Артикул 258
+Стол для переговорной либо столовой в хорошем состоянии. Вмещает до 4 человек. 
+Размеры ДхШхВ: 160х100х75
+Цвет белый
+Цена 11 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол круглый
+Артикул 2513
+Размеры ДхШхВ: 120х120х73
+Цвет Шимо
+Цена 11 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+  